--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H2" t="n">
         <v>3.65</v>
       </c>
       <c r="I2" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -712,13 +712,13 @@
         <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
         <v>1.31</v>
       </c>
       <c r="W2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X2" t="n">
         <v>20</v>
@@ -745,10 +745,10 @@
         <v>70</v>
       </c>
       <c r="AF2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
         <v>25</v>
@@ -760,10 +760,10 @@
         <v>40</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="G3" t="n">
         <v>4.3</v>
@@ -817,7 +817,7 @@
         <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -844,7 +844,7 @@
         <v>2.38</v>
       </c>
       <c r="T3" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
         <v>2.26</v>
@@ -865,7 +865,7 @@
         <v>20</v>
       </c>
       <c r="AA3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="n">
         <v>28</v>
@@ -937,40 +937,40 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R4" t="n">
         <v>1.47</v>
@@ -979,64 +979,64 @@
         <v>2.88</v>
       </c>
       <c r="T4" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
         <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="W4" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X4" t="n">
         <v>17.5</v>
       </c>
       <c r="Y4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE4" t="n">
         <v>1000</v>
       </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI4" t="n">
         <v>55</v>
       </c>
-      <c r="AF4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN4" t="n">
         <v>11</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="G5" t="n">
         <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I5" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1102,13 +1102,13 @@
         <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="S5" t="n">
         <v>2.68</v>
@@ -1120,7 +1120,7 @@
         <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W5" t="n">
         <v>1.48</v>
@@ -1138,7 +1138,7 @@
         <v>40</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC5" t="n">
         <v>10.5</v>
@@ -1165,7 +1165,7 @@
         <v>50</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
         <v>42</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="G6" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="I6" t="n">
         <v>1.72</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q6" t="n">
         <v>1.46</v>
@@ -1351,7 +1351,7 @@
         <v>4.3</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J7" t="n">
         <v>3.85</v>
@@ -1360,34 +1360,34 @@
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S7" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
         <v>1.28</v>
@@ -1402,13 +1402,13 @@
         <v>19</v>
       </c>
       <c r="Z7" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="n">
         <v>120</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC7" t="n">
         <v>9</v>
@@ -1417,7 +1417,7 @@
         <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="n">
         <v>14.5</v>
@@ -1429,7 +1429,7 @@
         <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
         <v>25</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G8" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="H8" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="I8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
         <v>5.2</v>
       </c>
       <c r="K8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
         <v>1.54</v>
@@ -1636,7 +1636,7 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.38</v>
@@ -1693,10 +1693,10 @@
         <v>38</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>48</v>
@@ -1717,7 +1717,7 @@
         <v>90</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="10">
@@ -1750,10 +1750,10 @@
         <v>3.65</v>
       </c>
       <c r="G10" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I10" t="n">
         <v>2.32</v>
@@ -1762,7 +1762,7 @@
         <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.36</v>
+        <v>1.04</v>
       </c>
       <c r="G12" t="n">
-        <v>1.54</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>1.22</v>
+        <v>1.04</v>
       </c>
       <c r="I12" t="n">
         <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="K12" t="n">
-        <v>5.4</v>
+        <v>980</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.38</v>
+        <v>1.04</v>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>2.62</v>
+        <v>1.04</v>
       </c>
       <c r="I13" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="K13" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.32</v>
+        <v>1.04</v>
       </c>
       <c r="G15" t="n">
-        <v>2.98</v>
+        <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>2.78</v>
+        <v>1.01</v>
       </c>
       <c r="K15" t="n">
-        <v>3.65</v>
+        <v>980</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.59</v>
+        <v>1.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="G16" t="n">
-        <v>2.24</v>
+        <v>1000</v>
       </c>
       <c r="H16" t="n">
-        <v>3.35</v>
+        <v>1.04</v>
       </c>
       <c r="I16" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>2.94</v>
+        <v>1.01</v>
       </c>
       <c r="K16" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G18" t="n">
         <v>1.98</v>
@@ -2839,10 +2839,10 @@
         <v>4.7</v>
       </c>
       <c r="J18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.65</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2869,10 +2869,10 @@
         <v>4.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U18" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Z18" t="n">
         <v>34</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G19" t="n">
         <v>2.08</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I19" t="n">
         <v>4.8</v>
@@ -2995,7 +2995,7 @@
         <v>1.65</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R19" t="n">
         <v>1.24</v>
@@ -3004,7 +3004,7 @@
         <v>4.8</v>
       </c>
       <c r="T19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U19" t="n">
         <v>1.84</v>
@@ -3046,7 +3046,7 @@
         <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI19" t="n">
         <v>110</v>
@@ -3109,7 +3109,7 @@
         <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
         <v>4.4</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>1.92</v>
       </c>
       <c r="J21" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K21" t="n">
         <v>3.9</v>
@@ -3262,7 +3262,7 @@
         <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q21" t="n">
         <v>1.86</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G22" t="n">
         <v>1.84</v>
@@ -3376,7 +3376,7 @@
         <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J22" t="n">
         <v>3.85</v>
@@ -3409,7 +3409,7 @@
         <v>3.15</v>
       </c>
       <c r="T22" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U22" t="n">
         <v>2.18</v>
@@ -3517,7 +3517,7 @@
         <v>3.6</v>
       </c>
       <c r="K23" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>1.68</v>
       </c>
       <c r="U23" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>2.38</v>
       </c>
       <c r="I24" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J24" t="n">
         <v>3.8</v>
@@ -3775,7 +3775,7 @@
         <v>2.18</v>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H25" t="n">
         <v>4</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G26" t="n">
         <v>1.74</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>10</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J28" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="K28" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4213,10 +4213,10 @@
         <v>1.33</v>
       </c>
       <c r="R28" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S28" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="T28" t="n">
         <v>1.58</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G30" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="I30" t="n">
         <v>4.9</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q30" t="n">
         <v>1.97</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G31" t="n">
         <v>2.42</v>
@@ -4591,7 +4591,7 @@
         <v>3.35</v>
       </c>
       <c r="I31" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J31" t="n">
         <v>3.3</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q31" t="n">
         <v>2.08</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G32" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="J32" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G33" t="n">
         <v>4.3</v>
@@ -4861,7 +4861,7 @@
         <v>2.06</v>
       </c>
       <c r="I33" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J33" t="n">
         <v>3.4</v>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G34" t="n">
         <v>2.38</v>
       </c>
       <c r="H34" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="I34" t="n">
         <v>3.5</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="G35" t="n">
         <v>8</v>
       </c>
       <c r="H35" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="I35" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="J35" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="K35" t="n">
         <v>5.6</v>
@@ -5257,19 +5257,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="G36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="I36" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K36" t="n">
         <v>6</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>1.52</v>
       </c>
       <c r="G37" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H37" t="n">
         <v>7.6</v>
@@ -5422,22 +5422,22 @@
         <v>1.31</v>
       </c>
       <c r="P37" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R37" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S37" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T37" t="n">
         <v>2.12</v>
       </c>
       <c r="U37" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -5455,7 +5455,7 @@
         <v>70</v>
       </c>
       <c r="AA37" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AB37" t="n">
         <v>7.8</v>
@@ -5467,7 +5467,7 @@
         <v>29</v>
       </c>
       <c r="AE37" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF37" t="n">
         <v>8.199999999999999</v>
@@ -5485,19 +5485,19 @@
         <v>13</v>
       </c>
       <c r="AK37" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL37" t="n">
         <v>42</v>
       </c>
       <c r="AM37" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN37" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AO37" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38">
@@ -5530,10 +5530,10 @@
         <v>2.08</v>
       </c>
       <c r="G38" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H38" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I38" t="n">
         <v>4.5</v>
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="G39" t="n">
         <v>3.15</v>
       </c>
       <c r="H39" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I39" t="n">
         <v>2.72</v>
@@ -5677,7 +5677,7 @@
         <v>3.3</v>
       </c>
       <c r="K39" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G41" t="n">
         <v>1.27</v>
@@ -5941,13 +5941,13 @@
         <v>12</v>
       </c>
       <c r="I41" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="J41" t="n">
         <v>7.4</v>
       </c>
       <c r="K41" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q41" t="n">
         <v>1.31</v>
@@ -6214,7 +6214,7 @@
         <v>2.1</v>
       </c>
       <c r="J43" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K43" t="n">
         <v>3.85</v>
@@ -6235,7 +6235,7 @@
         <v>1.93</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G47" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H47" t="n">
         <v>6.6</v>
       </c>
       <c r="I47" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J47" t="n">
         <v>4.2</v>
       </c>
       <c r="K47" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6766,13 +6766,13 @@
         <v>1.07</v>
       </c>
       <c r="N47" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O47" t="n">
         <v>1.35</v>
       </c>
       <c r="P47" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q47" t="n">
         <v>2.02</v>
@@ -6784,7 +6784,7 @@
         <v>3.65</v>
       </c>
       <c r="T47" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U47" t="n">
         <v>1.83</v>
@@ -6805,7 +6805,7 @@
         <v>1000</v>
       </c>
       <c r="AA47" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AB47" t="n">
         <v>7.6</v>
@@ -6820,7 +6820,7 @@
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG47" t="n">
         <v>12</v>
@@ -6841,10 +6841,10 @@
         <v>55</v>
       </c>
       <c r="AM47" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN47" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -6883,7 +6883,7 @@
         <v>3.3</v>
       </c>
       <c r="H48" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="I48" t="n">
         <v>3.15</v>
@@ -6892,7 +6892,7 @@
         <v>2.78</v>
       </c>
       <c r="K48" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -6907,10 +6907,10 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -7018,10 +7018,10 @@
         <v>1.18</v>
       </c>
       <c r="H49" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I49" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="J49" t="n">
         <v>9</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
         <v>2.02</v>
@@ -7327,7 +7327,7 @@
         <v>1.52</v>
       </c>
       <c r="U51" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -7417,13 +7417,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G52" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H52" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I52" t="n">
         <v>1000</v>
@@ -7432,7 +7432,7 @@
         <v>5.8</v>
       </c>
       <c r="K52" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="Q52" t="n">
         <v>1.4</v>
@@ -7558,13 +7558,13 @@
         <v>8</v>
       </c>
       <c r="H53" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="I53" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="J53" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K53" t="n">
         <v>5.1</v>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q53" t="n">
         <v>1.73</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G54" t="n">
         <v>2.5</v>
@@ -7717,13 +7717,13 @@
         <v>1.4</v>
       </c>
       <c r="P54" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q54" t="n">
         <v>2.22</v>
       </c>
       <c r="R54" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S54" t="n">
         <v>4.1</v>
@@ -7783,7 +7783,7 @@
         <v>30</v>
       </c>
       <c r="AL54" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM54" t="n">
         <v>140</v>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G55" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="H55" t="n">
         <v>3.2</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="Q55" t="n">
         <v>3</v>
@@ -7966,7 +7966,7 @@
         <v>3.9</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="J56" t="n">
         <v>3.2</v>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q56" t="n">
         <v>2.22</v>
@@ -8092,19 +8092,19 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G57" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H57" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I57" t="n">
         <v>14</v>
       </c>
       <c r="J57" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="K57" t="n">
         <v>7</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G58" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H58" t="n">
         <v>3.45</v>
       </c>
       <c r="I58" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J58" t="n">
         <v>3.6</v>
       </c>
       <c r="K58" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="G60" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H60" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I60" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="J60" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K60" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -8530,13 +8530,13 @@
         <v>2</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R60" t="n">
         <v>1.39</v>
       </c>
       <c r="S60" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T60" t="n">
         <v>1.84</v>
@@ -8566,7 +8566,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC60" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD60" t="n">
         <v>23</v>
@@ -8635,7 +8635,7 @@
         <v>1.67</v>
       </c>
       <c r="G61" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="H61" t="n">
         <v>5.2</v>
@@ -8644,7 +8644,7 @@
         <v>5.8</v>
       </c>
       <c r="J61" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K61" t="n">
         <v>4.5</v>
@@ -8773,7 +8773,7 @@
         <v>1.79</v>
       </c>
       <c r="H62" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I62" t="n">
         <v>5.7</v>
@@ -8905,7 +8905,7 @@
         <v>2.28</v>
       </c>
       <c r="G63" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H63" t="n">
         <v>3.8</v>
@@ -8932,10 +8932,10 @@
         <v>1.41</v>
       </c>
       <c r="P63" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R63" t="n">
         <v>1.29</v>
@@ -8944,7 +8944,7 @@
         <v>4.2</v>
       </c>
       <c r="T63" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U63" t="n">
         <v>2.02</v>
@@ -8974,7 +8974,7 @@
         <v>7.2</v>
       </c>
       <c r="AD63" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE63" t="n">
         <v>55</v>
@@ -8989,13 +8989,13 @@
         <v>20</v>
       </c>
       <c r="AI63" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ63" t="n">
         <v>32</v>
       </c>
       <c r="AK63" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL63" t="n">
         <v>55</v>
@@ -9043,13 +9043,13 @@
         <v>2</v>
       </c>
       <c r="H64" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I64" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J64" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K64" t="n">
         <v>3.95</v>
@@ -9067,10 +9067,10 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
@@ -676,7 +676,7 @@
         <v>3.65</v>
       </c>
       <c r="I2" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -685,88 +685,88 @@
         <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>1.88</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.32</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.31</v>
       </c>
       <c r="W2" t="n">
         <v>1.8</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
@@ -826,13 +826,13 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.32</v>
+        <v>1.04</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="Q3" t="n">
         <v>1.2</v>
@@ -841,7 +841,7 @@
         <v>1.2</v>
       </c>
       <c r="S3" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G4" t="n">
         <v>1.89</v>
@@ -970,7 +970,7 @@
         <v>2.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R4" t="n">
         <v>1.47</v>
@@ -1003,7 +1003,7 @@
         <v>100</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
         <v>9.199999999999999</v>
@@ -1012,7 +1012,7 @@
         <v>17.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
         <v>12.5</v>
@@ -1042,7 +1042,7 @@
         <v>11</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -1087,10 +1087,10 @@
         <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1111,73 +1111,73 @@
         <v>1.52</v>
       </c>
       <c r="S5" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T5" t="n">
         <v>1.6</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="V5" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W5" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X5" t="n">
         <v>19</v>
       </c>
       <c r="Y5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="n">
         <v>16</v>
       </c>
-      <c r="Z5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AF5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
         <v>32</v>
       </c>
       <c r="AL5" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="6">
@@ -1210,7 +1210,7 @@
         <v>5.1</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H6" t="n">
         <v>1.56</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="Q6" t="n">
         <v>1.46</v>
@@ -1360,7 +1360,7 @@
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1378,13 +1378,13 @@
         <v>1.9</v>
       </c>
       <c r="R7" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
         <v>2.1</v>
@@ -1417,7 +1417,7 @@
         <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF7" t="n">
         <v>14.5</v>
@@ -1429,7 +1429,7 @@
         <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
         <v>25</v>
@@ -1438,16 +1438,16 @@
         <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="G8" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="H8" t="n">
-        <v>8.4</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
         <v>1000</v>
@@ -1492,7 +1492,7 @@
         <v>5.2</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.26</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
         <v>1.54</v>
@@ -1636,28 +1636,28 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O9" t="n">
         <v>1.38</v>
       </c>
       <c r="P9" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R9" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U9" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1672,13 +1672,13 @@
         <v>8</v>
       </c>
       <c r="Z9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
         <v>23</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC9" t="n">
         <v>7.8</v>
@@ -1687,10 +1687,10 @@
         <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="n">
         <v>18.5</v>
@@ -1699,7 +1699,7 @@
         <v>20</v>
       </c>
       <c r="AI9" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ9" t="n">
         <v>130</v>
@@ -1708,13 +1708,13 @@
         <v>65</v>
       </c>
       <c r="AL9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN9" t="n">
         <v>85</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>90</v>
       </c>
       <c r="AO9" t="n">
         <v>17.5</v>
@@ -1756,13 +1756,13 @@
         <v>2.08</v>
       </c>
       <c r="I10" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="J10" t="n">
         <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.04</v>
+        <v>1.37</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>1.53</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>980</v>
+        <v>5.3</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>2.84</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="J13" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>2.92</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="K15" t="n">
-        <v>980</v>
+        <v>3.45</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>1.61</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.04</v>
+        <v>2.62</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="H17" t="n">
-        <v>1.04</v>
+        <v>2.74</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="J17" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G18" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H18" t="n">
         <v>4.6</v>
@@ -2839,10 +2839,10 @@
         <v>4.7</v>
       </c>
       <c r="J18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.6</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,13 +2857,13 @@
         <v>1.4</v>
       </c>
       <c r="P18" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q18" t="n">
         <v>2.18</v>
       </c>
       <c r="R18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S18" t="n">
         <v>4.1</v>
@@ -2872,7 +2872,7 @@
         <v>1.93</v>
       </c>
       <c r="U18" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,55 +2881,55 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z18" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC18" t="n">
         <v>8</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN18" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G19" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J19" t="n">
         <v>3.3</v>
       </c>
       <c r="K19" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O19" t="n">
         <v>1.47</v>
@@ -3004,10 +3004,10 @@
         <v>4.8</v>
       </c>
       <c r="T19" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U19" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
         <v>13.5</v>
@@ -3034,7 +3034,7 @@
         <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
@@ -3049,7 +3049,7 @@
         <v>27</v>
       </c>
       <c r="AI19" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AJ19" t="n">
         <v>980</v>
@@ -3106,10 +3106,10 @@
         <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
         <v>4.4</v>
@@ -3130,7 +3130,7 @@
         <v>2.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>1.84</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I22" t="n">
         <v>5.2</v>
@@ -3382,7 +3382,7 @@
         <v>3.85</v>
       </c>
       <c r="K22" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3409,7 +3409,7 @@
         <v>3.15</v>
       </c>
       <c r="T22" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U22" t="n">
         <v>2.18</v>
@@ -3433,7 +3433,7 @@
         <v>140</v>
       </c>
       <c r="AB22" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC22" t="n">
         <v>8.4</v>
@@ -3508,10 +3508,10 @@
         <v>3.15</v>
       </c>
       <c r="H23" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I23" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J23" t="n">
         <v>3.6</v>
@@ -3544,10 +3544,10 @@
         <v>3.05</v>
       </c>
       <c r="T23" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U23" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>12.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA23" t="n">
         <v>34</v>
@@ -3583,7 +3583,7 @@
         <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH23" t="n">
         <v>16</v>
@@ -3592,10 +3592,10 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK23" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AL23" t="n">
         <v>50</v>
@@ -3667,22 +3667,22 @@
         <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R24" t="n">
         <v>1.61</v>
       </c>
       <c r="S24" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T24" t="n">
         <v>1.56</v>
       </c>
       <c r="U24" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y24" t="n">
         <v>15</v>
@@ -3700,19 +3700,19 @@
         <v>18.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="n">
         <v>18</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
         <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF24" t="n">
         <v>26</v>
@@ -3727,7 +3727,7 @@
         <v>32</v>
       </c>
       <c r="AJ24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK24" t="n">
         <v>32</v>
@@ -3799,7 +3799,7 @@
         <v>3.15</v>
       </c>
       <c r="O25" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P25" t="n">
         <v>1.72</v>
@@ -3841,7 +3841,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD25" t="n">
         <v>17</v>
@@ -3910,10 +3910,10 @@
         <v>1.61</v>
       </c>
       <c r="G26" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="H26" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="I26" t="n">
         <v>6.8</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.94</v>
+        <v>1.79</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>1.76</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>6.2</v>
       </c>
       <c r="K28" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="O28" t="n">
         <v>1.12</v>
@@ -4210,19 +4210,19 @@
         <v>3.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="R28" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S28" t="n">
         <v>1.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>980</v>
       </c>
       <c r="Y28" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Z28" t="n">
         <v>140</v>
@@ -4246,43 +4246,43 @@
         <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
         <v>980</v>
       </c>
       <c r="AE28" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG28" t="n">
         <v>1000</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>13.5</v>
       </c>
       <c r="AH28" t="n">
         <v>980</v>
       </c>
       <c r="AI28" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL28" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM28" t="n">
         <v>110</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO28" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29">
@@ -4315,19 +4315,19 @@
         <v>2.02</v>
       </c>
       <c r="G29" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I29" t="n">
         <v>4.1</v>
       </c>
       <c r="J29" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K29" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4345,7 +4345,7 @@
         <v>1.98</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4450,16 +4450,16 @@
         <v>2.06</v>
       </c>
       <c r="G30" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="H30" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
         <v>4.9</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K30" t="n">
         <v>4.2</v>
@@ -4480,7 +4480,7 @@
         <v>1.72</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G31" t="n">
         <v>2.42</v>
@@ -4591,10 +4591,10 @@
         <v>3.35</v>
       </c>
       <c r="I31" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
         <v>3.6</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G32" t="n">
         <v>3.2</v>
       </c>
       <c r="H32" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I32" t="n">
         <v>2.96</v>
@@ -4750,7 +4750,7 @@
         <v>1.74</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4855,10 +4855,10 @@
         <v>3.95</v>
       </c>
       <c r="G33" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="H33" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I33" t="n">
         <v>2.2</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -5020,7 +5020,7 @@
         <v>2.44</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5125,7 +5125,7 @@
         <v>4.8</v>
       </c>
       <c r="G35" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="H35" t="n">
         <v>1.5</v>
@@ -5134,7 +5134,7 @@
         <v>1.63</v>
       </c>
       <c r="J35" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="K35" t="n">
         <v>5.6</v>
@@ -5155,7 +5155,7 @@
         <v>2.72</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G36" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="H36" t="n">
         <v>1.36</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G37" t="n">
         <v>1.53</v>
@@ -5425,7 +5425,7 @@
         <v>2.02</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R37" t="n">
         <v>1.39</v>
@@ -5434,7 +5434,7 @@
         <v>3.4</v>
       </c>
       <c r="T37" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U37" t="n">
         <v>1.85</v>
@@ -5530,7 +5530,7 @@
         <v>2.08</v>
       </c>
       <c r="G38" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="H38" t="n">
         <v>3.6</v>
@@ -5965,7 +5965,7 @@
         <v>3.55</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G42" t="n">
         <v>5.3</v>
@@ -6076,13 +6076,13 @@
         <v>1.77</v>
       </c>
       <c r="I42" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="J42" t="n">
         <v>3.6</v>
       </c>
       <c r="K42" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H43" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="I43" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="J43" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K43" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q43" t="n">
         <v>1.86</v>
@@ -6337,19 +6337,19 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G44" t="n">
         <v>4.6</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I44" t="n">
         <v>2.26</v>
       </c>
       <c r="J44" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="K44" t="n">
         <v>4.1</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6748,10 +6748,10 @@
         <v>1.62</v>
       </c>
       <c r="H47" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J47" t="n">
         <v>4.2</v>
@@ -6772,7 +6772,7 @@
         <v>1.35</v>
       </c>
       <c r="P47" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q47" t="n">
         <v>2.02</v>
@@ -6805,10 +6805,10 @@
         <v>1000</v>
       </c>
       <c r="AA47" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AB47" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC47" t="n">
         <v>9.6</v>
@@ -6820,22 +6820,22 @@
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG47" t="n">
         <v>12</v>
       </c>
       <c r="AH47" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI47" t="n">
         <v>130</v>
       </c>
       <c r="AJ47" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL47" t="n">
         <v>55</v>
@@ -6844,7 +6844,7 @@
         <v>190</v>
       </c>
       <c r="AN47" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -6877,19 +6877,19 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="G48" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H48" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I48" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J48" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="K48" t="n">
         <v>3.3</v>
@@ -6910,7 +6910,7 @@
         <v>1.67</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -7018,10 +7018,10 @@
         <v>1.18</v>
       </c>
       <c r="H49" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="I49" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="J49" t="n">
         <v>9</v>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G50" t="n">
         <v>2.92</v>
@@ -7162,7 +7162,7 @@
         <v>3.25</v>
       </c>
       <c r="K50" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -7177,10 +7177,10 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1.88</v>
+        <v>1.16</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -7285,7 +7285,7 @@
         <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H51" t="n">
         <v>3.75</v>
@@ -7327,7 +7327,7 @@
         <v>1.52</v>
       </c>
       <c r="U51" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -7564,10 +7564,10 @@
         <v>1.61</v>
       </c>
       <c r="J53" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K53" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>2.12</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G54" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H54" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I54" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J54" t="n">
         <v>3.35</v>
@@ -7729,7 +7729,7 @@
         <v>4.1</v>
       </c>
       <c r="T54" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U54" t="n">
         <v>2.04</v>
@@ -7783,7 +7783,7 @@
         <v>30</v>
       </c>
       <c r="AL54" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM54" t="n">
         <v>140</v>
@@ -7792,7 +7792,7 @@
         <v>26</v>
       </c>
       <c r="AO54" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55">
@@ -7825,7 +7825,7 @@
         <v>2.66</v>
       </c>
       <c r="G55" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H55" t="n">
         <v>3.2</v>
@@ -7834,10 +7834,10 @@
         <v>3.55</v>
       </c>
       <c r="J55" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="K55" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>1.41</v>
       </c>
       <c r="Q55" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7960,7 +7960,7 @@
         <v>2.06</v>
       </c>
       <c r="G56" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="H56" t="n">
         <v>3.9</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.69</v>
+        <v>1.25</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8104,10 +8104,10 @@
         <v>14</v>
       </c>
       <c r="J57" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K57" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8230,37 +8230,37 @@
         <v>1.71</v>
       </c>
       <c r="G58" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I58" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K58" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
         <v>2.12</v>
       </c>
-      <c r="H58" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K58" t="n">
-        <v>8</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2.18</v>
-      </c>
       <c r="Q58" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>10.5</v>
       </c>
       <c r="K59" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>4.4</v>
+        <v>1.25</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="G60" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I60" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="J60" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K60" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -8521,28 +8521,28 @@
         <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O60" t="n">
         <v>1.29</v>
       </c>
       <c r="P60" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="R60" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S60" t="n">
         <v>3.2</v>
       </c>
       <c r="T60" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U60" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -8554,10 +8554,10 @@
         <v>16</v>
       </c>
       <c r="Y60" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA60" t="n">
         <v>180</v>
@@ -8566,7 +8566,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC60" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD60" t="n">
         <v>23</v>
@@ -8575,7 +8575,7 @@
         <v>1000</v>
       </c>
       <c r="AF60" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG60" t="n">
         <v>10.5</v>
@@ -8590,7 +8590,7 @@
         <v>18</v>
       </c>
       <c r="AK60" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL60" t="n">
         <v>38</v>
@@ -8599,10 +8599,10 @@
         <v>140</v>
       </c>
       <c r="AN60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO60" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G61" t="n">
         <v>1.78</v>
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q61" t="n">
         <v>1.7</v>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G62" t="n">
         <v>1.79</v>
@@ -8797,10 +8797,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>1.09</v>
       </c>
       <c r="N63" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O63" t="n">
         <v>1.41</v>
@@ -8962,7 +8962,7 @@
         <v>13</v>
       </c>
       <c r="Z63" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA63" t="n">
         <v>1000</v>
@@ -8974,7 +8974,7 @@
         <v>7.2</v>
       </c>
       <c r="AD63" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE63" t="n">
         <v>55</v>
@@ -8986,28 +8986,28 @@
         <v>11</v>
       </c>
       <c r="AH63" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI63" t="n">
         <v>1000</v>
       </c>
       <c r="AJ63" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK63" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL63" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM63" t="n">
         <v>120</v>
       </c>
       <c r="AN63" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AO63" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64">
@@ -9070,7 +9070,7 @@
         <v>1.92</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G2" t="n">
         <v>2.24</v>
@@ -685,7 +685,7 @@
         <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -697,70 +697,70 @@
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W2" t="n">
         <v>1.8</v>
       </c>
       <c r="X2" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
         <v>85</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>980</v>
@@ -769,7 +769,7 @@
         <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -805,10 +805,10 @@
         <v>3.75</v>
       </c>
       <c r="G3" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="I3" t="n">
         <v>2.04</v>
@@ -817,7 +817,7 @@
         <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -832,19 +832,19 @@
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="S3" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="U3" t="n">
         <v>2.26</v>
@@ -856,22 +856,22 @@
         <v>1.31</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="n">
         <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="n">
         <v>28</v>
       </c>
       <c r="AC3" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD3" t="n">
         <v>15.5</v>
@@ -883,13 +883,13 @@
         <v>48</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH3" t="n">
         <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
         <v>100</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="G4" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
         <v>4.2</v>
       </c>
-      <c r="I4" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -961,88 +961,88 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W4" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
         <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="n">
         <v>100</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL4" t="n">
         <v>30</v>
       </c>
       <c r="AM4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I5" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
         <v>4.1</v>
@@ -1102,28 +1102,28 @@
         <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q5" t="n">
         <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T5" t="n">
         <v>1.6</v>
       </c>
       <c r="U5" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X5" t="n">
         <v>19</v>
@@ -1144,7 +1144,7 @@
         <v>9.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>25</v>
@@ -1153,7 +1153,7 @@
         <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
         <v>16.5</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G6" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="I6" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K6" t="n">
         <v>5.3</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,118 +1342,118 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="G7" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="H7" t="n">
         <v>4.3</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
         <v>3.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
         <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="X7" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z7" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AE7" t="n">
         <v>60</v>
       </c>
       <c r="AF7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="n">
         <v>13.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>BG Pathumthani United</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.22</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>1.41</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>2.18</v>
       </c>
       <c r="I8" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X8" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN8" t="n">
         <v>1000</v>
       </c>
-      <c r="J8" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>980</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,66 +1598,66 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Oviedo</t>
+          <t>Port FC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Sukhothai</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>1.36</v>
       </c>
       <c r="G9" t="n">
-        <v>4.7</v>
+        <v>1.46</v>
       </c>
       <c r="H9" t="n">
-        <v>1.96</v>
+        <v>5.7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.98</v>
+        <v>12.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.22</v>
+        <v>1.55</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,64 +1666,64 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Chiangrai Utd</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.65</v>
+        <v>1.87</v>
       </c>
       <c r="G10" t="n">
-        <v>4.1</v>
+        <v>2.14</v>
       </c>
       <c r="H10" t="n">
-        <v>2.08</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>2.26</v>
+        <v>5.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>3.85</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>3.45</v>
       </c>
       <c r="I11" t="n">
         <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>1.03</v>
+        <v>5.3</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,66 +2003,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Oviedo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.37</v>
+        <v>4.5</v>
       </c>
       <c r="G12" t="n">
-        <v>1.53</v>
+        <v>4.6</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>1.97</v>
       </c>
       <c r="I12" t="n">
-        <v>15.5</v>
+        <v>1.98</v>
       </c>
       <c r="J12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S12" t="n">
         <v>4.1</v>
       </c>
-      <c r="K12" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,36 +2138,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I13" t="n">
         <v>2.28</v>
       </c>
-      <c r="G13" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.6</v>
-      </c>
       <c r="J13" t="n">
-        <v>2.68</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>1.87</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,36 +2273,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sassari Torres</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.4</v>
+        <v>1.37</v>
       </c>
       <c r="G15" t="n">
-        <v>2.92</v>
+        <v>1.51</v>
       </c>
       <c r="H15" t="n">
-        <v>3.15</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>3.65</v>
+        <v>15.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.96</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>5.3</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>1.79</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Sassari Torres</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.61</v>
+        <v>1.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2683,49 +2683,49 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>US Latina Calcio</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.62</v>
+        <v>2.32</v>
       </c>
       <c r="G17" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="H17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2.74</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.01</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,66 +2813,66 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>US Latina Calcio</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="G18" t="n">
-        <v>1.99</v>
+        <v>3.55</v>
       </c>
       <c r="H18" t="n">
-        <v>4.6</v>
+        <v>2.62</v>
       </c>
       <c r="I18" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>2.52</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="R18" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,64 +2881,64 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,66 +2948,66 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="G19" t="n">
-        <v>2.06</v>
+        <v>3.05</v>
       </c>
       <c r="H19" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>2.74</v>
       </c>
       <c r="K19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>1.65</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="R19" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,64 +3016,64 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,36 +3083,36 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="G20" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>5.7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.3</v>
+        <v>1.69</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.61</v>
+        <v>2.16</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,66 +3218,66 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.4</v>
+        <v>1.99</v>
       </c>
       <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
         <v>4.6</v>
       </c>
-      <c r="H21" t="n">
-        <v>1.91</v>
-      </c>
       <c r="I21" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.92</v>
       </c>
-      <c r="J21" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.77</v>
-      </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,64 +3286,64 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Z21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
         <v>12</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AG21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN21" t="n">
         <v>22</v>
       </c>
-      <c r="AB21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>55</v>
-      </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,67 +3353,67 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.83</v>
       </c>
-      <c r="G22" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.18</v>
-      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
@@ -3421,64 +3421,64 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE22" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG22" t="n">
         <v>11.5</v>
       </c>
-      <c r="AG22" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH22" t="n">
-        <v>18.5</v>
+        <v>36</v>
       </c>
       <c r="AI22" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AL22" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,66 +3488,66 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.05</v>
+        <v>2.02</v>
       </c>
       <c r="G23" t="n">
-        <v>3.15</v>
+        <v>2.28</v>
       </c>
       <c r="H23" t="n">
-        <v>2.46</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>2.52</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="R23" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3556,58 +3556,58 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3628,28 +3628,28 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="G24" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="H24" t="n">
-        <v>2.38</v>
+        <v>1.9</v>
       </c>
       <c r="I24" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="J24" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K24" t="n">
         <v>3.9</v>
@@ -3658,31 +3658,31 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="P24" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.63</v>
+        <v>1.86</v>
       </c>
       <c r="R24" t="n">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="S24" t="n">
-        <v>2.54</v>
+        <v>3.15</v>
       </c>
       <c r="T24" t="n">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="U24" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3691,58 +3691,58 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AA24" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AB24" t="n">
         <v>18</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO24" t="n">
         <v>12</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -3763,62 +3763,62 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U25" t="n">
         <v>2.18</v>
       </c>
-      <c r="G25" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.94</v>
-      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
@@ -3826,64 +3826,64 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>990</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN25" t="n">
         <v>11</v>
       </c>
-      <c r="Y25" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>24</v>
-      </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,66 +3893,66 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.61</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>1.78</v>
+        <v>3.05</v>
       </c>
       <c r="H26" t="n">
-        <v>5.7</v>
+        <v>2.52</v>
       </c>
       <c r="I26" t="n">
-        <v>6.8</v>
+        <v>2.54</v>
       </c>
       <c r="J26" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>1.79</v>
+        <v>2.14</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3961,64 +3961,64 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,66 +4028,66 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.16</v>
+        <v>3.15</v>
       </c>
       <c r="G27" t="n">
-        <v>2.32</v>
+        <v>3.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.7</v>
+        <v>2.34</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>2.36</v>
       </c>
       <c r="J27" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="K27" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>1.76</v>
+        <v>2.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4096,64 +4096,64 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,126 +4163,126 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.31</v>
+        <v>2.22</v>
       </c>
       <c r="G28" t="n">
-        <v>1.33</v>
+        <v>2.24</v>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>3.9</v>
       </c>
       <c r="I28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y28" t="n">
         <v>12.5</v>
       </c>
-      <c r="J28" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="Z28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC28" t="n">
         <v>7.2</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N28" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA28" t="n">
+      <c r="AD28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL28" t="n">
         <v>1000</v>
       </c>
-      <c r="AB28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>980</v>
-      </c>
       <c r="AM28" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.6</v>
+        <v>24</v>
       </c>
       <c r="AO28" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -4303,31 +4303,31 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="H29" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="I29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="K29" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.72</v>
+        <v>2.08</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,61 +4438,61 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Arbroath</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.06</v>
+        <v>1.31</v>
       </c>
       <c r="G30" t="n">
-        <v>2.34</v>
+        <v>1.33</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>10</v>
       </c>
       <c r="I30" t="n">
-        <v>4.9</v>
+        <v>12</v>
       </c>
       <c r="J30" t="n">
-        <v>3.15</v>
+        <v>6.2</v>
       </c>
       <c r="K30" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P30" t="n">
-        <v>1.72</v>
+        <v>3.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.08</v>
+        <v>1.31</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4501,58 +4501,58 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31">
@@ -4573,32 +4573,32 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="G31" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="H31" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="I31" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K31" t="n">
         <v>3.8</v>
       </c>
-      <c r="J31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.25</v>
+        <v>1.98</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,28 +4708,28 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.78</v>
+        <v>2.26</v>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>2.42</v>
       </c>
       <c r="H32" t="n">
-        <v>2.58</v>
+        <v>3.35</v>
       </c>
       <c r="I32" t="n">
-        <v>2.96</v>
+        <v>3.95</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K32" t="n">
         <v>3.6</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.74</v>
+        <v>1.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,31 +4843,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.95</v>
+        <v>1.61</v>
       </c>
       <c r="G33" t="n">
-        <v>4.7</v>
+        <v>1.78</v>
       </c>
       <c r="H33" t="n">
-        <v>2.04</v>
+        <v>5.7</v>
       </c>
       <c r="I33" t="n">
-        <v>2.2</v>
+        <v>6.8</v>
       </c>
       <c r="J33" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="K33" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.14</v>
+        <v>1.84</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,31 +4978,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Arbroath</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="G34" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="H34" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="J34" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="K34" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.44</v>
+        <v>1.71</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.54</v>
+        <v>2.12</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,31 +5113,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4.8</v>
+        <v>9</v>
       </c>
       <c r="G35" t="n">
-        <v>6.8</v>
+        <v>13</v>
       </c>
       <c r="H35" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="I35" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="J35" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="K35" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.72</v>
+        <v>1.25</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5248,31 +5248,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>8.6</v>
+        <v>2.74</v>
       </c>
       <c r="G36" t="n">
-        <v>12.5</v>
+        <v>3.15</v>
       </c>
       <c r="H36" t="n">
-        <v>1.36</v>
+        <v>2.66</v>
       </c>
       <c r="I36" t="n">
-        <v>1.45</v>
+        <v>3.05</v>
       </c>
       <c r="J36" t="n">
-        <v>4.9</v>
+        <v>3.05</v>
       </c>
       <c r="K36" t="n">
-        <v>6</v>
+        <v>3.55</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,66 +5378,66 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.51</v>
+        <v>3.8</v>
       </c>
       <c r="G37" t="n">
-        <v>1.53</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>7.6</v>
+        <v>2.06</v>
       </c>
       <c r="I37" t="n">
-        <v>8.199999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="J37" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.92</v>
+        <v>2.16</v>
       </c>
       <c r="R37" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -5446,64 +5446,64 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AJ37" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AK37" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AM37" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AO37" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,37 +5513,37 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="G38" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H38" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K38" t="n">
         <v>4.5</v>
       </c>
-      <c r="J38" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.86</v>
+        <v>2.44</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,36 +5648,36 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.82</v>
+        <v>5.7</v>
       </c>
       <c r="G39" t="n">
-        <v>3.15</v>
+        <v>6.8</v>
       </c>
       <c r="H39" t="n">
-        <v>2.54</v>
+        <v>1.5</v>
       </c>
       <c r="I39" t="n">
-        <v>2.72</v>
+        <v>1.62</v>
       </c>
       <c r="J39" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="K39" t="n">
-        <v>3.75</v>
+        <v>5.6</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,66 +5783,66 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="G40" t="n">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="H40" t="n">
-        <v>5.3</v>
+        <v>7.8</v>
       </c>
       <c r="I40" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="J40" t="n">
         <v>4.5</v>
       </c>
       <c r="K40" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -5851,64 +5851,64 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,36 +5918,36 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.22</v>
+        <v>2.08</v>
       </c>
       <c r="G41" t="n">
-        <v>1.27</v>
+        <v>2.24</v>
       </c>
       <c r="H41" t="n">
-        <v>12</v>
+        <v>3.65</v>
       </c>
       <c r="I41" t="n">
-        <v>16.5</v>
+        <v>4.5</v>
       </c>
       <c r="J41" t="n">
-        <v>7.4</v>
+        <v>3.4</v>
       </c>
       <c r="K41" t="n">
-        <v>8.800000000000001</v>
+        <v>3.85</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5962,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>3.55</v>
+        <v>1.9</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.26</v>
+        <v>1.79</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6043,7 +6043,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,36 +6053,36 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="G42" t="n">
-        <v>5.3</v>
+        <v>3.15</v>
       </c>
       <c r="H42" t="n">
-        <v>1.77</v>
+        <v>2.54</v>
       </c>
       <c r="I42" t="n">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="J42" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="K42" t="n">
-        <v>7.6</v>
+        <v>3.7</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,36 +6188,36 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="G43" t="n">
-        <v>4.7</v>
+        <v>1.67</v>
       </c>
       <c r="H43" t="n">
-        <v>1.93</v>
+        <v>5.3</v>
       </c>
       <c r="I43" t="n">
-        <v>2.06</v>
+        <v>6.4</v>
       </c>
       <c r="J43" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="K43" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,36 +6323,36 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.5</v>
+        <v>1.23</v>
       </c>
       <c r="G44" t="n">
-        <v>4.6</v>
+        <v>1.26</v>
       </c>
       <c r="H44" t="n">
-        <v>2.02</v>
+        <v>12</v>
       </c>
       <c r="I44" t="n">
-        <v>2.26</v>
+        <v>16.5</v>
       </c>
       <c r="J44" t="n">
-        <v>3.05</v>
+        <v>7.4</v>
       </c>
       <c r="K44" t="n">
-        <v>4.1</v>
+        <v>8.6</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.94</v>
+        <v>3.55</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.84</v>
+        <v>1.26</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,36 +6458,36 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Forli</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6502,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.24</v>
+        <v>2.04</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6583,7 +6583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,36 +6593,36 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6637,10 +6637,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.24</v>
+        <v>1.9</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,66 +6728,66 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.61</v>
+        <v>3.55</v>
       </c>
       <c r="G47" t="n">
-        <v>1.62</v>
+        <v>4.6</v>
       </c>
       <c r="H47" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>7.2</v>
+        <v>2.26</v>
       </c>
       <c r="J47" t="n">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="K47" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="R47" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -6796,64 +6796,64 @@
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="AB47" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AC47" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG47" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH47" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AI47" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AJ47" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AK47" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL47" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM47" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AN47" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,36 +6863,36 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Aris FC Limassol</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Forli</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -6907,10 +6907,10 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -6988,7 +6988,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,36 +6998,36 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Akritas Chlorakas</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -7042,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>2.46</v>
+        <v>1.24</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7123,7 +7123,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,66 +7133,66 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.54</v>
+        <v>1.61</v>
       </c>
       <c r="G50" t="n">
-        <v>2.92</v>
+        <v>1.62</v>
       </c>
       <c r="H50" t="n">
-        <v>2.68</v>
+        <v>7</v>
       </c>
       <c r="I50" t="n">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="J50" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="K50" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P50" t="n">
-        <v>1.16</v>
+        <v>1.89</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -7201,64 +7201,64 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI50" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK50" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL50" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM50" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN50" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AO50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,66 +7268,66 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Aris FC Limassol</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>2.76</v>
       </c>
       <c r="G51" t="n">
-        <v>2.04</v>
+        <v>3.35</v>
       </c>
       <c r="H51" t="n">
-        <v>3.75</v>
+        <v>2.82</v>
       </c>
       <c r="I51" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="J51" t="n">
-        <v>4.1</v>
+        <v>2.78</v>
       </c>
       <c r="K51" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>2.8</v>
+        <v>1.69</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.52</v>
+        <v>2.14</v>
       </c>
       <c r="R51" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -7336,64 +7336,64 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Z51" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AC51" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AG51" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH51" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI51" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AJ51" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AK51" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AL51" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AM51" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AN51" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AO51" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,36 +7403,36 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Akritas Chlorakas</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="G52" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="H52" t="n">
-        <v>3.75</v>
+        <v>7.6</v>
       </c>
       <c r="I52" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="J52" t="n">
-        <v>5.8</v>
+        <v>9</v>
       </c>
       <c r="K52" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.92</v>
+        <v>2.42</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7528,7 +7528,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7543,31 +7543,31 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>6.4</v>
+        <v>2.54</v>
       </c>
       <c r="G53" t="n">
-        <v>8</v>
+        <v>2.92</v>
       </c>
       <c r="H53" t="n">
-        <v>1.5</v>
+        <v>2.68</v>
       </c>
       <c r="I53" t="n">
-        <v>1.61</v>
+        <v>3.1</v>
       </c>
       <c r="J53" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="K53" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7582,10 +7582,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>2.12</v>
+        <v>1.16</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7663,7 +7663,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7678,61 +7678,61 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="G54" t="n">
-        <v>2.52</v>
+        <v>2.04</v>
       </c>
       <c r="H54" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="I54" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="J54" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="K54" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>3.35</v>
+        <v>6.4</v>
       </c>
       <c r="O54" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="P54" t="n">
-        <v>1.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.22</v>
+        <v>1.52</v>
       </c>
       <c r="R54" t="n">
-        <v>1.29</v>
+        <v>1.73</v>
       </c>
       <c r="S54" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="T54" t="n">
-        <v>1.9</v>
+        <v>1.52</v>
       </c>
       <c r="U54" t="n">
-        <v>2.04</v>
+        <v>2.78</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -7741,64 +7741,64 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Y54" t="n">
-        <v>11.5</v>
+        <v>28</v>
       </c>
       <c r="Z54" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AA54" t="n">
         <v>65</v>
       </c>
       <c r="AB54" t="n">
-        <v>9.199999999999999</v>
+        <v>15.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AE54" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF54" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH54" t="n">
         <v>15</v>
       </c>
-      <c r="AG54" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI54" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AJ54" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AK54" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AL54" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM54" t="n">
         <v>55</v>
       </c>
-      <c r="AM54" t="n">
-        <v>140</v>
-      </c>
       <c r="AN54" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AO54" t="n">
         <v>26</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7813,31 +7813,31 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.66</v>
+        <v>1.23</v>
       </c>
       <c r="G55" t="n">
-        <v>2.88</v>
+        <v>1.35</v>
       </c>
       <c r="H55" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="I55" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="J55" t="n">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="K55" t="n">
-        <v>3</v>
+        <v>950</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7852,10 +7852,10 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.41</v>
+        <v>2.96</v>
       </c>
       <c r="Q55" t="n">
-        <v>3.05</v>
+        <v>1.39</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7933,7 +7933,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7948,31 +7948,31 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.06</v>
+        <v>6.4</v>
       </c>
       <c r="G56" t="n">
-        <v>2.26</v>
+        <v>8</v>
       </c>
       <c r="H56" t="n">
-        <v>3.9</v>
+        <v>1.49</v>
       </c>
       <c r="I56" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="J56" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="K56" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.25</v>
+        <v>2.12</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8068,7 +8068,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,66 +8078,66 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>FC Twente</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PEC Zwolle</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.28</v>
+        <v>2.5</v>
       </c>
       <c r="G57" t="n">
-        <v>1.34</v>
+        <v>2.52</v>
       </c>
       <c r="H57" t="n">
-        <v>10.5</v>
+        <v>3.25</v>
       </c>
       <c r="I57" t="n">
-        <v>14</v>
+        <v>3.35</v>
       </c>
       <c r="J57" t="n">
-        <v>6</v>
+        <v>3.35</v>
       </c>
       <c r="K57" t="n">
-        <v>7.2</v>
+        <v>3.4</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P57" t="n">
-        <v>2.92</v>
+        <v>1.78</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.4</v>
+        <v>2.22</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -8146,64 +8146,64 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y57" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA57" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB57" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD57" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF57" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG57" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH57" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI57" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK57" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL57" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM57" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN57" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AO57" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8213,36 +8213,36 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.71</v>
+        <v>2.64</v>
       </c>
       <c r="G58" t="n">
-        <v>2.16</v>
+        <v>2.86</v>
       </c>
       <c r="H58" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I58" t="n">
         <v>3.55</v>
       </c>
-      <c r="I58" t="n">
-        <v>5.6</v>
-      </c>
       <c r="J58" t="n">
-        <v>3.65</v>
+        <v>2.92</v>
       </c>
       <c r="K58" t="n">
-        <v>7.6</v>
+        <v>3.05</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>2.12</v>
+        <v>1.42</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.5</v>
+        <v>2.92</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8338,7 +8338,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8348,36 +8348,36 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.15</v>
+        <v>2.06</v>
       </c>
       <c r="G59" t="n">
-        <v>1.17</v>
+        <v>2.24</v>
       </c>
       <c r="H59" t="n">
-        <v>17.5</v>
+        <v>3.9</v>
       </c>
       <c r="I59" t="n">
-        <v>21</v>
+        <v>4.4</v>
       </c>
       <c r="J59" t="n">
-        <v>10.5</v>
+        <v>3.2</v>
       </c>
       <c r="K59" t="n">
-        <v>12.5</v>
+        <v>3.6</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8473,7 +8473,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8483,66 +8483,66 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>FC Twente</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>PEC Zwolle</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>1.34</v>
       </c>
       <c r="H60" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I60" t="n">
+        <v>14</v>
+      </c>
+      <c r="J60" t="n">
         <v>6.2</v>
       </c>
-      <c r="J60" t="n">
-        <v>4</v>
-      </c>
       <c r="K60" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>2.02</v>
+        <v>3.05</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.91</v>
+        <v>1.41</v>
       </c>
       <c r="R60" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -8551,64 +8551,64 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Z60" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AB60" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC60" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD60" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AE60" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF60" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AG60" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH60" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI60" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ60" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AK60" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AL60" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AM60" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AN60" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AO60" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8618,36 +8618,36 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="G61" t="n">
-        <v>1.78</v>
+        <v>2.16</v>
       </c>
       <c r="H61" t="n">
-        <v>5.2</v>
+        <v>3.55</v>
       </c>
       <c r="I61" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J61" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="K61" t="n">
-        <v>4.5</v>
+        <v>7.6</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -8662,10 +8662,10 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -8753,36 +8753,36 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>FC Groningen</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.71</v>
+        <v>1.16</v>
       </c>
       <c r="G62" t="n">
-        <v>1.79</v>
+        <v>1.17</v>
       </c>
       <c r="H62" t="n">
-        <v>4.9</v>
+        <v>17.5</v>
       </c>
       <c r="I62" t="n">
-        <v>5.7</v>
+        <v>21</v>
       </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>10.5</v>
       </c>
       <c r="K62" t="n">
-        <v>4.4</v>
+        <v>12</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>2.04</v>
+        <v>1.25</v>
       </c>
       <c r="Q62" t="n">
         <v>1.01</v>
@@ -8878,7 +8878,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8888,63 +8888,63 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.28</v>
+        <v>1.69</v>
       </c>
       <c r="G63" t="n">
-        <v>2.32</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="I63" t="n">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="J63" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N63" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="O63" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="P63" t="n">
-        <v>1.77</v>
+        <v>2.02</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.26</v>
+        <v>1.91</v>
       </c>
       <c r="R63" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="S63" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="T63" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="U63" t="n">
         <v>2.02</v>
@@ -8956,192 +8956,597 @@
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="Y63" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Z63" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AA63" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB63" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC63" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD63" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE63" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AF63" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AG63" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AI63" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ63" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AK63" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AL63" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AM63" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN63" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AO63" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>Dutch Eredivisie</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>FC Groningen</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H64" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4</v>
+      </c>
+      <c r="K64" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H66" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4</v>
+      </c>
+      <c r="K66" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>Mexican Liga MX</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>2026-01-10</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>20:07:00</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>Guadalajara</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>Pachuca</t>
         </is>
       </c>
-      <c r="F64" t="n">
+      <c r="F67" t="n">
         <v>1.88</v>
       </c>
-      <c r="G64" t="n">
-        <v>2</v>
-      </c>
-      <c r="H64" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K64" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO64" t="n">
+      <c r="G67" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K67" t="n">
+        <v>4</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO67" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
@@ -673,7 +673,7 @@
         <v>2.24</v>
       </c>
       <c r="H2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
         <v>4.2</v>
@@ -700,13 +700,13 @@
         <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
         <v>1.78</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G3" t="n">
         <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="I3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -835,22 +835,22 @@
         <v>2.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="T3" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="U3" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="W3" t="n">
         <v>1.31</v>
@@ -859,16 +859,16 @@
         <v>30</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="n">
         <v>34</v>
       </c>
       <c r="AB3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
         <v>13.5</v>
@@ -880,7 +880,7 @@
         <v>28</v>
       </c>
       <c r="AF3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AG3" t="n">
         <v>24</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -940,61 +940,61 @@
         <v>1.95</v>
       </c>
       <c r="G4" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
       </c>
       <c r="I4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.2</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="S4" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
         <v>32</v>
@@ -1003,16 +1003,16 @@
         <v>100</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
         <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF4" t="n">
         <v>13.5</v>
@@ -1021,25 +1021,25 @@
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ4" t="n">
         <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
         <v>40</v>
@@ -1078,7 +1078,7 @@
         <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I5" t="n">
         <v>2.42</v>
@@ -1111,13 +1111,13 @@
         <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V5" t="n">
         <v>1.7</v>
@@ -1129,7 +1129,7 @@
         <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
         <v>18.5</v>
@@ -1156,7 +1156,7 @@
         <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
         <v>32</v>
@@ -1177,7 +1177,7 @@
         <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H6" t="n">
         <v>1.55</v>
       </c>
       <c r="I6" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="J6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
         <v>5.3</v>
@@ -1243,10 +1243,10 @@
         <v>1.47</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1255,10 +1255,10 @@
         <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="W6" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1267,7 +1267,7 @@
         <v>17.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1357,7 +1357,7 @@
         <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
         <v>1.39</v>
@@ -1375,7 +1375,7 @@
         <v>2.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R7" t="n">
         <v>1.4</v>
@@ -1420,13 +1420,13 @@
         <v>60</v>
       </c>
       <c r="AF7" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI7" t="n">
         <v>65</v>
@@ -1438,7 +1438,7 @@
         <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
         <v>110</v>
@@ -1480,109 +1480,109 @@
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.01</v>
       </c>
-      <c r="M8" t="n">
+      <c r="U8" t="n">
         <v>1.01</v>
       </c>
-      <c r="N8" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.92</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="X8" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG8" t="n">
         <v>17</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AH8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN8" t="n">
         <v>34</v>
       </c>
-      <c r="AF8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -1615,10 +1615,10 @@
         <v>1.36</v>
       </c>
       <c r="G9" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="H9" t="n">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="I9" t="n">
         <v>12.5</v>
@@ -1630,94 +1630,94 @@
         <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1765,94 +1765,94 @@
         <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.2</v>
+        <v>1.49</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G11" t="n">
         <v>1.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.45</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
         <v>1000</v>
@@ -1897,19 +1897,19 @@
         <v>5.3</v>
       </c>
       <c r="K11" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
         <v>2.1</v>
@@ -1918,76 +1918,76 @@
         <v>1.54</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2035,7 +2035,7 @@
         <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2044,7 +2044,7 @@
         <v>3.45</v>
       </c>
       <c r="O12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P12" t="n">
         <v>1.8</v>
@@ -2056,7 +2056,7 @@
         <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
         <v>1.97</v>
@@ -2065,13 +2065,13 @@
         <v>1.97</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -2080,7 +2080,7 @@
         <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB12" t="n">
         <v>14.5</v>
@@ -2092,10 +2092,10 @@
         <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG12" t="n">
         <v>18.5</v>
@@ -2104,10 +2104,10 @@
         <v>20</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ12" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="n">
         <v>65</v>
@@ -2116,10 +2116,10 @@
         <v>75</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO12" t="n">
         <v>17</v>
@@ -2155,10 +2155,10 @@
         <v>3.6</v>
       </c>
       <c r="G13" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="I13" t="n">
         <v>2.28</v>
@@ -2170,16 +2170,16 @@
         <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
         <v>1.87</v>
@@ -2188,76 +2188,76 @@
         <v>1.99</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2431,7 +2431,7 @@
         <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
@@ -2455,7 +2455,7 @@
         <v>1.79</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="G17" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="H17" t="n">
-        <v>2.88</v>
+        <v>1.52</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="K17" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.28</v>
+        <v>2.58</v>
       </c>
       <c r="G18" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="J18" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="Q18" t="n">
         <v>2.46</v>
@@ -2965,16 +2965,16 @@
         <v>2.4</v>
       </c>
       <c r="G19" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J19" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K19" t="n">
         <v>3.5</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="G20" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="H20" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="I20" t="n">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.99</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>4.6</v>
@@ -3262,7 +3262,7 @@
         <v>1.39</v>
       </c>
       <c r="P21" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q21" t="n">
         <v>2.18</v>
@@ -3274,10 +3274,10 @@
         <v>4.1</v>
       </c>
       <c r="T21" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U21" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3298,7 +3298,7 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC21" t="n">
         <v>8</v>
@@ -3310,7 +3310,7 @@
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG21" t="n">
         <v>10.5</v>
@@ -3394,7 +3394,7 @@
         <v>2.96</v>
       </c>
       <c r="O22" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P22" t="n">
         <v>1.65</v>
@@ -3403,13 +3403,13 @@
         <v>2.42</v>
       </c>
       <c r="R22" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S22" t="n">
         <v>4.8</v>
       </c>
       <c r="T22" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U22" t="n">
         <v>1.83</v>
@@ -3439,25 +3439,25 @@
         <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG22" t="n">
         <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AJ22" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
         <v>29</v>
@@ -3466,10 +3466,10 @@
         <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G23" t="n">
         <v>2.28</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q23" t="n">
         <v>1.61</v>
@@ -3646,7 +3646,7 @@
         <v>1.9</v>
       </c>
       <c r="I24" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="J24" t="n">
         <v>3.85</v>
@@ -3679,7 +3679,7 @@
         <v>3.15</v>
       </c>
       <c r="T24" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U24" t="n">
         <v>2.2</v>
@@ -3736,7 +3736,7 @@
         <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN24" t="n">
         <v>55</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G25" t="n">
         <v>1.84</v>
@@ -3799,7 +3799,7 @@
         <v>4.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
         <v>2.08</v>
@@ -3808,7 +3808,7 @@
         <v>1.87</v>
       </c>
       <c r="R25" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S25" t="n">
         <v>3.15</v>
@@ -3847,7 +3847,7 @@
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>990</v>
+        <v>70</v>
       </c>
       <c r="AF25" t="n">
         <v>11.5</v>
@@ -3859,25 +3859,25 @@
         <v>18.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="n">
         <v>22</v>
       </c>
       <c r="AK25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL25" t="n">
         <v>36</v>
       </c>
       <c r="AM25" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN25" t="n">
         <v>11</v>
       </c>
       <c r="AO25" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -3976,13 +3976,13 @@
         <v>14.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
         <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF26" t="n">
         <v>23</v>
@@ -4006,13 +4006,13 @@
         <v>46</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN26" t="n">
         <v>26</v>
       </c>
       <c r="AO26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G27" t="n">
         <v>3.15</v>
       </c>
-      <c r="G27" t="n">
-        <v>3.2</v>
-      </c>
       <c r="H27" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="J27" t="n">
         <v>3.8</v>
@@ -4066,7 +4066,7 @@
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.21</v>
@@ -4075,7 +4075,7 @@
         <v>2.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R27" t="n">
         <v>1.61</v>
@@ -4117,19 +4117,19 @@
         <v>12</v>
       </c>
       <c r="AE27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
         <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH27" t="n">
         <v>14</v>
       </c>
       <c r="AI27" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ27" t="n">
         <v>50</v>
@@ -4138,13 +4138,13 @@
         <v>32</v>
       </c>
       <c r="AL27" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM27" t="n">
         <v>55</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
         <v>13</v>
@@ -4183,16 +4183,16 @@
         <v>2.24</v>
       </c>
       <c r="H28" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I28" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
         <v>3.3</v>
       </c>
       <c r="K28" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>4.5</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U28" t="n">
         <v>1.95</v>
@@ -4264,13 +4264,13 @@
         <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ28" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AK28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL28" t="n">
         <v>1000</v>
@@ -4282,7 +4282,7 @@
         <v>24</v>
       </c>
       <c r="AO28" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
@@ -4318,7 +4318,7 @@
         <v>2.28</v>
       </c>
       <c r="H29" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q29" t="n">
         <v>2.08</v>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="G30" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H30" t="n">
         <v>10</v>
@@ -4480,10 +4480,10 @@
         <v>3.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="R30" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S30" t="n">
         <v>1.94</v>
@@ -4504,7 +4504,7 @@
         <v>980</v>
       </c>
       <c r="Y30" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Z30" t="n">
         <v>140</v>
@@ -4513,7 +4513,7 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC30" t="n">
         <v>1000</v>
@@ -4528,7 +4528,7 @@
         <v>14</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
         <v>980</v>
@@ -4540,16 +4540,16 @@
         <v>14.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM30" t="n">
         <v>110</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AO30" t="n">
         <v>140</v>
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="G31" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
         <v>4.1</v>
       </c>
       <c r="J31" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K31" t="n">
         <v>3.8</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4990,16 +4990,16 @@
         <v>2.04</v>
       </c>
       <c r="G34" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="I34" t="n">
         <v>4.9</v>
       </c>
       <c r="J34" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
         <v>4.2</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="G35" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="H35" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="I35" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5155,7 +5155,7 @@
         <v>1.25</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5266,13 +5266,13 @@
         <v>2.66</v>
       </c>
       <c r="I36" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K36" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H37" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="I37" t="n">
         <v>2.3</v>
       </c>
       <c r="J37" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K37" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q37" t="n">
         <v>2.16</v>
@@ -5530,19 +5530,19 @@
         <v>2.16</v>
       </c>
       <c r="G38" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I38" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J38" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K38" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5560,7 +5560,7 @@
         <v>2.44</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5803,7 +5803,7 @@
         <v>1.52</v>
       </c>
       <c r="H40" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I40" t="n">
         <v>8.4</v>
@@ -5839,10 +5839,10 @@
         <v>3.4</v>
       </c>
       <c r="T40" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U40" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G41" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H41" t="n">
         <v>3.65</v>
       </c>
       <c r="I41" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J41" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K41" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5962,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6067,19 +6067,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="G42" t="n">
         <v>3.15</v>
       </c>
       <c r="H42" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I42" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J42" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K42" t="n">
         <v>3.7</v>
@@ -6340,19 +6340,19 @@
         <v>1.23</v>
       </c>
       <c r="G44" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I44" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J44" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="K44" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G46" t="n">
         <v>4.7</v>
@@ -6619,7 +6619,7 @@
         <v>2.04</v>
       </c>
       <c r="J46" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K46" t="n">
         <v>3.95</v>
@@ -6640,7 +6640,7 @@
         <v>1.9</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -6742,13 +6742,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G47" t="n">
         <v>4.6</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I47" t="n">
         <v>2.26</v>
@@ -7177,7 +7177,7 @@
         <v>1.35</v>
       </c>
       <c r="P50" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q50" t="n">
         <v>2.02</v>
@@ -7189,7 +7189,7 @@
         <v>3.65</v>
       </c>
       <c r="T50" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U50" t="n">
         <v>1.83</v>
@@ -7216,7 +7216,7 @@
         <v>7.6</v>
       </c>
       <c r="AC50" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD50" t="n">
         <v>32</v>
@@ -7225,13 +7225,13 @@
         <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG50" t="n">
         <v>12</v>
       </c>
       <c r="AH50" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI50" t="n">
         <v>130</v>
@@ -7423,7 +7423,7 @@
         <v>1.18</v>
       </c>
       <c r="H52" t="n">
-        <v>7.6</v>
+        <v>17</v>
       </c>
       <c r="I52" t="n">
         <v>42</v>
@@ -7687,10 +7687,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="G54" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>3.7</v>
@@ -7699,7 +7699,7 @@
         <v>3.75</v>
       </c>
       <c r="J54" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K54" t="n">
         <v>4.3</v>
@@ -7717,7 +7717,7 @@
         <v>1.17</v>
       </c>
       <c r="P54" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="Q54" t="n">
         <v>1.52</v>
@@ -7726,13 +7726,13 @@
         <v>1.73</v>
       </c>
       <c r="S54" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T54" t="n">
         <v>1.52</v>
       </c>
       <c r="U54" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -7792,7 +7792,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AO54" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.23</v>
+        <v>1.04</v>
       </c>
       <c r="G55" t="n">
-        <v>1.35</v>
+        <v>1000</v>
       </c>
       <c r="H55" t="n">
-        <v>3.85</v>
+        <v>1.04</v>
       </c>
       <c r="I55" t="n">
         <v>1000</v>
       </c>
       <c r="J55" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="K55" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7852,10 +7852,10 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>2.96</v>
+        <v>2.6</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="G56" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H56" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="I56" t="n">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="J56" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="K56" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8122,13 +8122,13 @@
         <v>1.4</v>
       </c>
       <c r="P57" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q57" t="n">
         <v>2.22</v>
       </c>
       <c r="R57" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S57" t="n">
         <v>4.1</v>
@@ -8158,7 +8158,7 @@
         <v>65</v>
       </c>
       <c r="AB57" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC57" t="n">
         <v>7.4</v>
@@ -8230,7 +8230,7 @@
         <v>2.64</v>
       </c>
       <c r="G58" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H58" t="n">
         <v>3.2</v>
@@ -8239,7 +8239,7 @@
         <v>3.55</v>
       </c>
       <c r="J58" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K58" t="n">
         <v>3.05</v>
@@ -8260,7 +8260,7 @@
         <v>1.42</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8368,7 +8368,7 @@
         <v>2.24</v>
       </c>
       <c r="H59" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I59" t="n">
         <v>4.4</v>
@@ -8377,7 +8377,7 @@
         <v>3.2</v>
       </c>
       <c r="K59" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8527,10 +8527,10 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -8767,19 +8767,19 @@
         </is>
       </c>
       <c r="F62" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G62" t="n">
         <v>1.16</v>
       </c>
-      <c r="G62" t="n">
-        <v>1.17</v>
-      </c>
       <c r="H62" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="I62" t="n">
         <v>21</v>
       </c>
       <c r="J62" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="K62" t="n">
         <v>12</v>
@@ -8797,10 +8797,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q62" t="n">
         <v>1.25</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>1.01</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -8905,7 +8905,7 @@
         <v>1.69</v>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H63" t="n">
         <v>6</v>
@@ -8914,7 +8914,7 @@
         <v>6.2</v>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K63" t="n">
         <v>4.1</v>
@@ -8932,22 +8932,22 @@
         <v>1.3</v>
       </c>
       <c r="P63" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q63" t="n">
         <v>1.91</v>
       </c>
       <c r="R63" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S63" t="n">
         <v>3.25</v>
       </c>
       <c r="T63" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U63" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -8956,13 +8956,13 @@
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y63" t="n">
         <v>20</v>
       </c>
       <c r="Z63" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA63" t="n">
         <v>180</v>
@@ -8971,13 +8971,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC63" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD63" t="n">
         <v>23</v>
       </c>
       <c r="AE63" t="n">
-        <v>85</v>
+        <v>990</v>
       </c>
       <c r="AF63" t="n">
         <v>10</v>
@@ -8995,7 +8995,7 @@
         <v>17</v>
       </c>
       <c r="AK63" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL63" t="n">
         <v>38</v>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="G64" t="n">
         <v>1.79</v>
@@ -9052,7 +9052,7 @@
         <v>4</v>
       </c>
       <c r="K64" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>2.3</v>
       </c>
       <c r="G65" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H65" t="n">
         <v>3.7</v>
@@ -9196,7 +9196,7 @@
         <v>1.09</v>
       </c>
       <c r="N65" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O65" t="n">
         <v>1.4</v>
@@ -9217,7 +9217,7 @@
         <v>1.91</v>
       </c>
       <c r="U65" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
@@ -9253,13 +9253,13 @@
         <v>14</v>
       </c>
       <c r="AG65" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH65" t="n">
         <v>18.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ65" t="n">
         <v>30</v>
@@ -9310,7 +9310,7 @@
         <v>1.68</v>
       </c>
       <c r="G66" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H66" t="n">
         <v>5.2</v>
@@ -9319,10 +9319,10 @@
         <v>5.8</v>
       </c>
       <c r="J66" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K66" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -9340,7 +9340,7 @@
         <v>2.22</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G67" t="n">
         <v>2.02</v>
@@ -9451,13 +9451,13 @@
         <v>4.3</v>
       </c>
       <c r="I67" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="J67" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="K67" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
@@ -670,13 +670,13 @@
         <v>2.1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H2" t="n">
         <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J2" t="n">
         <v>3.45</v>
@@ -691,7 +691,7 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.34</v>
@@ -709,7 +709,7 @@
         <v>3.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
         <v>2.06</v>
@@ -724,7 +724,7 @@
         <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
         <v>34</v>
@@ -739,28 +739,28 @@
         <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="n">
         <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
         <v>70</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
         <v>980</v>
@@ -805,10 +805,10 @@
         <v>3.85</v>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="I3" t="n">
         <v>2.04</v>
@@ -817,7 +817,7 @@
         <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.21</v>
@@ -835,7 +835,7 @@
         <v>2.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="R3" t="n">
         <v>1.44</v>
@@ -847,7 +847,7 @@
         <v>1.6</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="V3" t="n">
         <v>1.96</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I4" t="n">
         <v>3.85</v>
       </c>
-      <c r="I4" t="n">
-        <v>3.95</v>
-      </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>4.2</v>
@@ -979,28 +979,28 @@
         <v>2.68</v>
       </c>
       <c r="T4" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V4" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="n">
         <v>12.5</v>
@@ -1012,10 +1012,10 @@
         <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
@@ -1027,7 +1027,7 @@
         <v>44</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
         <v>19</v>
@@ -1042,7 +1042,7 @@
         <v>10.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G5" t="n">
         <v>3.1</v>
@@ -1081,13 +1081,13 @@
         <v>2.36</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J5" t="n">
         <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
         <v>1.31</v>
@@ -1096,31 +1096,31 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
         <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S5" t="n">
         <v>2.68</v>
       </c>
       <c r="T5" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="V5" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W5" t="n">
         <v>1.47</v>
@@ -1231,22 +1231,22 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P6" t="n">
         <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1366,7 +1366,7 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>2.46</v>
+        <v>1.01</v>
       </c>
       <c r="O7" t="n">
         <v>1.18</v>
@@ -1375,7 +1375,7 @@
         <v>2.46</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
@@ -1387,7 +1387,7 @@
         <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
         <v>2.5</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.97</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.98</v>
       </c>
       <c r="H8" t="n">
         <v>4.3</v>
@@ -1531,10 +1531,10 @@
         <v>2.02</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z8" t="n">
         <v>32</v>
@@ -1573,7 +1573,7 @@
         <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
         <v>110</v>
@@ -1582,7 +1582,7 @@
         <v>13.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1666,7 +1666,7 @@
         <v>1.4</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
         <v>15</v>
@@ -1678,34 +1678,34 @@
         <v>36</v>
       </c>
       <c r="AB9" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>28</v>
       </c>
       <c r="AF9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG9" t="n">
         <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="n">
         <v>65</v>
       </c>
       <c r="AK9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL9" t="n">
         <v>42</v>
@@ -1771,22 +1771,22 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1906,7 +1906,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O11" t="n">
         <v>1.15</v>
@@ -2041,7 +2041,7 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O12" t="n">
         <v>1.22</v>
@@ -2464,7 +2464,7 @@
         <v>3.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="U15" t="n">
         <v>1.76</v>
@@ -2599,10 +2599,10 @@
         <v>1.62</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U16" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V16" t="n">
         <v>1.01</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G17" t="n">
         <v>4.5</v>
       </c>
-      <c r="G17" t="n">
-        <v>4.6</v>
-      </c>
       <c r="H17" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="I17" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="J17" t="n">
         <v>3.6</v>
@@ -2716,7 +2716,7 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O17" t="n">
         <v>1.39</v>
@@ -2740,13 +2740,13 @@
         <v>1.97</v>
       </c>
       <c r="V17" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -2794,7 +2794,7 @@
         <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO17" t="n">
         <v>17</v>
@@ -2872,7 +2872,7 @@
         <v>2.12</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V18" t="n">
         <v>1.17</v>
@@ -3397,7 +3397,7 @@
         <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q22" t="n">
         <v>2.26</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G23" t="n">
         <v>1.53</v>
@@ -3511,7 +3511,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>14.5</v>
+        <v>32</v>
       </c>
       <c r="J23" t="n">
         <v>4.1</v>
@@ -3526,7 +3526,7 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="O23" t="n">
         <v>1.01</v>
@@ -3547,7 +3547,7 @@
         <v>1.98</v>
       </c>
       <c r="U23" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="V23" t="n">
         <v>1.07</v>
@@ -3646,13 +3646,13 @@
         <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3667,10 +3667,10 @@
         <v>1.27</v>
       </c>
       <c r="P24" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R24" t="n">
         <v>1.42</v>
@@ -3823,7 +3823,7 @@
         <v>1.36</v>
       </c>
       <c r="W25" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X25" t="n">
         <v>27</v>
@@ -3847,7 +3847,7 @@
         <v>18.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AF25" t="n">
         <v>19.5</v>
@@ -3928,7 +3928,7 @@
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
         <v>3.15</v>
@@ -4075,7 +4075,7 @@
         <v>1.82</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="R27" t="n">
         <v>1.26</v>
@@ -4087,7 +4087,7 @@
         <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V27" t="n">
         <v>2.38</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G28" t="n">
         <v>2.02</v>
@@ -4204,7 +4204,7 @@
         <v>2.98</v>
       </c>
       <c r="O28" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P28" t="n">
         <v>1.65</v>
@@ -4231,7 +4231,7 @@
         <v>1.98</v>
       </c>
       <c r="X28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y28" t="n">
         <v>13.5</v>
@@ -4276,7 +4276,7 @@
         <v>50</v>
       </c>
       <c r="AM28" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN28" t="n">
         <v>20</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.44</v>
+        <v>1.88</v>
       </c>
       <c r="G29" t="n">
         <v>1000</v>
@@ -4456,13 +4456,13 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J30" t="n">
         <v>3.15</v>
       </c>
       <c r="K30" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,16 +4471,16 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.03</v>
+        <v>1.63</v>
       </c>
       <c r="O30" t="n">
-        <v>1.44</v>
+        <v>1.02</v>
       </c>
       <c r="P30" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="R30" t="n">
         <v>1.19</v>
@@ -4495,7 +4495,7 @@
         <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="W30" t="n">
         <v>1.26</v>
@@ -4621,7 +4621,7 @@
         <v>1.3</v>
       </c>
       <c r="S31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T31" t="n">
         <v>1.93</v>
@@ -4639,7 +4639,7 @@
         <v>11.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z31" t="n">
         <v>32</v>
@@ -4720,7 +4720,7 @@
         <v>2.12</v>
       </c>
       <c r="G32" t="n">
-        <v>3.15</v>
+        <v>980</v>
       </c>
       <c r="H32" t="n">
         <v>3.5</v>
@@ -4750,7 +4750,7 @@
         <v>1.64</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R32" t="n">
         <v>1.21</v>
@@ -4759,16 +4759,16 @@
         <v>4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V32" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="W32" t="n">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="X32" t="n">
         <v>14.5</v>
@@ -4879,7 +4879,7 @@
         <v>4.2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P33" t="n">
         <v>2.1</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G34" t="n">
         <v>1.84</v>
@@ -5128,7 +5128,7 @@
         <v>3.1</v>
       </c>
       <c r="H35" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I35" t="n">
         <v>2.54</v>
@@ -5176,7 +5176,7 @@
         <v>1.48</v>
       </c>
       <c r="X35" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y35" t="n">
         <v>12</v>
@@ -5323,7 +5323,7 @@
         <v>34</v>
       </c>
       <c r="AB36" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC36" t="n">
         <v>9</v>
@@ -5425,16 +5425,16 @@
         <v>1.72</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R37" t="n">
         <v>1.26</v>
       </c>
       <c r="S37" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U37" t="n">
         <v>1.95</v>
@@ -5497,7 +5497,7 @@
         <v>23</v>
       </c>
       <c r="AO37" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38">
@@ -5674,7 +5674,7 @@
         <v>3.75</v>
       </c>
       <c r="J39" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K39" t="n">
         <v>4.2</v>
@@ -5716,7 +5716,7 @@
         <v>1.73</v>
       </c>
       <c r="X39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y39" t="n">
         <v>19</v>
@@ -5803,7 +5803,7 @@
         <v>3.8</v>
       </c>
       <c r="H40" t="n">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="I40" t="n">
         <v>2.8</v>
@@ -5830,7 +5830,7 @@
         <v>2.06</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="R40" t="n">
         <v>1.11</v>
@@ -5839,10 +5839,10 @@
         <v>2.5</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V40" t="n">
         <v>1.55</v>
@@ -6079,7 +6079,7 @@
         <v>4.1</v>
       </c>
       <c r="J42" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K42" t="n">
         <v>3.55</v>
@@ -6091,13 +6091,13 @@
         <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O42" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="P42" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q42" t="n">
         <v>2.1</v>
@@ -6109,13 +6109,13 @@
         <v>3.8</v>
       </c>
       <c r="T42" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U42" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="V42" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W42" t="n">
         <v>1.77</v>
@@ -6226,7 +6226,7 @@
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>1.27</v>
+        <v>1.02</v>
       </c>
       <c r="O43" t="n">
         <v>1.36</v>
@@ -6235,7 +6235,7 @@
         <v>1.26</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.08</v>
+        <v>1.36</v>
       </c>
       <c r="R43" t="n">
         <v>1.26</v>
@@ -6244,13 +6244,13 @@
         <v>3.3</v>
       </c>
       <c r="T43" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U43" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="V43" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W43" t="n">
         <v>1.7</v>
@@ -6382,7 +6382,7 @@
         <v>1.62</v>
       </c>
       <c r="U44" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V44" t="n">
         <v>1.31</v>
@@ -6508,13 +6508,13 @@
         <v>1.38</v>
       </c>
       <c r="R45" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S45" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T45" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U45" t="n">
         <v>2.16</v>
@@ -6637,13 +6637,13 @@
         <v>1.24</v>
       </c>
       <c r="P46" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R46" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S46" t="n">
         <v>2.48</v>
@@ -6655,7 +6655,7 @@
         <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W46" t="n">
         <v>2.16</v>
@@ -6688,7 +6688,7 @@
         <v>15</v>
       </c>
       <c r="AG46" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH46" t="n">
         <v>1000</v>
@@ -6742,28 +6742,28 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="G47" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="H47" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J47" t="n">
         <v>4.1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J47" t="n">
-        <v>4</v>
       </c>
       <c r="K47" t="n">
         <v>4.9</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M47" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N47" t="n">
         <v>5.2</v>
@@ -6772,28 +6772,28 @@
         <v>1.18</v>
       </c>
       <c r="P47" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q47" t="n">
         <v>1.55</v>
       </c>
       <c r="R47" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S47" t="n">
         <v>2.36</v>
       </c>
       <c r="T47" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U47" t="n">
         <v>2.36</v>
       </c>
       <c r="V47" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W47" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="X47" t="n">
         <v>27</v>
@@ -6844,10 +6844,10 @@
         <v>70</v>
       </c>
       <c r="AN47" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AO47" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48">
@@ -6880,7 +6880,7 @@
         <v>4.2</v>
       </c>
       <c r="G48" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="H48" t="n">
         <v>1.55</v>
@@ -6901,13 +6901,13 @@
         <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="O48" t="n">
         <v>1.25</v>
       </c>
       <c r="P48" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="Q48" t="n">
         <v>1.63</v>
@@ -6928,7 +6928,7 @@
         <v>2.06</v>
       </c>
       <c r="W48" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="G49" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="H49" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="I49" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="J49" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K49" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L49" t="n">
         <v>1.36</v>
@@ -7042,7 +7042,7 @@
         <v>1.38</v>
       </c>
       <c r="P49" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q49" t="n">
         <v>1.96</v>
@@ -7054,25 +7054,25 @@
         <v>3.5</v>
       </c>
       <c r="T49" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="U49" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="V49" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W49" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y49" t="n">
         <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AA49" t="n">
         <v>1000</v>
@@ -7081,13 +7081,13 @@
         <v>11</v>
       </c>
       <c r="AC49" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF49" t="n">
         <v>16.5</v>
@@ -7096,16 +7096,16 @@
         <v>15</v>
       </c>
       <c r="AH49" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI49" t="n">
         <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK49" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL49" t="n">
         <v>60</v>
@@ -7150,7 +7150,7 @@
         <v>5.7</v>
       </c>
       <c r="G50" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H50" t="n">
         <v>1.5</v>
@@ -7165,7 +7165,7 @@
         <v>5.6</v>
       </c>
       <c r="L50" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M50" t="n">
         <v>1.01</v>
@@ -7183,7 +7183,7 @@
         <v>1.47</v>
       </c>
       <c r="R50" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S50" t="n">
         <v>2.18</v>
@@ -7201,7 +7201,7 @@
         <v>1.14</v>
       </c>
       <c r="X50" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y50" t="n">
         <v>16</v>
@@ -7243,13 +7243,13 @@
         <v>85</v>
       </c>
       <c r="AL50" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM50" t="n">
         <v>90</v>
       </c>
       <c r="AN50" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AO50" t="n">
         <v>6.6</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G52" t="n">
         <v>1.72</v>
@@ -7720,7 +7720,7 @@
         <v>1.68</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="R54" t="n">
         <v>1.2</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="G55" t="n">
         <v>2.24</v>
@@ -7831,10 +7831,10 @@
         <v>4.2</v>
       </c>
       <c r="I55" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J55" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K55" t="n">
         <v>3.95</v>
@@ -7846,16 +7846,16 @@
         <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="O55" t="n">
         <v>1.01</v>
       </c>
       <c r="P55" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R55" t="n">
         <v>1.22</v>
@@ -7864,10 +7864,10 @@
         <v>2.84</v>
       </c>
       <c r="T55" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U55" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="V55" t="n">
         <v>1.2</v>
@@ -7882,13 +7882,13 @@
         <v>22</v>
       </c>
       <c r="Z55" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA55" t="n">
         <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC55" t="n">
         <v>11.5</v>
@@ -7900,7 +7900,7 @@
         <v>1000</v>
       </c>
       <c r="AF55" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG55" t="n">
         <v>15</v>
@@ -7912,10 +7912,10 @@
         <v>1000</v>
       </c>
       <c r="AJ55" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AK55" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL55" t="n">
         <v>60</v>
@@ -8137,7 +8137,7 @@
         <v>1.63</v>
       </c>
       <c r="U57" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="V57" t="n">
         <v>1.27</v>
@@ -8245,7 +8245,7 @@
         <v>4.5</v>
       </c>
       <c r="L58" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M58" t="n">
         <v>1.01</v>
@@ -8269,10 +8269,10 @@
         <v>2.82</v>
       </c>
       <c r="T58" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="U58" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="V58" t="n">
         <v>1.19</v>
@@ -8404,10 +8404,10 @@
         <v>3.75</v>
       </c>
       <c r="T59" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="U59" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
         <v>1.5</v>
@@ -8431,7 +8431,7 @@
         <v>13</v>
       </c>
       <c r="AC59" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD59" t="n">
         <v>15.5</v>
@@ -8455,7 +8455,7 @@
         <v>60</v>
       </c>
       <c r="AK59" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AL59" t="n">
         <v>60</v>
@@ -8497,10 +8497,10 @@
         </is>
       </c>
       <c r="F60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G60" t="n">
         <v>1.51</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1.52</v>
       </c>
       <c r="H60" t="n">
         <v>8</v>
@@ -8548,7 +8548,7 @@
         <v>1.13</v>
       </c>
       <c r="W60" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="X60" t="n">
         <v>15.5</v>
@@ -8572,22 +8572,22 @@
         <v>30</v>
       </c>
       <c r="AE60" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF60" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG60" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH60" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI60" t="n">
         <v>130</v>
       </c>
       <c r="AJ60" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK60" t="n">
         <v>16</v>
@@ -8674,16 +8674,16 @@
         <v>2.96</v>
       </c>
       <c r="T61" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="U61" t="n">
         <v>1.96</v>
       </c>
       <c r="V61" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="W61" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="X61" t="n">
         <v>20</v>
@@ -9082,7 +9082,7 @@
         <v>1.79</v>
       </c>
       <c r="U64" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V64" t="n">
         <v>1.07</v>
@@ -9196,16 +9196,16 @@
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="O65" t="n">
         <v>1.25</v>
       </c>
       <c r="P65" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="R65" t="n">
         <v>1.35</v>
@@ -9310,13 +9310,13 @@
         <v>4.2</v>
       </c>
       <c r="G66" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H66" t="n">
         <v>1.8</v>
       </c>
       <c r="I66" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="J66" t="n">
         <v>3.75</v>
@@ -9340,7 +9340,7 @@
         <v>1.94</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R66" t="n">
         <v>1.36</v>
@@ -9445,19 +9445,19 @@
         <v>1.83</v>
       </c>
       <c r="G67" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="H67" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I67" t="n">
         <v>5.6</v>
       </c>
       <c r="J67" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K67" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L67" t="n">
         <v>1.37</v>
@@ -9487,13 +9487,13 @@
         <v>1.93</v>
       </c>
       <c r="U67" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="V67" t="n">
         <v>1.21</v>
       </c>
       <c r="W67" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X67" t="n">
         <v>13.5</v>
@@ -9508,7 +9508,7 @@
         <v>160</v>
       </c>
       <c r="AB67" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC67" t="n">
         <v>8.6</v>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="Q68" t="n">
         <v>1.01</v>
@@ -9850,43 +9850,43 @@
         <v>1.53</v>
       </c>
       <c r="G70" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="H70" t="n">
         <v>5.3</v>
       </c>
       <c r="I70" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="J70" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K70" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L70" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M70" t="n">
         <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="O70" t="n">
         <v>1.01</v>
       </c>
       <c r="P70" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="R70" t="n">
         <v>1.18</v>
       </c>
       <c r="S70" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="T70" t="n">
         <v>1.01</v>
@@ -9895,10 +9895,10 @@
         <v>1.01</v>
       </c>
       <c r="V70" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="W70" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X70" t="n">
         <v>1000</v>
@@ -10012,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="Q71" t="n">
         <v>1.01</v>
@@ -10120,10 +10120,10 @@
         <v>3.55</v>
       </c>
       <c r="G72" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H72" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I72" t="n">
         <v>2.3</v>
@@ -10132,43 +10132,43 @@
         <v>3.1</v>
       </c>
       <c r="K72" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L72" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M72" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N72" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O72" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P72" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="Q72" t="n">
         <v>2.06</v>
       </c>
       <c r="R72" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="S72" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T72" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="U72" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V72" t="n">
         <v>1.76</v>
       </c>
       <c r="W72" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X72" t="n">
         <v>15.5</v>
@@ -10210,19 +10210,19 @@
         <v>80</v>
       </c>
       <c r="AK72" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AL72" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN72" t="n">
         <v>55</v>
       </c>
-      <c r="AM72" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO72" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="73">
@@ -10273,7 +10273,7 @@
         <v>1.01</v>
       </c>
       <c r="M73" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N73" t="n">
         <v>5.1</v>
@@ -10297,7 +10297,7 @@
         <v>2.3</v>
       </c>
       <c r="U73" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="V73" t="n">
         <v>1.02</v>
@@ -10411,7 +10411,7 @@
         <v>1.01</v>
       </c>
       <c r="N74" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="O74" t="n">
         <v>1.01</v>
@@ -10423,13 +10423,13 @@
         <v>2.14</v>
       </c>
       <c r="R74" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S74" t="n">
         <v>3.35</v>
       </c>
       <c r="T74" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="U74" t="n">
         <v>1.01</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="G75" t="n">
         <v>1.61</v>
@@ -10558,13 +10558,13 @@
         <v>2.02</v>
       </c>
       <c r="R75" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S75" t="n">
         <v>3.65</v>
       </c>
       <c r="T75" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U75" t="n">
         <v>1.83</v>
@@ -10618,7 +10618,7 @@
         <v>18</v>
       </c>
       <c r="AL75" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM75" t="n">
         <v>180</v>
@@ -10678,7 +10678,7 @@
         <v>1.48</v>
       </c>
       <c r="M76" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N76" t="n">
         <v>1.69</v>
@@ -10699,10 +10699,10 @@
         <v>3.85</v>
       </c>
       <c r="T76" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U76" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V76" t="n">
         <v>1.29</v>
@@ -10711,7 +10711,7 @@
         <v>1.8</v>
       </c>
       <c r="X76" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y76" t="n">
         <v>18</v>
@@ -10804,19 +10804,19 @@
         <v>3.5</v>
       </c>
       <c r="J77" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K77" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L77" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="M77" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="N77" t="n">
-        <v>1.43</v>
+        <v>2.3</v>
       </c>
       <c r="O77" t="n">
         <v>1.69</v>
@@ -10828,76 +10828,76 @@
         <v>3</v>
       </c>
       <c r="R77" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="S77" t="n">
-        <v>3.05</v>
+        <v>6.8</v>
       </c>
       <c r="T77" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="U77" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="V77" t="n">
         <v>1.4</v>
       </c>
       <c r="W77" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X77" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="Y77" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="Z77" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AA77" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB77" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC77" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD77" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AE77" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF77" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AG77" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AH77" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI77" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ77" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN77" t="n">
         <v>65</v>
       </c>
-      <c r="AK77" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM77" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO77" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78">
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G78" t="n">
         <v>2.52</v>
@@ -10936,7 +10936,7 @@
         <v>3.3</v>
       </c>
       <c r="I78" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J78" t="n">
         <v>3.35</v>
@@ -10957,13 +10957,13 @@
         <v>1.4</v>
       </c>
       <c r="P78" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q78" t="n">
         <v>2.22</v>
       </c>
       <c r="R78" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S78" t="n">
         <v>4.1</v>
@@ -10996,7 +10996,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC78" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD78" t="n">
         <v>14</v>
@@ -11029,10 +11029,10 @@
         <v>120</v>
       </c>
       <c r="AN78" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO78" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79">
@@ -11200,10 +11200,10 @@
         <v>1.2</v>
       </c>
       <c r="G80" t="n">
-        <v>2.16</v>
+        <v>1.42</v>
       </c>
       <c r="H80" t="n">
-        <v>1.86</v>
+        <v>8.6</v>
       </c>
       <c r="I80" t="n">
         <v>1000</v>
@@ -11212,7 +11212,7 @@
         <v>5.5</v>
       </c>
       <c r="K80" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="L80" t="n">
         <v>1.01</v>
@@ -11233,10 +11233,10 @@
         <v>1.33</v>
       </c>
       <c r="R80" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="S80" t="n">
-        <v>1.33</v>
+        <v>1.85</v>
       </c>
       <c r="T80" t="n">
         <v>1.01</v>
@@ -11248,7 +11248,7 @@
         <v>1.01</v>
       </c>
       <c r="W80" t="n">
-        <v>1.86</v>
+        <v>3.35</v>
       </c>
       <c r="X80" t="n">
         <v>1000</v>
@@ -11365,7 +11365,7 @@
         <v>2</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R81" t="n">
         <v>1.39</v>
@@ -11512,7 +11512,7 @@
         <v>2.18</v>
       </c>
       <c r="U82" t="n">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="V82" t="n">
         <v>3.95</v>
@@ -11521,7 +11521,7 @@
         <v>1.06</v>
       </c>
       <c r="X82" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y82" t="n">
         <v>7.8</v>
@@ -11602,16 +11602,16 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
         <v>2.02</v>
       </c>
       <c r="H83" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I83" t="n">
         <v>3.7</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3.75</v>
       </c>
       <c r="J83" t="n">
         <v>4.2</v>
@@ -11641,16 +11641,16 @@
         <v>1.73</v>
       </c>
       <c r="S83" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T83" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U83" t="n">
         <v>2.82</v>
       </c>
       <c r="V83" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W83" t="n">
         <v>1.98</v>
@@ -11659,7 +11659,7 @@
         <v>27</v>
       </c>
       <c r="Y83" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z83" t="n">
         <v>34</v>
@@ -11674,7 +11674,7 @@
         <v>10</v>
       </c>
       <c r="AD83" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE83" t="n">
         <v>38</v>
@@ -11707,7 +11707,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AO83" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84">
@@ -11737,13 +11737,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G84" t="n">
         <v>2.92</v>
       </c>
       <c r="H84" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I84" t="n">
         <v>3.1</v>
@@ -11758,19 +11758,19 @@
         <v>1.01</v>
       </c>
       <c r="M84" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N84" t="n">
         <v>3.55</v>
       </c>
       <c r="O84" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P84" t="n">
         <v>1.75</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R84" t="n">
         <v>1.27</v>
@@ -11791,7 +11791,7 @@
         <v>1.52</v>
       </c>
       <c r="X84" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y84" t="n">
         <v>17.5</v>
@@ -11872,34 +11872,34 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G85" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H85" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="I85" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="J85" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K85" t="n">
         <v>7</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -11908,76 +11908,76 @@
         <v>1.43</v>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="S85" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="U85" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="V85" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W85" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="X85" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Y85" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Z85" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AA85" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="AB85" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC85" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD85" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AE85" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AF85" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG85" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH85" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI85" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ85" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AK85" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AL85" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM85" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN85" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AO85" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86">
@@ -12010,7 +12010,7 @@
         <v>1.81</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H86" t="n">
         <v>3.85</v>
@@ -12025,16 +12025,16 @@
         <v>4.7</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P86" t="n">
         <v>2.36</v>
@@ -12043,76 +12043,76 @@
         <v>1.59</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V86" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X86" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y86" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z86" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB86" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC86" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD86" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE86" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF86" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG86" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH86" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI86" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ86" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK86" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL86" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM86" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="87">
@@ -12142,13 +12142,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G87" t="n">
         <v>2.2</v>
       </c>
       <c r="H87" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I87" t="n">
         <v>4.5</v>
@@ -12157,19 +12157,19 @@
         <v>3.25</v>
       </c>
       <c r="K87" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P87" t="n">
         <v>1.72</v>
@@ -12178,76 +12178,76 @@
         <v>2.18</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y87" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB87" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC87" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD87" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE87" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF87" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG87" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH87" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI87" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK87" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL87" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="88">
@@ -12277,34 +12277,34 @@
         </is>
       </c>
       <c r="F88" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G88" t="n">
         <v>1.16</v>
       </c>
-      <c r="G88" t="n">
-        <v>1.17</v>
-      </c>
       <c r="H88" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="I88" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="J88" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="K88" t="n">
         <v>12.5</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P88" t="n">
         <v>4.5</v>
@@ -12313,76 +12313,76 @@
         <v>1.24</v>
       </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="S88" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U88" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V88" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="X88" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Y88" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="Z88" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AA88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB88" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC88" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AD88" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AE88" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AF88" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG88" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH88" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AI88" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AJ88" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK88" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AL88" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM88" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN88" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AO88" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89">
@@ -12424,13 +12424,13 @@
         <v>6.2</v>
       </c>
       <c r="J89" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K89" t="n">
         <v>4.1</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M89" t="n">
         <v>1.06</v>
@@ -12451,7 +12451,7 @@
         <v>1.4</v>
       </c>
       <c r="S89" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T89" t="n">
         <v>1.9</v>
@@ -12460,22 +12460,22 @@
         <v>2</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X89" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y89" t="n">
         <v>21</v>
       </c>
       <c r="Z89" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA89" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AB89" t="n">
         <v>8.800000000000001</v>
@@ -12484,40 +12484,40 @@
         <v>9</v>
       </c>
       <c r="AD89" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE89" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF89" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG89" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>10.5</v>
       </c>
       <c r="AH89" t="n">
         <v>22</v>
       </c>
       <c r="AI89" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ89" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK89" t="n">
         <v>17.5</v>
       </c>
       <c r="AL89" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM89" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN89" t="n">
         <v>10</v>
       </c>
       <c r="AO89" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90">
@@ -12574,7 +12574,7 @@
         <v>3.4</v>
       </c>
       <c r="O90" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P90" t="n">
         <v>1.78</v>
@@ -12589,7 +12589,7 @@
         <v>4.2</v>
       </c>
       <c r="T90" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U90" t="n">
         <v>2.02</v>
@@ -12601,34 +12601,34 @@
         <v>0</v>
       </c>
       <c r="X90" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y90" t="n">
         <v>12.5</v>
       </c>
       <c r="Z90" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA90" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB90" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC90" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD90" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE90" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF90" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG90" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH90" t="n">
         <v>18.5</v>
@@ -12637,22 +12637,22 @@
         <v>65</v>
       </c>
       <c r="AJ90" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK90" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL90" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM90" t="n">
         <v>120</v>
       </c>
       <c r="AN90" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO90" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91">
@@ -12685,7 +12685,7 @@
         <v>1.68</v>
       </c>
       <c r="G91" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="H91" t="n">
         <v>5.4</v>
@@ -12694,7 +12694,7 @@
         <v>6</v>
       </c>
       <c r="J91" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K91" t="n">
         <v>4.4</v>
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q91" t="n">
         <v>1.73</v>
@@ -12817,7 +12817,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G92" t="n">
         <v>1.79</v>
@@ -12826,7 +12826,7 @@
         <v>5.1</v>
       </c>
       <c r="I92" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J92" t="n">
         <v>4</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
@@ -670,13 +670,13 @@
         <v>2.1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H2" t="n">
         <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>3.45</v>
@@ -688,13 +688,13 @@
         <v>1.42</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
         <v>1.87</v>
@@ -709,7 +709,7 @@
         <v>3.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U2" t="n">
         <v>2.06</v>
@@ -718,7 +718,7 @@
         <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
@@ -811,7 +811,7 @@
         <v>1.95</v>
       </c>
       <c r="I3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
@@ -850,7 +850,7 @@
         <v>2.24</v>
       </c>
       <c r="V3" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W3" t="n">
         <v>1.32</v>
@@ -943,16 +943,16 @@
         <v>2.06</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.32</v>
@@ -967,13 +967,13 @@
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q4" t="n">
         <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S4" t="n">
         <v>2.68</v>
@@ -982,19 +982,19 @@
         <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W4" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="n">
         <v>30</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.9</v>
@@ -1096,19 +1096,19 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S5" t="n">
         <v>2.68</v>
@@ -1120,10 +1120,10 @@
         <v>2.56</v>
       </c>
       <c r="V5" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X5" t="n">
         <v>19</v>
@@ -1153,7 +1153,7 @@
         <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
         <v>16</v>
@@ -1234,19 +1234,19 @@
         <v>1.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
         <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1366,16 +1366,16 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
         <v>2.46</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
@@ -1513,10 +1513,10 @@
         <v>1.89</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T8" t="n">
         <v>1.8</v>
@@ -1615,40 +1615,40 @@
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H9" t="n">
         <v>2.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
         <v>4.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
         <v>2.72</v>
@@ -1660,7 +1660,7 @@
         <v>2.32</v>
       </c>
       <c r="V9" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="W9" t="n">
         <v>1.4</v>
@@ -1687,7 +1687,7 @@
         <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF9" t="n">
         <v>30</v>
@@ -1696,10 +1696,10 @@
         <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
         <v>65</v>
@@ -1717,7 +1717,7 @@
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="10">
@@ -1756,7 +1756,7 @@
         <v>6.8</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="J10" t="n">
         <v>4.5</v>
@@ -1765,28 +1765,28 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="R10" t="n">
         <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1795,13 +1795,13 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="W10" t="n">
         <v>3.25</v>
       </c>
       <c r="X10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
         <v>48</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
         <v>18</v>
@@ -1825,31 +1825,31 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK10" t="n">
         <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -2155,10 +2155,10 @@
         <v>1.87</v>
       </c>
       <c r="G13" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
         <v>5.1</v>
@@ -2167,10 +2167,10 @@
         <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2182,16 +2182,16 @@
         <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>1.96</v>
+        <v>1.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="R13" t="n">
         <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
@@ -2203,10 +2203,10 @@
         <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y13" t="n">
         <v>28</v>
@@ -2464,7 +2464,7 @@
         <v>3.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U15" t="n">
         <v>1.76</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="G16" t="n">
         <v>1.4</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="I16" t="n">
         <v>1000</v>
@@ -2572,7 +2572,7 @@
         <v>5.3</v>
       </c>
       <c r="K16" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2590,22 +2590,22 @@
         <v>2.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.2</v>
       </c>
       <c r="R16" t="n">
         <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="T16" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
         <v>1.68</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W16" t="n">
         <v>3.4</v>
@@ -2701,7 +2701,7 @@
         <v>1.98</v>
       </c>
       <c r="I17" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>3.6</v>
@@ -2872,7 +2872,7 @@
         <v>2.12</v>
       </c>
       <c r="U18" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
         <v>1.17</v>
@@ -2890,7 +2890,7 @@
         <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AB18" t="n">
         <v>7</v>
@@ -2971,7 +2971,7 @@
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J19" t="n">
         <v>3</v>
@@ -2980,7 +2980,7 @@
         <v>3.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -2992,28 +2992,28 @@
         <v>1.37</v>
       </c>
       <c r="P19" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q19" t="n">
         <v>2.28</v>
       </c>
       <c r="R19" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S19" t="n">
         <v>3.95</v>
       </c>
       <c r="T19" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="U19" t="n">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="V19" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="G20" t="n">
         <v>3.1</v>
@@ -3106,13 +3106,13 @@
         <v>2.88</v>
       </c>
       <c r="I20" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K20" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="G21" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="H21" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="I21" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="K21" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M21" t="n">
         <v>1.01</v>
@@ -3265,13 +3265,13 @@
         <v>1.47</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="R21" t="n">
         <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="T21" t="n">
         <v>1.01</v>
@@ -3280,10 +3280,10 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="W21" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3367,31 +3367,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="J22" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="K22" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
@@ -3400,13 +3400,13 @@
         <v>1.44</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R22" t="n">
         <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3415,10 +3415,10 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="W22" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3511,7 +3511,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>32</v>
+        <v>14.5</v>
       </c>
       <c r="J23" t="n">
         <v>4.1</v>
@@ -3520,7 +3520,7 @@
         <v>5.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
@@ -3532,13 +3532,13 @@
         <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q23" t="n">
         <v>2.04</v>
       </c>
       <c r="R23" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S23" t="n">
         <v>2.96</v>
@@ -3595,7 +3595,7 @@
         <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL23" t="n">
         <v>85</v>
@@ -3640,16 +3640,16 @@
         <v>2.1</v>
       </c>
       <c r="G24" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H24" t="n">
         <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
         <v>3.8</v>
@@ -3667,7 +3667,7 @@
         <v>1.27</v>
       </c>
       <c r="P24" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q24" t="n">
         <v>1.8</v>
@@ -3679,16 +3679,16 @@
         <v>3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U24" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="V24" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W24" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X24" t="n">
         <v>17.5</v>
@@ -3736,7 +3736,7 @@
         <v>36</v>
       </c>
       <c r="AM24" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="n">
         <v>15</v>
@@ -3823,7 +3823,7 @@
         <v>1.36</v>
       </c>
       <c r="W25" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X25" t="n">
         <v>27</v>
@@ -3847,7 +3847,7 @@
         <v>18.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="n">
         <v>19.5</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>2.14</v>
@@ -3943,7 +3943,7 @@
         <v>2.18</v>
       </c>
       <c r="R26" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S26" t="n">
         <v>4</v>
@@ -3973,10 +3973,10 @@
         <v>120</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
         <v>22</v>
@@ -3985,10 +3985,10 @@
         <v>80</v>
       </c>
       <c r="AF26" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
         <v>24</v>
@@ -4048,7 +4048,7 @@
         <v>7</v>
       </c>
       <c r="H27" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="I27" t="n">
         <v>1.72</v>
@@ -4075,7 +4075,7 @@
         <v>1.82</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
         <v>1.26</v>
@@ -4093,7 +4093,7 @@
         <v>2.38</v>
       </c>
       <c r="W27" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X27" t="n">
         <v>15</v>
@@ -4126,7 +4126,7 @@
         <v>34</v>
       </c>
       <c r="AH27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI27" t="n">
         <v>65</v>
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G28" t="n">
         <v>1.99</v>
       </c>
-      <c r="G28" t="n">
-        <v>2.02</v>
-      </c>
       <c r="H28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I28" t="n">
         <v>4.9</v>
@@ -4228,10 +4228,10 @@
         <v>1.25</v>
       </c>
       <c r="W28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y28" t="n">
         <v>13.5</v>
@@ -4471,16 +4471,16 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.63</v>
+        <v>1.03</v>
       </c>
       <c r="O30" t="n">
-        <v>1.02</v>
+        <v>1.44</v>
       </c>
       <c r="P30" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="R30" t="n">
         <v>1.19</v>
@@ -4534,7 +4534,7 @@
         <v>32</v>
       </c>
       <c r="AI30" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="n">
         <v>1000</v>
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G31" t="n">
         <v>1.99</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>4.6</v>
@@ -4624,7 +4624,7 @@
         <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U31" t="n">
         <v>1.97</v>
@@ -4666,7 +4666,7 @@
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
         <v>80</v>
@@ -4762,7 +4762,7 @@
         <v>1.01</v>
       </c>
       <c r="U32" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="V32" t="n">
         <v>1.32</v>
@@ -4879,10 +4879,10 @@
         <v>4.2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P33" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q33" t="n">
         <v>1.87</v>
@@ -4999,7 +4999,7 @@
         <v>5.2</v>
       </c>
       <c r="J34" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K34" t="n">
         <v>3.9</v>
@@ -5035,7 +5035,7 @@
         <v>2.18</v>
       </c>
       <c r="V34" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W34" t="n">
         <v>2.18</v>
@@ -5068,7 +5068,7 @@
         <v>11</v>
       </c>
       <c r="AG34" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH34" t="n">
         <v>18</v>
@@ -5155,7 +5155,7 @@
         <v>2.14</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R35" t="n">
         <v>1.45</v>
@@ -5302,7 +5302,7 @@
         <v>1.56</v>
       </c>
       <c r="U36" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="V36" t="n">
         <v>1.7</v>
@@ -5416,7 +5416,7 @@
         <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O37" t="n">
         <v>1.44</v>
@@ -5428,7 +5428,7 @@
         <v>2.3</v>
       </c>
       <c r="R37" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S37" t="n">
         <v>4.4</v>
@@ -5539,7 +5539,7 @@
         <v>3.2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K38" t="n">
         <v>6.4</v>
@@ -5674,7 +5674,7 @@
         <v>3.75</v>
       </c>
       <c r="J39" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K39" t="n">
         <v>4.2</v>
@@ -5797,52 +5797,52 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="G40" t="n">
         <v>3.8</v>
       </c>
       <c r="H40" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I40" t="n">
         <v>2.8</v>
       </c>
       <c r="J40" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K40" t="n">
-        <v>48</v>
+        <v>4.9</v>
       </c>
       <c r="L40" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M40" t="n">
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="O40" t="n">
         <v>1.24</v>
       </c>
       <c r="P40" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="Q40" t="n">
         <v>1.64</v>
       </c>
       <c r="R40" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="S40" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="T40" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="U40" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="V40" t="n">
         <v>1.55</v>
@@ -5851,10 +5851,10 @@
         <v>1.35</v>
       </c>
       <c r="X40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z40" t="n">
         <v>25</v>
@@ -5863,7 +5863,7 @@
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC40" t="n">
         <v>12.5</v>
@@ -5956,13 +5956,13 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="O41" t="n">
         <v>1.25</v>
       </c>
       <c r="P41" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q41" t="n">
         <v>1.56</v>
@@ -6094,13 +6094,13 @@
         <v>3.35</v>
       </c>
       <c r="O42" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="P42" t="n">
         <v>1.8</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R42" t="n">
         <v>1.3</v>
@@ -6115,7 +6115,7 @@
         <v>2.02</v>
       </c>
       <c r="V42" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W42" t="n">
         <v>1.77</v>
@@ -6124,7 +6124,7 @@
         <v>13</v>
       </c>
       <c r="Y42" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z42" t="n">
         <v>27</v>
@@ -6211,7 +6211,7 @@
         <v>3.35</v>
       </c>
       <c r="I43" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="J43" t="n">
         <v>3.3</v>
@@ -6250,7 +6250,7 @@
         <v>1.69</v>
       </c>
       <c r="V43" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="W43" t="n">
         <v>1.7</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G44" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H44" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J44" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K44" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L44" t="n">
         <v>1.37</v>
@@ -6385,13 +6385,13 @@
         <v>1.96</v>
       </c>
       <c r="V44" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W44" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="X44" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y44" t="n">
         <v>16</v>
@@ -6421,7 +6421,7 @@
         <v>11</v>
       </c>
       <c r="AH44" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI44" t="n">
         <v>55</v>
@@ -6430,7 +6430,7 @@
         <v>26</v>
       </c>
       <c r="AK44" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL44" t="n">
         <v>36</v>
@@ -6439,7 +6439,7 @@
         <v>95</v>
       </c>
       <c r="AN44" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO44" t="n">
         <v>48</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G45" t="n">
         <v>1.29</v>
       </c>
-      <c r="G45" t="n">
-        <v>1.31</v>
-      </c>
       <c r="H45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J45" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="K45" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L45" t="n">
         <v>1.19</v>
@@ -6502,49 +6502,49 @@
         <v>1.13</v>
       </c>
       <c r="P45" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R45" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="S45" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T45" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U45" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V45" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W45" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="X45" t="n">
         <v>40</v>
       </c>
       <c r="Y45" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z45" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA45" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AB45" t="n">
         <v>15</v>
       </c>
       <c r="AC45" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD45" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AE45" t="n">
         <v>140</v>
@@ -6559,10 +6559,10 @@
         <v>980</v>
       </c>
       <c r="AI45" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ45" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK45" t="n">
         <v>14</v>
@@ -6571,13 +6571,13 @@
         <v>28</v>
       </c>
       <c r="AM45" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN45" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO45" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46">
@@ -6616,10 +6616,10 @@
         <v>4.5</v>
       </c>
       <c r="I46" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="J46" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K46" t="n">
         <v>9.199999999999999</v>
@@ -6640,7 +6640,7 @@
         <v>2.12</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R46" t="n">
         <v>1.35</v>
@@ -6688,7 +6688,7 @@
         <v>15</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH46" t="n">
         <v>1000</v>
@@ -6781,10 +6781,10 @@
         <v>1.59</v>
       </c>
       <c r="S47" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T47" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U47" t="n">
         <v>2.36</v>
@@ -6823,7 +6823,7 @@
         <v>14.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH47" t="n">
         <v>17.5</v>
@@ -6913,7 +6913,7 @@
         <v>1.63</v>
       </c>
       <c r="R48" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S48" t="n">
         <v>2.58</v>
@@ -7015,16 +7015,16 @@
         <v>2.12</v>
       </c>
       <c r="G49" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H49" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I49" t="n">
         <v>4.1</v>
       </c>
       <c r="J49" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K49" t="n">
         <v>3.8</v>
@@ -7033,7 +7033,7 @@
         <v>1.36</v>
       </c>
       <c r="M49" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N49" t="n">
         <v>3.1</v>
@@ -7042,7 +7042,7 @@
         <v>1.38</v>
       </c>
       <c r="P49" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="Q49" t="n">
         <v>1.96</v>
@@ -7060,7 +7060,7 @@
         <v>1.65</v>
       </c>
       <c r="V49" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W49" t="n">
         <v>1.74</v>
@@ -7156,10 +7156,10 @@
         <v>1.5</v>
       </c>
       <c r="I50" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J50" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K50" t="n">
         <v>5.6</v>
@@ -7171,13 +7171,13 @@
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O50" t="n">
         <v>1.16</v>
       </c>
       <c r="P50" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q50" t="n">
         <v>1.47</v>
@@ -7186,7 +7186,7 @@
         <v>1.69</v>
       </c>
       <c r="S50" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T50" t="n">
         <v>1.62</v>
@@ -7195,13 +7195,13 @@
         <v>2.28</v>
       </c>
       <c r="V50" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="W50" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="X50" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y50" t="n">
         <v>16</v>
@@ -7243,7 +7243,7 @@
         <v>85</v>
       </c>
       <c r="AL50" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM50" t="n">
         <v>90</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G51" t="n">
         <v>2.2</v>
@@ -7420,7 +7420,7 @@
         <v>1.63</v>
       </c>
       <c r="G52" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="H52" t="n">
         <v>5.5</v>
@@ -7468,7 +7468,7 @@
         <v>1.17</v>
       </c>
       <c r="W52" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="X52" t="n">
         <v>15.5</v>
@@ -7720,7 +7720,7 @@
         <v>1.68</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R54" t="n">
         <v>1.2</v>
@@ -7831,7 +7831,7 @@
         <v>4.2</v>
       </c>
       <c r="I55" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="J55" t="n">
         <v>3.15</v>
@@ -7846,13 +7846,13 @@
         <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="O55" t="n">
         <v>1.01</v>
       </c>
       <c r="P55" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q55" t="n">
         <v>1.87</v>
@@ -7864,7 +7864,7 @@
         <v>2.84</v>
       </c>
       <c r="T55" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="U55" t="n">
         <v>1.65</v>
@@ -7882,7 +7882,7 @@
         <v>22</v>
       </c>
       <c r="Z55" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA55" t="n">
         <v>1000</v>
@@ -8002,7 +8002,7 @@
         <v>1.95</v>
       </c>
       <c r="U56" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V56" t="n">
         <v>3.2</v>
@@ -8095,16 +8095,16 @@
         <v>2.06</v>
       </c>
       <c r="G57" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H57" t="n">
         <v>3.7</v>
       </c>
       <c r="I57" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J57" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K57" t="n">
         <v>4</v>
@@ -8116,7 +8116,7 @@
         <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="O57" t="n">
         <v>1.09</v>
@@ -8143,7 +8143,7 @@
         <v>1.27</v>
       </c>
       <c r="W57" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>
@@ -8401,13 +8401,13 @@
         <v>1.28</v>
       </c>
       <c r="S59" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T59" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U59" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V59" t="n">
         <v>1.5</v>
@@ -8455,7 +8455,7 @@
         <v>60</v>
       </c>
       <c r="AK59" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL59" t="n">
         <v>60</v>
@@ -8497,16 +8497,16 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G60" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H60" t="n">
         <v>8</v>
       </c>
       <c r="I60" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J60" t="n">
         <v>4.5</v>
@@ -8527,7 +8527,7 @@
         <v>1.31</v>
       </c>
       <c r="P60" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q60" t="n">
         <v>1.94</v>
@@ -8548,7 +8548,7 @@
         <v>1.13</v>
       </c>
       <c r="W60" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="X60" t="n">
         <v>15.5</v>
@@ -8566,7 +8566,7 @@
         <v>7.8</v>
       </c>
       <c r="AC60" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD60" t="n">
         <v>30</v>
@@ -8575,7 +8575,7 @@
         <v>140</v>
       </c>
       <c r="AF60" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG60" t="n">
         <v>9.800000000000001</v>
@@ -8587,7 +8587,7 @@
         <v>130</v>
       </c>
       <c r="AJ60" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK60" t="n">
         <v>16</v>
@@ -8635,13 +8635,13 @@
         <v>2.06</v>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H61" t="n">
         <v>3.6</v>
       </c>
       <c r="I61" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J61" t="n">
         <v>3.5</v>
@@ -8671,7 +8671,7 @@
         <v>1.33</v>
       </c>
       <c r="S61" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="T61" t="n">
         <v>1.61</v>
@@ -9052,7 +9052,7 @@
         <v>7.8</v>
       </c>
       <c r="K64" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="L64" t="n">
         <v>1.18</v>
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="G65" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H65" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="I65" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J65" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K65" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9196,16 +9196,16 @@
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="O65" t="n">
         <v>1.25</v>
       </c>
       <c r="P65" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R65" t="n">
         <v>1.35</v>
@@ -9220,10 +9220,10 @@
         <v>1.01</v>
       </c>
       <c r="V65" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W65" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X65" t="n">
         <v>1000</v>
@@ -9313,7 +9313,7 @@
         <v>5</v>
       </c>
       <c r="H66" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="I66" t="n">
         <v>1.98</v>
@@ -9322,7 +9322,7 @@
         <v>3.75</v>
       </c>
       <c r="K66" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L66" t="n">
         <v>1.29</v>
@@ -9358,7 +9358,7 @@
         <v>2.02</v>
       </c>
       <c r="W66" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X66" t="n">
         <v>16</v>
@@ -9373,7 +9373,7 @@
         <v>23</v>
       </c>
       <c r="AB66" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC66" t="n">
         <v>9</v>
@@ -9442,10 +9442,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="G67" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H67" t="n">
         <v>5</v>
@@ -9457,7 +9457,7 @@
         <v>3.55</v>
       </c>
       <c r="K67" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L67" t="n">
         <v>1.37</v>
@@ -9487,13 +9487,13 @@
         <v>1.93</v>
       </c>
       <c r="U67" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="V67" t="n">
         <v>1.21</v>
       </c>
       <c r="W67" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="X67" t="n">
         <v>13.5</v>
@@ -9535,7 +9535,7 @@
         <v>22</v>
       </c>
       <c r="AK67" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL67" t="n">
         <v>44</v>
@@ -9712,25 +9712,25 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G69" t="n">
         <v>6.6</v>
       </c>
       <c r="H69" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I69" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="J69" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K69" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="L69" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M69" t="n">
         <v>1.01</v>
@@ -9760,7 +9760,7 @@
         <v>1.01</v>
       </c>
       <c r="V69" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="W69" t="n">
         <v>1.18</v>
@@ -9847,46 +9847,46 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="G70" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>5.3</v>
       </c>
       <c r="I70" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="J70" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K70" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L70" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M70" t="n">
         <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="O70" t="n">
         <v>1.01</v>
       </c>
       <c r="P70" t="n">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="R70" t="n">
         <v>1.18</v>
       </c>
       <c r="S70" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="T70" t="n">
         <v>1.01</v>
@@ -9895,10 +9895,10 @@
         <v>1.01</v>
       </c>
       <c r="V70" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W70" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="X70" t="n">
         <v>1000</v>
@@ -10135,7 +10135,7 @@
         <v>3.85</v>
       </c>
       <c r="L72" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M72" t="n">
         <v>1.07</v>
@@ -10159,7 +10159,7 @@
         <v>3.5</v>
       </c>
       <c r="T72" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="U72" t="n">
         <v>1.92</v>
@@ -10186,7 +10186,7 @@
         <v>15</v>
       </c>
       <c r="AC72" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD72" t="n">
         <v>12</v>
@@ -10390,16 +10390,16 @@
         <v>2.76</v>
       </c>
       <c r="G74" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H74" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I74" t="n">
         <v>3.2</v>
       </c>
       <c r="J74" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="K74" t="n">
         <v>3.35</v>
@@ -10420,7 +10420,7 @@
         <v>1.69</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R74" t="n">
         <v>1.23</v>
@@ -10429,16 +10429,16 @@
         <v>3.35</v>
       </c>
       <c r="T74" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U74" t="n">
         <v>1.02</v>
-      </c>
-      <c r="U74" t="n">
-        <v>1.01</v>
       </c>
       <c r="V74" t="n">
         <v>1.46</v>
       </c>
       <c r="W74" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X74" t="n">
         <v>1000</v>
@@ -10525,13 +10525,13 @@
         <v>1.59</v>
       </c>
       <c r="G75" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>7.2</v>
       </c>
       <c r="I75" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J75" t="n">
         <v>4.2</v>
@@ -10561,10 +10561,10 @@
         <v>1.35</v>
       </c>
       <c r="S75" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T75" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U75" t="n">
         <v>1.83</v>
@@ -10573,7 +10573,7 @@
         <v>1.15</v>
       </c>
       <c r="W75" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="X75" t="n">
         <v>14</v>
@@ -10582,7 +10582,7 @@
         <v>22</v>
       </c>
       <c r="Z75" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA75" t="n">
         <v>260</v>
@@ -10666,7 +10666,7 @@
         <v>3.95</v>
       </c>
       <c r="I76" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J76" t="n">
         <v>3.2</v>
@@ -10705,7 +10705,7 @@
         <v>2</v>
       </c>
       <c r="V76" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W76" t="n">
         <v>1.8</v>
@@ -10795,7 +10795,7 @@
         <v>2.68</v>
       </c>
       <c r="G77" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H77" t="n">
         <v>3.2</v>
@@ -10804,10 +10804,10 @@
         <v>3.5</v>
       </c>
       <c r="J77" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="K77" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
@@ -10837,13 +10837,13 @@
         <v>2.3</v>
       </c>
       <c r="U77" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="V77" t="n">
         <v>1.4</v>
       </c>
       <c r="W77" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X77" t="n">
         <v>7.4</v>
@@ -10963,7 +10963,7 @@
         <v>2.22</v>
       </c>
       <c r="R78" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S78" t="n">
         <v>4.1</v>
@@ -11032,7 +11032,7 @@
         <v>26</v>
       </c>
       <c r="AO78" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79">
@@ -11065,7 +11065,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="G79" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="H79" t="n">
         <v>1.4</v>
@@ -11074,7 +11074,7 @@
         <v>1.42</v>
       </c>
       <c r="J79" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K79" t="n">
         <v>5.7</v>
@@ -11092,10 +11092,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11509,10 +11509,10 @@
         <v>3</v>
       </c>
       <c r="T82" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="U82" t="n">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="V82" t="n">
         <v>3.95</v>
@@ -11605,13 +11605,13 @@
         <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H83" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I83" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J83" t="n">
         <v>4.2</v>
@@ -11620,25 +11620,25 @@
         <v>4.3</v>
       </c>
       <c r="L83" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M83" t="n">
         <v>1.03</v>
       </c>
       <c r="N83" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O83" t="n">
         <v>1.17</v>
       </c>
       <c r="P83" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="Q83" t="n">
         <v>1.52</v>
       </c>
       <c r="R83" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S83" t="n">
         <v>2.3</v>
@@ -11647,25 +11647,25 @@
         <v>1.53</v>
       </c>
       <c r="U83" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="V83" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W83" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="X83" t="n">
         <v>27</v>
       </c>
       <c r="Y83" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Z83" t="n">
         <v>34</v>
       </c>
       <c r="AA83" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB83" t="n">
         <v>15.5</v>
@@ -11674,7 +11674,7 @@
         <v>10</v>
       </c>
       <c r="AD83" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE83" t="n">
         <v>38</v>
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G84" t="n">
         <v>2.92</v>
@@ -11770,7 +11770,7 @@
         <v>1.75</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R84" t="n">
         <v>1.27</v>
@@ -11779,10 +11779,10 @@
         <v>2.92</v>
       </c>
       <c r="T84" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U84" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V84" t="n">
         <v>1.47</v>
@@ -11794,10 +11794,10 @@
         <v>1000</v>
       </c>
       <c r="Y84" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z84" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA84" t="n">
         <v>65</v>
@@ -11812,13 +11812,13 @@
         <v>18.5</v>
       </c>
       <c r="AE84" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF84" t="n">
         <v>28</v>
       </c>
       <c r="AG84" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH84" t="n">
         <v>25</v>
@@ -11827,13 +11827,13 @@
         <v>65</v>
       </c>
       <c r="AJ84" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK84" t="n">
         <v>46</v>
       </c>
       <c r="AL84" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM84" t="n">
         <v>1000</v>
@@ -11917,7 +11917,7 @@
         <v>1.81</v>
       </c>
       <c r="U85" t="n">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="V85" t="n">
         <v>1.09</v>
@@ -12010,7 +12010,7 @@
         <v>1.81</v>
       </c>
       <c r="G86" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>3.85</v>
@@ -12022,7 +12022,7 @@
         <v>3.9</v>
       </c>
       <c r="K86" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L86" t="n">
         <v>1.01</v>
@@ -12031,19 +12031,19 @@
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="O86" t="n">
         <v>1.2</v>
       </c>
       <c r="P86" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R86" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S86" t="n">
         <v>1.01</v>
@@ -12070,7 +12070,7 @@
         <v>50</v>
       </c>
       <c r="AA86" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB86" t="n">
         <v>18</v>
@@ -12145,10 +12145,10 @@
         <v>2.06</v>
       </c>
       <c r="G87" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H87" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="I87" t="n">
         <v>4.5</v>
@@ -12193,7 +12193,7 @@
         <v>1.28</v>
       </c>
       <c r="W87" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="X87" t="n">
         <v>1000</v>
@@ -12316,10 +12316,10 @@
         <v>2.4</v>
       </c>
       <c r="S88" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T88" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="U88" t="n">
         <v>2.06</v>
@@ -12349,7 +12349,7 @@
         <v>32</v>
       </c>
       <c r="AD88" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AE88" t="n">
         <v>270</v>
@@ -12442,7 +12442,7 @@
         <v>1.3</v>
       </c>
       <c r="P89" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q89" t="n">
         <v>1.91</v>
@@ -12451,13 +12451,13 @@
         <v>1.4</v>
       </c>
       <c r="S89" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T89" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U89" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V89" t="n">
         <v>1.19</v>
@@ -12481,7 +12481,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC89" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD89" t="n">
         <v>24</v>
@@ -12493,7 +12493,7 @@
         <v>9.6</v>
       </c>
       <c r="AG89" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH89" t="n">
         <v>22</v>
@@ -12511,13 +12511,13 @@
         <v>36</v>
       </c>
       <c r="AM89" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN89" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO89" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
@@ -12553,7 +12553,7 @@
         <v>2.34</v>
       </c>
       <c r="H90" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I90" t="n">
         <v>3.85</v>
@@ -12565,16 +12565,16 @@
         <v>3.35</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M90" t="n">
         <v>1.09</v>
       </c>
       <c r="N90" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O90" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P90" t="n">
         <v>1.78</v>
@@ -12589,16 +12589,16 @@
         <v>4.2</v>
       </c>
       <c r="T90" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="U90" t="n">
         <v>2.02</v>
       </c>
       <c r="V90" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W90" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X90" t="n">
         <v>11</v>
@@ -12631,7 +12631,7 @@
         <v>11</v>
       </c>
       <c r="AH90" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI90" t="n">
         <v>65</v>
@@ -12685,13 +12685,13 @@
         <v>1.68</v>
       </c>
       <c r="G91" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H91" t="n">
         <v>5.4</v>
       </c>
       <c r="I91" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J91" t="n">
         <v>4</v>
@@ -12700,16 +12700,16 @@
         <v>4.4</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P91" t="n">
         <v>2.2</v>
@@ -12718,76 +12718,76 @@
         <v>1.73</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S91" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="U91" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V91" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="X91" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y91" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z91" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AA91" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AB91" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC91" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD91" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE91" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF91" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG91" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH91" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI91" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ91" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AK91" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL91" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM91" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN91" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO91" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92">
@@ -12835,16 +12835,16 @@
         <v>4.4</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P92" t="n">
         <v>2.1</v>
@@ -12853,76 +12853,76 @@
         <v>1.8</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="X92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y92" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z92" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB92" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC92" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD92" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE92" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF92" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG92" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH92" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI92" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK92" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL92" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="93">
@@ -12955,7 +12955,7 @@
         <v>1.9</v>
       </c>
       <c r="G93" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>4.3</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
@@ -682,7 +682,7 @@
         <v>3.45</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
         <v>1.42</v>
@@ -694,7 +694,7 @@
         <v>3.55</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
         <v>1.87</v>
@@ -730,7 +730,7 @@
         <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="n">
         <v>9.6</v>
@@ -751,7 +751,7 @@
         <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>70</v>
@@ -769,7 +769,7 @@
         <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -805,19 +805,19 @@
         <v>3.85</v>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="I3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -841,16 +841,16 @@
         <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T3" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V3" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="W3" t="n">
         <v>1.32</v>
@@ -877,7 +877,7 @@
         <v>15.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
         <v>46</v>
@@ -886,10 +886,10 @@
         <v>24</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ3" t="n">
         <v>100</v>
@@ -898,16 +898,16 @@
         <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM3" t="n">
         <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I4" t="n">
         <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.32</v>
@@ -967,13 +967,13 @@
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
         <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S4" t="n">
         <v>2.68</v>
@@ -988,7 +988,7 @@
         <v>1.34</v>
       </c>
       <c r="W4" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -997,7 +997,7 @@
         <v>19</v>
       </c>
       <c r="Z4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="n">
         <v>75</v>
@@ -1027,7 +1027,7 @@
         <v>44</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
         <v>19</v>
@@ -1084,7 +1084,7 @@
         <v>2.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
         <v>3.95</v>
@@ -1102,13 +1102,13 @@
         <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S5" t="n">
         <v>2.68</v>
@@ -1123,7 +1123,7 @@
         <v>1.71</v>
       </c>
       <c r="W5" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X5" t="n">
         <v>19</v>
@@ -1135,7 +1135,7 @@
         <v>18</v>
       </c>
       <c r="AA5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
         <v>16</v>
@@ -1234,25 +1234,25 @@
         <v>1.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
         <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
         <v>1.01</v>
@@ -1342,67 +1342,67 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="G7" t="n">
-        <v>6.6</v>
+        <v>13.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="I7" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
         <v>5.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
         <v>2.46</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="W7" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1411,10 +1411,10 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.96</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.97</v>
-      </c>
       <c r="H8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
         <v>3.8</v>
@@ -1504,43 +1504,43 @@
         <v>3.95</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
         <v>2.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V8" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X8" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z8" t="n">
         <v>32</v>
       </c>
       <c r="AA8" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB8" t="n">
         <v>9.6</v>
@@ -1552,7 +1552,7 @@
         <v>17.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
         <v>12.5</v>
@@ -1561,25 +1561,25 @@
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK8" t="n">
         <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="n">
         <v>55</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G9" t="n">
         <v>3.55</v>
       </c>
       <c r="H9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I9" t="n">
         <v>2.42</v>
@@ -1636,7 +1636,7 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.24</v>
@@ -1657,13 +1657,13 @@
         <v>1.61</v>
       </c>
       <c r="U9" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X9" t="n">
         <v>23</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="G10" t="n">
         <v>1.44</v>
@@ -1756,46 +1756,46 @@
         <v>6.8</v>
       </c>
       <c r="I10" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="R10" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="S10" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W10" t="n">
         <v>3.25</v>
@@ -1804,7 +1804,7 @@
         <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,22 +1813,22 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
         <v>1000</v>
@@ -1837,10 +1837,10 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1924,10 +1924,10 @@
         <v>1.15</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
         <v>1.01</v>
@@ -2059,10 +2059,10 @@
         <v>1.22</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
         <v>1.01</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G13" t="n">
         <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.22</v>
@@ -2185,7 +2185,7 @@
         <v>1.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="R13" t="n">
         <v>1.18</v>
@@ -2200,7 +2200,7 @@
         <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="W13" t="n">
         <v>1.83</v>
@@ -2209,46 +2209,46 @@
         <v>29</v>
       </c>
       <c r="Y13" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
@@ -2425,7 +2425,7 @@
         <v>3.6</v>
       </c>
       <c r="G15" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H15" t="n">
         <v>2.1</v>
@@ -2446,28 +2446,28 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.34</v>
       </c>
       <c r="P15" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>1.34</v>
       </c>
       <c r="R15" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
         <v>1.66</v>
       </c>
       <c r="U15" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V15" t="n">
         <v>1.78</v>
@@ -2482,40 +2482,40 @@
         <v>9.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
         <v>75</v>
       </c>
       <c r="AK15" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
         <v>60</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="G16" t="n">
         <v>1.4</v>
       </c>
       <c r="H16" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="I16" t="n">
         <v>1000</v>
@@ -2572,7 +2572,7 @@
         <v>5.3</v>
       </c>
       <c r="K16" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,31 +2581,31 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.02</v>
+        <v>2.14</v>
       </c>
       <c r="O16" t="n">
         <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="R16" t="n">
         <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="V16" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
         <v>3.4</v>
@@ -2695,7 +2695,7 @@
         <v>4.4</v>
       </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H17" t="n">
         <v>1.98</v>
@@ -2743,7 +2743,7 @@
         <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X17" t="n">
         <v>12.5</v>
@@ -2755,7 +2755,7 @@
         <v>11</v>
       </c>
       <c r="AA17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
         <v>14.5</v>
@@ -2782,7 +2782,7 @@
         <v>44</v>
       </c>
       <c r="AJ17" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK17" t="n">
         <v>65</v>
@@ -2791,7 +2791,7 @@
         <v>75</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN17" t="n">
         <v>75</v>
@@ -2830,10 +2830,10 @@
         <v>1.63</v>
       </c>
       <c r="G18" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H18" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
         <v>7.4</v>
@@ -2848,7 +2848,7 @@
         <v>1.46</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
         <v>3</v>
@@ -2872,55 +2872,55 @@
         <v>2.12</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V18" t="n">
         <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="n">
         <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AB18" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AE18" t="n">
         <v>150</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
         <v>150</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
         <v>55</v>
@@ -2929,7 +2929,7 @@
         <v>240</v>
       </c>
       <c r="AN18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO18" t="n">
         <v>250</v>
@@ -2971,7 +2971,7 @@
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J19" t="n">
         <v>3</v>
@@ -2983,40 +2983,40 @@
         <v>1.41</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>2.74</v>
+        <v>1.54</v>
       </c>
       <c r="O19" t="n">
-        <v>1.37</v>
+        <v>1.06</v>
       </c>
       <c r="P19" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="V19" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W19" t="n">
         <v>1.59</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y19" t="n">
         <v>15.5</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I20" t="n">
         <v>3.4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="K20" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q20" t="n">
         <v>2.46</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G21" t="n">
         <v>3.25</v>
@@ -3265,13 +3265,13 @@
         <v>1.47</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="R21" t="n">
         <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="T21" t="n">
         <v>1.01</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G22" t="n">
         <v>2.68</v>
@@ -3382,10 +3382,10 @@
         <v>2.88</v>
       </c>
       <c r="K22" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
@@ -3397,16 +3397,16 @@
         <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R22" t="n">
         <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3415,7 +3415,7 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W22" t="n">
         <v>1.59</v>
@@ -3502,64 +3502,64 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="G23" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="J23" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K23" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="L23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O23" t="n">
         <v>1.34</v>
       </c>
-      <c r="M23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P23" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="S23" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.98</v>
+        <v>2.44</v>
       </c>
       <c r="U23" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="V23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W23" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="X23" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3568,43 +3568,43 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AD23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL23" t="n">
         <v>65</v>
       </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>85</v>
-      </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G24" t="n">
         <v>2.26</v>
@@ -3661,22 +3661,22 @@
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O24" t="n">
         <v>1.27</v>
       </c>
       <c r="P24" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q24" t="n">
         <v>1.8</v>
       </c>
       <c r="R24" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T24" t="n">
         <v>1.65</v>
@@ -3691,13 +3691,13 @@
         <v>1.79</v>
       </c>
       <c r="X24" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="Z24" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AA24" t="n">
         <v>70</v>
@@ -3709,10 +3709,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AE24" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AF24" t="n">
         <v>15.5</v>
@@ -3721,19 +3721,19 @@
         <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AI24" t="n">
         <v>50</v>
       </c>
       <c r="AJ24" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
         <v>80</v>
@@ -3826,58 +3826,58 @@
         <v>1.79</v>
       </c>
       <c r="X25" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G26" t="n">
         <v>2.14</v>
@@ -3916,19 +3916,19 @@
         <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J26" t="n">
         <v>3.25</v>
       </c>
       <c r="K26" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
         <v>3.15</v>
@@ -3955,64 +3955,64 @@
         <v>1.94</v>
       </c>
       <c r="V26" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W26" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="X26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA26" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AE26" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AF26" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI26" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ26" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK26" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL26" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM26" t="n">
         <v>160</v>
       </c>
       <c r="AN26" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AO26" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H27" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="I27" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="J27" t="n">
         <v>3.75</v>
@@ -4075,79 +4075,79 @@
         <v>1.82</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="R27" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S27" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U27" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="V27" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="W27" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y27" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA27" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AB27" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AC27" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>240</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO27" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4180,7 +4180,7 @@
         <v>1.98</v>
       </c>
       <c r="G28" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>4.8</v>
@@ -4198,13 +4198,13 @@
         <v>1.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
         <v>2.98</v>
       </c>
       <c r="O28" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P28" t="n">
         <v>1.65</v>
@@ -4222,7 +4222,7 @@
         <v>2.12</v>
       </c>
       <c r="U28" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V28" t="n">
         <v>1.25</v>
@@ -4318,7 +4318,7 @@
         <v>1000</v>
       </c>
       <c r="H29" t="n">
-        <v>1.36</v>
+        <v>1.09</v>
       </c>
       <c r="I29" t="n">
         <v>1000</v>
@@ -4345,7 +4345,7 @@
         <v>1.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="R29" t="n">
         <v>1.18</v>
@@ -4450,16 +4450,16 @@
         <v>4.3</v>
       </c>
       <c r="G30" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J30" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
         <v>3.5</v>
@@ -4477,13 +4477,13 @@
         <v>1.44</v>
       </c>
       <c r="P30" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q30" t="n">
         <v>2.12</v>
       </c>
       <c r="R30" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S30" t="n">
         <v>3.9</v>
@@ -4495,13 +4495,13 @@
         <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W30" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="X30" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y30" t="n">
         <v>10.5</v>
@@ -4510,22 +4510,22 @@
         <v>17</v>
       </c>
       <c r="AA30" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD30" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AG30" t="n">
         <v>28</v>
@@ -4594,16 +4594,16 @@
         <v>4.7</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K31" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L31" t="n">
         <v>1.45</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
         <v>3.35</v>
@@ -4618,13 +4618,13 @@
         <v>2.18</v>
       </c>
       <c r="R31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S31" t="n">
         <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U31" t="n">
         <v>1.97</v>
@@ -4666,7 +4666,7 @@
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
         <v>80</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="G32" t="n">
-        <v>980</v>
+        <v>2.56</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I32" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="J32" t="n">
-        <v>1.09</v>
+        <v>3.05</v>
       </c>
       <c r="K32" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4750,13 +4750,13 @@
         <v>1.64</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R32" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T32" t="n">
         <v>1.01</v>
@@ -4765,10 +4765,10 @@
         <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="W32" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="X32" t="n">
         <v>14.5</v>
@@ -4855,7 +4855,7 @@
         <v>4.4</v>
       </c>
       <c r="G33" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H33" t="n">
         <v>1.91</v>
@@ -4882,7 +4882,7 @@
         <v>1.28</v>
       </c>
       <c r="P33" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q33" t="n">
         <v>1.87</v>
@@ -4921,7 +4921,7 @@
         <v>17</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD33" t="n">
         <v>10</v>
@@ -4948,7 +4948,7 @@
         <v>55</v>
       </c>
       <c r="AL33" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM33" t="n">
         <v>90</v>
@@ -5044,7 +5044,7 @@
         <v>15.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z34" t="n">
         <v>38</v>
@@ -5128,7 +5128,7 @@
         <v>3.1</v>
       </c>
       <c r="H35" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I35" t="n">
         <v>2.54</v>
@@ -5137,7 +5137,7 @@
         <v>3.6</v>
       </c>
       <c r="K35" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L35" t="n">
         <v>1.34</v>
@@ -5155,7 +5155,7 @@
         <v>2.14</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R35" t="n">
         <v>1.45</v>
@@ -5173,7 +5173,7 @@
         <v>1.65</v>
       </c>
       <c r="W35" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X35" t="n">
         <v>16</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
         <v>3.1</v>
@@ -5266,7 +5266,7 @@
         <v>2.4</v>
       </c>
       <c r="I36" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J36" t="n">
         <v>3.85</v>
@@ -5314,16 +5314,16 @@
         <v>21</v>
       </c>
       <c r="Y36" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z36" t="n">
         <v>18</v>
       </c>
       <c r="AA36" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB36" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC36" t="n">
         <v>9</v>
@@ -5449,7 +5449,7 @@
         <v>10.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z37" t="n">
         <v>27</v>
@@ -5461,7 +5461,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD37" t="n">
         <v>16.5</v>
@@ -5479,7 +5479,7 @@
         <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ37" t="n">
         <v>28</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G38" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="H38" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I38" t="n">
         <v>3.2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="K38" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L38" t="n">
         <v>1.32</v>
@@ -5551,13 +5551,13 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="O38" t="n">
         <v>1.01</v>
       </c>
       <c r="P38" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q38" t="n">
         <v>1.81</v>
@@ -5578,7 +5578,7 @@
         <v>1.45</v>
       </c>
       <c r="W38" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5674,7 +5674,7 @@
         <v>3.75</v>
       </c>
       <c r="J39" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K39" t="n">
         <v>4.2</v>
@@ -5797,55 +5797,55 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.54</v>
+        <v>2.14</v>
       </c>
       <c r="G40" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H40" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="I40" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="J40" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K40" t="n">
-        <v>4.9</v>
+        <v>980</v>
       </c>
       <c r="L40" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M40" t="n">
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="O40" t="n">
         <v>1.24</v>
       </c>
       <c r="P40" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="R40" t="n">
         <v>1.15</v>
       </c>
       <c r="S40" t="n">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="T40" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="U40" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="V40" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="W40" t="n">
         <v>1.35</v>
@@ -5866,7 +5866,7 @@
         <v>22</v>
       </c>
       <c r="AC40" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD40" t="n">
         <v>17</v>
@@ -5956,22 +5956,22 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="O41" t="n">
         <v>1.25</v>
       </c>
       <c r="P41" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R41" t="n">
         <v>1.37</v>
       </c>
       <c r="S41" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T41" t="n">
         <v>1.01</v>
@@ -6067,19 +6067,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H42" t="n">
         <v>3.65</v>
       </c>
       <c r="I42" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J42" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K42" t="n">
         <v>3.55</v>
@@ -6091,7 +6091,7 @@
         <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O42" t="n">
         <v>1.37</v>
@@ -6106,7 +6106,7 @@
         <v>1.3</v>
       </c>
       <c r="S42" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T42" t="n">
         <v>1.84</v>
@@ -6115,61 +6115,61 @@
         <v>2.02</v>
       </c>
       <c r="V42" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W42" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="X42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z42" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AA42" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AB42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC42" t="n">
         <v>7.8</v>
       </c>
       <c r="AD42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF42" t="n">
         <v>16</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>14</v>
       </c>
       <c r="AG42" t="n">
         <v>11.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI42" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AK42" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AL42" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AM42" t="n">
         <v>140</v>
       </c>
       <c r="AN42" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AO42" t="n">
         <v>60</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G43" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="H43" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I43" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="J43" t="n">
         <v>3.3</v>
@@ -6232,46 +6232,46 @@
         <v>1.36</v>
       </c>
       <c r="P43" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="Q43" t="n">
         <v>1.36</v>
       </c>
       <c r="R43" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S43" t="n">
         <v>3.3</v>
       </c>
       <c r="T43" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="U43" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="V43" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="W43" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y43" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA43" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB43" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD43" t="n">
         <v>21</v>
@@ -6283,7 +6283,7 @@
         <v>21</v>
       </c>
       <c r="AG43" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH43" t="n">
         <v>28</v>
@@ -6361,34 +6361,34 @@
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O44" t="n">
         <v>1.29</v>
       </c>
       <c r="P44" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q44" t="n">
         <v>1.89</v>
       </c>
       <c r="R44" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S44" t="n">
         <v>3.25</v>
       </c>
       <c r="T44" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="U44" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="V44" t="n">
         <v>1.32</v>
       </c>
       <c r="W44" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="X44" t="n">
         <v>14.5</v>
@@ -6397,7 +6397,7 @@
         <v>16</v>
       </c>
       <c r="Z44" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA44" t="n">
         <v>80</v>
@@ -6409,19 +6409,19 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD44" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE44" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF44" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG44" t="n">
         <v>11</v>
       </c>
       <c r="AH44" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI44" t="n">
         <v>55</v>
@@ -6439,10 +6439,10 @@
         <v>95</v>
       </c>
       <c r="AN44" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
@@ -6475,79 +6475,79 @@
         <v>1.27</v>
       </c>
       <c r="G45" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H45" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="I45" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="J45" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K45" t="n">
         <v>7.4</v>
       </c>
-      <c r="K45" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="L45" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M45" t="n">
         <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O45" t="n">
         <v>1.13</v>
       </c>
       <c r="P45" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="R45" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="S45" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="T45" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U45" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V45" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W45" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="X45" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y45" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="Z45" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AA45" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="AB45" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC45" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AD45" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AE45" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AF45" t="n">
         <v>11</v>
@@ -6556,28 +6556,28 @@
         <v>11</v>
       </c>
       <c r="AH45" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AI45" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AJ45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK45" t="n">
         <v>13</v>
       </c>
-      <c r="AK45" t="n">
-        <v>14</v>
-      </c>
       <c r="AL45" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM45" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="AO45" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46">
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G46" t="n">
         <v>1.85</v>
@@ -6625,25 +6625,25 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M46" t="n">
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="O46" t="n">
         <v>1.24</v>
       </c>
       <c r="P46" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="Q46" t="n">
         <v>1.61</v>
       </c>
       <c r="R46" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S46" t="n">
         <v>2.48</v>
@@ -6661,7 +6661,7 @@
         <v>2.16</v>
       </c>
       <c r="X46" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="Y46" t="n">
         <v>1000</v>
@@ -6673,10 +6673,10 @@
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AC46" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AD46" t="n">
         <v>1000</v>
@@ -6685,10 +6685,10 @@
         <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AG46" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AH46" t="n">
         <v>1000</v>
@@ -6697,10 +6697,10 @@
         <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AK46" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL46" t="n">
         <v>1000</v>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G47" t="n">
         <v>1.86</v>
@@ -6751,19 +6751,19 @@
         <v>4.3</v>
       </c>
       <c r="I47" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="J47" t="n">
         <v>4.1</v>
       </c>
       <c r="K47" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L47" t="n">
         <v>1.2</v>
       </c>
       <c r="M47" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N47" t="n">
         <v>5.2</v>
@@ -6775,7 +6775,7 @@
         <v>2.46</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R47" t="n">
         <v>1.59</v>
@@ -6787,67 +6787,67 @@
         <v>1.58</v>
       </c>
       <c r="U47" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V47" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W47" t="n">
         <v>2.16</v>
       </c>
       <c r="X47" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Y47" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z47" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA47" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB47" t="n">
         <v>13.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AE47" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI47" t="n">
         <v>50</v>
       </c>
-      <c r="AF47" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH47" t="n">
+      <c r="AJ47" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK47" t="n">
         <v>17.5</v>
       </c>
-      <c r="AI47" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>18</v>
-      </c>
       <c r="AL47" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AM47" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AN47" t="n">
         <v>8</v>
       </c>
       <c r="AO47" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
     </row>
     <row r="48">
@@ -6877,58 +6877,58 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="G48" t="n">
-        <v>14</v>
+        <v>4.4</v>
       </c>
       <c r="H48" t="n">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="J48" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K48" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="L48" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M48" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N48" t="n">
-        <v>1.94</v>
+        <v>3.7</v>
       </c>
       <c r="O48" t="n">
         <v>1.25</v>
       </c>
       <c r="P48" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="R48" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S48" t="n">
         <v>2.58</v>
       </c>
       <c r="T48" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="U48" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="V48" t="n">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
       <c r="W48" t="n">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
@@ -7012,28 +7012,28 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G49" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H49" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I49" t="n">
         <v>4.1</v>
       </c>
       <c r="J49" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K49" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L49" t="n">
         <v>1.36</v>
       </c>
       <c r="M49" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N49" t="n">
         <v>3.1</v>
@@ -7042,10 +7042,10 @@
         <v>1.38</v>
       </c>
       <c r="P49" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="R49" t="n">
         <v>1.27</v>
@@ -7054,61 +7054,61 @@
         <v>3.5</v>
       </c>
       <c r="T49" t="n">
-        <v>1.63</v>
+        <v>1.86</v>
       </c>
       <c r="U49" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="V49" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W49" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="X49" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Y49" t="n">
         <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA49" t="n">
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AC49" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD49" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE49" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AF49" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AG49" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AH49" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AI49" t="n">
         <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AK49" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL49" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM49" t="n">
         <v>1000</v>
@@ -7147,25 +7147,25 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="I50" t="n">
         <v>1.6</v>
       </c>
       <c r="J50" t="n">
-        <v>4.7</v>
+        <v>3.95</v>
       </c>
       <c r="K50" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="L50" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M50" t="n">
         <v>1.01</v>
@@ -7183,10 +7183,10 @@
         <v>1.47</v>
       </c>
       <c r="R50" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="S50" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="T50" t="n">
         <v>1.62</v>
@@ -7198,7 +7198,7 @@
         <v>2.64</v>
       </c>
       <c r="W50" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="X50" t="n">
         <v>38</v>
@@ -7288,7 +7288,7 @@
         <v>2.2</v>
       </c>
       <c r="H51" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
         <v>3.85</v>
@@ -7300,7 +7300,7 @@
         <v>4.6</v>
       </c>
       <c r="L51" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M51" t="n">
         <v>1.03</v>
@@ -7312,7 +7312,7 @@
         <v>1.18</v>
       </c>
       <c r="P51" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q51" t="n">
         <v>1.55</v>
@@ -7348,16 +7348,16 @@
         <v>65</v>
       </c>
       <c r="AB51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC51" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD51" t="n">
         <v>16.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AF51" t="n">
         <v>17</v>
@@ -7378,13 +7378,13 @@
         <v>21</v>
       </c>
       <c r="AL51" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AM51" t="n">
         <v>60</v>
       </c>
       <c r="AN51" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO51" t="n">
         <v>25</v>
@@ -7420,13 +7420,13 @@
         <v>1.63</v>
       </c>
       <c r="G52" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="H52" t="n">
         <v>5.5</v>
       </c>
       <c r="I52" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J52" t="n">
         <v>3.9</v>
@@ -7435,7 +7435,7 @@
         <v>4.5</v>
       </c>
       <c r="L52" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="M52" t="n">
         <v>1.06</v>
@@ -7444,19 +7444,19 @@
         <v>3.55</v>
       </c>
       <c r="O52" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P52" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R52" t="n">
         <v>1.34</v>
       </c>
       <c r="S52" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T52" t="n">
         <v>1.9</v>
@@ -7468,28 +7468,28 @@
         <v>1.17</v>
       </c>
       <c r="W52" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X52" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Z52" t="n">
         <v>50</v>
       </c>
       <c r="AA52" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AB52" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC52" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD52" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE52" t="n">
         <v>110</v>
@@ -7498,31 +7498,31 @@
         <v>10.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH52" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI52" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ52" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK52" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL52" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM52" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN52" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO52" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53">
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="G53" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="H53" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="I53" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="J53" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="K53" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="L53" t="n">
         <v>1.45</v>
@@ -7576,13 +7576,13 @@
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="O53" t="n">
         <v>1.01</v>
       </c>
       <c r="P53" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="Q53" t="n">
         <v>2.4</v>
@@ -7600,10 +7600,10 @@
         <v>1.01</v>
       </c>
       <c r="V53" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W53" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="G54" t="n">
         <v>3.85</v>
       </c>
       <c r="H54" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I54" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="J54" t="n">
         <v>3.25</v>
@@ -7723,19 +7723,19 @@
         <v>2.02</v>
       </c>
       <c r="R54" t="n">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="S54" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T54" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U54" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="V54" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W54" t="n">
         <v>1.35</v>
@@ -7822,61 +7822,61 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="G55" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="H55" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="I55" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="J55" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="L55" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M55" t="n">
         <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="O55" t="n">
         <v>1.01</v>
       </c>
       <c r="P55" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R55" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S55" t="n">
         <v>2.84</v>
       </c>
       <c r="T55" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U55" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="V55" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="W55" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="X55" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y55" t="n">
         <v>22</v>
@@ -7888,7 +7888,7 @@
         <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC55" t="n">
         <v>11.5</v>
@@ -7900,7 +7900,7 @@
         <v>1000</v>
       </c>
       <c r="AF55" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG55" t="n">
         <v>15</v>
@@ -7912,10 +7912,10 @@
         <v>1000</v>
       </c>
       <c r="AJ55" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AK55" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL55" t="n">
         <v>60</v>
@@ -7963,88 +7963,88 @@
         <v>11.5</v>
       </c>
       <c r="H56" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="I56" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J56" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K56" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N56" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O56" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P56" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="R56" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S56" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T56" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U56" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V56" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W56" t="n">
         <v>1.1</v>
       </c>
       <c r="X56" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y56" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AA56" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AC56" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AD56" t="n">
         <v>11</v>
       </c>
       <c r="AE56" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AF56" t="n">
         <v>110</v>
       </c>
       <c r="AG56" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH56" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI56" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ56" t="n">
         <v>400</v>
@@ -8053,13 +8053,13 @@
         <v>180</v>
       </c>
       <c r="AL56" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AM56" t="n">
         <v>170</v>
       </c>
       <c r="AN56" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AO56" t="n">
         <v>5.9</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="G57" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="H57" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="I57" t="n">
         <v>4.8</v>
       </c>
       <c r="J57" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K57" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8116,7 +8116,7 @@
         <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="O57" t="n">
         <v>1.09</v>
@@ -8125,67 +8125,67 @@
         <v>1.69</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R57" t="n">
         <v>1.25</v>
       </c>
       <c r="S57" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T57" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U57" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="V57" t="n">
         <v>1.27</v>
       </c>
       <c r="W57" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>
       </c>
       <c r="Y57" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z57" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA57" t="n">
         <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC57" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD57" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE57" t="n">
         <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG57" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH57" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI57" t="n">
         <v>1000</v>
       </c>
       <c r="AJ57" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK57" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL57" t="n">
         <v>1000</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="G58" t="n">
         <v>1.76</v>
@@ -8245,7 +8245,7 @@
         <v>4.5</v>
       </c>
       <c r="L58" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M58" t="n">
         <v>1.01</v>
@@ -8263,76 +8263,76 @@
         <v>1.89</v>
       </c>
       <c r="R58" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S58" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T58" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="U58" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="V58" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W58" t="n">
         <v>2.3</v>
       </c>
       <c r="X58" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Y58" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z58" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AA58" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB58" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC58" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD58" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE58" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF58" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG58" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH58" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI58" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ58" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK58" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL58" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM58" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO58" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="59">
@@ -8362,25 +8362,25 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G59" t="n">
         <v>3.1</v>
       </c>
       <c r="H59" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="I59" t="n">
         <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="K59" t="n">
         <v>3.6</v>
       </c>
       <c r="L59" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M59" t="n">
         <v>1.08</v>
@@ -8404,10 +8404,10 @@
         <v>3.8</v>
       </c>
       <c r="T59" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U59" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
         <v>1.5</v>
@@ -8431,7 +8431,7 @@
         <v>13</v>
       </c>
       <c r="AC59" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD59" t="n">
         <v>15.5</v>
@@ -8455,7 +8455,7 @@
         <v>60</v>
       </c>
       <c r="AK59" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AL59" t="n">
         <v>60</v>
@@ -8497,13 +8497,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G60" t="n">
         <v>1.52</v>
       </c>
       <c r="H60" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I60" t="n">
         <v>8.6</v>
@@ -8521,16 +8521,16 @@
         <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O60" t="n">
         <v>1.31</v>
       </c>
       <c r="P60" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R60" t="n">
         <v>1.39</v>
@@ -8560,13 +8560,13 @@
         <v>70</v>
       </c>
       <c r="AA60" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AB60" t="n">
         <v>7.8</v>
       </c>
       <c r="AC60" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD60" t="n">
         <v>30</v>
@@ -8575,7 +8575,7 @@
         <v>140</v>
       </c>
       <c r="AF60" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG60" t="n">
         <v>9.800000000000001</v>
@@ -8587,7 +8587,7 @@
         <v>130</v>
       </c>
       <c r="AJ60" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK60" t="n">
         <v>16</v>
@@ -8635,19 +8635,19 @@
         <v>2.06</v>
       </c>
       <c r="G61" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="H61" t="n">
-        <v>3.6</v>
+        <v>2.86</v>
       </c>
       <c r="I61" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J61" t="n">
         <v>3.5</v>
       </c>
       <c r="K61" t="n">
-        <v>3.95</v>
+        <v>980</v>
       </c>
       <c r="L61" t="n">
         <v>1.38</v>
@@ -8665,70 +8665,70 @@
         <v>2</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R61" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S61" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="T61" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U61" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="V61" t="n">
         <v>1.29</v>
       </c>
       <c r="W61" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="X61" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y61" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z61" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA61" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB61" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC61" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD61" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE61" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF61" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG61" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH61" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI61" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ61" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK61" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL61" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM61" t="n">
         <v>1000</v>
@@ -8779,7 +8779,7 @@
         <v>2.7</v>
       </c>
       <c r="J62" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K62" t="n">
         <v>3.7</v>
@@ -9061,7 +9061,7 @@
         <v>1.02</v>
       </c>
       <c r="N64" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="O64" t="n">
         <v>1.1</v>
@@ -9094,7 +9094,7 @@
         <v>65</v>
       </c>
       <c r="Y64" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Z64" t="n">
         <v>170</v>
@@ -9103,10 +9103,10 @@
         <v>520</v>
       </c>
       <c r="AB64" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC64" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD64" t="n">
         <v>50</v>
@@ -9115,19 +9115,19 @@
         <v>200</v>
       </c>
       <c r="AF64" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AG64" t="n">
         <v>13.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AI64" t="n">
         <v>140</v>
       </c>
       <c r="AJ64" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK64" t="n">
         <v>14</v>
@@ -9139,7 +9139,7 @@
         <v>130</v>
       </c>
       <c r="AN64" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="AO64" t="n">
         <v>170</v>
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G65" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H65" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I65" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J65" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K65" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9196,22 +9196,22 @@
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="O65" t="n">
         <v>1.25</v>
       </c>
       <c r="P65" t="n">
-        <v>1.92</v>
+        <v>1.36</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="R65" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S65" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T65" t="n">
         <v>1.01</v>
@@ -9220,10 +9220,10 @@
         <v>1.01</v>
       </c>
       <c r="V65" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W65" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X65" t="n">
         <v>1000</v>
@@ -9313,13 +9313,13 @@
         <v>5</v>
       </c>
       <c r="H66" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="I66" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="J66" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K66" t="n">
         <v>4.1</v>
@@ -9337,10 +9337,10 @@
         <v>1.29</v>
       </c>
       <c r="P66" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R66" t="n">
         <v>1.36</v>
@@ -9349,13 +9349,13 @@
         <v>3.15</v>
       </c>
       <c r="T66" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U66" t="n">
         <v>2.04</v>
       </c>
       <c r="V66" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W66" t="n">
         <v>1.26</v>
@@ -9367,10 +9367,10 @@
         <v>9.6</v>
       </c>
       <c r="Z66" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA66" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB66" t="n">
         <v>17.5</v>
@@ -9385,10 +9385,10 @@
         <v>21</v>
       </c>
       <c r="AF66" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG66" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH66" t="n">
         <v>20</v>
@@ -9397,7 +9397,7 @@
         <v>36</v>
       </c>
       <c r="AJ66" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AK66" t="n">
         <v>65</v>
@@ -9406,10 +9406,10 @@
         <v>85</v>
       </c>
       <c r="AM66" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN66" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AO66" t="n">
         <v>13.5</v>
@@ -9442,22 +9442,22 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="G67" t="n">
         <v>1.85</v>
       </c>
       <c r="H67" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I67" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J67" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K67" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L67" t="n">
         <v>1.37</v>
@@ -9466,13 +9466,13 @@
         <v>1.08</v>
       </c>
       <c r="N67" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O67" t="n">
         <v>1.37</v>
       </c>
       <c r="P67" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q67" t="n">
         <v>2.08</v>
@@ -9481,28 +9481,28 @@
         <v>1.29</v>
       </c>
       <c r="S67" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T67" t="n">
         <v>1.93</v>
       </c>
       <c r="U67" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V67" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W67" t="n">
         <v>2.16</v>
       </c>
       <c r="X67" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y67" t="n">
         <v>16.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AA67" t="n">
         <v>160</v>
@@ -9511,10 +9511,10 @@
         <v>8</v>
       </c>
       <c r="AC67" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD67" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE67" t="n">
         <v>80</v>
@@ -9526,7 +9526,7 @@
         <v>11</v>
       </c>
       <c r="AH67" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI67" t="n">
         <v>85</v>
@@ -9538,7 +9538,7 @@
         <v>22</v>
       </c>
       <c r="AL67" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AM67" t="n">
         <v>170</v>
@@ -9547,7 +9547,7 @@
         <v>15.5</v>
       </c>
       <c r="AO67" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68">
@@ -9712,46 +9712,46 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G69" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H69" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="I69" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="J69" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="K69" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="L69" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M69" t="n">
         <v>1.01</v>
       </c>
       <c r="N69" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="O69" t="n">
         <v>1.01</v>
       </c>
       <c r="P69" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R69" t="n">
         <v>1.18</v>
       </c>
       <c r="S69" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T69" t="n">
         <v>1.01</v>
@@ -9760,10 +9760,10 @@
         <v>1.01</v>
       </c>
       <c r="V69" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="W69" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X69" t="n">
         <v>1000</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="H70" t="n">
         <v>5.3</v>
       </c>
       <c r="I70" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="J70" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K70" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L70" t="n">
         <v>1.37</v>
@@ -9871,22 +9871,22 @@
         <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>1.59</v>
+        <v>3.1</v>
       </c>
       <c r="O70" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P70" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R70" t="n">
         <v>1.18</v>
       </c>
       <c r="S70" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="T70" t="n">
         <v>1.01</v>
@@ -9895,10 +9895,10 @@
         <v>1.01</v>
       </c>
       <c r="V70" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="W70" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="X70" t="n">
         <v>1000</v>
@@ -10126,16 +10126,16 @@
         <v>2.06</v>
       </c>
       <c r="I72" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J72" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K72" t="n">
         <v>3.85</v>
       </c>
       <c r="L72" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M72" t="n">
         <v>1.07</v>
@@ -10159,16 +10159,16 @@
         <v>3.5</v>
       </c>
       <c r="T72" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U72" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="V72" t="n">
         <v>1.76</v>
       </c>
       <c r="W72" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X72" t="n">
         <v>15.5</v>
@@ -10261,7 +10261,7 @@
         <v>22</v>
       </c>
       <c r="I73" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J73" t="n">
         <v>9</v>
@@ -10294,19 +10294,19 @@
         <v>2.28</v>
       </c>
       <c r="T73" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="U73" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="V73" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W73" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X73" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Y73" t="n">
         <v>90</v>
@@ -10318,7 +10318,7 @@
         <v>1000</v>
       </c>
       <c r="AB73" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC73" t="n">
         <v>23</v>
@@ -10336,7 +10336,7 @@
         <v>15</v>
       </c>
       <c r="AH73" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI73" t="n">
         <v>1000</v>
@@ -10387,64 +10387,64 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="G74" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H74" t="n">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="I74" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J74" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="K74" t="n">
         <v>3.35</v>
       </c>
       <c r="L74" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M74" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N74" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P74" t="n">
         <v>1.7</v>
       </c>
-      <c r="O74" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P74" t="n">
-        <v>1.69</v>
-      </c>
       <c r="Q74" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R74" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S74" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="T74" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U74" t="n">
-        <v>1.02</v>
+        <v>2.04</v>
       </c>
       <c r="V74" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W74" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="X74" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z74" t="n">
         <v>1000</v>
@@ -10453,13 +10453,13 @@
         <v>1000</v>
       </c>
       <c r="AB74" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC74" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD74" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE74" t="n">
         <v>1000</v>
@@ -10468,10 +10468,10 @@
         <v>1000</v>
       </c>
       <c r="AG74" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH74" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI74" t="n">
         <v>1000</v>
@@ -10558,7 +10558,7 @@
         <v>2.02</v>
       </c>
       <c r="R75" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S75" t="n">
         <v>3.6</v>
@@ -10606,7 +10606,7 @@
         <v>10</v>
       </c>
       <c r="AH75" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI75" t="n">
         <v>120</v>
@@ -10615,7 +10615,7 @@
         <v>14</v>
       </c>
       <c r="AK75" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL75" t="n">
         <v>42</v>
@@ -10624,7 +10624,7 @@
         <v>180</v>
       </c>
       <c r="AN75" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO75" t="n">
         <v>180</v>
@@ -10666,7 +10666,7 @@
         <v>3.95</v>
       </c>
       <c r="I76" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J76" t="n">
         <v>3.2</v>
@@ -10678,13 +10678,13 @@
         <v>1.48</v>
       </c>
       <c r="M76" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N76" t="n">
-        <v>1.69</v>
+        <v>3</v>
       </c>
       <c r="O76" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P76" t="n">
         <v>1.69</v>
@@ -10693,70 +10693,70 @@
         <v>2.26</v>
       </c>
       <c r="R76" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="S76" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T76" t="n">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="U76" t="n">
         <v>2</v>
       </c>
       <c r="V76" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W76" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X76" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Z76" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AA76" t="n">
         <v>1000</v>
       </c>
       <c r="AB76" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG76" t="n">
         <v>11</v>
       </c>
-      <c r="AC76" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH76" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AI76" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AJ76" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AK76" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AL76" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AM76" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN76" t="n">
         <v>1000</v>
@@ -10792,10 +10792,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G77" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H77" t="n">
         <v>3.2</v>
@@ -10804,10 +10804,10 @@
         <v>3.5</v>
       </c>
       <c r="J77" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K77" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
@@ -10822,7 +10822,7 @@
         <v>1.69</v>
       </c>
       <c r="P77" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="Q77" t="n">
         <v>3</v>
@@ -10834,10 +10834,10 @@
         <v>6.8</v>
       </c>
       <c r="T77" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U77" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V77" t="n">
         <v>1.4</v>
@@ -10846,10 +10846,10 @@
         <v>1.54</v>
       </c>
       <c r="X77" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y77" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z77" t="n">
         <v>22</v>
@@ -10867,7 +10867,7 @@
         <v>17</v>
       </c>
       <c r="AE77" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF77" t="n">
         <v>17</v>
@@ -10933,13 +10933,13 @@
         <v>2.52</v>
       </c>
       <c r="H78" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I78" t="n">
         <v>3.35</v>
       </c>
       <c r="J78" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K78" t="n">
         <v>3.4</v>
@@ -10975,13 +10975,13 @@
         <v>2.04</v>
       </c>
       <c r="V78" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W78" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X78" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y78" t="n">
         <v>11.5</v>
@@ -10993,7 +10993,7 @@
         <v>60</v>
       </c>
       <c r="AB78" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC78" t="n">
         <v>7.2</v>
@@ -11011,7 +11011,7 @@
         <v>11.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI78" t="n">
         <v>60</v>
@@ -11095,7 +11095,7 @@
         <v>2.16</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11197,7 +11197,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="G80" t="n">
         <v>1.42</v>
@@ -11212,7 +11212,7 @@
         <v>5.5</v>
       </c>
       <c r="K80" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="L80" t="n">
         <v>1.01</v>
@@ -11221,22 +11221,22 @@
         <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="O80" t="n">
         <v>1.11</v>
       </c>
       <c r="P80" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="R80" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S80" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T80" t="n">
         <v>1.01</v>
@@ -11374,10 +11374,10 @@
         <v>3.05</v>
       </c>
       <c r="T81" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U81" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V81" t="n">
         <v>3.15</v>
@@ -11386,28 +11386,28 @@
         <v>1.1</v>
       </c>
       <c r="X81" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Y81" t="n">
         <v>8</v>
       </c>
       <c r="Z81" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA81" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AB81" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AC81" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD81" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE81" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF81" t="n">
         <v>120</v>
@@ -11416,10 +11416,10 @@
         <v>40</v>
       </c>
       <c r="AH81" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AI81" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AJ81" t="n">
         <v>1000</v>
@@ -11479,10 +11479,10 @@
         <v>1.34</v>
       </c>
       <c r="J82" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K82" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L82" t="n">
         <v>1.35</v>
@@ -11500,28 +11500,28 @@
         <v>2.02</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R82" t="n">
         <v>1.39</v>
       </c>
       <c r="S82" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T82" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="U82" t="n">
         <v>1.59</v>
       </c>
       <c r="V82" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="W82" t="n">
         <v>1.06</v>
       </c>
       <c r="X82" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y82" t="n">
         <v>7.8</v>
@@ -11530,7 +11530,7 @@
         <v>7.4</v>
       </c>
       <c r="AA82" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AB82" t="n">
         <v>38</v>
@@ -11539,13 +11539,13 @@
         <v>14</v>
       </c>
       <c r="AD82" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE82" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AF82" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AG82" t="n">
         <v>60</v>
@@ -11560,10 +11560,10 @@
         <v>1000</v>
       </c>
       <c r="AK82" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AL82" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AM82" t="n">
         <v>350</v>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G83" t="n">
         <v>2.04</v>
@@ -11632,7 +11632,7 @@
         <v>1.17</v>
       </c>
       <c r="P83" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q83" t="n">
         <v>1.52</v>
@@ -11647,7 +11647,7 @@
         <v>1.53</v>
       </c>
       <c r="U83" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="V83" t="n">
         <v>1.36</v>
@@ -11659,7 +11659,7 @@
         <v>27</v>
       </c>
       <c r="Y83" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Z83" t="n">
         <v>34</v>
@@ -11677,7 +11677,7 @@
         <v>15.5</v>
       </c>
       <c r="AE83" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF83" t="n">
         <v>16</v>
@@ -11692,7 +11692,7 @@
         <v>36</v>
       </c>
       <c r="AJ83" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK83" t="n">
         <v>17.5</v>
@@ -11737,25 +11737,25 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="G84" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J84" t="n">
         <v>2.92</v>
       </c>
-      <c r="H84" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K84" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="L84" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M84" t="n">
         <v>1.06</v>
@@ -11767,10 +11767,10 @@
         <v>1.06</v>
       </c>
       <c r="P84" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="R84" t="n">
         <v>1.27</v>
@@ -11779,16 +11779,16 @@
         <v>2.92</v>
       </c>
       <c r="T84" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U84" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V84" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="W84" t="n">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="X84" t="n">
         <v>1000</v>
@@ -11875,7 +11875,7 @@
         <v>1.31</v>
       </c>
       <c r="G85" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H85" t="n">
         <v>9.800000000000001</v>
@@ -11884,7 +11884,7 @@
         <v>12</v>
       </c>
       <c r="J85" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K85" t="n">
         <v>7</v>
@@ -11923,7 +11923,7 @@
         <v>1.09</v>
       </c>
       <c r="W85" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="X85" t="n">
         <v>44</v>
@@ -11938,7 +11938,7 @@
         <v>380</v>
       </c>
       <c r="AB85" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC85" t="n">
         <v>15.5</v>
@@ -12007,10 +12007,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H86" t="n">
         <v>3.85</v>
@@ -12031,7 +12031,7 @@
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="O86" t="n">
         <v>1.2</v>
@@ -12040,10 +12040,10 @@
         <v>2.34</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R86" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S86" t="n">
         <v>1.01</v>
@@ -12058,7 +12058,7 @@
         <v>1.27</v>
       </c>
       <c r="W86" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X86" t="n">
         <v>34</v>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G87" t="n">
         <v>2.16</v>
@@ -12151,13 +12151,13 @@
         <v>4.4</v>
       </c>
       <c r="I87" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J87" t="n">
         <v>3.25</v>
       </c>
       <c r="K87" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L87" t="n">
         <v>1.01</v>
@@ -12166,7 +12166,7 @@
         <v>1.08</v>
       </c>
       <c r="N87" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="O87" t="n">
         <v>1.08</v>
@@ -12178,7 +12178,7 @@
         <v>2.18</v>
       </c>
       <c r="R87" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S87" t="n">
         <v>3.55</v>
@@ -12190,13 +12190,13 @@
         <v>1.01</v>
       </c>
       <c r="V87" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W87" t="n">
         <v>1.86</v>
       </c>
       <c r="X87" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y87" t="n">
         <v>18.5</v>
@@ -12283,13 +12283,13 @@
         <v>1.16</v>
       </c>
       <c r="H88" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="I88" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J88" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="K88" t="n">
         <v>12.5</v>
@@ -12313,7 +12313,7 @@
         <v>1.24</v>
       </c>
       <c r="R88" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="S88" t="n">
         <v>1.62</v>
@@ -12322,7 +12322,7 @@
         <v>1.81</v>
       </c>
       <c r="U88" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V88" t="n">
         <v>1.05</v>
@@ -12334,10 +12334,10 @@
         <v>85</v>
       </c>
       <c r="Y88" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="Z88" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AA88" t="n">
         <v>1000</v>
@@ -12346,43 +12346,43 @@
         <v>23</v>
       </c>
       <c r="AC88" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AD88" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AE88" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AF88" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ88" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>11</v>
       </c>
       <c r="AK88" t="n">
         <v>13.5</v>
       </c>
       <c r="AL88" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AM88" t="n">
         <v>160</v>
       </c>
       <c r="AN88" t="n">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="AO88" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89">
@@ -12439,7 +12439,7 @@
         <v>4</v>
       </c>
       <c r="O89" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P89" t="n">
         <v>2.02</v>
@@ -12451,16 +12451,16 @@
         <v>1.4</v>
       </c>
       <c r="S89" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T89" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U89" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V89" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W89" t="n">
         <v>2.4</v>
@@ -12475,7 +12475,7 @@
         <v>48</v>
       </c>
       <c r="AA89" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AB89" t="n">
         <v>8.800000000000001</v>
@@ -12496,7 +12496,7 @@
         <v>9.6</v>
       </c>
       <c r="AH89" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI89" t="n">
         <v>85</v>
@@ -12553,10 +12553,10 @@
         <v>2.34</v>
       </c>
       <c r="H90" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I90" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J90" t="n">
         <v>3.3</v>
@@ -12565,7 +12565,7 @@
         <v>3.35</v>
       </c>
       <c r="L90" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M90" t="n">
         <v>1.09</v>
@@ -12580,7 +12580,7 @@
         <v>1.78</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R90" t="n">
         <v>1.29</v>
@@ -12589,7 +12589,7 @@
         <v>4.2</v>
       </c>
       <c r="T90" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U90" t="n">
         <v>2.02</v>
@@ -12613,7 +12613,7 @@
         <v>70</v>
       </c>
       <c r="AB90" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC90" t="n">
         <v>7.4</v>
@@ -12643,13 +12643,13 @@
         <v>26</v>
       </c>
       <c r="AL90" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM90" t="n">
         <v>120</v>
       </c>
       <c r="AN90" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO90" t="n">
         <v>55</v>
@@ -12691,7 +12691,7 @@
         <v>5.4</v>
       </c>
       <c r="I91" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J91" t="n">
         <v>4</v>
@@ -12703,13 +12703,13 @@
         <v>1.32</v>
       </c>
       <c r="M91" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N91" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="O91" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P91" t="n">
         <v>2.2</v>
@@ -12724,10 +12724,10 @@
         <v>2.8</v>
       </c>
       <c r="T91" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="U91" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="V91" t="n">
         <v>1.21</v>
@@ -12778,16 +12778,16 @@
         <v>17</v>
       </c>
       <c r="AL91" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM91" t="n">
         <v>110</v>
       </c>
       <c r="AN91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO91" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92">
@@ -12817,7 +12817,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G92" t="n">
         <v>1.79</v>
@@ -12838,31 +12838,31 @@
         <v>1.35</v>
       </c>
       <c r="M92" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="O92" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P92" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q92" t="n">
         <v>1.8</v>
       </c>
       <c r="R92" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="S92" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="T92" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U92" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V92" t="n">
         <v>1.2</v>
@@ -12871,55 +12871,55 @@
         <v>2.26</v>
       </c>
       <c r="X92" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y92" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z92" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AA92" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB92" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC92" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD92" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE92" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AF92" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AG92" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AH92" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI92" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AJ92" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AK92" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AL92" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AM92" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN92" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO92" t="n">
         <v>1000</v>
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -12970,16 +12970,16 @@
         <v>3.9</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P93" t="n">
         <v>1.93</v>
@@ -12988,76 +12988,76 @@
         <v>2.02</v>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S93" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V93" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X93" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y93" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z93" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB93" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC93" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD93" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE93" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF93" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG93" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH93" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI93" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ93" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK93" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL93" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
@@ -670,7 +670,7 @@
         <v>2.1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
         <v>3.75</v>
@@ -688,13 +688,13 @@
         <v>1.42</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
         <v>3.55</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
         <v>1.87</v>
@@ -718,7 +718,7 @@
         <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
@@ -754,7 +754,7 @@
         <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
         <v>980</v>
@@ -811,10 +811,10 @@
         <v>1.96</v>
       </c>
       <c r="I3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
@@ -823,7 +823,7 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
         <v>1.1</v>
@@ -838,19 +838,19 @@
         <v>1.61</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.04</v>
       </c>
-      <c r="U3" t="n">
-        <v>2.28</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W3" t="n">
         <v>1.32</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I4" t="n">
         <v>3.85</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.9</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
@@ -985,19 +985,19 @@
         <v>2.46</v>
       </c>
       <c r="V4" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="n">
         <v>75</v>
@@ -1039,7 +1039,7 @@
         <v>70</v>
       </c>
       <c r="AN4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
         <v>32</v>
@@ -1099,7 +1099,7 @@
         <v>5.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
         <v>2.38</v>
@@ -1123,7 +1123,7 @@
         <v>1.71</v>
       </c>
       <c r="W5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X5" t="n">
         <v>19</v>
@@ -1348,7 +1348,7 @@
         <v>13.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="I7" t="n">
         <v>1.76</v>
@@ -1366,7 +1366,7 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.18</v>
@@ -1483,7 +1483,7 @@
         <v>1.96</v>
       </c>
       <c r="H8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I8" t="n">
         <v>4.5</v>
@@ -1501,25 +1501,25 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
         <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
         <v>2.14</v>
@@ -1777,16 +1777,16 @@
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R10" t="n">
         <v>1.34</v>
       </c>
       <c r="S10" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="T10" t="n">
         <v>1.84</v>
@@ -2176,28 +2176,28 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="O13" t="n">
         <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>1.25</v>
+        <v>1.94</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="S13" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
         <v>1.21</v>
@@ -2212,7 +2212,7 @@
         <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
@@ -2428,10 +2428,10 @@
         <v>4.1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I15" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J15" t="n">
         <v>3.4</v>
@@ -2446,34 +2446,34 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.5</v>
+        <v>2.82</v>
       </c>
       <c r="O15" t="n">
         <v>1.34</v>
       </c>
       <c r="P15" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.34</v>
+        <v>1.89</v>
       </c>
       <c r="R15" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="U15" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2581,7 +2581,7 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>2.14</v>
+        <v>1.1</v>
       </c>
       <c r="O16" t="n">
         <v>1.2</v>
@@ -2590,16 +2590,16 @@
         <v>2.14</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="S16" t="n">
-        <v>1.52</v>
+        <v>1.86</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U16" t="n">
         <v>1.71</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G18" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H18" t="n">
         <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J18" t="n">
         <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
         <v>1.46</v>
@@ -2890,7 +2890,7 @@
         <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AB18" t="n">
         <v>7.8</v>
@@ -2932,7 +2932,7 @@
         <v>14.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19">
@@ -2965,19 +2965,19 @@
         <v>2.4</v>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J19" t="n">
         <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L19" t="n">
         <v>1.41</v>
@@ -2986,25 +2986,25 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P19" t="n">
         <v>1.54</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R19" t="n">
         <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U19" t="n">
         <v>1.66</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3109,7 +3109,7 @@
         <v>3.4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K20" t="n">
         <v>3.35</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G21" t="n">
         <v>3.25</v>
@@ -3259,7 +3259,7 @@
         <v>1.47</v>
       </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
         <v>1.47</v>
@@ -3274,10 +3274,10 @@
         <v>2.62</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V21" t="n">
         <v>1.32</v>
@@ -3391,13 +3391,13 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q22" t="n">
         <v>2.26</v>
@@ -3406,13 +3406,13 @@
         <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>2.26</v>
+        <v>2.66</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V22" t="n">
         <v>1.27</v>
@@ -3505,7 +3505,7 @@
         <v>1.33</v>
       </c>
       <c r="G23" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="H23" t="n">
         <v>9.800000000000001</v>
@@ -3532,7 +3532,7 @@
         <v>1.34</v>
       </c>
       <c r="P23" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q23" t="n">
         <v>2</v>
@@ -3541,22 +3541,22 @@
         <v>1.3</v>
       </c>
       <c r="S23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T23" t="n">
         <v>2.44</v>
       </c>
       <c r="U23" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="V23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W23" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="Y23" t="n">
         <v>980</v>
@@ -3574,7 +3574,7 @@
         <v>980</v>
       </c>
       <c r="AD23" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G24" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K24" t="n">
         <v>3.8</v>
@@ -3670,10 +3670,10 @@
         <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="R24" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S24" t="n">
         <v>3.05</v>
@@ -3688,10 +3688,10 @@
         <v>1.32</v>
       </c>
       <c r="W24" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X24" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Y24" t="n">
         <v>980</v>
@@ -3709,7 +3709,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE24" t="n">
         <v>980</v>
@@ -3721,7 +3721,7 @@
         <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AI24" t="n">
         <v>50</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G25" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H25" t="n">
         <v>3.25</v>
@@ -3799,7 +3799,7 @@
         <v>4.8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P25" t="n">
         <v>2.3</v>
@@ -3814,7 +3814,7 @@
         <v>2.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U25" t="n">
         <v>2.4</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>2.14</v>
@@ -3973,7 +3973,7 @@
         <v>130</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC26" t="n">
         <v>7.8</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="G27" t="n">
         <v>7.2</v>
       </c>
       <c r="H27" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="I27" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="J27" t="n">
         <v>3.75</v>
       </c>
       <c r="K27" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
         <v>1.4</v>
@@ -4066,16 +4066,16 @@
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O27" t="n">
         <v>1.35</v>
       </c>
       <c r="P27" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="R27" t="n">
         <v>1.3</v>
@@ -4084,13 +4084,13 @@
         <v>3.7</v>
       </c>
       <c r="T27" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="V27" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="W27" t="n">
         <v>1.17</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G28" t="n">
         <v>1.98</v>
       </c>
-      <c r="G28" t="n">
-        <v>2</v>
-      </c>
       <c r="H28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I28" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J28" t="n">
         <v>3.4</v>
@@ -4195,19 +4195,19 @@
         <v>3.45</v>
       </c>
       <c r="L28" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M28" t="n">
         <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O28" t="n">
         <v>1.47</v>
       </c>
       <c r="P28" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q28" t="n">
         <v>2.42</v>
@@ -4219,25 +4219,25 @@
         <v>4.8</v>
       </c>
       <c r="T28" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U28" t="n">
         <v>1.82</v>
       </c>
       <c r="V28" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X28" t="n">
         <v>9.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z28" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA28" t="n">
         <v>130</v>
@@ -4249,10 +4249,10 @@
         <v>7.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="n">
         <v>10.5</v>
@@ -4264,25 +4264,25 @@
         <v>24</v>
       </c>
       <c r="AI28" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK28" t="n">
         <v>25</v>
       </c>
       <c r="AL28" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN28" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
@@ -4336,7 +4336,7 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -4351,13 +4351,13 @@
         <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V29" t="n">
         <v>1.01</v>
@@ -4471,7 +4471,7 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.03</v>
+        <v>1.65</v>
       </c>
       <c r="O30" t="n">
         <v>1.44</v>
@@ -4480,7 +4480,7 @@
         <v>1.62</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R30" t="n">
         <v>1.18</v>
@@ -4489,10 +4489,10 @@
         <v>3.9</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V30" t="n">
         <v>1.88</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G31" t="n">
         <v>1.98</v>
       </c>
-      <c r="G31" t="n">
-        <v>1.99</v>
-      </c>
       <c r="H31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I31" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J31" t="n">
         <v>3.55</v>
@@ -4603,13 +4603,13 @@
         <v>1.45</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P31" t="n">
         <v>1.79</v>
@@ -4618,22 +4618,22 @@
         <v>2.18</v>
       </c>
       <c r="R31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S31" t="n">
         <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U31" t="n">
         <v>1.97</v>
       </c>
       <c r="V31" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X31" t="n">
         <v>11.5</v>
@@ -4654,7 +4654,7 @@
         <v>7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE31" t="n">
         <v>65</v>
@@ -4684,7 +4684,7 @@
         <v>140</v>
       </c>
       <c r="AN31" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO31" t="n">
         <v>80</v>
@@ -4723,7 +4723,7 @@
         <v>2.56</v>
       </c>
       <c r="H32" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
         <v>3.75</v>
@@ -4741,13 +4741,13 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.03</v>
+        <v>2.62</v>
       </c>
       <c r="O32" t="n">
         <v>1.44</v>
       </c>
       <c r="P32" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q32" t="n">
         <v>2.32</v>
@@ -4756,13 +4756,13 @@
         <v>1.23</v>
       </c>
       <c r="S32" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T32" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V32" t="n">
         <v>1.37</v>
@@ -4885,7 +4885,7 @@
         <v>2.1</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R33" t="n">
         <v>1.43</v>
@@ -4957,7 +4957,7 @@
         <v>50</v>
       </c>
       <c r="AO33" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="34">
@@ -4990,7 +4990,7 @@
         <v>1.83</v>
       </c>
       <c r="G34" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H34" t="n">
         <v>5.1</v>
@@ -4999,10 +4999,10 @@
         <v>5.2</v>
       </c>
       <c r="J34" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K34" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.9</v>
       </c>
       <c r="L34" t="n">
         <v>1.35</v>
@@ -5023,7 +5023,7 @@
         <v>1.87</v>
       </c>
       <c r="R34" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S34" t="n">
         <v>3.15</v>
@@ -5035,10 +5035,10 @@
         <v>2.18</v>
       </c>
       <c r="V34" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W34" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X34" t="n">
         <v>15.5</v>
@@ -5053,7 +5053,7 @@
         <v>120</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC34" t="n">
         <v>8.4</v>
@@ -5089,7 +5089,7 @@
         <v>95</v>
       </c>
       <c r="AN34" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO34" t="n">
         <v>60</v>
@@ -5152,10 +5152,10 @@
         <v>1.27</v>
       </c>
       <c r="P35" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R35" t="n">
         <v>1.45</v>
@@ -5398,10 +5398,10 @@
         <v>2.24</v>
       </c>
       <c r="H37" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J37" t="n">
         <v>3.3</v>
@@ -5440,7 +5440,7 @@
         <v>1.95</v>
       </c>
       <c r="V37" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W37" t="n">
         <v>1.8</v>
@@ -5449,7 +5449,7 @@
         <v>10.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z37" t="n">
         <v>27</v>
@@ -5482,7 +5482,7 @@
         <v>70</v>
       </c>
       <c r="AJ37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK37" t="n">
         <v>26</v>
@@ -5674,7 +5674,7 @@
         <v>3.75</v>
       </c>
       <c r="J39" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K39" t="n">
         <v>4.2</v>
@@ -6079,7 +6079,7 @@
         <v>3.9</v>
       </c>
       <c r="J42" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="n">
         <v>3.55</v>
@@ -6106,7 +6106,7 @@
         <v>1.3</v>
       </c>
       <c r="S42" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T42" t="n">
         <v>1.84</v>
@@ -6139,7 +6139,7 @@
         <v>7.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE42" t="n">
         <v>60</v>
@@ -6151,7 +6151,7 @@
         <v>11.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI42" t="n">
         <v>75</v>
@@ -6160,7 +6160,7 @@
         <v>36</v>
       </c>
       <c r="AK42" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL42" t="n">
         <v>55</v>
@@ -6220,7 +6220,7 @@
         <v>3.6</v>
       </c>
       <c r="L43" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M43" t="n">
         <v>1.01</v>
@@ -6241,7 +6241,7 @@
         <v>1.27</v>
       </c>
       <c r="S43" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T43" t="n">
         <v>1.59</v>
@@ -6370,7 +6370,7 @@
         <v>1.94</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R44" t="n">
         <v>1.37</v>
@@ -6379,10 +6379,10 @@
         <v>3.25</v>
       </c>
       <c r="T44" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U44" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V44" t="n">
         <v>1.32</v>
@@ -6421,7 +6421,7 @@
         <v>11</v>
       </c>
       <c r="AH44" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI44" t="n">
         <v>55</v>
@@ -6496,28 +6496,28 @@
         <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O45" t="n">
         <v>1.13</v>
       </c>
       <c r="P45" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R45" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S45" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="T45" t="n">
         <v>1.79</v>
       </c>
       <c r="U45" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V45" t="n">
         <v>1.07</v>
@@ -6526,7 +6526,7 @@
         <v>4.5</v>
       </c>
       <c r="X45" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Y45" t="n">
         <v>75</v>
@@ -6541,13 +6541,13 @@
         <v>14</v>
       </c>
       <c r="AC45" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD45" t="n">
         <v>46</v>
       </c>
       <c r="AE45" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF45" t="n">
         <v>11</v>
@@ -6556,13 +6556,13 @@
         <v>11</v>
       </c>
       <c r="AH45" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI45" t="n">
         <v>150</v>
       </c>
       <c r="AJ45" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
         <v>13</v>
@@ -6742,13 +6742,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G47" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H47" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I47" t="n">
         <v>4.8</v>
@@ -6757,7 +6757,7 @@
         <v>4.1</v>
       </c>
       <c r="K47" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L47" t="n">
         <v>1.2</v>
@@ -6775,7 +6775,7 @@
         <v>2.46</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R47" t="n">
         <v>1.59</v>
@@ -6784,19 +6784,19 @@
         <v>2.34</v>
       </c>
       <c r="T47" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U47" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V47" t="n">
         <v>1.26</v>
       </c>
       <c r="W47" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X47" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y47" t="n">
         <v>25</v>
@@ -6805,7 +6805,7 @@
         <v>980</v>
       </c>
       <c r="AA47" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB47" t="n">
         <v>13.5</v>
@@ -6814,10 +6814,10 @@
         <v>11.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE47" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF47" t="n">
         <v>14</v>
@@ -6832,7 +6832,7 @@
         <v>50</v>
       </c>
       <c r="AJ47" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK47" t="n">
         <v>17.5</v>
@@ -6841,10 +6841,10 @@
         <v>32</v>
       </c>
       <c r="AM47" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO47" t="n">
         <v>980</v>
@@ -6877,25 +6877,25 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G48" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="I48" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="J48" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K48" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L48" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M48" t="n">
         <v>1.05</v>
@@ -6904,85 +6904,85 @@
         <v>3.7</v>
       </c>
       <c r="O48" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P48" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R48" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="S48" t="n">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="T48" t="n">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="U48" t="n">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="V48" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="W48" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z48" t="n">
         <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF48" t="n">
         <v>1000</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ48" t="n">
         <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN48" t="n">
         <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -7015,10 +7015,10 @@
         <v>2.1</v>
       </c>
       <c r="G49" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H49" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I49" t="n">
         <v>4.1</v>
@@ -7057,13 +7057,13 @@
         <v>1.86</v>
       </c>
       <c r="U49" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V49" t="n">
         <v>1.32</v>
       </c>
       <c r="W49" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X49" t="n">
         <v>980</v>
@@ -7084,10 +7084,10 @@
         <v>980</v>
       </c>
       <c r="AD49" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF49" t="n">
         <v>980</v>
@@ -7183,10 +7183,10 @@
         <v>1.47</v>
       </c>
       <c r="R50" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T50" t="n">
         <v>1.62</v>
@@ -7357,7 +7357,7 @@
         <v>16.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AF51" t="n">
         <v>17</v>
@@ -7462,7 +7462,7 @@
         <v>1.9</v>
       </c>
       <c r="U52" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="V52" t="n">
         <v>1.17</v>
@@ -7495,10 +7495,10 @@
         <v>110</v>
       </c>
       <c r="AF52" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AG52" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH52" t="n">
         <v>24</v>
@@ -7507,10 +7507,10 @@
         <v>110</v>
       </c>
       <c r="AJ52" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AK52" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AL52" t="n">
         <v>40</v>
@@ -7519,7 +7519,7 @@
         <v>160</v>
       </c>
       <c r="AN52" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AO52" t="n">
         <v>140</v>
@@ -7561,7 +7561,7 @@
         <v>1.94</v>
       </c>
       <c r="I53" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J53" t="n">
         <v>2.8</v>
@@ -7576,13 +7576,13 @@
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="O53" t="n">
         <v>1.01</v>
       </c>
       <c r="P53" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q53" t="n">
         <v>2.4</v>
@@ -7720,13 +7720,13 @@
         <v>1.68</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="R54" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="S54" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T54" t="n">
         <v>1.78</v>
@@ -7828,7 +7828,7 @@
         <v>2.48</v>
       </c>
       <c r="H55" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I55" t="n">
         <v>4.6</v>
@@ -7888,7 +7888,7 @@
         <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC55" t="n">
         <v>11.5</v>
@@ -7900,7 +7900,7 @@
         <v>1000</v>
       </c>
       <c r="AF55" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG55" t="n">
         <v>15</v>
@@ -7912,10 +7912,10 @@
         <v>1000</v>
       </c>
       <c r="AJ55" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AK55" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL55" t="n">
         <v>60</v>
@@ -8095,7 +8095,7 @@
         <v>1.89</v>
       </c>
       <c r="G57" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H57" t="n">
         <v>3.35</v>
@@ -8104,7 +8104,7 @@
         <v>4.8</v>
       </c>
       <c r="J57" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K57" t="n">
         <v>4.9</v>
@@ -8143,7 +8143,7 @@
         <v>1.27</v>
       </c>
       <c r="W57" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G59" t="n">
         <v>3.1</v>
@@ -8380,7 +8380,7 @@
         <v>3.6</v>
       </c>
       <c r="L59" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M59" t="n">
         <v>1.08</v>
@@ -8401,13 +8401,13 @@
         <v>1.28</v>
       </c>
       <c r="S59" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T59" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U59" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V59" t="n">
         <v>1.5</v>
@@ -8431,7 +8431,7 @@
         <v>13</v>
       </c>
       <c r="AC59" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD59" t="n">
         <v>15.5</v>
@@ -8455,7 +8455,7 @@
         <v>60</v>
       </c>
       <c r="AK59" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AL59" t="n">
         <v>60</v>
@@ -8497,13 +8497,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G60" t="n">
         <v>1.52</v>
       </c>
       <c r="H60" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I60" t="n">
         <v>8.6</v>
@@ -8512,7 +8512,7 @@
         <v>4.5</v>
       </c>
       <c r="K60" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L60" t="n">
         <v>1.38</v>
@@ -8566,7 +8566,7 @@
         <v>7.8</v>
       </c>
       <c r="AC60" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD60" t="n">
         <v>30</v>
@@ -8596,7 +8596,7 @@
         <v>40</v>
       </c>
       <c r="AM60" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN60" t="n">
         <v>8.199999999999999</v>
@@ -8635,13 +8635,13 @@
         <v>2.06</v>
       </c>
       <c r="G61" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H61" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I61" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J61" t="n">
         <v>3.5</v>
@@ -8671,7 +8671,7 @@
         <v>1.3</v>
       </c>
       <c r="S61" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T61" t="n">
         <v>1.62</v>
@@ -8902,19 +8902,19 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G63" t="n">
         <v>1.64</v>
       </c>
       <c r="H63" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I63" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="J63" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K63" t="n">
         <v>5.2</v>
@@ -9073,16 +9073,16 @@
         <v>1.31</v>
       </c>
       <c r="R64" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S64" t="n">
         <v>1.8</v>
       </c>
       <c r="T64" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="U64" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V64" t="n">
         <v>1.07</v>
@@ -9139,7 +9139,7 @@
         <v>130</v>
       </c>
       <c r="AN64" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="AO64" t="n">
         <v>170</v>
@@ -9172,13 +9172,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G65" t="n">
         <v>5.3</v>
       </c>
       <c r="H65" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I65" t="n">
         <v>2.26</v>
@@ -9319,7 +9319,7 @@
         <v>1.95</v>
       </c>
       <c r="J66" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K66" t="n">
         <v>4.1</v>
@@ -9346,7 +9346,7 @@
         <v>1.36</v>
       </c>
       <c r="S66" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T66" t="n">
         <v>1.77</v>
@@ -9448,10 +9448,10 @@
         <v>1.85</v>
       </c>
       <c r="H67" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I67" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J67" t="n">
         <v>3.6</v>
@@ -9466,7 +9466,7 @@
         <v>1.08</v>
       </c>
       <c r="N67" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O67" t="n">
         <v>1.37</v>
@@ -9487,7 +9487,7 @@
         <v>1.93</v>
       </c>
       <c r="U67" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V67" t="n">
         <v>1.22</v>
@@ -9715,16 +9715,16 @@
         <v>3.7</v>
       </c>
       <c r="G69" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H69" t="n">
         <v>1.84</v>
       </c>
       <c r="I69" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J69" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K69" t="n">
         <v>5.4</v>
@@ -9736,22 +9736,22 @@
         <v>1.01</v>
       </c>
       <c r="N69" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="O69" t="n">
         <v>1.01</v>
       </c>
       <c r="P69" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R69" t="n">
         <v>1.18</v>
       </c>
       <c r="S69" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T69" t="n">
         <v>1.01</v>
@@ -9760,7 +9760,7 @@
         <v>1.01</v>
       </c>
       <c r="V69" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W69" t="n">
         <v>1.17</v>
@@ -9847,28 +9847,28 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G70" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="H70" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I70" t="n">
-        <v>18.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J70" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K70" t="n">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="L70" t="n">
         <v>1.37</v>
       </c>
       <c r="M70" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N70" t="n">
         <v>3.1</v>
@@ -9877,28 +9877,28 @@
         <v>1.38</v>
       </c>
       <c r="P70" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="R70" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S70" t="n">
-        <v>1.95</v>
+        <v>3.95</v>
       </c>
       <c r="T70" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U70" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="V70" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="W70" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X70" t="n">
         <v>1000</v>
@@ -9913,10 +9913,10 @@
         <v>1000</v>
       </c>
       <c r="AB70" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC70" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD70" t="n">
         <v>1000</v>
@@ -9925,10 +9925,10 @@
         <v>1000</v>
       </c>
       <c r="AF70" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG70" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH70" t="n">
         <v>1000</v>
@@ -10171,25 +10171,25 @@
         <v>1.31</v>
       </c>
       <c r="X72" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Y72" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z72" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AA72" t="n">
         <v>29</v>
       </c>
       <c r="AB72" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AC72" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD72" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AE72" t="n">
         <v>25</v>
@@ -10198,10 +10198,10 @@
         <v>28</v>
       </c>
       <c r="AG72" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AH72" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AI72" t="n">
         <v>40</v>
@@ -10222,7 +10222,7 @@
         <v>55</v>
       </c>
       <c r="AO72" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
     </row>
     <row r="73">
@@ -10261,7 +10261,7 @@
         <v>22</v>
       </c>
       <c r="I73" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J73" t="n">
         <v>9</v>
@@ -10297,7 +10297,7 @@
         <v>2.5</v>
       </c>
       <c r="U73" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V73" t="n">
         <v>1.03</v>
@@ -10345,7 +10345,7 @@
         <v>9.6</v>
       </c>
       <c r="AK73" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AL73" t="n">
         <v>65</v>
@@ -10387,16 +10387,16 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
         <v>3.4</v>
       </c>
       <c r="H74" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I74" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="J74" t="n">
         <v>2.82</v>
@@ -10432,13 +10432,13 @@
         <v>1.76</v>
       </c>
       <c r="U74" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V74" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W74" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X74" t="n">
         <v>12.5</v>
@@ -10453,13 +10453,13 @@
         <v>1000</v>
       </c>
       <c r="AB74" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC74" t="n">
         <v>7.2</v>
       </c>
       <c r="AD74" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE74" t="n">
         <v>1000</v>
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="G76" t="n">
         <v>2.24</v>
@@ -10837,7 +10837,7 @@
         <v>2.28</v>
       </c>
       <c r="U77" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V77" t="n">
         <v>1.4</v>
@@ -11197,22 +11197,22 @@
         </is>
       </c>
       <c r="F80" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H80" t="n">
         <v>1.09</v>
       </c>
-      <c r="G80" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H80" t="n">
-        <v>8.6</v>
-      </c>
       <c r="I80" t="n">
         <v>1000</v>
       </c>
       <c r="J80" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="K80" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L80" t="n">
         <v>1.01</v>
@@ -11233,10 +11233,10 @@
         <v>1.35</v>
       </c>
       <c r="R80" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S80" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T80" t="n">
         <v>1.01</v>
@@ -11245,10 +11245,10 @@
         <v>1.01</v>
       </c>
       <c r="V80" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="W80" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="X80" t="n">
         <v>1000</v>
@@ -11476,7 +11476,7 @@
         <v>1.3</v>
       </c>
       <c r="I82" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="J82" t="n">
         <v>5.5</v>
@@ -11548,7 +11548,7 @@
         <v>180</v>
       </c>
       <c r="AG82" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AH82" t="n">
         <v>42</v>
@@ -11560,7 +11560,7 @@
         <v>1000</v>
       </c>
       <c r="AK82" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AL82" t="n">
         <v>300</v>
@@ -11602,10 +11602,10 @@
         </is>
       </c>
       <c r="F83" t="n">
+        <v>2</v>
+      </c>
+      <c r="G83" t="n">
         <v>2.02</v>
-      </c>
-      <c r="G83" t="n">
-        <v>2.04</v>
       </c>
       <c r="H83" t="n">
         <v>3.7</v>
@@ -11644,7 +11644,7 @@
         <v>2.3</v>
       </c>
       <c r="T83" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U83" t="n">
         <v>2.82</v>
@@ -11653,7 +11653,7 @@
         <v>1.36</v>
       </c>
       <c r="W83" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="X83" t="n">
         <v>27</v>
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G84" t="n">
         <v>3.4</v>
@@ -11746,7 +11746,7 @@
         <v>2.46</v>
       </c>
       <c r="I84" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J84" t="n">
         <v>2.92</v>
@@ -11761,28 +11761,28 @@
         <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O84" t="n">
         <v>1.06</v>
       </c>
       <c r="P84" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R84" t="n">
         <v>1.27</v>
       </c>
       <c r="S84" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T84" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="U84" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="V84" t="n">
         <v>1.4</v>
@@ -11818,7 +11818,7 @@
         <v>28</v>
       </c>
       <c r="AG84" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH84" t="n">
         <v>25</v>
@@ -11833,7 +11833,7 @@
         <v>46</v>
       </c>
       <c r="AL84" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM84" t="n">
         <v>1000</v>
@@ -11899,19 +11899,19 @@
         <v>6.8</v>
       </c>
       <c r="O85" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="R85" t="n">
         <v>1.81</v>
       </c>
       <c r="S85" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="T85" t="n">
         <v>1.81</v>
@@ -11923,16 +11923,16 @@
         <v>1.09</v>
       </c>
       <c r="W85" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="X85" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y85" t="n">
         <v>46</v>
       </c>
       <c r="Z85" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA85" t="n">
         <v>380</v>
@@ -11974,7 +11974,7 @@
         <v>130</v>
       </c>
       <c r="AN85" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AO85" t="n">
         <v>150</v>
@@ -12010,7 +12010,7 @@
         <v>1.82</v>
       </c>
       <c r="G86" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>3.85</v>
@@ -12049,7 +12049,7 @@
         <v>1.01</v>
       </c>
       <c r="T86" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U86" t="n">
         <v>1.01</v>
@@ -12058,7 +12058,7 @@
         <v>1.27</v>
       </c>
       <c r="W86" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X86" t="n">
         <v>34</v>
@@ -12178,7 +12178,7 @@
         <v>2.18</v>
       </c>
       <c r="R87" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S87" t="n">
         <v>3.55</v>
@@ -12187,7 +12187,7 @@
         <v>1.01</v>
       </c>
       <c r="U87" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V87" t="n">
         <v>1.25</v>
@@ -12289,7 +12289,7 @@
         <v>21</v>
       </c>
       <c r="J88" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="K88" t="n">
         <v>12.5</v>
@@ -12307,7 +12307,7 @@
         <v>1.08</v>
       </c>
       <c r="P88" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Q88" t="n">
         <v>1.24</v>
@@ -12319,7 +12319,7 @@
         <v>1.62</v>
       </c>
       <c r="T88" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U88" t="n">
         <v>2.04</v>
@@ -12355,7 +12355,7 @@
         <v>280</v>
       </c>
       <c r="AF88" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG88" t="n">
         <v>16</v>
@@ -12379,7 +12379,7 @@
         <v>160</v>
       </c>
       <c r="AN88" t="n">
-        <v>2.74</v>
+        <v>2.42</v>
       </c>
       <c r="AO88" t="n">
         <v>220</v>
@@ -12433,13 +12433,13 @@
         <v>1.37</v>
       </c>
       <c r="M89" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N89" t="n">
         <v>4</v>
       </c>
       <c r="O89" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P89" t="n">
         <v>2.02</v>
@@ -12448,19 +12448,19 @@
         <v>1.91</v>
       </c>
       <c r="R89" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S89" t="n">
         <v>3.25</v>
       </c>
       <c r="T89" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U89" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V89" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W89" t="n">
         <v>2.4</v>
@@ -12511,7 +12511,7 @@
         <v>36</v>
       </c>
       <c r="AM89" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN89" t="n">
         <v>10.5</v>
@@ -12823,10 +12823,10 @@
         <v>1.79</v>
       </c>
       <c r="H92" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I92" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J92" t="n">
         <v>4</v>
@@ -12853,22 +12853,22 @@
         <v>1.8</v>
       </c>
       <c r="R92" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S92" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T92" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U92" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V92" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W92" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X92" t="n">
         <v>21</v>
@@ -12979,7 +12979,7 @@
         <v>1.94</v>
       </c>
       <c r="O93" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P93" t="n">
         <v>1.93</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO93"/>
+  <dimension ref="A1:AO96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J2" t="n">
         <v>3.45</v>
@@ -685,40 +685,40 @@
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
         <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
@@ -751,7 +751,7 @@
         <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>60</v>
@@ -805,7 +805,7 @@
         <v>3.85</v>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
         <v>1.96</v>
@@ -814,37 +814,37 @@
         <v>2.02</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="S3" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="T3" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U3" t="n">
         <v>1.04</v>
@@ -856,10 +856,10 @@
         <v>1.32</v>
       </c>
       <c r="X3" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
         <v>20</v>
@@ -871,7 +871,7 @@
         <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD3" t="n">
         <v>15.5</v>
@@ -886,7 +886,7 @@
         <v>24</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
         <v>46</v>
@@ -1024,7 +1024,7 @@
         <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ4" t="n">
         <v>24</v>
@@ -1042,7 +1042,7 @@
         <v>11</v>
       </c>
       <c r="AO4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1084,7 +1084,7 @@
         <v>2.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
         <v>3.95</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,60 +1328,60 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Serik Belediyespor</t>
+          <t>Fethiyespor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>Ankara Demirspor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.1</v>
+        <v>1.02</v>
       </c>
       <c r="G7" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>1.48</v>
+        <v>1.02</v>
       </c>
       <c r="I7" t="n">
-        <v>1.76</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>5.3</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>2.46</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>2.28</v>
+        <v>1.26</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1390,10 +1390,10 @@
         <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07:45:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>Serik Belediyespor</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>4.1</v>
       </c>
       <c r="G8" t="n">
-        <v>1.96</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>4.3</v>
+        <v>1.51</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>1.76</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>5.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>2.04</v>
+        <v>2.46</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.47</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>3.3</v>
+        <v>2.28</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.04</v>
       </c>
       <c r="U8" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>2.3</v>
       </c>
       <c r="W8" t="n">
-        <v>2.04</v>
+        <v>1.1</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Australian A-League Men</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>07:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Perth Glory</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BG Pathumthani United</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.05</v>
+        <v>1.94</v>
       </c>
       <c r="G9" t="n">
-        <v>3.55</v>
+        <v>1.96</v>
       </c>
       <c r="H9" t="n">
-        <v>2.18</v>
+        <v>4.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.42</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="S9" t="n">
-        <v>2.72</v>
+        <v>3.35</v>
       </c>
       <c r="T9" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>1.71</v>
+        <v>1.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.39</v>
+        <v>2.04</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK9" t="n">
         <v>20</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AL9" t="n">
         <v>36</v>
       </c>
-      <c r="AB9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>42</v>
-      </c>
       <c r="AM9" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
-        <v>16.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Port FC</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sukhothai</t>
+          <t>BG Pathumthani United</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>1.44</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>6.8</v>
+        <v>2.18</v>
       </c>
       <c r="I10" t="n">
-        <v>15.5</v>
+        <v>2.42</v>
       </c>
       <c r="J10" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>8.199999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.4</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3.25</v>
-      </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,78 +1868,78 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Belediye Derincespor</t>
+          <t>Port FC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Somaspor Spor Kulubu</t>
+          <t>Sukhothai</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.02</v>
+        <v>1.33</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>1.44</v>
       </c>
       <c r="H11" t="n">
-        <v>1.02</v>
+        <v>6.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.02</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>2.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="S11" t="n">
-        <v>1.15</v>
+        <v>1.89</v>
       </c>
       <c r="T11" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1954,7 +1954,7 @@
         <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
@@ -2008,12 +2008,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fethiyespor</t>
+          <t>Belediye Derincespor</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ankara Demirspor</t>
+          <t>Somaspor Spor Kulubu</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2044,19 +2044,19 @@
         <v>1.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="P12" t="n">
         <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="R12" t="n">
         <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="T12" t="n">
         <v>1.04</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.89</v>
+        <v>1.59</v>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.22</v>
@@ -2203,7 +2203,7 @@
         <v>1.21</v>
       </c>
       <c r="W13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X13" t="n">
         <v>29</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
         <v>980</v>
@@ -2230,10 +2230,10 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
         <v>980</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
         <v>2.12</v>
       </c>
       <c r="I15" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J15" t="n">
         <v>3.4</v>
@@ -2452,7 +2452,7 @@
         <v>1.34</v>
       </c>
       <c r="P15" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="Q15" t="n">
         <v>1.89</v>
@@ -2464,13 +2464,13 @@
         <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
         <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W15" t="n">
         <v>1.33</v>
@@ -2833,10 +2833,10 @@
         <v>1.76</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I18" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J18" t="n">
         <v>3.6</v>
@@ -2878,7 +2878,7 @@
         <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X18" t="n">
         <v>13</v>
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>US Latina Calcio</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.4</v>
+        <v>2.68</v>
       </c>
       <c r="G19" t="n">
-        <v>2.68</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="I19" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="K19" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L19" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.12</v>
+        <v>2.46</v>
       </c>
       <c r="R19" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>US Latina Calcio</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.68</v>
+        <v>2.34</v>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I20" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2.62</v>
       </c>
-      <c r="K20" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.46</v>
-      </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3223,73 +3223,73 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.34</v>
+        <v>1.33</v>
       </c>
       <c r="G21" t="n">
-        <v>3.25</v>
+        <v>1.43</v>
       </c>
       <c r="H21" t="n">
-        <v>2.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>16.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="K21" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="L21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.54</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.04</v>
-      </c>
       <c r="V21" t="n">
-        <v>1.32</v>
+        <v>1.07</v>
       </c>
       <c r="W21" t="n">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
         <v>1000</v>
@@ -3298,43 +3298,43 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3406,7 +3406,7 @@
         <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T22" t="n">
         <v>1.04</v>
@@ -3493,118 +3493,118 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.33</v>
+        <v>2.4</v>
       </c>
       <c r="G23" t="n">
-        <v>1.44</v>
+        <v>2.68</v>
       </c>
       <c r="H23" t="n">
-        <v>9.800000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>16.5</v>
+        <v>3.6</v>
       </c>
       <c r="J23" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>5.7</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>3.3</v>
+        <v>2.38</v>
       </c>
       <c r="O23" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="R23" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="T23" t="n">
-        <v>2.44</v>
+        <v>1.78</v>
       </c>
       <c r="U23" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="V23" t="n">
-        <v>1.07</v>
+        <v>1.38</v>
       </c>
       <c r="W23" t="n">
-        <v>3.25</v>
+        <v>1.59</v>
       </c>
       <c r="X23" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB23" t="n">
-        <v>6.6</v>
+        <v>12.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF23" t="n">
-        <v>7.2</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AH23" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AK23" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AL23" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>9.6</v>
+        <v>48</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3640,19 +3640,19 @@
         <v>2.14</v>
       </c>
       <c r="G24" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H24" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I24" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J24" t="n">
         <v>3.45</v>
       </c>
       <c r="K24" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,16 +3661,16 @@
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O24" t="n">
         <v>1.27</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="R24" t="n">
         <v>1.42</v>
@@ -3679,16 +3679,16 @@
         <v>3.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="U24" t="n">
         <v>2.32</v>
       </c>
       <c r="V24" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W24" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X24" t="n">
         <v>970</v>
@@ -3826,58 +3826,58 @@
         <v>1.79</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -3922,7 +3922,7 @@
         <v>3.25</v>
       </c>
       <c r="K26" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -4045,7 +4045,7 @@
         <v>6</v>
       </c>
       <c r="G27" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H27" t="n">
         <v>1.66</v>
@@ -4066,25 +4066,25 @@
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
         <v>1.83</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R27" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S27" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U27" t="n">
         <v>1.86</v>
@@ -4099,7 +4099,7 @@
         <v>14</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z27" t="n">
         <v>9.800000000000001</v>
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="n">
         <v>1.96</v>
       </c>
-      <c r="G28" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H28" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.14</v>
-      </c>
       <c r="U28" t="n">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="V28" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z28" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA28" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH28" t="n">
         <v>21</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AI28" t="n">
         <v>80</v>
       </c>
-      <c r="AF28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>100</v>
-      </c>
       <c r="AJ28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK28" t="n">
         <v>22</v>
       </c>
-      <c r="AK28" t="n">
-        <v>25</v>
-      </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM28" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AN28" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G29" t="n">
         <v>1000</v>
@@ -4456,7 +4456,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J30" t="n">
         <v>3.2</v>
@@ -4471,16 +4471,16 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.65</v>
+        <v>1.1</v>
       </c>
       <c r="O30" t="n">
         <v>1.44</v>
       </c>
       <c r="P30" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="R30" t="n">
         <v>1.18</v>
@@ -4495,7 +4495,7 @@
         <v>1.74</v>
       </c>
       <c r="V30" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="W30" t="n">
         <v>1.24</v>
@@ -4552,7 +4552,7 @@
         <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G31" t="n">
         <v>1.97</v>
       </c>
-      <c r="G31" t="n">
-        <v>1.98</v>
-      </c>
       <c r="H31" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I31" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S31" t="n">
         <v>4.8</v>
       </c>
-      <c r="J31" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
       <c r="T31" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="U31" t="n">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="V31" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W31" t="n">
         <v>2.02</v>
       </c>
       <c r="X31" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z31" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA31" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AB31" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AF31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG31" t="n">
         <v>11</v>
       </c>
-      <c r="AG31" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK31" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM31" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AN31" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
@@ -4720,7 +4720,7 @@
         <v>2.34</v>
       </c>
       <c r="G32" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
@@ -4732,7 +4732,7 @@
         <v>3.05</v>
       </c>
       <c r="K32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,13 +4741,13 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>2.62</v>
+        <v>1.71</v>
       </c>
       <c r="O32" t="n">
         <v>1.44</v>
       </c>
       <c r="P32" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q32" t="n">
         <v>2.32</v>
@@ -4783,7 +4783,7 @@
         <v>100</v>
       </c>
       <c r="AB32" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC32" t="n">
         <v>10</v>
@@ -4819,7 +4819,7 @@
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4894,7 +4894,7 @@
         <v>3.15</v>
       </c>
       <c r="T33" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U33" t="n">
         <v>2.2</v>
@@ -5032,7 +5032,7 @@
         <v>1.79</v>
       </c>
       <c r="U34" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V34" t="n">
         <v>1.23</v>
@@ -5134,7 +5134,7 @@
         <v>2.54</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K35" t="n">
         <v>3.7</v>
@@ -5152,7 +5152,7 @@
         <v>1.27</v>
       </c>
       <c r="P35" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q35" t="n">
         <v>1.83</v>
@@ -5173,7 +5173,7 @@
         <v>1.65</v>
       </c>
       <c r="W35" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X35" t="n">
         <v>16</v>
@@ -5260,10 +5260,10 @@
         <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H36" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I36" t="n">
         <v>2.44</v>
@@ -5275,7 +5275,7 @@
         <v>3.9</v>
       </c>
       <c r="L36" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M36" t="n">
         <v>1.04</v>
@@ -5305,10 +5305,10 @@
         <v>2.66</v>
       </c>
       <c r="V36" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W36" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X36" t="n">
         <v>21</v>
@@ -5359,7 +5359,7 @@
         <v>55</v>
       </c>
       <c r="AN36" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO36" t="n">
         <v>13</v>
@@ -5422,7 +5422,7 @@
         <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q37" t="n">
         <v>2.3</v>
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Forfar</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.56</v>
+        <v>2.1</v>
       </c>
       <c r="G38" t="n">
-        <v>3.85</v>
+        <v>2.36</v>
       </c>
       <c r="H38" t="n">
-        <v>2.22</v>
+        <v>3.15</v>
       </c>
       <c r="I38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J38" t="n">
         <v>3.2</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S38" t="n">
         <v>2.8</v>
       </c>
-      <c r="K38" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.81</v>
-      </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="V38" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="W38" t="n">
-        <v>1.35</v>
+        <v>1.73</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>East Kilbride</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G39" t="n">
-        <v>2.36</v>
+        <v>3.85</v>
       </c>
       <c r="H39" t="n">
-        <v>3.15</v>
+        <v>2.04</v>
       </c>
       <c r="I39" t="n">
-        <v>3.75</v>
+        <v>2.66</v>
       </c>
       <c r="J39" t="n">
         <v>3.2</v>
       </c>
       <c r="K39" t="n">
-        <v>4.2</v>
+        <v>980</v>
       </c>
       <c r="L39" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="O39" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P39" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="R39" t="n">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="S39" t="n">
-        <v>2.8</v>
+        <v>2.36</v>
       </c>
       <c r="T39" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="U39" t="n">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
       <c r="V39" t="n">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="W39" t="n">
-        <v>1.73</v>
+        <v>1.35</v>
       </c>
       <c r="X39" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
         <v>22</v>
       </c>
-      <c r="Y39" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AC39" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD39" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE39" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AH39" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
@@ -5788,88 +5788,88 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Elgin City FC</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G40" t="n">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="H40" t="n">
-        <v>2.04</v>
+        <v>2.54</v>
       </c>
       <c r="I40" t="n">
-        <v>2.66</v>
+        <v>3.9</v>
       </c>
       <c r="J40" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="L40" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O40" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P40" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R40" t="n">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="S40" t="n">
         <v>2.36</v>
       </c>
       <c r="T40" t="n">
-        <v>1.47</v>
+        <v>1.04</v>
       </c>
       <c r="U40" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="V40" t="n">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="W40" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="X40" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
@@ -5878,10 +5878,10 @@
         <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
@@ -5923,121 +5923,121 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Elgin City FC</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.16</v>
+        <v>1.71</v>
       </c>
       <c r="G41" t="n">
-        <v>3.05</v>
+        <v>1.84</v>
       </c>
       <c r="H41" t="n">
-        <v>2.54</v>
+        <v>4.3</v>
       </c>
       <c r="I41" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="K41" t="n">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>1.98</v>
+        <v>5.3</v>
       </c>
       <c r="O41" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="P41" t="n">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R41" t="n">
-        <v>1.37</v>
+        <v>1.59</v>
       </c>
       <c r="S41" t="n">
         <v>2.36</v>
       </c>
       <c r="T41" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="U41" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="V41" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="W41" t="n">
-        <v>1.48</v>
+        <v>2.18</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="42">
@@ -6079,7 +6079,7 @@
         <v>3.9</v>
       </c>
       <c r="J42" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K42" t="n">
         <v>3.55</v>
@@ -6097,7 +6097,7 @@
         <v>1.37</v>
       </c>
       <c r="P42" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q42" t="n">
         <v>2.08</v>
@@ -6193,121 +6193,121 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="G43" t="n">
-        <v>2.48</v>
+        <v>2.14</v>
       </c>
       <c r="H43" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="J43" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K43" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L43" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>1.02</v>
+        <v>3.85</v>
       </c>
       <c r="O43" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P43" t="n">
-        <v>1.27</v>
+        <v>1.98</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.36</v>
+        <v>1.86</v>
       </c>
       <c r="R43" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="S43" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T43" t="n">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="U43" t="n">
-        <v>1.71</v>
+        <v>2.16</v>
       </c>
       <c r="V43" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="W43" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="X43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH43" t="n">
         <v>18</v>
       </c>
-      <c r="Y43" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA43" t="n">
+      <c r="AI43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM43" t="n">
         <v>95</v>
       </c>
-      <c r="AB43" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
@@ -6328,127 +6328,127 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.1</v>
+        <v>1.27</v>
       </c>
       <c r="G44" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H44" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K44" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N44" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U44" t="n">
         <v>2.14</v>
       </c>
-      <c r="H44" t="n">
-        <v>4</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N44" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U44" t="n">
-        <v>2.16</v>
-      </c>
       <c r="V44" t="n">
-        <v>1.32</v>
+        <v>1.07</v>
       </c>
       <c r="W44" t="n">
-        <v>1.87</v>
+        <v>4.6</v>
       </c>
       <c r="X44" t="n">
-        <v>14.5</v>
+        <v>38</v>
       </c>
       <c r="Y44" t="n">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="Z44" t="n">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="AA44" t="n">
-        <v>80</v>
+        <v>610</v>
       </c>
       <c r="AB44" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD44" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AE44" t="n">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="AF44" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG44" t="n">
         <v>11</v>
       </c>
       <c r="AH44" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AI44" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AJ44" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AK44" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AL44" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AM44" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AN44" t="n">
-        <v>15.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO44" t="n">
-        <v>46</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,127 +6463,127 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Forfar</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.27</v>
+        <v>2.56</v>
       </c>
       <c r="G45" t="n">
-        <v>1.28</v>
+        <v>3.85</v>
       </c>
       <c r="H45" t="n">
-        <v>13.5</v>
+        <v>2.22</v>
       </c>
       <c r="I45" t="n">
-        <v>14.5</v>
+        <v>3.2</v>
       </c>
       <c r="J45" t="n">
-        <v>6.8</v>
+        <v>2.8</v>
       </c>
       <c r="K45" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="L45" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="M45" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>7.6</v>
+        <v>1.93</v>
       </c>
       <c r="O45" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="P45" t="n">
-        <v>3.2</v>
+        <v>1.71</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.37</v>
+        <v>1.81</v>
       </c>
       <c r="R45" t="n">
-        <v>1.9</v>
+        <v>1.24</v>
       </c>
       <c r="S45" t="n">
-        <v>1.94</v>
+        <v>2.66</v>
       </c>
       <c r="T45" t="n">
-        <v>1.79</v>
+        <v>1.04</v>
       </c>
       <c r="U45" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="V45" t="n">
-        <v>1.07</v>
+        <v>1.45</v>
       </c>
       <c r="W45" t="n">
-        <v>4.5</v>
+        <v>1.35</v>
       </c>
       <c r="X45" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y45" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="Z45" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AA45" t="n">
-        <v>610</v>
+        <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD45" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AE45" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG45" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH45" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI45" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ45" t="n">
         <v>1000</v>
       </c>
       <c r="AK45" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL45" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM45" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,112 +6598,112 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.48</v>
+        <v>2.3</v>
       </c>
       <c r="G46" t="n">
-        <v>1.85</v>
+        <v>2.44</v>
       </c>
       <c r="H46" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="I46" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="J46" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="K46" t="n">
-        <v>9.199999999999999</v>
+        <v>3.55</v>
       </c>
       <c r="L46" t="n">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="M46" t="n">
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>1.94</v>
+        <v>1.02</v>
       </c>
       <c r="O46" t="n">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="P46" t="n">
-        <v>1.94</v>
+        <v>1.27</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
       <c r="R46" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="S46" t="n">
-        <v>2.48</v>
+        <v>3.35</v>
       </c>
       <c r="T46" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U46" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V46" t="n">
-        <v>1.05</v>
+        <v>1.38</v>
       </c>
       <c r="W46" t="n">
-        <v>2.16</v>
+        <v>1.69</v>
       </c>
       <c r="X46" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB46" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF46" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AG46" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ46" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AK46" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM46" t="n">
         <v>1000</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,121 +6733,121 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="G47" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H47" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I47" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="J47" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="K47" t="n">
-        <v>4.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L47" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M47" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="O47" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="P47" t="n">
-        <v>2.46</v>
+        <v>1.94</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="R47" t="n">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
       <c r="S47" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="T47" t="n">
-        <v>1.59</v>
+        <v>1.04</v>
       </c>
       <c r="U47" t="n">
-        <v>2.34</v>
+        <v>1.04</v>
       </c>
       <c r="V47" t="n">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="W47" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X47" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="Y47" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB47" t="n">
         <v>980</v>
       </c>
-      <c r="AA47" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AC47" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AD47" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE47" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AG47" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH47" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AK47" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AL47" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM47" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G48" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="H48" t="n">
         <v>1.99</v>
       </c>
       <c r="I48" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="J48" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K48" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
@@ -6925,22 +6925,22 @@
         <v>2.12</v>
       </c>
       <c r="V48" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="W48" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
       </c>
       <c r="Y48" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z48" t="n">
         <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AB48" t="n">
         <v>22</v>
@@ -6949,7 +6949,7 @@
         <v>10.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE48" t="n">
         <v>22</v>
@@ -6958,7 +6958,7 @@
         <v>1000</v>
       </c>
       <c r="AG48" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH48" t="n">
         <v>19.5</v>
@@ -6982,13 +6982,13 @@
         <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,127 +7003,127 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="G49" t="n">
-        <v>2.34</v>
+        <v>8</v>
       </c>
       <c r="H49" t="n">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="I49" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="J49" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="K49" t="n">
-        <v>3.85</v>
+        <v>6.6</v>
       </c>
       <c r="L49" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="M49" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="O49" t="n">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="P49" t="n">
-        <v>1.73</v>
+        <v>2.72</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.08</v>
+        <v>1.47</v>
       </c>
       <c r="R49" t="n">
-        <v>1.27</v>
+        <v>1.61</v>
       </c>
       <c r="S49" t="n">
-        <v>3.5</v>
+        <v>2.02</v>
       </c>
       <c r="T49" t="n">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="U49" t="n">
-        <v>1.92</v>
+        <v>2.3</v>
       </c>
       <c r="V49" t="n">
-        <v>1.32</v>
+        <v>2.64</v>
       </c>
       <c r="W49" t="n">
-        <v>1.74</v>
+        <v>1.14</v>
       </c>
       <c r="X49" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="Y49" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z49" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AA49" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AC49" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AD49" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="AE49" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="AF49" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AG49" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AH49" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI49" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ49" t="n">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AK49" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AL49" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7138,127 +7138,127 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>1.79</v>
       </c>
       <c r="G50" t="n">
-        <v>8.199999999999999</v>
+        <v>2.48</v>
       </c>
       <c r="H50" t="n">
-        <v>1.45</v>
+        <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="J50" t="n">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="L50" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="M50" t="n">
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>6</v>
+        <v>1.63</v>
       </c>
       <c r="O50" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="P50" t="n">
-        <v>2.7</v>
+        <v>1.63</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
       <c r="R50" t="n">
-        <v>1.61</v>
+        <v>1.21</v>
       </c>
       <c r="S50" t="n">
-        <v>2.02</v>
+        <v>2.84</v>
       </c>
       <c r="T50" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U50" t="n">
-        <v>2.28</v>
+        <v>1.68</v>
       </c>
       <c r="V50" t="n">
-        <v>2.64</v>
+        <v>1.27</v>
       </c>
       <c r="W50" t="n">
-        <v>1.14</v>
+        <v>1.67</v>
       </c>
       <c r="X50" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Y50" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Z50" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG50" t="n">
         <v>15</v>
       </c>
-      <c r="AA50" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG50" t="n">
+      <c r="AH50" t="n">
         <v>29</v>
       </c>
-      <c r="AH50" t="n">
-        <v>23</v>
-      </c>
       <c r="AI50" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="AK50" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="AL50" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AM50" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO50" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7273,127 +7273,127 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Athlitiki Enosi Larissa</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.99</v>
+        <v>1.63</v>
       </c>
       <c r="G51" t="n">
-        <v>2.2</v>
+        <v>1.74</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="I51" t="n">
-        <v>3.85</v>
+        <v>6.8</v>
       </c>
       <c r="J51" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K51" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L51" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="M51" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="O51" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V51" t="n">
         <v>1.18</v>
       </c>
-      <c r="P51" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S51" t="n">
+      <c r="W51" t="n">
         <v>2.34</v>
       </c>
-      <c r="T51" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U51" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W51" t="n">
-        <v>1.83</v>
-      </c>
       <c r="X51" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Y51" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z51" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AA51" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AB51" t="n">
-        <v>17</v>
+        <v>9.4</v>
       </c>
       <c r="AC51" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AE51" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AF51" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AG51" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AH51" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AI51" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AK51" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AL51" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AM51" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AN51" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AO51" t="n">
-        <v>25</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Portuguese Liga 3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7408,127 +7408,127 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>1 Dezembro</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Athlitiki Enosi Larissa</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.63</v>
+        <v>3.85</v>
       </c>
       <c r="G52" t="n">
-        <v>1.77</v>
+        <v>5.8</v>
       </c>
       <c r="H52" t="n">
-        <v>5.5</v>
+        <v>1.96</v>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
+        <v>2.46</v>
       </c>
       <c r="J52" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="K52" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L52" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="M52" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>3.55</v>
+        <v>1.45</v>
       </c>
       <c r="O52" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="P52" t="n">
-        <v>1.87</v>
+        <v>1.45</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.81</v>
+        <v>2.4</v>
       </c>
       <c r="R52" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="S52" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="T52" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="U52" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="V52" t="n">
-        <v>1.17</v>
+        <v>1.69</v>
       </c>
       <c r="W52" t="n">
-        <v>2.3</v>
+        <v>1.21</v>
       </c>
       <c r="X52" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y52" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z52" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AA52" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC52" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD52" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE52" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG52" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH52" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI52" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK52" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL52" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM52" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO52" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Portuguese Liga 3</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7543,70 +7543,70 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1 Dezembro</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="F53" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G53" t="n">
         <v>3.85</v>
       </c>
-      <c r="G53" t="n">
-        <v>5.8</v>
-      </c>
       <c r="H53" t="n">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="I53" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="J53" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="K53" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="L53" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M53" t="n">
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="O53" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P53" t="n">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="R53" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S53" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="T53" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U53" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V53" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="W53" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="X53" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y53" t="n">
         <v>1000</v>
@@ -7663,7 +7663,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7678,127 +7678,127 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H54" t="n">
         <v>3.45</v>
       </c>
-      <c r="G54" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2.2</v>
-      </c>
       <c r="I54" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="J54" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="L54" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M54" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="O54" t="n">
-        <v>1.02</v>
+        <v>1.18</v>
       </c>
       <c r="P54" t="n">
-        <v>1.68</v>
+        <v>2.48</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.18</v>
+        <v>1.55</v>
       </c>
       <c r="R54" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="S54" t="n">
-        <v>3.55</v>
+        <v>2.34</v>
       </c>
       <c r="T54" t="n">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="U54" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="V54" t="n">
-        <v>1.72</v>
+        <v>1.36</v>
       </c>
       <c r="W54" t="n">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="X54" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH54" t="n">
         <v>16</v>
       </c>
-      <c r="Y54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7813,121 +7813,121 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.79</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>2.48</v>
+        <v>11</v>
       </c>
       <c r="H55" t="n">
-        <v>3.5</v>
+        <v>1.38</v>
       </c>
       <c r="I55" t="n">
-        <v>4.6</v>
+        <v>1.44</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K55" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="L55" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M55" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N55" t="n">
-        <v>1.63</v>
+        <v>5.1</v>
       </c>
       <c r="O55" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="P55" t="n">
-        <v>1.63</v>
+        <v>2.32</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="R55" t="n">
-        <v>1.21</v>
+        <v>1.52</v>
       </c>
       <c r="S55" t="n">
-        <v>2.84</v>
+        <v>2.56</v>
       </c>
       <c r="T55" t="n">
-        <v>1.63</v>
+        <v>1.93</v>
       </c>
       <c r="U55" t="n">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="V55" t="n">
-        <v>1.27</v>
+        <v>3.25</v>
       </c>
       <c r="W55" t="n">
-        <v>1.67</v>
+        <v>1.1</v>
       </c>
       <c r="X55" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Y55" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>50</v>
+        <v>10.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AB55" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="AC55" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AE55" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF55" t="n">
-        <v>15.5</v>
+        <v>110</v>
       </c>
       <c r="AG55" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AH55" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI55" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ55" t="n">
-        <v>30</v>
+        <v>380</v>
       </c>
       <c r="AK55" t="n">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="AL55" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AM55" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN55" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AO55" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="56">
@@ -7948,121 +7948,121 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Arbroath</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>8.800000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="G56" t="n">
-        <v>11.5</v>
+        <v>2.44</v>
       </c>
       <c r="H56" t="n">
-        <v>1.38</v>
+        <v>3.35</v>
       </c>
       <c r="I56" t="n">
-        <v>1.44</v>
+        <v>4.8</v>
       </c>
       <c r="J56" t="n">
-        <v>5</v>
+        <v>3.15</v>
       </c>
       <c r="K56" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N56" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="O56" t="n">
-        <v>1.21</v>
+        <v>1.09</v>
       </c>
       <c r="P56" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.62</v>
+        <v>2.08</v>
       </c>
       <c r="R56" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="S56" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="T56" t="n">
-        <v>1.92</v>
+        <v>1.64</v>
       </c>
       <c r="U56" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="V56" t="n">
-        <v>3.25</v>
+        <v>1.27</v>
       </c>
       <c r="W56" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="X56" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y56" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z56" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA56" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AC56" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD56" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE56" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AG56" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH56" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI56" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AK56" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AL56" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AM56" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AO56" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57">
@@ -8083,70 +8083,70 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Arbroath</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.89</v>
+        <v>1.63</v>
       </c>
       <c r="G57" t="n">
-        <v>2.44</v>
+        <v>1.76</v>
       </c>
       <c r="H57" t="n">
-        <v>3.35</v>
+        <v>5.5</v>
       </c>
       <c r="I57" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="J57" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="K57" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L57" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M57" t="n">
         <v>1.01</v>
       </c>
-      <c r="M57" t="n">
-        <v>1.09</v>
-      </c>
       <c r="N57" t="n">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="O57" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="P57" t="n">
-        <v>1.69</v>
+        <v>1.93</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="R57" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="S57" t="n">
-        <v>3.7</v>
+        <v>2.84</v>
       </c>
       <c r="T57" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U57" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V57" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="W57" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="X57" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y57" t="n">
         <v>1000</v>
@@ -8203,7 +8203,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8218,112 +8218,112 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="G58" t="n">
-        <v>1.76</v>
+        <v>2.34</v>
       </c>
       <c r="H58" t="n">
-        <v>5.5</v>
+        <v>3.45</v>
       </c>
       <c r="I58" t="n">
-        <v>6.6</v>
+        <v>4.1</v>
       </c>
       <c r="J58" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="K58" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="L58" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M58" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N58" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="O58" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P58" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="R58" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="S58" t="n">
-        <v>2.84</v>
+        <v>3.5</v>
       </c>
       <c r="T58" t="n">
-        <v>1.64</v>
+        <v>1.86</v>
       </c>
       <c r="U58" t="n">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="V58" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="W58" t="n">
-        <v>2.3</v>
+        <v>1.74</v>
       </c>
       <c r="X58" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Y58" t="n">
         <v>1000</v>
       </c>
       <c r="Z58" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA58" t="n">
         <v>1000</v>
       </c>
       <c r="AB58" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC58" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD58" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE58" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF58" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG58" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH58" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI58" t="n">
         <v>1000</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK58" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL58" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM58" t="n">
         <v>1000</v>
@@ -8362,67 +8362,67 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="G59" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H59" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="J59" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K59" t="n">
         <v>3.6</v>
       </c>
       <c r="L59" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M59" t="n">
         <v>1.08</v>
       </c>
       <c r="N59" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O59" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P59" t="n">
         <v>1.75</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R59" t="n">
         <v>1.28</v>
       </c>
       <c r="S59" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T59" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U59" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W59" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X59" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y59" t="n">
         <v>12.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA59" t="n">
         <v>55</v>
@@ -8431,16 +8431,16 @@
         <v>13</v>
       </c>
       <c r="AC59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD59" t="n">
         <v>15.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF59" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG59" t="n">
         <v>16</v>
@@ -8452,22 +8452,22 @@
         <v>60</v>
       </c>
       <c r="AJ59" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK59" t="n">
         <v>44</v>
       </c>
       <c r="AL59" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM59" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN59" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO59" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
@@ -8506,7 +8506,7 @@
         <v>8.4</v>
       </c>
       <c r="I60" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J60" t="n">
         <v>4.5</v>
@@ -8635,10 +8635,10 @@
         <v>2.06</v>
       </c>
       <c r="G61" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="H61" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="I61" t="n">
         <v>4.4</v>
@@ -8647,7 +8647,7 @@
         <v>3.5</v>
       </c>
       <c r="K61" t="n">
-        <v>980</v>
+        <v>6.2</v>
       </c>
       <c r="L61" t="n">
         <v>1.38</v>
@@ -8662,10 +8662,10 @@
         <v>1.3</v>
       </c>
       <c r="P61" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R61" t="n">
         <v>1.3</v>
@@ -8674,7 +8674,7 @@
         <v>2.86</v>
       </c>
       <c r="T61" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U61" t="n">
         <v>2.04</v>
@@ -8683,7 +8683,7 @@
         <v>1.29</v>
       </c>
       <c r="W61" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="X61" t="n">
         <v>21</v>
@@ -8767,10 +8767,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="G62" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H62" t="n">
         <v>2.52</v>
@@ -8779,10 +8779,10 @@
         <v>2.7</v>
       </c>
       <c r="J62" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K62" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -8905,16 +8905,16 @@
         <v>1.56</v>
       </c>
       <c r="G63" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H63" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="I63" t="n">
         <v>1000</v>
       </c>
       <c r="J63" t="n">
-        <v>4.4</v>
+        <v>1.46</v>
       </c>
       <c r="K63" t="n">
         <v>5.2</v>
@@ -9061,13 +9061,13 @@
         <v>1.02</v>
       </c>
       <c r="N64" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="O64" t="n">
         <v>1.1</v>
       </c>
       <c r="P64" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="Q64" t="n">
         <v>1.31</v>
@@ -9115,7 +9115,7 @@
         <v>200</v>
       </c>
       <c r="AF64" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG64" t="n">
         <v>13.5</v>
@@ -9178,16 +9178,16 @@
         <v>5.3</v>
       </c>
       <c r="H65" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I65" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J65" t="n">
         <v>3.4</v>
       </c>
       <c r="K65" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9214,13 +9214,13 @@
         <v>2.54</v>
       </c>
       <c r="T65" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U65" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V65" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W65" t="n">
         <v>1.23</v>
@@ -9307,16 +9307,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H66" t="n">
         <v>1.82</v>
       </c>
       <c r="I66" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J66" t="n">
         <v>3.65</v>
@@ -9340,7 +9340,7 @@
         <v>1.95</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R66" t="n">
         <v>1.36</v>
@@ -9349,16 +9349,16 @@
         <v>3.2</v>
       </c>
       <c r="T66" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U66" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V66" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W66" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X66" t="n">
         <v>16</v>
@@ -9391,7 +9391,7 @@
         <v>19</v>
       </c>
       <c r="AH66" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI66" t="n">
         <v>36</v>
@@ -9448,10 +9448,10 @@
         <v>1.85</v>
       </c>
       <c r="H67" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I67" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J67" t="n">
         <v>3.6</v>
@@ -9568,12 +9568,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sorrento</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Team Altamura</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -9703,73 +9703,73 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Forli</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="G69" t="n">
-        <v>6.6</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
-        <v>1.84</v>
+        <v>6.2</v>
       </c>
       <c r="I69" t="n">
-        <v>2.4</v>
+        <v>8.6</v>
       </c>
       <c r="J69" t="n">
-        <v>2.74</v>
+        <v>3.35</v>
       </c>
       <c r="K69" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="L69" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="M69" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N69" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O69" t="n">
         <v>1.42</v>
       </c>
-      <c r="O69" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P69" t="n">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="R69" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S69" t="n">
-        <v>2.28</v>
+        <v>3.85</v>
       </c>
       <c r="T69" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U69" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V69" t="n">
-        <v>1.72</v>
+        <v>1.14</v>
       </c>
       <c r="W69" t="n">
-        <v>1.17</v>
+        <v>2.26</v>
       </c>
       <c r="X69" t="n">
         <v>1000</v>
       </c>
       <c r="Y69" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z69" t="n">
         <v>1000</v>
@@ -9778,10 +9778,10 @@
         <v>1000</v>
       </c>
       <c r="AB69" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC69" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD69" t="n">
         <v>1000</v>
@@ -9790,10 +9790,10 @@
         <v>1000</v>
       </c>
       <c r="AF69" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG69" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH69" t="n">
         <v>1000</v>
@@ -9805,7 +9805,7 @@
         <v>1000</v>
       </c>
       <c r="AK69" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL69" t="n">
         <v>1000</v>
@@ -9814,7 +9814,7 @@
         <v>1000</v>
       </c>
       <c r="AN69" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO69" t="n">
         <v>1000</v>
@@ -9838,67 +9838,67 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Forli</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.58</v>
+        <v>3.7</v>
       </c>
       <c r="G70" t="n">
-        <v>1.83</v>
+        <v>6.6</v>
       </c>
       <c r="H70" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K70" t="n">
         <v>5.4</v>
       </c>
-      <c r="I70" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K70" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L70" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="M70" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>3.1</v>
+        <v>1.42</v>
       </c>
       <c r="O70" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="P70" t="n">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="R70" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S70" t="n">
-        <v>3.95</v>
+        <v>2.28</v>
       </c>
       <c r="T70" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="U70" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="V70" t="n">
-        <v>1.12</v>
+        <v>1.72</v>
       </c>
       <c r="W70" t="n">
-        <v>2.2</v>
+        <v>1.17</v>
       </c>
       <c r="X70" t="n">
         <v>1000</v>
@@ -9913,10 +9913,10 @@
         <v>1000</v>
       </c>
       <c r="AB70" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC70" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD70" t="n">
         <v>1000</v>
@@ -9925,10 +9925,10 @@
         <v>1000</v>
       </c>
       <c r="AF70" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG70" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH70" t="n">
         <v>1000</v>
@@ -9958,7 +9958,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -9973,127 +9973,127 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Team Altamura</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P71" t="n">
-        <v>1.24</v>
+        <v>1.81</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X71" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y71" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z71" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AA71" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AB71" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD71" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE71" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF71" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG71" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH71" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI71" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ71" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK71" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL71" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM71" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN71" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO71" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -10108,121 +10108,121 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Sorrento</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>1.81</v>
+        <v>1.24</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="R72" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V72" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="W72" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="Y72" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="Z72" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AA72" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AB72" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AC72" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AD72" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AE72" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AF72" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AG72" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AH72" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AI72" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ72" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AK72" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AL72" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM72" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN72" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AO72" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -10294,10 +10294,10 @@
         <v>2.28</v>
       </c>
       <c r="T73" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="U73" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V73" t="n">
         <v>1.03</v>
@@ -10633,7 +10633,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -10648,121 +10648,121 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="G76" t="n">
-        <v>2.24</v>
+        <v>2.52</v>
       </c>
       <c r="H76" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="I76" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="J76" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K76" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L76" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="M76" t="n">
         <v>1.09</v>
       </c>
       <c r="N76" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V76" t="n">
         <v>1.42</v>
       </c>
-      <c r="P76" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R76" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S76" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T76" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U76" t="n">
-        <v>2</v>
-      </c>
-      <c r="V76" t="n">
-        <v>1.29</v>
-      </c>
       <c r="W76" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="X76" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y76" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z76" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AA76" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB76" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AC76" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD76" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AE76" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AF76" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG76" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH76" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI76" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ76" t="n">
         <v>34</v>
       </c>
       <c r="AK76" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL76" t="n">
         <v>48</v>
       </c>
       <c r="AM76" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AN76" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO76" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77">
@@ -10783,127 +10783,127 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.66</v>
+        <v>2.12</v>
       </c>
       <c r="G77" t="n">
-        <v>2.82</v>
+        <v>2.24</v>
       </c>
       <c r="H77" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I77" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J77" t="n">
         <v>3.2</v>
       </c>
-      <c r="I77" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J77" t="n">
-        <v>2.96</v>
-      </c>
       <c r="K77" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="L77" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M77" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="N77" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="O77" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P77" t="n">
         <v>1.69</v>
       </c>
-      <c r="P77" t="n">
-        <v>1.42</v>
-      </c>
       <c r="Q77" t="n">
-        <v>3</v>
+        <v>2.26</v>
       </c>
       <c r="R77" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="S77" t="n">
-        <v>6.8</v>
+        <v>4.3</v>
       </c>
       <c r="T77" t="n">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="U77" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="V77" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="W77" t="n">
-        <v>1.54</v>
+        <v>1.81</v>
       </c>
       <c r="X77" t="n">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="Y77" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="Z77" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AA77" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB77" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC77" t="n">
         <v>7.8</v>
       </c>
-      <c r="AC77" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AD77" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE77" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI77" t="n">
         <v>75</v>
       </c>
-      <c r="AF77" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>120</v>
-      </c>
       <c r="AJ77" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AK77" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="AL77" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AM77" t="n">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="AN77" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO77" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -10918,121 +10918,121 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="G78" t="n">
-        <v>2.52</v>
+        <v>2.82</v>
       </c>
       <c r="H78" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I78" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="J78" t="n">
-        <v>3.3</v>
+        <v>2.96</v>
       </c>
       <c r="K78" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L78" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M78" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="N78" t="n">
-        <v>3.35</v>
+        <v>2.3</v>
       </c>
       <c r="O78" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S78" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V78" t="n">
         <v>1.4</v>
       </c>
-      <c r="P78" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R78" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S78" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T78" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U78" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V78" t="n">
-        <v>1.42</v>
-      </c>
       <c r="W78" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="X78" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="Y78" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z78" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA78" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AB78" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC78" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD78" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE78" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AF78" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AG78" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AH78" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AI78" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AJ78" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AK78" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AL78" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AM78" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO78" t="n">
         <v>120</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="79">
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="G82" t="n">
         <v>16.5</v>
@@ -11644,7 +11644,7 @@
         <v>2.3</v>
       </c>
       <c r="T83" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U83" t="n">
         <v>2.82</v>
@@ -11938,7 +11938,7 @@
         <v>380</v>
       </c>
       <c r="AB85" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC85" t="n">
         <v>15.5</v>
@@ -12166,7 +12166,7 @@
         <v>1.08</v>
       </c>
       <c r="N87" t="n">
-        <v>3.1</v>
+        <v>1.04</v>
       </c>
       <c r="O87" t="n">
         <v>1.08</v>
@@ -12289,7 +12289,7 @@
         <v>21</v>
       </c>
       <c r="J88" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="K88" t="n">
         <v>12.5</v>
@@ -12415,7 +12415,7 @@
         <v>1.7</v>
       </c>
       <c r="G89" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H89" t="n">
         <v>6</v>
@@ -12436,28 +12436,28 @@
         <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="O89" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P89" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="R89" t="n">
         <v>1.38</v>
       </c>
       <c r="S89" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T89" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U89" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V89" t="n">
         <v>1.19</v>
@@ -12469,7 +12469,7 @@
         <v>14.5</v>
       </c>
       <c r="Y89" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z89" t="n">
         <v>48</v>
@@ -12478,7 +12478,7 @@
         <v>160</v>
       </c>
       <c r="AB89" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC89" t="n">
         <v>8.800000000000001</v>
@@ -12493,13 +12493,13 @@
         <v>9.6</v>
       </c>
       <c r="AG89" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH89" t="n">
         <v>21</v>
       </c>
       <c r="AI89" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ89" t="n">
         <v>16</v>
@@ -12508,7 +12508,7 @@
         <v>17.5</v>
       </c>
       <c r="AL89" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM89" t="n">
         <v>130</v>
@@ -12817,10 +12817,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G92" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="H92" t="n">
         <v>5.2</v>
@@ -12832,7 +12832,7 @@
         <v>4</v>
       </c>
       <c r="K92" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L92" t="n">
         <v>1.35</v>
@@ -12958,7 +12958,7 @@
         <v>2</v>
       </c>
       <c r="H93" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I93" t="n">
         <v>4.7</v>
@@ -12976,13 +12976,13 @@
         <v>1.01</v>
       </c>
       <c r="N93" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="O93" t="n">
         <v>1.3</v>
       </c>
       <c r="P93" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q93" t="n">
         <v>2.02</v>
@@ -13039,7 +13039,7 @@
         <v>28</v>
       </c>
       <c r="AI93" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ93" t="n">
         <v>32</v>
@@ -13058,6 +13058,411 @@
       </c>
       <c r="AO93" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Leon</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Cruz Azul</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K94" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N94" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X94" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Santos Laguna</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Necaxa</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G95" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K95" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N95" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X95" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Australian A-League Men</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J96" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K96" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N96" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R96" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S96" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V96" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X96" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G2" t="n">
         <v>2.38</v>
@@ -676,16 +676,16 @@
         <v>3.35</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -694,16 +694,16 @@
         <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q2" t="n">
         <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
         <v>3.65</v>
@@ -715,13 +715,13 @@
         <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W2" t="n">
         <v>1.72</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
         <v>12.5</v>
@@ -751,7 +751,7 @@
         <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
         <v>60</v>
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="H3" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
         <v>1.71</v>
@@ -850,28 +850,28 @@
         <v>2.26</v>
       </c>
       <c r="V3" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
         <v>11</v>
@@ -880,34 +880,34 @@
         <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AG3" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
         <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AL3" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -967,7 +967,7 @@
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q4" t="n">
         <v>1.67</v>
@@ -976,13 +976,13 @@
         <v>1.56</v>
       </c>
       <c r="S4" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T4" t="n">
         <v>1.64</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V4" t="n">
         <v>1.34</v>
@@ -1000,7 +1000,7 @@
         <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="n">
         <v>12.5</v>
@@ -1009,7 +1009,7 @@
         <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
         <v>40</v>
@@ -1033,7 +1033,7 @@
         <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM4" t="n">
         <v>65</v>
@@ -1099,7 +1099,7 @@
         <v>1.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P5" t="n">
         <v>2.34</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
         <v>2.38</v>
       </c>
       <c r="I6" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J6" t="n">
         <v>3.9</v>
@@ -1225,7 +1225,7 @@
         <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1237,10 +1237,10 @@
         <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R6" t="n">
         <v>1.56</v>
@@ -1255,10 +1255,10 @@
         <v>2.54</v>
       </c>
       <c r="V6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W6" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X6" t="n">
         <v>19</v>
@@ -1288,7 +1288,7 @@
         <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
         <v>15.5</v>
@@ -1297,10 +1297,10 @@
         <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL6" t="n">
         <v>36</v>
@@ -1309,10 +1309,10 @@
         <v>65</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="I7" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>7.4</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.31</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>2.86</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="R7" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>2.54</v>
+        <v>3.05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="X7" t="n">
         <v>18</v>
@@ -1405,7 +1405,7 @@
         <v>36</v>
       </c>
       <c r="AA7" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB7" t="n">
         <v>11.5</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G8" t="n">
         <v>2.36</v>
@@ -1489,7 +1489,7 @@
         <v>5.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
@@ -1498,10 +1498,10 @@
         <v>1.31</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
         <v>1.32</v>
@@ -1513,22 +1513,22 @@
         <v>1.94</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>2.9</v>
+        <v>2.66</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
         <v>1.23</v>
       </c>
       <c r="W8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="H9" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
         <v>2.96</v>
@@ -1645,7 +1645,7 @@
         <v>1.71</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
         <v>1.31</v>
@@ -1747,31 +1747,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9.6</v>
+        <v>6.8</v>
       </c>
       <c r="G10" t="n">
-        <v>13.5</v>
+        <v>9.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="I10" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="J10" t="n">
         <v>6.2</v>
       </c>
       <c r="K10" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.14</v>
@@ -1780,79 +1780,79 @@
         <v>2.84</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="R10" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
         <v>1.97</v>
       </c>
       <c r="T10" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="W10" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H11" t="n">
         <v>4.4</v>
@@ -1924,7 +1924,7 @@
         <v>3.35</v>
       </c>
       <c r="T11" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U11" t="n">
         <v>2.12</v>
@@ -1933,7 +1933,7 @@
         <v>1.28</v>
       </c>
       <c r="W11" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X11" t="n">
         <v>15.5</v>
@@ -2056,7 +2056,7 @@
         <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="T12" t="n">
         <v>1.69</v>
@@ -2155,7 +2155,7 @@
         <v>1.31</v>
       </c>
       <c r="G13" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H13" t="n">
         <v>6.8</v>
@@ -2185,25 +2185,25 @@
         <v>2.28</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="R13" t="n">
         <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>1.76</v>
+        <v>2.12</v>
       </c>
       <c r="T13" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.04</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.81</v>
       </c>
       <c r="V13" t="n">
         <v>1.03</v>
       </c>
       <c r="W13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2314,19 +2314,19 @@
         <v>1.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P14" t="n">
         <v>1.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="R14" t="n">
         <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="T14" t="n">
         <v>1.04</v>
@@ -2428,16 +2428,16 @@
         <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J15" t="n">
         <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,31 +2446,31 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>2.32</v>
+        <v>3.85</v>
       </c>
       <c r="O15" t="n">
         <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S15" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="T15" t="n">
-        <v>1.66</v>
+        <v>1.04</v>
       </c>
       <c r="U15" t="n">
         <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W15" t="n">
         <v>1.84</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="J16" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K16" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,34 +2581,34 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P16" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q16" t="n">
         <v>1.53</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T16" t="n">
         <v>1.04</v>
       </c>
       <c r="U16" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="W16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2734,7 +2734,7 @@
         <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U17" t="n">
         <v>1.97</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.7</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.65</v>
       </c>
       <c r="L18" t="n">
         <v>1.42</v>
@@ -2851,16 +2851,16 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O18" t="n">
         <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R18" t="n">
         <v>1.35</v>
@@ -2872,13 +2872,13 @@
         <v>1.79</v>
       </c>
       <c r="U18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="W18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X18" t="n">
         <v>17</v>
@@ -2887,7 +2887,7 @@
         <v>9.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
@@ -2908,7 +2908,7 @@
         <v>34</v>
       </c>
       <c r="AG18" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I20" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J20" t="n">
         <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
@@ -3124,13 +3124,13 @@
         <v>2.96</v>
       </c>
       <c r="O20" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="P20" t="n">
         <v>1.68</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
         <v>1.25</v>
@@ -3139,7 +3139,7 @@
         <v>4.2</v>
       </c>
       <c r="T20" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U20" t="n">
         <v>1.72</v>
@@ -3148,13 +3148,13 @@
         <v>1.17</v>
       </c>
       <c r="W20" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X20" t="n">
         <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
         <v>60</v>
@@ -3169,7 +3169,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
@@ -3193,7 +3193,7 @@
         <v>22</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
@@ -3235,13 +3235,13 @@
         <v>2.66</v>
       </c>
       <c r="G21" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n">
         <v>2.8</v>
       </c>
       <c r="I21" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J21" t="n">
         <v>2.68</v>
@@ -3376,7 +3376,7 @@
         <v>2.8</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
         <v>2.6</v>
@@ -3391,10 +3391,10 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.47</v>
+        <v>2.02</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="P22" t="n">
         <v>1.47</v>
@@ -3415,7 +3415,7 @@
         <v>1.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W22" t="n">
         <v>1.44</v>
@@ -3511,13 +3511,13 @@
         <v>10</v>
       </c>
       <c r="I23" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="J23" t="n">
         <v>4.9</v>
       </c>
       <c r="K23" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L23" t="n">
         <v>1.32</v>
@@ -3526,7 +3526,7 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O23" t="n">
         <v>1.28</v>
@@ -3535,7 +3535,7 @@
         <v>1.99</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="R23" t="n">
         <v>1.36</v>
@@ -3556,7 +3556,7 @@
         <v>3.4</v>
       </c>
       <c r="X23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
         <v>980</v>
@@ -3568,19 +3568,19 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD23" t="n">
         <v>980</v>
       </c>
-      <c r="AC23" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>970</v>
-      </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
         <v>13.5</v>
@@ -3655,7 +3655,7 @@
         <v>3.45</v>
       </c>
       <c r="L24" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="M24" t="n">
         <v>1.11</v>
@@ -3670,7 +3670,7 @@
         <v>1.55</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R24" t="n">
         <v>1.2</v>
@@ -3742,7 +3742,7 @@
         <v>38</v>
       </c>
       <c r="AO24" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -3814,10 +3814,10 @@
         <v>3.95</v>
       </c>
       <c r="T25" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U25" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V25" t="n">
         <v>1.35</v>
@@ -3838,7 +3838,7 @@
         <v>90</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC25" t="n">
         <v>8.800000000000001</v>
@@ -3850,13 +3850,13 @@
         <v>65</v>
       </c>
       <c r="AF25" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG25" t="n">
         <v>14.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
         <v>85</v>
@@ -3874,7 +3874,7 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO25" t="n">
         <v>75</v>
@@ -3916,7 +3916,7 @@
         <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J26" t="n">
         <v>3.75</v>
@@ -3970,7 +3970,7 @@
         <v>34</v>
       </c>
       <c r="AA26" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
         <v>16</v>
@@ -3982,10 +3982,10 @@
         <v>18.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG26" t="n">
         <v>13.5</v>
@@ -4048,7 +4048,7 @@
         <v>2.12</v>
       </c>
       <c r="H27" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I27" t="n">
         <v>4.8</v>
@@ -4075,7 +4075,7 @@
         <v>1.74</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R27" t="n">
         <v>1.27</v>
@@ -4093,7 +4093,7 @@
         <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X27" t="n">
         <v>14</v>
@@ -4108,7 +4108,7 @@
         <v>130</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC27" t="n">
         <v>8.6</v>
@@ -4180,10 +4180,10 @@
         <v>2.16</v>
       </c>
       <c r="G28" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H28" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I28" t="n">
         <v>3.95</v>
@@ -4234,7 +4234,7 @@
         <v>19.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z28" t="n">
         <v>34</v>
@@ -4249,19 +4249,19 @@
         <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>55</v>
       </c>
       <c r="AF28" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG28" t="n">
         <v>13.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI28" t="n">
         <v>60</v>
@@ -4282,7 +4282,7 @@
         <v>18</v>
       </c>
       <c r="AO28" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4318,19 +4318,19 @@
         <v>7</v>
       </c>
       <c r="H29" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="I29" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="J29" t="n">
         <v>3.85</v>
       </c>
       <c r="K29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M29" t="n">
         <v>1.08</v>
@@ -4339,7 +4339,7 @@
         <v>3.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P29" t="n">
         <v>1.84</v>
@@ -4354,13 +4354,13 @@
         <v>3.75</v>
       </c>
       <c r="T29" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U29" t="n">
         <v>1.86</v>
       </c>
       <c r="V29" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="W29" t="n">
         <v>1.17</v>
@@ -4384,7 +4384,7 @@
         <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G30" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I30" t="n">
         <v>4.5</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.6</v>
       </c>
       <c r="J30" t="n">
         <v>3.45</v>
@@ -4465,7 +4465,7 @@
         <v>3.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M30" t="n">
         <v>1.09</v>
@@ -4489,7 +4489,7 @@
         <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U30" t="n">
         <v>2</v>
@@ -4498,7 +4498,7 @@
         <v>1.28</v>
       </c>
       <c r="W30" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="X30" t="n">
         <v>11.5</v>
@@ -4510,7 +4510,7 @@
         <v>32</v>
       </c>
       <c r="AA30" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB30" t="n">
         <v>8.4</v>
@@ -4525,7 +4525,7 @@
         <v>60</v>
       </c>
       <c r="AF30" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG30" t="n">
         <v>10.5</v>
@@ -4549,7 +4549,7 @@
         <v>130</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO30" t="n">
         <v>75</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G31" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="H31" t="n">
-        <v>2.46</v>
+        <v>2.64</v>
       </c>
       <c r="I31" t="n">
         <v>3.05</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K31" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4624,16 +4624,16 @@
         <v>2.2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="U31" t="n">
         <v>1.86</v>
       </c>
       <c r="V31" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="W31" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G32" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="H32" t="n">
         <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J32" t="n">
         <v>3.3</v>
@@ -4738,70 +4738,70 @@
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P32" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="R32" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="S32" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="T32" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="U32" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="V32" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="W32" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X32" t="n">
         <v>980</v>
       </c>
       <c r="Y32" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB32" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG32" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AH32" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
@@ -4822,7 +4822,7 @@
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G33" t="n">
         <v>1.94</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1.95</v>
       </c>
       <c r="H33" t="n">
         <v>5.1</v>
@@ -4885,7 +4885,7 @@
         <v>1.69</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R33" t="n">
         <v>1.25</v>
@@ -4900,10 +4900,10 @@
         <v>1.84</v>
       </c>
       <c r="V33" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W33" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X33" t="n">
         <v>10.5</v>
@@ -4996,7 +4996,7 @@
         <v>3.35</v>
       </c>
       <c r="I34" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J34" t="n">
         <v>3.05</v>
@@ -5008,13 +5008,13 @@
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>1.72</v>
+        <v>2.88</v>
       </c>
       <c r="O34" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="P34" t="n">
         <v>1.64</v>
@@ -5023,16 +5023,16 @@
         <v>2.32</v>
       </c>
       <c r="R34" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="S34" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="U34" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V34" t="n">
         <v>1.37</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="G35" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H35" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="I35" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="J35" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K35" t="n">
         <v>3.9</v>
@@ -5146,7 +5146,7 @@
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O35" t="n">
         <v>1.28</v>
@@ -5170,22 +5170,22 @@
         <v>2.2</v>
       </c>
       <c r="V35" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="W35" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X35" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y35" t="n">
         <v>10</v>
       </c>
       <c r="Z35" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB35" t="n">
         <v>17</v>
@@ -5197,25 +5197,25 @@
         <v>10</v>
       </c>
       <c r="AE35" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF35" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG35" t="n">
         <v>17</v>
       </c>
       <c r="AH35" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI35" t="n">
         <v>32</v>
       </c>
       <c r="AJ35" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AK35" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AL35" t="n">
         <v>55</v>
@@ -5224,10 +5224,10 @@
         <v>90</v>
       </c>
       <c r="AN35" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO35" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="36">
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G36" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H36" t="n">
         <v>5.1</v>
@@ -5269,49 +5269,49 @@
         <v>5.2</v>
       </c>
       <c r="J36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K36" t="n">
         <v>3.8</v>
       </c>
-      <c r="K36" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L36" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="R36" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S36" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T36" t="n">
         <v>1.8</v>
       </c>
       <c r="U36" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V36" t="n">
         <v>1.23</v>
       </c>
       <c r="W36" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X36" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y36" t="n">
         <v>19</v>
@@ -5323,16 +5323,16 @@
         <v>120</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD36" t="n">
         <v>20</v>
       </c>
       <c r="AE36" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF36" t="n">
         <v>11.5</v>
@@ -5341,28 +5341,28 @@
         <v>9.6</v>
       </c>
       <c r="AH36" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI36" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK36" t="n">
         <v>18.5</v>
       </c>
-      <c r="AK36" t="n">
-        <v>18</v>
-      </c>
       <c r="AL36" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AM36" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G37" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I37" t="n">
         <v>2.54</v>
@@ -5422,7 +5422,7 @@
         <v>1.27</v>
       </c>
       <c r="P37" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q37" t="n">
         <v>1.83</v>
@@ -5446,7 +5446,7 @@
         <v>1.48</v>
       </c>
       <c r="X37" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
@@ -5566,7 +5566,7 @@
         <v>1.6</v>
       </c>
       <c r="S38" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T38" t="n">
         <v>1.56</v>
@@ -5686,28 +5686,28 @@
         <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O39" t="n">
         <v>1.43</v>
       </c>
       <c r="P39" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R39" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S39" t="n">
         <v>4.4</v>
       </c>
       <c r="T39" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U39" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V39" t="n">
         <v>1.32</v>
@@ -5722,16 +5722,16 @@
         <v>12.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA39" t="n">
         <v>85</v>
       </c>
       <c r="AB39" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC39" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD39" t="n">
         <v>16.5</v>
@@ -5749,7 +5749,7 @@
         <v>21</v>
       </c>
       <c r="AI39" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ39" t="n">
         <v>27</v>
@@ -5761,13 +5761,13 @@
         <v>48</v>
       </c>
       <c r="AM39" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN39" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO39" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
@@ -5932,25 +5932,25 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="G41" t="n">
-        <v>2.56</v>
+        <v>2.78</v>
       </c>
       <c r="H41" t="n">
-        <v>2.86</v>
+        <v>2.66</v>
       </c>
       <c r="I41" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J41" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K41" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M41" t="n">
         <v>1.05</v>
@@ -5962,13 +5962,13 @@
         <v>1.24</v>
       </c>
       <c r="P41" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q41" t="n">
         <v>1.72</v>
       </c>
       <c r="R41" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S41" t="n">
         <v>2.8</v>
@@ -5977,28 +5977,28 @@
         <v>1.61</v>
       </c>
       <c r="U41" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V41" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="W41" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="X41" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y41" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA41" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB41" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC41" t="n">
         <v>10.5</v>
@@ -6007,37 +6007,37 @@
         <v>15</v>
       </c>
       <c r="AE41" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AF41" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AG41" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH41" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI41" t="n">
         <v>42</v>
       </c>
       <c r="AJ41" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AK41" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO41" t="n">
         <v>25</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="42">
@@ -6091,7 +6091,7 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O42" t="n">
         <v>1.24</v>
@@ -6103,7 +6103,7 @@
         <v>1.56</v>
       </c>
       <c r="R42" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="S42" t="n">
         <v>2.36</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="G43" t="n">
-        <v>2.94</v>
+        <v>2.34</v>
       </c>
       <c r="H43" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="J43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K43" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
@@ -6226,34 +6226,34 @@
         <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="O43" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P43" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R43" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="S43" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="T43" t="n">
         <v>1.59</v>
       </c>
       <c r="U43" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V43" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W43" t="n">
-        <v>1.51</v>
+        <v>1.74</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6271,7 +6271,7 @@
         <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD43" t="n">
         <v>1000</v>
@@ -6283,7 +6283,7 @@
         <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH43" t="n">
         <v>1000</v>
@@ -6340,10 +6340,10 @@
         <v>2.24</v>
       </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I44" t="n">
         <v>3.7</v>
@@ -6388,7 +6388,7 @@
         <v>1.37</v>
       </c>
       <c r="W44" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X44" t="n">
         <v>16</v>
@@ -6397,7 +6397,7 @@
         <v>13.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA44" t="n">
         <v>1000</v>
@@ -6433,13 +6433,13 @@
         <v>29</v>
       </c>
       <c r="AL44" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM44" t="n">
         <v>130</v>
       </c>
       <c r="AN44" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO44" t="n">
         <v>55</v>
@@ -6484,10 +6484,10 @@
         <v>3.4</v>
       </c>
       <c r="J45" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K45" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L45" t="n">
         <v>1.42</v>
@@ -6499,7 +6499,7 @@
         <v>3.3</v>
       </c>
       <c r="O45" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P45" t="n">
         <v>1.8</v>
@@ -6511,7 +6511,7 @@
         <v>1.3</v>
       </c>
       <c r="S45" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="T45" t="n">
         <v>1.81</v>
@@ -6526,7 +6526,7 @@
         <v>1.63</v>
       </c>
       <c r="X45" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y45" t="n">
         <v>14</v>
@@ -6607,10 +6607,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G46" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H46" t="n">
         <v>3.85</v>
@@ -6619,7 +6619,7 @@
         <v>3.9</v>
       </c>
       <c r="J46" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K46" t="n">
         <v>3.6</v>
@@ -6652,13 +6652,13 @@
         <v>1.76</v>
       </c>
       <c r="U46" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V46" t="n">
         <v>1.34</v>
       </c>
       <c r="W46" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X46" t="n">
         <v>14.5</v>
@@ -6682,7 +6682,7 @@
         <v>15.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF46" t="n">
         <v>13.5</v>
@@ -6712,7 +6712,7 @@
         <v>17</v>
       </c>
       <c r="AO46" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47">
@@ -6745,16 +6745,16 @@
         <v>1.27</v>
       </c>
       <c r="G47" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="H47" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="I47" t="n">
         <v>14</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="K47" t="n">
         <v>7.2</v>
@@ -6775,10 +6775,10 @@
         <v>3.2</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R47" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="S47" t="n">
         <v>1.97</v>
@@ -6793,7 +6793,7 @@
         <v>1.07</v>
       </c>
       <c r="W47" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="X47" t="n">
         <v>40</v>
@@ -6811,7 +6811,7 @@
         <v>14.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AD47" t="n">
         <v>46</v>
@@ -6829,7 +6829,7 @@
         <v>32</v>
       </c>
       <c r="AI47" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ47" t="n">
         <v>12</v>
@@ -6847,7 +6847,7 @@
         <v>3.55</v>
       </c>
       <c r="AO47" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48">
@@ -6883,7 +6883,7 @@
         <v>1.71</v>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I48" t="n">
         <v>8</v>
@@ -6925,7 +6925,7 @@
         <v>2.02</v>
       </c>
       <c r="V48" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W48" t="n">
         <v>2.4</v>
@@ -7012,10 +7012,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="G49" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H49" t="n">
         <v>4.2</v>
@@ -7030,13 +7030,13 @@
         <v>5</v>
       </c>
       <c r="L49" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="M49" t="n">
         <v>1.02</v>
       </c>
       <c r="N49" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O49" t="n">
         <v>1.18</v>
@@ -7063,7 +7063,7 @@
         <v>1.26</v>
       </c>
       <c r="W49" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X49" t="n">
         <v>32</v>
@@ -7081,7 +7081,7 @@
         <v>15.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD49" t="n">
         <v>23</v>
@@ -7093,7 +7093,7 @@
         <v>16.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH49" t="n">
         <v>21</v>
@@ -7102,7 +7102,7 @@
         <v>60</v>
       </c>
       <c r="AJ49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK49" t="n">
         <v>21</v>
@@ -7111,13 +7111,13 @@
         <v>32</v>
       </c>
       <c r="AM49" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN49" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AO49" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G50" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="H50" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="I50" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J50" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K50" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L50" t="n">
         <v>1.33</v>
@@ -7174,31 +7174,31 @@
         <v>3.6</v>
       </c>
       <c r="O50" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P50" t="n">
         <v>2.06</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R50" t="n">
         <v>1.4</v>
       </c>
       <c r="S50" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="T50" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U50" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V50" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W50" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="X50" t="n">
         <v>19.5</v>
@@ -7219,7 +7219,7 @@
         <v>10.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE50" t="n">
         <v>22</v>
@@ -7228,7 +7228,7 @@
         <v>1000</v>
       </c>
       <c r="AG50" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="AH50" t="n">
         <v>20</v>
@@ -7237,22 +7237,22 @@
         <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="n">
         <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM50" t="n">
         <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="51">
@@ -7297,7 +7297,7 @@
         <v>3.55</v>
       </c>
       <c r="K51" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
         <v>1.36</v>
@@ -7339,7 +7339,7 @@
         <v>980</v>
       </c>
       <c r="Y51" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z51" t="n">
         <v>980</v>
@@ -7417,103 +7417,103 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="G52" t="n">
-        <v>2.48</v>
+        <v>2.08</v>
       </c>
       <c r="H52" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="I52" t="n">
         <v>4.6</v>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K52" t="n">
-        <v>6.4</v>
+        <v>3.95</v>
       </c>
       <c r="L52" t="n">
         <v>1.33</v>
       </c>
       <c r="M52" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>1.61</v>
+        <v>3.3</v>
       </c>
       <c r="O52" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P52" t="n">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="Q52" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T52" t="n">
         <v>1.84</v>
       </c>
-      <c r="R52" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V52" t="n">
         <v>1.27</v>
       </c>
       <c r="W52" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y52" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA52" t="n">
         <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC52" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD52" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE52" t="n">
         <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH52" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI52" t="n">
         <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK52" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL52" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM52" t="n">
         <v>1000</v>
@@ -7591,7 +7591,7 @@
         <v>1.36</v>
       </c>
       <c r="S53" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T53" t="n">
         <v>1.87</v>
@@ -7636,7 +7636,7 @@
         <v>12</v>
       </c>
       <c r="AH53" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI53" t="n">
         <v>1000</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G54" t="n">
         <v>2.34</v>
@@ -7705,43 +7705,43 @@
         <v>3.55</v>
       </c>
       <c r="L54" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M54" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>1.63</v>
+        <v>2.84</v>
       </c>
       <c r="O54" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P54" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R54" t="n">
         <v>1.25</v>
       </c>
       <c r="S54" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T54" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U54" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V54" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W54" t="n">
         <v>1.74</v>
       </c>
       <c r="X54" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y54" t="n">
         <v>1000</v>
@@ -7789,7 +7789,7 @@
         <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO54" t="n">
         <v>1000</v>
@@ -7912,19 +7912,19 @@
         <v>38</v>
       </c>
       <c r="AJ55" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AK55" t="n">
         <v>180</v>
       </c>
       <c r="AL55" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AM55" t="n">
         <v>170</v>
       </c>
       <c r="AN55" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AO55" t="n">
         <v>5.9</v>
@@ -7957,19 +7957,19 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="G56" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="H56" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I56" t="n">
         <v>3.05</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K56" t="n">
         <v>3.45</v>
@@ -7981,7 +7981,7 @@
         <v>1.1</v>
       </c>
       <c r="N56" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O56" t="n">
         <v>1.44</v>
@@ -8005,10 +8005,10 @@
         <v>1.91</v>
       </c>
       <c r="V56" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W56" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="X56" t="n">
         <v>12.5</v>
@@ -8116,28 +8116,28 @@
         <v>1.01</v>
       </c>
       <c r="N57" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O57" t="n">
-        <v>1.02</v>
+        <v>1.4</v>
       </c>
       <c r="P57" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R57" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="S57" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="T57" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="U57" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="V57" t="n">
         <v>1.72</v>
@@ -8146,37 +8146,37 @@
         <v>1.35</v>
       </c>
       <c r="X57" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z57" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA57" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB57" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD57" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE57" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF57" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG57" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH57" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI57" t="n">
         <v>1000</v>
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G58" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H58" t="n">
         <v>2.14</v>
@@ -8365,7 +8365,7 @@
         <v>1.63</v>
       </c>
       <c r="G59" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H59" t="n">
         <v>5.7</v>
@@ -8413,16 +8413,16 @@
         <v>1.17</v>
       </c>
       <c r="W59" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X59" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y59" t="n">
         <v>22</v>
       </c>
       <c r="Z59" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AA59" t="n">
         <v>220</v>
@@ -8458,7 +8458,7 @@
         <v>23</v>
       </c>
       <c r="AL59" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AM59" t="n">
         <v>180</v>
@@ -8497,13 +8497,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G60" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H60" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I60" t="n">
         <v>3.7</v>
@@ -8515,40 +8515,40 @@
         <v>4.5</v>
       </c>
       <c r="L60" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M60" t="n">
         <v>1.02</v>
       </c>
       <c r="N60" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O60" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P60" t="n">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="R60" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="S60" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="T60" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="U60" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="V60" t="n">
         <v>1.37</v>
       </c>
       <c r="W60" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="X60" t="n">
         <v>32</v>
@@ -8572,7 +8572,7 @@
         <v>19</v>
       </c>
       <c r="AE60" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF60" t="n">
         <v>20</v>
@@ -8581,28 +8581,28 @@
         <v>14</v>
       </c>
       <c r="AH60" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ60" t="n">
         <v>32</v>
       </c>
       <c r="AK60" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO60" t="n">
         <v>24</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="61">
@@ -8668,13 +8668,13 @@
         <v>1.46</v>
       </c>
       <c r="R61" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S61" t="n">
         <v>2.16</v>
       </c>
       <c r="T61" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U61" t="n">
         <v>2.3</v>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="G62" t="n">
         <v>3.1</v>
@@ -8776,7 +8776,7 @@
         <v>2.54</v>
       </c>
       <c r="I62" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="J62" t="n">
         <v>3.35</v>
@@ -8902,16 +8902,16 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G63" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="H63" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I63" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J63" t="n">
         <v>3.6</v>
@@ -8944,16 +8944,16 @@
         <v>2.9</v>
       </c>
       <c r="T63" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U63" t="n">
         <v>2.04</v>
       </c>
       <c r="V63" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W63" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="X63" t="n">
         <v>1000</v>
@@ -9043,7 +9043,7 @@
         <v>1.51</v>
       </c>
       <c r="H64" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I64" t="n">
         <v>8.6</v>
@@ -9082,7 +9082,7 @@
         <v>2.1</v>
       </c>
       <c r="U64" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V64" t="n">
         <v>1.13</v>
@@ -9139,7 +9139,7 @@
         <v>160</v>
       </c>
       <c r="AN64" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO64" t="n">
         <v>190</v>
@@ -9175,7 +9175,7 @@
         <v>1.23</v>
       </c>
       <c r="G65" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H65" t="n">
         <v>13</v>
@@ -9190,13 +9190,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="L65" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="M65" t="n">
         <v>1.02</v>
       </c>
       <c r="N65" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O65" t="n">
         <v>1.1</v>
@@ -9214,7 +9214,7 @@
         <v>1.81</v>
       </c>
       <c r="T65" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U65" t="n">
         <v>2.08</v>
@@ -9223,7 +9223,7 @@
         <v>1.07</v>
       </c>
       <c r="W65" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X65" t="n">
         <v>55</v>
@@ -9241,7 +9241,7 @@
         <v>17</v>
       </c>
       <c r="AC65" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD65" t="n">
         <v>55</v>
@@ -9256,7 +9256,7 @@
         <v>13.5</v>
       </c>
       <c r="AH65" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AI65" t="n">
         <v>140</v>
@@ -9265,16 +9265,16 @@
         <v>13.5</v>
       </c>
       <c r="AK65" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL65" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM65" t="n">
         <v>140</v>
       </c>
       <c r="AN65" t="n">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="AO65" t="n">
         <v>180</v>
@@ -9331,13 +9331,13 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O66" t="n">
         <v>1.25</v>
       </c>
       <c r="P66" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q66" t="n">
         <v>1.65</v>
@@ -9352,7 +9352,7 @@
         <v>1.66</v>
       </c>
       <c r="U66" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V66" t="n">
         <v>1.84</v>
@@ -9457,7 +9457,7 @@
         <v>3.75</v>
       </c>
       <c r="K67" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L67" t="n">
         <v>1.29</v>
@@ -9490,7 +9490,7 @@
         <v>2.06</v>
       </c>
       <c r="V67" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W67" t="n">
         <v>1.25</v>
@@ -9616,10 +9616,10 @@
         <v>1.3</v>
       </c>
       <c r="S68" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T68" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U68" t="n">
         <v>1.92</v>
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="G69" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="H69" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="I69" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="J69" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="K69" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L69" t="n">
         <v>1.32</v>
@@ -9736,16 +9736,16 @@
         <v>1.07</v>
       </c>
       <c r="N69" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O69" t="n">
         <v>1.32</v>
       </c>
       <c r="P69" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R69" t="n">
         <v>1.32</v>
@@ -9754,43 +9754,43 @@
         <v>3.5</v>
       </c>
       <c r="T69" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U69" t="n">
         <v>2.02</v>
       </c>
       <c r="V69" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="W69" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="X69" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="Y69" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z69" t="n">
         <v>970</v>
       </c>
       <c r="AA69" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB69" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AC69" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD69" t="n">
         <v>12</v>
       </c>
       <c r="AE69" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF69" t="n">
         <v>25</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>28</v>
       </c>
       <c r="AG69" t="n">
         <v>970</v>
@@ -9799,22 +9799,22 @@
         <v>970</v>
       </c>
       <c r="AI69" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ69" t="n">
         <v>80</v>
       </c>
       <c r="AK69" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL69" t="n">
         <v>50</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>60</v>
       </c>
       <c r="AM69" t="n">
         <v>120</v>
       </c>
       <c r="AN69" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AO69" t="n">
         <v>21</v>
@@ -9982,22 +9982,22 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G71" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="H71" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="I71" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J71" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K71" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L71" t="n">
         <v>1.35</v>
@@ -10012,28 +10012,28 @@
         <v>1.32</v>
       </c>
       <c r="P71" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R71" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S71" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T71" t="n">
         <v>2.08</v>
       </c>
       <c r="U71" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V71" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W71" t="n">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="X71" t="n">
         <v>1000</v>
@@ -10060,7 +10060,7 @@
         <v>1000</v>
       </c>
       <c r="AF71" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG71" t="n">
         <v>12.5</v>
@@ -10084,7 +10084,7 @@
         <v>1000</v>
       </c>
       <c r="AN71" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO71" t="n">
         <v>1000</v>
@@ -10117,91 +10117,91 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="G72" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="H72" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="I72" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="J72" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="K72" t="n">
-        <v>5.3</v>
+        <v>3.55</v>
       </c>
       <c r="L72" t="n">
         <v>1.45</v>
       </c>
       <c r="M72" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N72" t="n">
-        <v>1.43</v>
+        <v>2.6</v>
       </c>
       <c r="O72" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="P72" t="n">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="R72" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S72" t="n">
-        <v>2.28</v>
+        <v>4.5</v>
       </c>
       <c r="T72" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="U72" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V72" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="W72" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="X72" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y72" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z72" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA72" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB72" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC72" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD72" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE72" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF72" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG72" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH72" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI72" t="n">
         <v>1000</v>
@@ -10222,7 +10222,7 @@
         <v>1000</v>
       </c>
       <c r="AO72" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G74" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>7.4</v>
@@ -10402,22 +10402,22 @@
         <v>4.2</v>
       </c>
       <c r="K74" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L74" t="n">
         <v>1.41</v>
       </c>
       <c r="M74" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N74" t="n">
         <v>3.65</v>
       </c>
       <c r="O74" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P74" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q74" t="n">
         <v>2.06</v>
@@ -10426,7 +10426,7 @@
         <v>1.33</v>
       </c>
       <c r="S74" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T74" t="n">
         <v>2.16</v>
@@ -10438,10 +10438,10 @@
         <v>1.15</v>
       </c>
       <c r="W74" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="X74" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y74" t="n">
         <v>21</v>
@@ -10474,7 +10474,7 @@
         <v>26</v>
       </c>
       <c r="AI74" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ74" t="n">
         <v>14</v>
@@ -10486,13 +10486,13 @@
         <v>42</v>
       </c>
       <c r="AM74" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN74" t="n">
         <v>10</v>
       </c>
       <c r="AO74" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75">
@@ -10525,19 +10525,19 @@
         <v>1.17</v>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="H75" t="n">
         <v>18.5</v>
       </c>
       <c r="I75" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J75" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="K75" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L75" t="n">
         <v>1.25</v>
@@ -10555,7 +10555,7 @@
         <v>2.24</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="R75" t="n">
         <v>1.49</v>
@@ -10615,7 +10615,7 @@
         <v>9.6</v>
       </c>
       <c r="AK75" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AL75" t="n">
         <v>70</v>
@@ -10663,7 +10663,7 @@
         <v>3.1</v>
       </c>
       <c r="H76" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I76" t="n">
         <v>3.2</v>
@@ -10690,7 +10690,7 @@
         <v>1.72</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="R76" t="n">
         <v>1.28</v>
@@ -10702,7 +10702,7 @@
         <v>1.78</v>
       </c>
       <c r="U76" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V76" t="n">
         <v>1.47</v>
@@ -10795,16 +10795,16 @@
         <v>2.08</v>
       </c>
       <c r="G77" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H77" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J77" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K77" t="n">
         <v>3.45</v>
@@ -10840,10 +10840,10 @@
         <v>2</v>
       </c>
       <c r="V77" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W77" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="X77" t="n">
         <v>13.5</v>
@@ -10861,7 +10861,7 @@
         <v>8</v>
       </c>
       <c r="AC77" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD77" t="n">
         <v>17.5</v>
@@ -10882,7 +10882,7 @@
         <v>75</v>
       </c>
       <c r="AJ77" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK77" t="n">
         <v>27</v>
@@ -10927,10 +10927,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G78" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H78" t="n">
         <v>2.64</v>
@@ -10945,7 +10945,7 @@
         <v>3.8</v>
       </c>
       <c r="L78" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M78" t="n">
         <v>1.06</v>
@@ -10978,7 +10978,7 @@
         <v>1.5</v>
       </c>
       <c r="W78" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X78" t="n">
         <v>1000</v>
@@ -11062,13 +11062,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G79" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H79" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I79" t="n">
         <v>3.75</v>
@@ -11113,7 +11113,7 @@
         <v>1.36</v>
       </c>
       <c r="W79" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="X79" t="n">
         <v>27</v>
@@ -11140,7 +11140,7 @@
         <v>36</v>
       </c>
       <c r="AF79" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG79" t="n">
         <v>11</v>
@@ -11233,10 +11233,10 @@
         <v>1.8</v>
       </c>
       <c r="R80" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S80" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="T80" t="n">
         <v>2.4</v>
@@ -11260,7 +11260,7 @@
         <v>7.4</v>
       </c>
       <c r="AA80" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB80" t="n">
         <v>38</v>
@@ -11341,7 +11341,7 @@
         <v>1.41</v>
       </c>
       <c r="I81" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J81" t="n">
         <v>4.7</v>
@@ -11479,7 +11479,7 @@
         <v>16.5</v>
       </c>
       <c r="J82" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K82" t="n">
         <v>9</v>
@@ -11491,28 +11491,28 @@
         <v>1.01</v>
       </c>
       <c r="N82" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O82" t="n">
         <v>1.14</v>
       </c>
       <c r="P82" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R82" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="S82" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="T82" t="n">
         <v>1.87</v>
       </c>
       <c r="U82" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V82" t="n">
         <v>1.07</v>
@@ -11569,7 +11569,7 @@
         <v>1000</v>
       </c>
       <c r="AN82" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AO82" t="n">
         <v>1000</v>
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G84" t="n">
         <v>2.54</v>
@@ -11755,7 +11755,7 @@
         <v>3.35</v>
       </c>
       <c r="L84" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M84" t="n">
         <v>1.09</v>
@@ -11773,10 +11773,10 @@
         <v>2.2</v>
       </c>
       <c r="R84" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S84" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T84" t="n">
         <v>1.9</v>
@@ -11884,7 +11884,7 @@
         <v>3.35</v>
       </c>
       <c r="J85" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K85" t="n">
         <v>3.05</v>
@@ -11905,7 +11905,7 @@
         <v>1.43</v>
       </c>
       <c r="Q85" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="R85" t="n">
         <v>1.15</v>
@@ -12007,22 +12007,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="G86" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H86" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I86" t="n">
         <v>12</v>
       </c>
       <c r="J86" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="K86" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="L86" t="n">
         <v>1.22</v>
@@ -12058,10 +12058,10 @@
         <v>1.09</v>
       </c>
       <c r="W86" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="X86" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y86" t="n">
         <v>60</v>
@@ -12181,7 +12181,7 @@
         <v>1.54</v>
       </c>
       <c r="S87" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="T87" t="n">
         <v>1.59</v>
@@ -12232,7 +12232,7 @@
         <v>55</v>
       </c>
       <c r="AJ87" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK87" t="n">
         <v>22</v>
@@ -12277,16 +12277,16 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G88" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H88" t="n">
         <v>4.4</v>
       </c>
       <c r="I88" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J88" t="n">
         <v>3.2</v>
@@ -12301,88 +12301,88 @@
         <v>1.08</v>
       </c>
       <c r="N88" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O88" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="P88" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R88" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S88" t="n">
-        <v>2.12</v>
+        <v>4</v>
       </c>
       <c r="T88" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U88" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V88" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W88" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="X88" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y88" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z88" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA88" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB88" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC88" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD88" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE88" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF88" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG88" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH88" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI88" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ88" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK88" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL88" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM88" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN88" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO88" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89">
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="G89" t="n">
         <v>1.16</v>
@@ -12424,7 +12424,7 @@
         <v>21</v>
       </c>
       <c r="J89" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="K89" t="n">
         <v>13</v>
@@ -12442,22 +12442,22 @@
         <v>1.08</v>
       </c>
       <c r="P89" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Q89" t="n">
         <v>1.24</v>
       </c>
       <c r="R89" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S89" t="n">
         <v>1.64</v>
       </c>
       <c r="T89" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U89" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V89" t="n">
         <v>1.05</v>
@@ -12487,7 +12487,7 @@
         <v>70</v>
       </c>
       <c r="AE89" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AF89" t="n">
         <v>12.5</v>
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="G90" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="H90" t="n">
         <v>6.4</v>
@@ -12559,10 +12559,10 @@
         <v>6.6</v>
       </c>
       <c r="J90" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K90" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K90" t="n">
-        <v>4.3</v>
       </c>
       <c r="L90" t="n">
         <v>1.38</v>
@@ -12589,25 +12589,25 @@
         <v>3.25</v>
       </c>
       <c r="T90" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U90" t="n">
         <v>1.98</v>
       </c>
       <c r="V90" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W90" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X90" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y90" t="n">
         <v>21</v>
       </c>
       <c r="Z90" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA90" t="n">
         <v>180</v>
@@ -12649,7 +12649,7 @@
         <v>120</v>
       </c>
       <c r="AN90" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO90" t="n">
         <v>110</v>
@@ -12682,16 +12682,16 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G91" t="n">
         <v>2.32</v>
       </c>
       <c r="H91" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I91" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J91" t="n">
         <v>3.3</v>
@@ -12724,7 +12724,7 @@
         <v>4.2</v>
       </c>
       <c r="T91" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U91" t="n">
         <v>2.02</v>
@@ -12733,7 +12733,7 @@
         <v>1.35</v>
       </c>
       <c r="W91" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X91" t="n">
         <v>11</v>
@@ -12817,7 +12817,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G92" t="n">
         <v>1.75</v>
@@ -12826,7 +12826,7 @@
         <v>5.2</v>
       </c>
       <c r="I92" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J92" t="n">
         <v>4</v>
@@ -12955,13 +12955,13 @@
         <v>1.73</v>
       </c>
       <c r="G93" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="H93" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I93" t="n">
         <v>5.5</v>
-      </c>
-      <c r="I93" t="n">
-        <v>5.6</v>
       </c>
       <c r="J93" t="n">
         <v>4</v>
@@ -12976,7 +12976,7 @@
         <v>1.06</v>
       </c>
       <c r="N93" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="O93" t="n">
         <v>1.27</v>
@@ -12985,31 +12985,31 @@
         <v>2.08</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R93" t="n">
         <v>1.43</v>
       </c>
       <c r="S93" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T93" t="n">
         <v>1.8</v>
       </c>
       <c r="U93" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V93" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W93" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X93" t="n">
         <v>21</v>
       </c>
       <c r="Y93" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z93" t="n">
         <v>50</v>
@@ -13018,7 +13018,7 @@
         <v>160</v>
       </c>
       <c r="AB93" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC93" t="n">
         <v>9.800000000000001</v>
@@ -13090,10 +13090,10 @@
         <v>1.91</v>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H94" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I94" t="n">
         <v>4.7</v>
@@ -13102,37 +13102,37 @@
         <v>3.65</v>
       </c>
       <c r="K94" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L94" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M94" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N94" t="n">
         <v>3.7</v>
       </c>
       <c r="O94" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P94" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="R94" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S94" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T94" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="U94" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V94" t="n">
         <v>1.27</v>
@@ -13141,55 +13141,55 @@
         <v>2</v>
       </c>
       <c r="X94" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y94" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Z94" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AA94" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB94" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF94" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC94" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD94" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF94" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AG94" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH94" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AI94" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AJ94" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AK94" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL94" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AM94" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN94" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO94" t="n">
         <v>1000</v>
@@ -13237,7 +13237,7 @@
         <v>3.95</v>
       </c>
       <c r="K95" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L95" t="n">
         <v>1.01</v>
@@ -13246,7 +13246,7 @@
         <v>1.05</v>
       </c>
       <c r="N95" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O95" t="n">
         <v>1.25</v>
@@ -13285,13 +13285,13 @@
         <v>15</v>
       </c>
       <c r="AA95" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AB95" t="n">
         <v>23</v>
       </c>
       <c r="AC95" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AD95" t="n">
         <v>12.5</v>
@@ -13300,7 +13300,7 @@
         <v>23</v>
       </c>
       <c r="AF95" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AG95" t="n">
         <v>22</v>
@@ -13315,7 +13315,7 @@
         <v>120</v>
       </c>
       <c r="AK95" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL95" t="n">
         <v>65</v>
@@ -13327,7 +13327,7 @@
         <v>1000</v>
       </c>
       <c r="AO95" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="96">
@@ -13360,10 +13360,10 @@
         <v>3.8</v>
       </c>
       <c r="G96" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H96" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="I96" t="n">
         <v>2.02</v>
@@ -13372,7 +13372,7 @@
         <v>4</v>
       </c>
       <c r="K96" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L96" t="n">
         <v>1.01</v>
@@ -13390,13 +13390,13 @@
         <v>2.38</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R96" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S96" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="T96" t="n">
         <v>1.58</v>
@@ -13408,7 +13408,7 @@
         <v>1.98</v>
       </c>
       <c r="W96" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X96" t="n">
         <v>28</v>
@@ -13417,7 +13417,7 @@
         <v>13.5</v>
       </c>
       <c r="Z96" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AA96" t="n">
         <v>24</v>
@@ -13432,19 +13432,19 @@
         <v>11.5</v>
       </c>
       <c r="AE96" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AF96" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AG96" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AH96" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI96" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ96" t="n">
         <v>80</v>
@@ -13459,10 +13459,10 @@
         <v>70</v>
       </c>
       <c r="AN96" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO96" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G97" t="n">
         <v>2.48</v>
@@ -13501,7 +13501,7 @@
         <v>2.82</v>
       </c>
       <c r="I97" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J97" t="n">
         <v>4.1</v>
@@ -13516,13 +13516,13 @@
         <v>1.04</v>
       </c>
       <c r="N97" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O97" t="n">
         <v>1.21</v>
       </c>
       <c r="P97" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q97" t="n">
         <v>1.63</v>
@@ -13537,19 +13537,19 @@
         <v>1.58</v>
       </c>
       <c r="U97" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="V97" t="n">
         <v>1.52</v>
       </c>
       <c r="W97" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X97" t="n">
         <v>22</v>
       </c>
       <c r="Y97" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Z97" t="n">
         <v>23</v>
@@ -13594,10 +13594,10 @@
         <v>60</v>
       </c>
       <c r="AN97" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO97" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J2" t="n">
         <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L2" t="n">
         <v>1.45</v>
@@ -706,25 +706,25 @@
         <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
         <v>23</v>
@@ -733,46 +733,46 @@
         <v>65</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
         <v>7.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
         <v>15.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
         <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="AN2" t="n">
         <v>22</v>
       </c>
       <c r="AO2" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         <v>2.16</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
         <v>1.39</v>
@@ -826,46 +826,46 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R3" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T3" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W3" t="n">
         <v>1.35</v>
       </c>
       <c r="X3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
         <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
         <v>15.5</v>
@@ -877,10 +877,10 @@
         <v>10.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
         <v>15.5</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>3.9</v>
@@ -955,7 +955,7 @@
         <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -970,7 +970,7 @@
         <v>2.42</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
         <v>1.57</v>
@@ -982,7 +982,7 @@
         <v>1.64</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V4" t="n">
         <v>1.33</v>
@@ -994,13 +994,13 @@
         <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z4" t="n">
         <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AB4" t="n">
         <v>12.5</v>
@@ -1009,7 +1009,7 @@
         <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
         <v>40</v>
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="G5" t="n">
         <v>1.46</v>
       </c>
       <c r="H5" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>1.09</v>
+        <v>5.8</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>6.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>2.82</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="P5" t="n">
-        <v>2.82</v>
+        <v>3.35</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="S5" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="T5" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="V5" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,46 +1138,46 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1231,28 +1231,28 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="R6" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U6" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="V6" t="n">
         <v>1.68</v>
@@ -1261,7 +1261,7 @@
         <v>1.48</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="n">
         <v>13.5</v>
@@ -1309,7 +1309,7 @@
         <v>65</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
         <v>15</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="G7" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H7" t="n">
         <v>3.65</v>
@@ -1357,49 +1357,49 @@
         <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="V7" t="n">
         <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
         <v>36</v>
@@ -1408,10 +1408,10 @@
         <v>95</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD7" t="n">
         <v>20</v>
@@ -1420,13 +1420,13 @@
         <v>65</v>
       </c>
       <c r="AF7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG7" t="n">
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>70</v>
@@ -1483,7 +1483,7 @@
         <v>2.18</v>
       </c>
       <c r="H8" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
         <v>5.2</v>
@@ -1498,13 +1498,13 @@
         <v>1.31</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
         <v>1.88</v>
@@ -1513,16 +1513,16 @@
         <v>1.86</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="S8" t="n">
         <v>2.52</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U8" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
         <v>1.23</v>
@@ -1618,7 +1618,7 @@
         <v>2.52</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="I9" t="n">
         <v>3.8</v>
@@ -1654,7 +1654,7 @@
         <v>3.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U9" t="n">
         <v>2.06</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
         <v>9.4</v>
@@ -1780,19 +1780,19 @@
         <v>2.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T10" t="n">
         <v>1.76</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
         <v>3.6</v>
@@ -1801,16 +1801,16 @@
         <v>1.12</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
         <v>11.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AB10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="G11" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="H11" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>1.39</v>
@@ -1912,7 +1912,7 @@
         <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q11" t="n">
         <v>1.92</v>
@@ -1924,70 +1924,70 @@
         <v>3.35</v>
       </c>
       <c r="T11" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U11" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="X11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC11" t="n">
         <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>65</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
         <v>36</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -2023,10 +2023,10 @@
         <v>4.1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="I12" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
@@ -2047,10 +2047,10 @@
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
         <v>1.5</v>
@@ -2065,7 +2065,7 @@
         <v>2.34</v>
       </c>
       <c r="V12" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="W12" t="n">
         <v>1.32</v>
@@ -2101,7 +2101,7 @@
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>32</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="H15" t="n">
         <v>3.85</v>
@@ -2437,7 +2437,7 @@
         <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2464,7 +2464,7 @@
         <v>2.22</v>
       </c>
       <c r="T15" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="U15" t="n">
         <v>2.2</v>
@@ -2473,7 +2473,7 @@
         <v>1.21</v>
       </c>
       <c r="W15" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="X15" t="n">
         <v>980</v>
@@ -2572,7 +2572,7 @@
         <v>1.02</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,28 +2581,28 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.07</v>
+        <v>3.25</v>
       </c>
       <c r="O16" t="n">
         <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.07</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
         <v>1.01</v>
       </c>
       <c r="R16" t="n">
-        <v>1.07</v>
+        <v>2.02</v>
       </c>
       <c r="S16" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V16" t="n">
         <v>1.01</v>
@@ -2707,7 +2707,7 @@
         <v>1.02</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,7 +2716,7 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="O17" t="n">
         <v>1.22</v>
@@ -2734,10 +2734,10 @@
         <v>1.22</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V17" t="n">
         <v>1.01</v>
@@ -2830,7 +2830,7 @@
         <v>1.27</v>
       </c>
       <c r="G18" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H18" t="n">
         <v>9.199999999999999</v>
@@ -2839,7 +2839,7 @@
         <v>15.5</v>
       </c>
       <c r="J18" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="K18" t="n">
         <v>11.5</v>
@@ -2851,13 +2851,13 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="O18" t="n">
         <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="Q18" t="n">
         <v>1.55</v>
@@ -2869,7 +2869,7 @@
         <v>2.02</v>
       </c>
       <c r="T18" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="U18" t="n">
         <v>1.76</v>
@@ -2878,7 +2878,7 @@
         <v>1.07</v>
       </c>
       <c r="W18" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2965,13 +2965,13 @@
         <v>4.4</v>
       </c>
       <c r="G19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
         <v>2.02</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.04</v>
       </c>
       <c r="J19" t="n">
         <v>3.55</v>
@@ -3001,19 +3001,19 @@
         <v>1.3</v>
       </c>
       <c r="S19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
         <v>1.98</v>
       </c>
       <c r="U19" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.98</v>
       </c>
-      <c r="V19" t="n">
-        <v>1.96</v>
-      </c>
       <c r="W19" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X19" t="n">
         <v>12.5</v>
@@ -3028,7 +3028,7 @@
         <v>23</v>
       </c>
       <c r="AB19" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC19" t="n">
         <v>7.8</v>
@@ -3037,7 +3037,7 @@
         <v>10.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF19" t="n">
         <v>32</v>
@@ -3097,55 +3097,55 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="G20" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I20" t="n">
         <v>2.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.14</v>
       </c>
       <c r="J20" t="n">
         <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L20" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O20" t="n">
         <v>1.32</v>
       </c>
       <c r="P20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
         <v>1.95</v>
       </c>
       <c r="R20" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S20" t="n">
         <v>3.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V20" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W20" t="n">
         <v>1.35</v>
@@ -3154,7 +3154,7 @@
         <v>16</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
         <v>13</v>
@@ -3163,7 +3163,7 @@
         <v>26</v>
       </c>
       <c r="AB20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
         <v>8.800000000000001</v>
@@ -3196,7 +3196,7 @@
         <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN20" t="n">
         <v>1000</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>1.14</v>
       </c>
       <c r="G21" t="n">
         <v>1000</v>
@@ -3241,10 +3241,10 @@
         <v>1.04</v>
       </c>
       <c r="I21" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="J21" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="K21" t="n">
         <v>1000</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H23" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I23" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="J23" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.32</v>
@@ -3526,34 +3526,34 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="R23" t="n">
         <v>1.36</v>
       </c>
       <c r="S23" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T23" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="U23" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="V23" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W23" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3568,10 +3568,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD23" t="n">
         <v>980</v>
@@ -3580,7 +3580,7 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AG23" t="n">
         <v>13</v>
@@ -3592,7 +3592,7 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK23" t="n">
         <v>19.5</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3676,7 +3676,7 @@
         <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>2.64</v>
+        <v>1.05</v>
       </c>
       <c r="T24" t="n">
         <v>1.04</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="G25" t="n">
         <v>2.52</v>
@@ -3781,37 +3781,37 @@
         <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K25" t="n">
         <v>3.45</v>
       </c>
       <c r="L25" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
         <v>2.64</v>
       </c>
       <c r="O25" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P25" t="n">
         <v>1.55</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R25" t="n">
         <v>1.2</v>
       </c>
       <c r="S25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T25" t="n">
         <v>2.02</v>
@@ -3823,7 +3823,7 @@
         <v>1.33</v>
       </c>
       <c r="W25" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X25" t="n">
         <v>11</v>
@@ -3835,13 +3835,13 @@
         <v>30</v>
       </c>
       <c r="AA25" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB25" t="n">
         <v>9</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD25" t="n">
         <v>19</v>
@@ -3907,31 +3907,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="G26" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I26" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="J26" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.23</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O26" t="n">
         <v>1.42</v>
@@ -3958,7 +3958,7 @@
         <v>1.17</v>
       </c>
       <c r="W26" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="X26" t="n">
         <v>12</v>
@@ -4003,13 +4003,13 @@
         <v>22</v>
       </c>
       <c r="AL26" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="G27" t="n">
         <v>1000</v>
       </c>
       <c r="H27" t="n">
-        <v>1.04</v>
+        <v>1.88</v>
       </c>
       <c r="I27" t="n">
-        <v>1000</v>
+        <v>2.88</v>
       </c>
       <c r="J27" t="n">
-        <v>1.02</v>
+        <v>1.55</v>
       </c>
       <c r="K27" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,31 +4066,31 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="O27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R27" t="n">
         <v>1.18</v>
       </c>
-      <c r="P27" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.07</v>
-      </c>
       <c r="S27" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="W27" t="n">
         <v>1.01</v>
@@ -4204,7 +4204,7 @@
         <v>2.38</v>
       </c>
       <c r="O28" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P28" t="n">
         <v>1.46</v>
@@ -4213,7 +4213,7 @@
         <v>2.56</v>
       </c>
       <c r="R28" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G29" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H29" t="n">
         <v>4.4</v>
@@ -4324,10 +4324,10 @@
         <v>4.5</v>
       </c>
       <c r="J29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.43</v>
@@ -4342,28 +4342,28 @@
         <v>1.39</v>
       </c>
       <c r="P29" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q29" t="n">
         <v>2.18</v>
       </c>
       <c r="R29" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
         <v>1.94</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V29" t="n">
         <v>1.28</v>
       </c>
       <c r="W29" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X29" t="n">
         <v>11.5</v>
@@ -4378,13 +4378,13 @@
         <v>95</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
         <v>60</v>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G30" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="H30" t="n">
         <v>5.2</v>
@@ -4459,13 +4459,13 @@
         <v>5.3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L30" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M30" t="n">
         <v>1.1</v>
@@ -4474,13 +4474,13 @@
         <v>3.05</v>
       </c>
       <c r="O30" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P30" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R30" t="n">
         <v>1.25</v>
@@ -4498,7 +4498,7 @@
         <v>1.23</v>
       </c>
       <c r="W30" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X30" t="n">
         <v>10.5</v>
@@ -4507,10 +4507,10 @@
         <v>14.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA30" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB30" t="n">
         <v>7</v>
@@ -4525,7 +4525,7 @@
         <v>85</v>
       </c>
       <c r="AF30" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG30" t="n">
         <v>10.5</v>
@@ -4540,7 +4540,7 @@
         <v>21</v>
       </c>
       <c r="AK30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
         <v>50</v>
@@ -4549,7 +4549,7 @@
         <v>170</v>
       </c>
       <c r="AN30" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
         <v>120</v>
@@ -4588,7 +4588,7 @@
         <v>4.7</v>
       </c>
       <c r="H31" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I31" t="n">
         <v>2.08</v>
@@ -4597,7 +4597,7 @@
         <v>3.35</v>
       </c>
       <c r="K31" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4615,13 +4615,13 @@
         <v>1.66</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R31" t="n">
         <v>1.24</v>
       </c>
       <c r="S31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T31" t="n">
         <v>2.04</v>
@@ -4687,7 +4687,7 @@
         <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
@@ -4720,7 +4720,7 @@
         <v>3.15</v>
       </c>
       <c r="G32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H32" t="n">
         <v>2.72</v>
@@ -4729,7 +4729,7 @@
         <v>2.84</v>
       </c>
       <c r="J32" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K32" t="n">
         <v>3.1</v>
@@ -4741,7 +4741,7 @@
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="O32" t="n">
         <v>1.5</v>
@@ -4762,67 +4762,67 @@
         <v>1.89</v>
       </c>
       <c r="U32" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="V32" t="n">
         <v>1.54</v>
       </c>
       <c r="W32" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AM32" t="n">
         <v>500</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="G33" t="n">
         <v>2.54</v>
@@ -4864,7 +4864,7 @@
         <v>3.75</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K33" t="n">
         <v>3.1</v>
@@ -4876,22 +4876,22 @@
         <v>1.12</v>
       </c>
       <c r="N33" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="O33" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P33" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R33" t="n">
         <v>1.22</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="T33" t="n">
         <v>2.06</v>
@@ -4900,10 +4900,10 @@
         <v>1.86</v>
       </c>
       <c r="V33" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W33" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X33" t="n">
         <v>9</v>
@@ -4915,31 +4915,31 @@
         <v>23</v>
       </c>
       <c r="AA33" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB33" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AC33" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD33" t="n">
         <v>16</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF33" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="n">
         <v>36</v>
@@ -4948,16 +4948,16 @@
         <v>34</v>
       </c>
       <c r="AL33" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AN33" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
@@ -4996,13 +4996,13 @@
         <v>1.66</v>
       </c>
       <c r="I34" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K34" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L34" t="n">
         <v>1.35</v>
@@ -5029,70 +5029,70 @@
         <v>3.65</v>
       </c>
       <c r="T34" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U34" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V34" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="W34" t="n">
         <v>1.18</v>
       </c>
       <c r="X34" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y34" t="n">
         <v>7.8</v>
       </c>
       <c r="Z34" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA34" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB34" t="n">
         <v>19.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD34" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG34" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AH34" t="n">
         <v>24</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ34" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AK34" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL34" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AM34" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO34" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="35">
@@ -5125,10 +5125,10 @@
         <v>2.14</v>
       </c>
       <c r="G35" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I35" t="n">
         <v>4.1</v>
@@ -5146,34 +5146,34 @@
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O35" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P35" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R35" t="n">
         <v>1.43</v>
       </c>
       <c r="S35" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T35" t="n">
         <v>1.68</v>
       </c>
       <c r="U35" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V35" t="n">
         <v>1.33</v>
       </c>
       <c r="W35" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X35" t="n">
         <v>16</v>
@@ -5182,7 +5182,7 @@
         <v>17.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
@@ -5191,13 +5191,13 @@
         <v>12</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD35" t="n">
         <v>16</v>
       </c>
       <c r="AE35" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF35" t="n">
         <v>15.5</v>
@@ -5218,13 +5218,13 @@
         <v>23</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5260,19 +5260,19 @@
         <v>2.06</v>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H36" t="n">
         <v>4.4</v>
       </c>
       <c r="I36" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J36" t="n">
         <v>3.3</v>
       </c>
       <c r="K36" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L36" t="n">
         <v>1.49</v>
@@ -5305,10 +5305,10 @@
         <v>1.92</v>
       </c>
       <c r="V36" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X36" t="n">
         <v>11</v>
@@ -5329,7 +5329,7 @@
         <v>7.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
@@ -5467,7 +5467,7 @@
         <v>16.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF37" t="n">
         <v>15.5</v>
@@ -5494,10 +5494,10 @@
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G38" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H38" t="n">
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J38" t="n">
         <v>3.3</v>
@@ -5563,7 +5563,7 @@
         <v>2.36</v>
       </c>
       <c r="R38" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S38" t="n">
         <v>4.4</v>
@@ -5584,7 +5584,7 @@
         <v>10.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z38" t="n">
         <v>27</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G40" t="n">
         <v>1.88</v>
       </c>
-      <c r="G40" t="n">
-        <v>1.89</v>
-      </c>
       <c r="H40" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J40" t="n">
         <v>3.7</v>
@@ -5821,40 +5821,40 @@
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P40" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R40" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S40" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T40" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U40" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V40" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W40" t="n">
         <v>2.12</v>
       </c>
       <c r="X40" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z40" t="n">
         <v>36</v>
@@ -5869,7 +5869,7 @@
         <v>8</v>
       </c>
       <c r="AD40" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE40" t="n">
         <v>60</v>
@@ -5878,7 +5878,7 @@
         <v>11.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH40" t="n">
         <v>18.5</v>
@@ -5887,7 +5887,7 @@
         <v>65</v>
       </c>
       <c r="AJ40" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK40" t="n">
         <v>19</v>
@@ -6073,16 +6073,16 @@
         <v>3.05</v>
       </c>
       <c r="H42" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I42" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="J42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K42" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.7</v>
       </c>
       <c r="L42" t="n">
         <v>1.34</v>
@@ -6091,7 +6091,7 @@
         <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O42" t="n">
         <v>1.27</v>
@@ -6100,7 +6100,7 @@
         <v>2.14</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R42" t="n">
         <v>1.45</v>
@@ -6115,7 +6115,7 @@
         <v>2.38</v>
       </c>
       <c r="V42" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W42" t="n">
         <v>1.48</v>
@@ -6223,7 +6223,7 @@
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N43" t="n">
         <v>3.2</v>
@@ -6235,19 +6235,19 @@
         <v>2.12</v>
       </c>
       <c r="Q43" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U43" t="n">
         <v>1.71</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.04</v>
       </c>
       <c r="V43" t="n">
         <v>1.16</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G44" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H44" t="n">
         <v>3.65</v>
@@ -6352,7 +6352,7 @@
         <v>3.45</v>
       </c>
       <c r="K44" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L44" t="n">
         <v>1.42</v>
@@ -6367,7 +6367,7 @@
         <v>1.36</v>
       </c>
       <c r="P44" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="Q44" t="n">
         <v>2.04</v>
@@ -6388,40 +6388,40 @@
         <v>1.37</v>
       </c>
       <c r="W44" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X44" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y44" t="n">
         <v>13.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB44" t="n">
         <v>9.4</v>
       </c>
       <c r="AC44" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF44" t="n">
         <v>15.5</v>
       </c>
-      <c r="AE44" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>16</v>
-      </c>
       <c r="AG44" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH44" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI44" t="n">
         <v>60</v>
@@ -6430,19 +6430,19 @@
         <v>29</v>
       </c>
       <c r="AK44" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL44" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM44" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN44" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO44" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45">
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G45" t="n">
         <v>1.29</v>
       </c>
-      <c r="G45" t="n">
-        <v>1.3</v>
-      </c>
       <c r="H45" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I45" t="n">
         <v>13</v>
       </c>
       <c r="J45" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K45" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L45" t="n">
         <v>1.19</v>
@@ -6496,7 +6496,7 @@
         <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O45" t="n">
         <v>1.13</v>
@@ -6508,46 +6508,46 @@
         <v>1.41</v>
       </c>
       <c r="R45" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S45" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T45" t="n">
         <v>1.79</v>
       </c>
       <c r="U45" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V45" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W45" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X45" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD45" t="n">
         <v>42</v>
       </c>
-      <c r="Y45" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>430</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>46</v>
-      </c>
       <c r="AE45" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AF45" t="n">
         <v>11</v>
@@ -6556,25 +6556,25 @@
         <v>11</v>
       </c>
       <c r="AH45" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AI45" t="n">
         <v>120</v>
       </c>
       <c r="AJ45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK45" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL45" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM45" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO45" t="n">
         <v>130</v>
@@ -6610,7 +6610,7 @@
         <v>2.16</v>
       </c>
       <c r="G46" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H46" t="n">
         <v>3.8</v>
@@ -6619,10 +6619,10 @@
         <v>3.9</v>
       </c>
       <c r="J46" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K46" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L46" t="n">
         <v>1.39</v>
@@ -6631,13 +6631,13 @@
         <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O46" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P46" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q46" t="n">
         <v>1.94</v>
@@ -6652,13 +6652,13 @@
         <v>1.76</v>
       </c>
       <c r="U46" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V46" t="n">
         <v>1.34</v>
       </c>
       <c r="W46" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X46" t="n">
         <v>14.5</v>
@@ -6703,10 +6703,10 @@
         <v>24</v>
       </c>
       <c r="AL46" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AM46" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN46" t="n">
         <v>16.5</v>
@@ -6748,13 +6748,13 @@
         <v>2.56</v>
       </c>
       <c r="H47" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I47" t="n">
         <v>3.4</v>
       </c>
       <c r="J47" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K47" t="n">
         <v>3.5</v>
@@ -6766,19 +6766,19 @@
         <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O47" t="n">
         <v>1.37</v>
       </c>
       <c r="P47" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="Q47" t="n">
         <v>2.1</v>
       </c>
       <c r="R47" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S47" t="n">
         <v>3.85</v>
@@ -6787,10 +6787,10 @@
         <v>1.81</v>
       </c>
       <c r="U47" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V47" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W47" t="n">
         <v>1.64</v>
@@ -6802,7 +6802,7 @@
         <v>13.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA47" t="n">
         <v>75</v>
@@ -6811,7 +6811,7 @@
         <v>11</v>
       </c>
       <c r="AC47" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD47" t="n">
         <v>17</v>
@@ -6826,16 +6826,16 @@
         <v>13.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI47" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ47" t="n">
         <v>42</v>
       </c>
       <c r="AK47" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL47" t="n">
         <v>55</v>
@@ -6925,7 +6925,7 @@
         <v>2.4</v>
       </c>
       <c r="V48" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W48" t="n">
         <v>1.98</v>
@@ -6943,25 +6943,25 @@
         <v>85</v>
       </c>
       <c r="AB48" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC48" t="n">
         <v>11</v>
       </c>
       <c r="AD48" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE48" t="n">
         <v>980</v>
       </c>
       <c r="AF48" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG48" t="n">
         <v>11.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI48" t="n">
         <v>980</v>
@@ -7021,7 +7021,7 @@
         <v>3.15</v>
       </c>
       <c r="I49" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J49" t="n">
         <v>3.65</v>
@@ -7045,7 +7045,7 @@
         <v>2.16</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R49" t="n">
         <v>1.46</v>
@@ -7054,13 +7054,13 @@
         <v>2.7</v>
       </c>
       <c r="T49" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U49" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V49" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W49" t="n">
         <v>1.84</v>
@@ -7096,7 +7096,7 @@
         <v>1000</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI49" t="n">
         <v>1000</v>
@@ -7153,7 +7153,7 @@
         <v>3.75</v>
       </c>
       <c r="H50" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I50" t="n">
         <v>2.66</v>
@@ -7285,13 +7285,13 @@
         <v>2.5</v>
       </c>
       <c r="G51" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H51" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J51" t="n">
         <v>3.45</v>
@@ -7453,7 +7453,7 @@
         <v>2</v>
       </c>
       <c r="R52" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S52" t="n">
         <v>2.66</v>
@@ -7552,31 +7552,31 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G53" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H53" t="n">
         <v>1.89</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="J53" t="n">
         <v>3.95</v>
       </c>
       <c r="K53" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L53" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M53" t="n">
         <v>1.05</v>
       </c>
       <c r="N53" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O53" t="n">
         <v>1.23</v>
@@ -7585,22 +7585,22 @@
         <v>2.14</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="R53" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="S53" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T53" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U53" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="W53" t="n">
         <v>1.3</v>
@@ -7624,13 +7624,13 @@
         <v>10.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AF53" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG53" t="n">
         <v>1000</v>
@@ -7645,7 +7645,7 @@
         <v>1000</v>
       </c>
       <c r="AK53" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL53" t="n">
         <v>1000</v>
@@ -7654,7 +7654,7 @@
         <v>100</v>
       </c>
       <c r="AN53" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO53" t="n">
         <v>15</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G54" t="n">
         <v>1.75</v>
@@ -7702,7 +7702,7 @@
         <v>3.9</v>
       </c>
       <c r="K54" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L54" t="n">
         <v>1.3</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G55" t="n">
         <v>2.24</v>
       </c>
       <c r="H55" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="I55" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J55" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K55" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L55" t="n">
         <v>1.35</v>
@@ -7852,10 +7852,10 @@
         <v>1.36</v>
       </c>
       <c r="P55" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="R55" t="n">
         <v>1.29</v>
@@ -7870,7 +7870,7 @@
         <v>1.98</v>
       </c>
       <c r="V55" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W55" t="n">
         <v>1.8</v>
@@ -7963,16 +7963,16 @@
         <v>7.8</v>
       </c>
       <c r="H56" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="I56" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="J56" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K56" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -7984,31 +7984,31 @@
         <v>6.2</v>
       </c>
       <c r="O56" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W56" t="n">
         <v>1.15</v>
-      </c>
-      <c r="P56" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S56" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U56" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V56" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="W56" t="n">
-        <v>1.14</v>
       </c>
       <c r="X56" t="n">
         <v>40</v>
@@ -8035,7 +8035,7 @@
         <v>17.5</v>
       </c>
       <c r="AF56" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AG56" t="n">
         <v>30</v>
@@ -8044,7 +8044,7 @@
         <v>23</v>
       </c>
       <c r="AI56" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ56" t="n">
         <v>1000</v>
@@ -8059,10 +8059,10 @@
         <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO56" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="57">
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="G57" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J57" t="n">
         <v>4</v>
       </c>
       <c r="K57" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L57" t="n">
         <v>1.21</v>
@@ -8116,25 +8116,25 @@
         <v>1.02</v>
       </c>
       <c r="N57" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O57" t="n">
         <v>1.16</v>
       </c>
       <c r="P57" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="Q57" t="n">
         <v>1.46</v>
       </c>
       <c r="R57" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="S57" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T57" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="U57" t="n">
         <v>2.78</v>
@@ -8143,7 +8143,7 @@
         <v>1.4</v>
       </c>
       <c r="W57" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="X57" t="n">
         <v>38</v>
@@ -8152,10 +8152,10 @@
         <v>24</v>
       </c>
       <c r="Z57" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA57" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB57" t="n">
         <v>17.5</v>
@@ -8164,19 +8164,19 @@
         <v>12</v>
       </c>
       <c r="AD57" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE57" t="n">
         <v>970</v>
       </c>
       <c r="AF57" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG57" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI57" t="n">
         <v>970</v>
@@ -8185,7 +8185,7 @@
         <v>32</v>
       </c>
       <c r="AK57" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL57" t="n">
         <v>25</v>
@@ -8194,10 +8194,10 @@
         <v>50</v>
       </c>
       <c r="AN57" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO57" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="58">
@@ -8227,58 +8227,58 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="G58" t="n">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="H58" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="I58" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="J58" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K58" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L58" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M58" t="n">
         <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O58" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P58" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2</v>
+      </c>
+      <c r="U58" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q58" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S58" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T58" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U58" t="n">
-        <v>1.87</v>
-      </c>
       <c r="V58" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="W58" t="n">
-        <v>2.16</v>
+        <v>2.44</v>
       </c>
       <c r="X58" t="n">
         <v>970</v>
@@ -8290,49 +8290,49 @@
         <v>970</v>
       </c>
       <c r="AA58" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AB58" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AC58" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD58" t="n">
         <v>970</v>
       </c>
       <c r="AE58" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AF58" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AG58" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH58" t="n">
         <v>970</v>
       </c>
       <c r="AI58" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AJ58" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK58" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AL58" t="n">
         <v>970</v>
       </c>
       <c r="AM58" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AN58" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AO58" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59">
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="G59" t="n">
         <v>4.6</v>
@@ -8380,7 +8380,7 @@
         <v>3.4</v>
       </c>
       <c r="L59" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M59" t="n">
         <v>1.1</v>
@@ -8542,7 +8542,7 @@
         <v>1.89</v>
       </c>
       <c r="U60" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="V60" t="n">
         <v>1.68</v>
@@ -8596,7 +8596,7 @@
         <v>1000</v>
       </c>
       <c r="AM60" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN60" t="n">
         <v>1000</v>
@@ -8674,7 +8674,7 @@
         <v>2.42</v>
       </c>
       <c r="T61" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="U61" t="n">
         <v>1.04</v>
@@ -8692,10 +8692,10 @@
         <v>970</v>
       </c>
       <c r="Z61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB61" t="n">
         <v>970</v>
@@ -8707,7 +8707,7 @@
         <v>970</v>
       </c>
       <c r="AE61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF61" t="n">
         <v>1000</v>
@@ -8719,7 +8719,7 @@
         <v>970</v>
       </c>
       <c r="AI61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ61" t="n">
         <v>1000</v>
@@ -8737,7 +8737,7 @@
         <v>1000</v>
       </c>
       <c r="AO61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62">
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="G62" t="n">
         <v>11</v>
@@ -8791,10 +8791,10 @@
         <v>1.04</v>
       </c>
       <c r="N62" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O62" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P62" t="n">
         <v>2.3</v>
@@ -8806,7 +8806,7 @@
         <v>1.52</v>
       </c>
       <c r="S62" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T62" t="n">
         <v>1.96</v>
@@ -8824,7 +8824,7 @@
         <v>27</v>
       </c>
       <c r="Y62" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z62" t="n">
         <v>10.5</v>
@@ -8926,7 +8926,7 @@
         <v>1.08</v>
       </c>
       <c r="N63" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O63" t="n">
         <v>1.44</v>
@@ -8983,7 +8983,7 @@
         <v>15.5</v>
       </c>
       <c r="AG63" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH63" t="n">
         <v>1000</v>
@@ -9070,7 +9070,7 @@
         <v>1.65</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="R64" t="n">
         <v>1.24</v>
@@ -9082,7 +9082,7 @@
         <v>1.9</v>
       </c>
       <c r="U64" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V64" t="n">
         <v>1.47</v>
@@ -9133,7 +9133,7 @@
         <v>38</v>
       </c>
       <c r="AL64" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM64" t="n">
         <v>130</v>
@@ -9172,10 +9172,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G65" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H65" t="n">
         <v>4.3</v>
@@ -9184,7 +9184,7 @@
         <v>5.2</v>
       </c>
       <c r="J65" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K65" t="n">
         <v>4.2</v>
@@ -9229,10 +9229,10 @@
         <v>15.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z65" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA65" t="n">
         <v>1000</v>
@@ -9241,7 +9241,7 @@
         <v>8.4</v>
       </c>
       <c r="AC65" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD65" t="n">
         <v>22</v>
@@ -9256,7 +9256,7 @@
         <v>980</v>
       </c>
       <c r="AH65" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI65" t="n">
         <v>1000</v>
@@ -9310,16 +9310,16 @@
         <v>2.94</v>
       </c>
       <c r="G66" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H66" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I66" t="n">
         <v>2.66</v>
       </c>
       <c r="J66" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K66" t="n">
         <v>3.55</v>
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G67" t="n">
         <v>1.52</v>
@@ -9451,13 +9451,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I67" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J67" t="n">
         <v>4.6</v>
       </c>
       <c r="K67" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L67" t="n">
         <v>1.38</v>
@@ -9466,22 +9466,22 @@
         <v>1.06</v>
       </c>
       <c r="N67" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O67" t="n">
         <v>1.31</v>
       </c>
       <c r="P67" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q67" t="n">
         <v>1.91</v>
       </c>
       <c r="R67" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S67" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T67" t="n">
         <v>2.1</v>
@@ -9505,7 +9505,7 @@
         <v>70</v>
       </c>
       <c r="AA67" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AB67" t="n">
         <v>7.8</v>
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G68" t="n">
         <v>2.08</v>
@@ -9586,7 +9586,7 @@
         <v>3.8</v>
       </c>
       <c r="I68" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J68" t="n">
         <v>3.6</v>
@@ -9601,7 +9601,7 @@
         <v>1.05</v>
       </c>
       <c r="N68" t="n">
-        <v>1.1</v>
+        <v>2.66</v>
       </c>
       <c r="O68" t="n">
         <v>1.3</v>
@@ -9619,7 +9619,7 @@
         <v>3.1</v>
       </c>
       <c r="T68" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U68" t="n">
         <v>2.06</v>
@@ -9676,7 +9676,7 @@
         <v>1000</v>
       </c>
       <c r="AM68" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN68" t="n">
         <v>1000</v>
@@ -9712,34 +9712,34 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G69" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H69" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="I69" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="J69" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="K69" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L69" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="M69" t="n">
         <v>1.02</v>
       </c>
       <c r="N69" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="O69" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P69" t="n">
         <v>3.7</v>
@@ -9754,7 +9754,7 @@
         <v>1.81</v>
       </c>
       <c r="T69" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U69" t="n">
         <v>2.08</v>
@@ -9763,46 +9763,46 @@
         <v>1.07</v>
       </c>
       <c r="W69" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="X69" t="n">
         <v>55</v>
       </c>
       <c r="Y69" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="Z69" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AA69" t="n">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="AB69" t="n">
         <v>16.5</v>
       </c>
       <c r="AC69" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AD69" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AE69" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF69" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG69" t="n">
         <v>13.5</v>
       </c>
       <c r="AH69" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI69" t="n">
         <v>140</v>
       </c>
       <c r="AJ69" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK69" t="n">
         <v>16</v>
@@ -9811,7 +9811,7 @@
         <v>32</v>
       </c>
       <c r="AM69" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN69" t="n">
         <v>2.96</v>
@@ -9853,25 +9853,25 @@
         <v>4.8</v>
       </c>
       <c r="H70" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="I70" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="J70" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K70" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L70" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M70" t="n">
         <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="O70" t="n">
         <v>1.25</v>
@@ -9880,22 +9880,22 @@
         <v>2.1</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="R70" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S70" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T70" t="n">
         <v>1.66</v>
       </c>
       <c r="U70" t="n">
-        <v>2.18</v>
+        <v>1.04</v>
       </c>
       <c r="V70" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="W70" t="n">
         <v>1.26</v>
@@ -9985,7 +9985,7 @@
         <v>4.4</v>
       </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H71" t="n">
         <v>1.86</v>
@@ -10033,7 +10033,7 @@
         <v>2.08</v>
       </c>
       <c r="W71" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X71" t="n">
         <v>15.5</v>
@@ -10078,7 +10078,7 @@
         <v>60</v>
       </c>
       <c r="AL71" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM71" t="n">
         <v>110</v>
@@ -10087,7 +10087,7 @@
         <v>65</v>
       </c>
       <c r="AO71" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="72">
@@ -10117,19 +10117,19 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="G72" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="H72" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="I72" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J72" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K72" t="n">
         <v>3.7</v>
@@ -10144,7 +10144,7 @@
         <v>3.4</v>
       </c>
       <c r="O72" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P72" t="n">
         <v>1.81</v>
@@ -10156,40 +10156,40 @@
         <v>1.31</v>
       </c>
       <c r="S72" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T72" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U72" t="n">
         <v>1.92</v>
       </c>
       <c r="V72" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W72" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="X72" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y72" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA72" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB72" t="n">
         <v>8.6</v>
       </c>
       <c r="AC72" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD72" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE72" t="n">
         <v>80</v>
@@ -10222,7 +10222,7 @@
         <v>15</v>
       </c>
       <c r="AO72" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73">
@@ -10252,7 +10252,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G73" t="n">
         <v>1.75</v>
@@ -10261,7 +10261,7 @@
         <v>5.5</v>
       </c>
       <c r="I73" t="n">
-        <v>19.5</v>
+        <v>110</v>
       </c>
       <c r="J73" t="n">
         <v>3.7</v>
@@ -10276,31 +10276,31 @@
         <v>1.01</v>
       </c>
       <c r="N73" t="n">
-        <v>1.76</v>
+        <v>2.98</v>
       </c>
       <c r="O73" t="n">
         <v>1.01</v>
       </c>
       <c r="P73" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="R73" t="n">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="S73" t="n">
-        <v>1.8</v>
+        <v>2.72</v>
       </c>
       <c r="T73" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U73" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V73" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W73" t="n">
         <v>2.32</v>
@@ -10405,7 +10405,7 @@
         <v>3.85</v>
       </c>
       <c r="L74" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M74" t="n">
         <v>1.06</v>
@@ -10417,7 +10417,7 @@
         <v>1.3</v>
       </c>
       <c r="P74" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q74" t="n">
         <v>1.98</v>
@@ -10453,7 +10453,7 @@
         <v>980</v>
       </c>
       <c r="AB74" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC74" t="n">
         <v>8.800000000000001</v>
@@ -10486,7 +10486,7 @@
         <v>980</v>
       </c>
       <c r="AM74" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AN74" t="n">
         <v>980</v>
@@ -10522,22 +10522,22 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.29</v>
+        <v>1.84</v>
       </c>
       <c r="G75" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="H75" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="J75" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="K75" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="L75" t="n">
         <v>1.37</v>
@@ -10546,7 +10546,7 @@
         <v>1.01</v>
       </c>
       <c r="N75" t="n">
-        <v>1.57</v>
+        <v>1.1</v>
       </c>
       <c r="O75" t="n">
         <v>1.01</v>
@@ -10558,22 +10558,22 @@
         <v>2.06</v>
       </c>
       <c r="R75" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="S75" t="n">
-        <v>2.06</v>
+        <v>2.8</v>
       </c>
       <c r="T75" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U75" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V75" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W75" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="X75" t="n">
         <v>1000</v>
@@ -10657,22 +10657,22 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G76" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H76" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="I76" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="J76" t="n">
         <v>3.7</v>
       </c>
       <c r="K76" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L76" t="n">
         <v>1.35</v>
@@ -10681,13 +10681,13 @@
         <v>1.07</v>
       </c>
       <c r="N76" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O76" t="n">
         <v>1.32</v>
       </c>
       <c r="P76" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q76" t="n">
         <v>2.04</v>
@@ -10702,19 +10702,19 @@
         <v>2.08</v>
       </c>
       <c r="U76" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V76" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W76" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="X76" t="n">
         <v>1000</v>
       </c>
       <c r="Y76" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z76" t="n">
         <v>1000</v>
@@ -10726,7 +10726,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC76" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD76" t="n">
         <v>1000</v>
@@ -10735,7 +10735,7 @@
         <v>1000</v>
       </c>
       <c r="AF76" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG76" t="n">
         <v>12.5</v>
@@ -10795,7 +10795,7 @@
         <v>4.4</v>
       </c>
       <c r="G77" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="H77" t="n">
         <v>1.96</v>
@@ -10804,7 +10804,7 @@
         <v>2.16</v>
       </c>
       <c r="J77" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="K77" t="n">
         <v>3.55</v>
@@ -10813,7 +10813,7 @@
         <v>1.45</v>
       </c>
       <c r="M77" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N77" t="n">
         <v>2.6</v>
@@ -10843,7 +10843,7 @@
         <v>1.86</v>
       </c>
       <c r="W77" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="X77" t="n">
         <v>11</v>
@@ -10933,7 +10933,7 @@
         <v>1.6</v>
       </c>
       <c r="H78" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I78" t="n">
         <v>7.6</v>
@@ -10951,28 +10951,28 @@
         <v>1.08</v>
       </c>
       <c r="N78" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O78" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P78" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R78" t="n">
         <v>1.34</v>
       </c>
       <c r="S78" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T78" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U78" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V78" t="n">
         <v>1.15</v>
@@ -10990,7 +10990,7 @@
         <v>60</v>
       </c>
       <c r="AA78" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB78" t="n">
         <v>7.2</v>
@@ -11005,16 +11005,16 @@
         <v>130</v>
       </c>
       <c r="AF78" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG78" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH78" t="n">
         <v>26</v>
       </c>
       <c r="AI78" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ78" t="n">
         <v>14</v>
@@ -11023,13 +11023,13 @@
         <v>18</v>
       </c>
       <c r="AL78" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM78" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN78" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO78" t="n">
         <v>190</v>
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="G79" t="n">
         <v>1.21</v>
@@ -11071,7 +11071,7 @@
         <v>18.5</v>
       </c>
       <c r="I79" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J79" t="n">
         <v>7.6</v>
@@ -11101,7 +11101,7 @@
         <v>1.48</v>
       </c>
       <c r="S79" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T79" t="n">
         <v>2.54</v>
@@ -11119,7 +11119,7 @@
         <v>980</v>
       </c>
       <c r="Y79" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Z79" t="n">
         <v>300</v>
@@ -11134,7 +11134,7 @@
         <v>23</v>
       </c>
       <c r="AD79" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AE79" t="n">
         <v>1000</v>
@@ -11197,13 +11197,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="G80" t="n">
         <v>3.1</v>
       </c>
       <c r="H80" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="I80" t="n">
         <v>3.15</v>
@@ -11212,7 +11212,7 @@
         <v>2.96</v>
       </c>
       <c r="K80" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L80" t="n">
         <v>1.45</v>
@@ -11227,10 +11227,10 @@
         <v>1.37</v>
       </c>
       <c r="P80" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R80" t="n">
         <v>1.28</v>
@@ -11332,52 +11332,52 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G81" t="n">
         <v>2.22</v>
       </c>
       <c r="H81" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J81" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K81" t="n">
         <v>3.35</v>
       </c>
       <c r="L81" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M81" t="n">
         <v>1.1</v>
       </c>
       <c r="N81" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O81" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P81" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="R81" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S81" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T81" t="n">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="U81" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="V81" t="n">
         <v>1.29</v>
@@ -11389,28 +11389,28 @@
         <v>12.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA81" t="n">
         <v>1000</v>
       </c>
       <c r="AB81" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC81" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD81" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE81" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AF81" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AG81" t="n">
         <v>11</v>
@@ -11419,7 +11419,7 @@
         <v>1000</v>
       </c>
       <c r="AI81" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AJ81" t="n">
         <v>34</v>
@@ -11431,7 +11431,7 @@
         <v>980</v>
       </c>
       <c r="AM81" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN81" t="n">
         <v>1000</v>
@@ -11467,25 +11467,25 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="G82" t="n">
         <v>2.96</v>
       </c>
       <c r="H82" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="I82" t="n">
         <v>2.98</v>
       </c>
       <c r="J82" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K82" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L82" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M82" t="n">
         <v>1.07</v>
@@ -11494,28 +11494,28 @@
         <v>3.5</v>
       </c>
       <c r="O82" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P82" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="R82" t="n">
         <v>1.33</v>
       </c>
       <c r="S82" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T82" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U82" t="n">
         <v>2.12</v>
       </c>
       <c r="V82" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W82" t="n">
         <v>1.51</v>
@@ -11602,28 +11602,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="G83" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="H83" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="I83" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="J83" t="n">
         <v>4</v>
       </c>
       <c r="K83" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L83" t="n">
         <v>1.25</v>
       </c>
       <c r="M83" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N83" t="n">
         <v>6.2</v>
@@ -11632,16 +11632,16 @@
         <v>1.17</v>
       </c>
       <c r="P83" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R83" t="n">
         <v>1.72</v>
       </c>
       <c r="S83" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T83" t="n">
         <v>1.52</v>
@@ -11650,49 +11650,49 @@
         <v>2.82</v>
       </c>
       <c r="V83" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W83" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="X83" t="n">
         <v>27</v>
       </c>
       <c r="Y83" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z83" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA83" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB83" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC83" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD83" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE83" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF83" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG83" t="n">
         <v>11</v>
       </c>
       <c r="AH83" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI83" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ83" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK83" t="n">
         <v>18</v>
@@ -11701,13 +11701,13 @@
         <v>24</v>
       </c>
       <c r="AM83" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN83" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO83" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
@@ -11746,7 +11746,7 @@
         <v>1.3</v>
       </c>
       <c r="I84" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="J84" t="n">
         <v>5.8</v>
@@ -11767,10 +11767,10 @@
         <v>1.27</v>
       </c>
       <c r="P84" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R84" t="n">
         <v>1.42</v>
@@ -11785,7 +11785,7 @@
         <v>1.63</v>
       </c>
       <c r="V84" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="W84" t="n">
         <v>1.07</v>
@@ -11812,7 +11812,7 @@
         <v>12</v>
       </c>
       <c r="AE84" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF84" t="n">
         <v>160</v>
@@ -11878,7 +11878,7 @@
         <v>11</v>
       </c>
       <c r="H85" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="I85" t="n">
         <v>1.45</v>
@@ -11902,10 +11902,10 @@
         <v>1.29</v>
       </c>
       <c r="P85" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R85" t="n">
         <v>1.39</v>
@@ -11920,7 +11920,7 @@
         <v>1.74</v>
       </c>
       <c r="V85" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W85" t="n">
         <v>1.1</v>
@@ -11938,10 +11938,10 @@
         <v>12</v>
       </c>
       <c r="AB85" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AC85" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD85" t="n">
         <v>11</v>
@@ -12007,22 +12007,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="G86" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="H86" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I86" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="J86" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="K86" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="L86" t="n">
         <v>1.01</v>
@@ -12031,34 +12031,34 @@
         <v>1.02</v>
       </c>
       <c r="N86" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O86" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P86" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="R86" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="S86" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="T86" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="U86" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V86" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W86" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="X86" t="n">
         <v>1000</v>
@@ -12085,7 +12085,7 @@
         <v>1000</v>
       </c>
       <c r="AF86" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AG86" t="n">
         <v>1000</v>
@@ -12145,19 +12145,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H87" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="I87" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="J87" t="n">
         <v>5.1</v>
       </c>
       <c r="K87" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -12277,16 +12277,16 @@
         </is>
       </c>
       <c r="F88" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G88" t="n">
         <v>2.46</v>
-      </c>
-      <c r="G88" t="n">
-        <v>2.48</v>
       </c>
       <c r="H88" t="n">
         <v>3.35</v>
       </c>
       <c r="I88" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J88" t="n">
         <v>3.35</v>
@@ -12304,10 +12304,10 @@
         <v>3.3</v>
       </c>
       <c r="O88" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P88" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q88" t="n">
         <v>2.22</v>
@@ -12328,7 +12328,7 @@
         <v>1.41</v>
       </c>
       <c r="W88" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X88" t="n">
         <v>11.5</v>
@@ -12337,7 +12337,7 @@
         <v>11.5</v>
       </c>
       <c r="Z88" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA88" t="n">
         <v>60</v>
@@ -12349,7 +12349,7 @@
         <v>7.2</v>
       </c>
       <c r="AD88" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE88" t="n">
         <v>42</v>
@@ -12412,58 +12412,58 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H89" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I89" t="n">
         <v>3.25</v>
       </c>
       <c r="J89" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K89" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L89" t="n">
         <v>1.69</v>
       </c>
       <c r="M89" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="N89" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="O89" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="P89" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q89" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="R89" t="n">
         <v>1.12</v>
       </c>
       <c r="S89" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T89" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="U89" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="V89" t="n">
         <v>1.44</v>
       </c>
       <c r="W89" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X89" t="n">
         <v>6.6</v>
@@ -12472,52 +12472,52 @@
         <v>7.4</v>
       </c>
       <c r="Z89" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AA89" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AB89" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC89" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD89" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AE89" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AF89" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AG89" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AI89" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ89" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>140</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>430</v>
+      </c>
+      <c r="AN89" t="n">
         <v>90</v>
       </c>
-      <c r="AK89" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL89" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM89" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO89" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90">
@@ -12553,10 +12553,10 @@
         <v>1.35</v>
       </c>
       <c r="H90" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="I90" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J90" t="n">
         <v>6.2</v>
@@ -12583,13 +12583,13 @@
         <v>1.43</v>
       </c>
       <c r="R90" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="S90" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T90" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U90" t="n">
         <v>2.18</v>
@@ -12631,7 +12631,7 @@
         <v>11.5</v>
       </c>
       <c r="AH90" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI90" t="n">
         <v>110</v>
@@ -12685,7 +12685,7 @@
         <v>1.84</v>
       </c>
       <c r="G91" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H91" t="n">
         <v>3.85</v>
@@ -12715,19 +12715,19 @@
         <v>2.36</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R91" t="n">
         <v>1.54</v>
       </c>
       <c r="S91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U91" t="n">
         <v>2.38</v>
-      </c>
-      <c r="T91" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U91" t="n">
-        <v>2.36</v>
       </c>
       <c r="V91" t="n">
         <v>1.29</v>
@@ -12820,16 +12820,16 @@
         <v>2.1</v>
       </c>
       <c r="G92" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H92" t="n">
         <v>4.4</v>
       </c>
       <c r="I92" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J92" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K92" t="n">
         <v>3.35</v>
@@ -12847,28 +12847,28 @@
         <v>1.41</v>
       </c>
       <c r="P92" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="Q92" t="n">
         <v>2.2</v>
       </c>
       <c r="R92" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S92" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T92" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U92" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="V92" t="n">
         <v>1.28</v>
       </c>
       <c r="W92" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="X92" t="n">
         <v>13.5</v>
@@ -12952,22 +12952,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="G93" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="H93" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="I93" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J93" t="n">
         <v>10.5</v>
       </c>
       <c r="K93" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L93" t="n">
         <v>1.17</v>
@@ -12979,7 +12979,7 @@
         <v>10.5</v>
       </c>
       <c r="O93" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P93" t="n">
         <v>4.3</v>
@@ -12988,31 +12988,31 @@
         <v>1.26</v>
       </c>
       <c r="R93" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="S93" t="n">
         <v>1.67</v>
       </c>
       <c r="T93" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U93" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V93" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W93" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="X93" t="n">
         <v>90</v>
       </c>
       <c r="Y93" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Z93" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AA93" t="n">
         <v>1000</v>
@@ -13021,40 +13021,40 @@
         <v>22</v>
       </c>
       <c r="AC93" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AD93" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE93" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AF93" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AG93" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH93" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AI93" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ93" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AK93" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL93" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM93" t="n">
         <v>150</v>
       </c>
       <c r="AN93" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="AO93" t="n">
         <v>200</v>
@@ -13087,10 +13087,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G94" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H94" t="n">
         <v>6.6</v>
@@ -13120,13 +13120,13 @@
         <v>2.04</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R94" t="n">
         <v>1.41</v>
       </c>
       <c r="S94" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T94" t="n">
         <v>1.97</v>
@@ -13138,7 +13138,7 @@
         <v>1.17</v>
       </c>
       <c r="W94" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="X94" t="n">
         <v>15</v>
@@ -13147,7 +13147,7 @@
         <v>21</v>
       </c>
       <c r="Z94" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA94" t="n">
         <v>190</v>
@@ -13192,7 +13192,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO94" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95">
@@ -13225,7 +13225,7 @@
         <v>1.73</v>
       </c>
       <c r="G95" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H95" t="n">
         <v>5.3</v>
@@ -13273,7 +13273,7 @@
         <v>1.21</v>
       </c>
       <c r="W95" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X95" t="n">
         <v>21</v>
@@ -13321,7 +13321,7 @@
         <v>36</v>
       </c>
       <c r="AM95" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN95" t="n">
         <v>10.5</v>
@@ -13357,16 +13357,16 @@
         </is>
       </c>
       <c r="F96" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G96" t="n">
         <v>2.26</v>
       </c>
-      <c r="G96" t="n">
-        <v>2.28</v>
-      </c>
       <c r="H96" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I96" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="J96" t="n">
         <v>3.3</v>
@@ -13375,7 +13375,7 @@
         <v>3.35</v>
       </c>
       <c r="L96" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M96" t="n">
         <v>1.09</v>
@@ -13390,25 +13390,25 @@
         <v>1.76</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R96" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S96" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T96" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U96" t="n">
         <v>2</v>
       </c>
       <c r="V96" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W96" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X96" t="n">
         <v>11</v>
@@ -13417,13 +13417,13 @@
         <v>12.5</v>
       </c>
       <c r="Z96" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA96" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB96" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC96" t="n">
         <v>7.2</v>
@@ -13432,19 +13432,19 @@
         <v>15.5</v>
       </c>
       <c r="AE96" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF96" t="n">
         <v>13</v>
       </c>
       <c r="AG96" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH96" t="n">
         <v>19.5</v>
       </c>
       <c r="AI96" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ96" t="n">
         <v>28</v>
@@ -13459,7 +13459,7 @@
         <v>130</v>
       </c>
       <c r="AN96" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO96" t="n">
         <v>60</v>
@@ -13495,16 +13495,16 @@
         <v>1.75</v>
       </c>
       <c r="G97" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="H97" t="n">
         <v>5.2</v>
       </c>
       <c r="I97" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J97" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K97" t="n">
         <v>4.2</v>
@@ -13516,40 +13516,40 @@
         <v>1.05</v>
       </c>
       <c r="N97" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O97" t="n">
         <v>1.25</v>
       </c>
       <c r="P97" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R97" t="n">
         <v>1.48</v>
       </c>
       <c r="S97" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T97" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U97" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="V97" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W97" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="X97" t="n">
         <v>23</v>
       </c>
       <c r="Y97" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z97" t="n">
         <v>50</v>
@@ -13564,7 +13564,7 @@
         <v>9.4</v>
       </c>
       <c r="AD97" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE97" t="n">
         <v>80</v>
@@ -13576,13 +13576,13 @@
         <v>11.5</v>
       </c>
       <c r="AH97" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI97" t="n">
         <v>65</v>
       </c>
       <c r="AJ97" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK97" t="n">
         <v>20</v>
@@ -13627,22 +13627,22 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G98" t="n">
         <v>1.95</v>
       </c>
       <c r="H98" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I98" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J98" t="n">
         <v>3.7</v>
       </c>
       <c r="K98" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L98" t="n">
         <v>1.4</v>
@@ -13657,10 +13657,10 @@
         <v>1.32</v>
       </c>
       <c r="P98" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q98" t="n">
         <v>1.94</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>1.95</v>
       </c>
       <c r="R98" t="n">
         <v>1.36</v>
@@ -13669,10 +13669,10 @@
         <v>3.4</v>
       </c>
       <c r="T98" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U98" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V98" t="n">
         <v>1.27</v>
@@ -13723,7 +13723,7 @@
         <v>21</v>
       </c>
       <c r="AL98" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM98" t="n">
         <v>130</v>
@@ -13900,10 +13900,10 @@
         <v>3.85</v>
       </c>
       <c r="G100" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H100" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="I100" t="n">
         <v>2</v>
@@ -13912,7 +13912,7 @@
         <v>4</v>
       </c>
       <c r="K100" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L100" t="n">
         <v>1.01</v>
@@ -13960,10 +13960,10 @@
         <v>15</v>
       </c>
       <c r="AA100" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AB100" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AC100" t="n">
         <v>10.5</v>
@@ -13975,7 +13975,7 @@
         <v>19.5</v>
       </c>
       <c r="AF100" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AG100" t="n">
         <v>17.5</v>
@@ -13984,16 +13984,16 @@
         <v>17</v>
       </c>
       <c r="AI100" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AJ100" t="n">
         <v>80</v>
       </c>
       <c r="AK100" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AL100" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM100" t="n">
         <v>70</v>
@@ -14032,10 +14032,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G101" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H101" t="n">
         <v>2.86</v>
@@ -14062,10 +14062,10 @@
         <v>1.22</v>
       </c>
       <c r="P101" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R101" t="n">
         <v>1.55</v>
@@ -14083,7 +14083,7 @@
         <v>1.53</v>
       </c>
       <c r="W101" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X101" t="n">
         <v>21</v>
@@ -14092,7 +14092,7 @@
         <v>15.5</v>
       </c>
       <c r="Z101" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA101" t="n">
         <v>46</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G2" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -685,40 +685,40 @@
         <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
         <v>2.16</v>
       </c>
       <c r="V2" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W2" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -727,7 +727,7 @@
         <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA2" t="n">
         <v>55</v>
@@ -736,7 +736,7 @@
         <v>10.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD2" t="n">
         <v>14</v>
@@ -757,22 +757,22 @@
         <v>48</v>
       </c>
       <c r="AJ2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="n">
         <v>30</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G3" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J3" t="n">
         <v>3.75</v>
@@ -829,40 +829,40 @@
         <v>4.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
         <v>1.42</v>
       </c>
       <c r="S3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V3" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="W3" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA3" t="n">
         <v>26</v>
@@ -871,7 +871,7 @@
         <v>15.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
         <v>10.5</v>
@@ -895,19 +895,19 @@
         <v>75</v>
       </c>
       <c r="AK3" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AL3" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM3" t="n">
         <v>85</v>
       </c>
       <c r="AN3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4">
@@ -943,58 +943,58 @@
         <v>1.96</v>
       </c>
       <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
         <v>4.1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.2</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q4" t="n">
         <v>1.64</v>
       </c>
       <c r="R4" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W4" t="n">
         <v>2.04</v>
       </c>
       <c r="X4" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y4" t="n">
         <v>21</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>20</v>
       </c>
       <c r="Z4" t="n">
         <v>34</v>
@@ -1003,7 +1003,7 @@
         <v>75</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
         <v>9.4</v>
@@ -1012,7 +1012,7 @@
         <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="n">
         <v>14</v>
@@ -1030,7 +1030,7 @@
         <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>27</v>
@@ -1072,28 +1072,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="G5" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" t="n">
         <v>7.6</v>
       </c>
-      <c r="I5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
         <v>7.6</v>
@@ -1105,19 +1105,19 @@
         <v>3.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S5" t="n">
         <v>1.9</v>
       </c>
       <c r="T5" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="U5" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
         <v>1.12</v>
@@ -1141,10 +1141,10 @@
         <v>16.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AD5" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="n">
         <v>110</v>
@@ -1156,28 +1156,28 @@
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="n">
         <v>14.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="n">
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -1219,10 +1219,10 @@
         <v>2.46</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
         <v>1.33</v>
@@ -1237,7 +1237,7 @@
         <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q6" t="n">
         <v>1.73</v>
@@ -1249,7 +1249,7 @@
         <v>2.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U6" t="n">
         <v>2.48</v>
@@ -1270,7 +1270,7 @@
         <v>17.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="n">
         <v>15.5</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
         <v>4.5</v>
@@ -1357,7 +1357,7 @@
         <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.4</v>
@@ -1369,46 +1369,46 @@
         <v>3.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
         <v>1.79</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
         <v>1.3</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="T7" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="U7" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V7" t="n">
         <v>1.29</v>
       </c>
       <c r="W7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
         <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8.6</v>
@@ -1417,37 +1417,37 @@
         <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="n">
         <v>14</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
         <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1504,34 +1504,34 @@
         <v>3.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1.82</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.92</v>
-      </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W8" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="X8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y8" t="n">
         <v>1000</v>
@@ -1543,22 +1543,22 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AC8" t="n">
         <v>14</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
         <v>60</v>
@@ -1567,10 +1567,10 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1639,7 +1639,7 @@
         <v>3.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P9" t="n">
         <v>1.81</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="I10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J10" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
         <v>1.24</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6.4</v>
+        <v>3.45</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P10" t="n">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="T10" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
         <v>10.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH10" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AK10" t="n">
         <v>130</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AO10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="11">
@@ -1882,64 +1882,64 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.86</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.87</v>
-      </c>
       <c r="H11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
         <v>4.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="R11" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="S11" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="T11" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X11" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z11" t="n">
         <v>36</v>
@@ -1948,7 +1948,7 @@
         <v>110</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC11" t="n">
         <v>8.6</v>
@@ -1960,34 +1960,34 @@
         <v>60</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG11" t="n">
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
         <v>20</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN11" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -2020,25 +2020,25 @@
         <v>3.6</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="I12" t="n">
         <v>2.12</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
         <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
         <v>4.6</v>
@@ -2053,10 +2053,10 @@
         <v>1.67</v>
       </c>
       <c r="R12" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T12" t="n">
         <v>1.72</v>
@@ -2065,19 +2065,19 @@
         <v>2.34</v>
       </c>
       <c r="V12" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W12" t="n">
         <v>1.33</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
         <v>14.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA12" t="n">
         <v>29</v>
@@ -2086,10 +2086,10 @@
         <v>20</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2101,7 +2101,7 @@
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
         <v>30</v>
@@ -2113,10 +2113,10 @@
         <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
         <v>34</v>
@@ -2152,61 +2152,61 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="G13" t="n">
         <v>1.42</v>
       </c>
       <c r="H13" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="K13" t="n">
-        <v>13</v>
+        <v>6.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
         <v>2.44</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.58</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.55</v>
-      </c>
       <c r="S13" t="n">
-        <v>2.14</v>
+        <v>2.48</v>
       </c>
       <c r="T13" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="U13" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="V13" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="W13" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Y13" t="n">
         <v>980</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="AD13" t="n">
         <v>980</v>
@@ -2230,31 +2230,31 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1.21</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
@@ -2299,10 +2299,10 @@
         <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="K14" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,19 +2311,19 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="O14" t="n">
         <v>1.13</v>
       </c>
       <c r="P14" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q14" t="n">
         <v>1.13</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="S14" t="n">
         <v>1.13</v>
@@ -2422,64 +2422,64 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="G15" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H15" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>2.16</v>
+        <v>4.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q15" t="n">
         <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="S15" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="T15" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="U15" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="W15" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2488,34 +2488,34 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="G16" t="n">
         <v>32</v>
       </c>
       <c r="H16" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="I16" t="n">
         <v>32</v>
@@ -2590,13 +2590,13 @@
         <v>3.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R16" t="n">
         <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="T16" t="n">
         <v>1.04</v>
@@ -2605,64 +2605,64 @@
         <v>1.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.06</v>
+        <v>2.36</v>
       </c>
       <c r="G17" t="n">
         <v>1000</v>
       </c>
       <c r="H17" t="n">
-        <v>1.06</v>
+        <v>1.5</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="J17" t="n">
-        <v>1.06</v>
+        <v>2.6</v>
       </c>
       <c r="K17" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2728,7 +2728,7 @@
         <v>1.23</v>
       </c>
       <c r="R17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="S17" t="n">
         <v>1.23</v>
@@ -2743,7 +2743,7 @@
         <v>1.03</v>
       </c>
       <c r="W17" t="n">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="G18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H18" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="K18" t="n">
-        <v>11.5</v>
+        <v>7.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2851,28 +2851,28 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>2.42</v>
+        <v>5.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="R18" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="U18" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
         <v>1.07</v>
@@ -2881,7 +2881,7 @@
         <v>3.75</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
@@ -2893,10 +2893,10 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2905,10 +2905,10 @@
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
@@ -2917,10 +2917,10 @@
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G19" t="n">
         <v>4.6</v>
       </c>
-      <c r="G19" t="n">
-        <v>4.7</v>
-      </c>
       <c r="H19" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
@@ -2980,7 +2980,7 @@
         <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -2992,16 +2992,16 @@
         <v>1.39</v>
       </c>
       <c r="P19" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R19" t="n">
         <v>1.31</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T19" t="n">
         <v>1.96</v>
@@ -3028,7 +3028,7 @@
         <v>23</v>
       </c>
       <c r="AB19" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC19" t="n">
         <v>7.8</v>
@@ -3043,7 +3043,7 @@
         <v>32</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH19" t="n">
         <v>21</v>
@@ -3100,7 +3100,7 @@
         <v>3.75</v>
       </c>
       <c r="G20" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H20" t="n">
         <v>2.1</v>
@@ -3109,40 +3109,40 @@
         <v>2.14</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.32</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R20" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S20" t="n">
         <v>3.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V20" t="n">
         <v>1.87</v>
@@ -3154,16 +3154,16 @@
         <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="n">
         <v>26</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
         <v>8.4</v>
@@ -3172,7 +3172,7 @@
         <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF20" t="n">
         <v>27</v>
@@ -3187,13 +3187,13 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL20" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="AM20" t="n">
         <v>95</v>
@@ -3202,7 +3202,7 @@
         <v>44</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -3232,82 +3232,82 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>1.28</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>2.14</v>
+        <v>5.3</v>
       </c>
       <c r="K21" t="n">
-        <v>950</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>1.09</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P21" t="n">
-        <v>1.09</v>
+        <v>1.77</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="R21" t="n">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="S21" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="V21" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W21" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="n">
         <v>970</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AF21" t="n">
         <v>970</v>
@@ -3316,25 +3316,25 @@
         <v>970</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK21" t="n">
         <v>970</v>
       </c>
-      <c r="AK21" t="n">
-        <v>90</v>
-      </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3376,7 +3376,7 @@
         <v>1.04</v>
       </c>
       <c r="I22" t="n">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="J22" t="n">
         <v>1.09</v>
@@ -3502,55 +3502,55 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="G23" t="n">
         <v>1.35</v>
       </c>
       <c r="H23" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="I23" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="J23" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="K23" t="n">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O23" t="n">
         <v>1.33</v>
       </c>
-      <c r="M23" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.3</v>
-      </c>
       <c r="P23" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R23" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>3.35</v>
+        <v>2.42</v>
       </c>
       <c r="T23" t="n">
-        <v>2.34</v>
+        <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="V23" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="W23" t="n">
         <v>3.85</v>
@@ -3559,52 +3559,52 @@
         <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC23" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD23" t="n">
         <v>980</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="AF23" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
         <v>980</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK23" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="AN23" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3661,13 +3661,13 @@
         <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q24" t="n">
         <v>2.28</v>
@@ -3682,7 +3682,7 @@
         <v>1.93</v>
       </c>
       <c r="U24" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V24" t="n">
         <v>1.35</v>
@@ -3715,7 +3715,7 @@
         <v>55</v>
       </c>
       <c r="AF24" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG24" t="n">
         <v>14.5</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G25" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
@@ -3784,58 +3784,58 @@
         <v>3.85</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K25" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L25" t="n">
         <v>1.46</v>
       </c>
       <c r="M25" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="O25" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P25" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R25" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S25" t="n">
         <v>4.5</v>
       </c>
       <c r="T25" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V25" t="n">
         <v>1.35</v>
       </c>
       <c r="W25" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X25" t="n">
         <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
         <v>30</v>
       </c>
       <c r="AA25" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="AB25" t="n">
         <v>8</v>
@@ -3847,7 +3847,7 @@
         <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
@@ -3856,19 +3856,19 @@
         <v>14.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="AJ25" t="n">
         <v>40</v>
       </c>
       <c r="AK25" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL25" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
@@ -3877,7 +3877,7 @@
         <v>38</v>
       </c>
       <c r="AO25" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
@@ -3907,46 +3907,46 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="G26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H26" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="J26" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="K26" t="n">
-        <v>950</v>
+        <v>3.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
         <v>1.47</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.66</v>
+        <v>1.98</v>
       </c>
       <c r="R26" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S26" t="n">
-        <v>1.05</v>
+        <v>1.98</v>
       </c>
       <c r="T26" t="n">
         <v>1.05</v>
@@ -3955,10 +3955,10 @@
         <v>1.04</v>
       </c>
       <c r="V26" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="W26" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4072,7 +4072,7 @@
         <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="Q27" t="n">
         <v>2.22</v>
@@ -4096,10 +4096,10 @@
         <v>2.3</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z27" t="n">
         <v>55</v>
@@ -4114,7 +4114,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
@@ -4126,7 +4126,7 @@
         <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G28" t="n">
         <v>25</v>
@@ -4189,10 +4189,10 @@
         <v>2.88</v>
       </c>
       <c r="J28" t="n">
-        <v>1.63</v>
+        <v>2.8</v>
       </c>
       <c r="K28" t="n">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,13 +4201,13 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="O28" t="n">
         <v>1.17</v>
       </c>
       <c r="P28" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Q28" t="n">
         <v>1.17</v>
@@ -4228,61 +4228,61 @@
         <v>1.53</v>
       </c>
       <c r="W28" t="n">
-        <v>1.04</v>
+        <v>1.36</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="29">
@@ -4315,16 +4315,16 @@
         <v>2.68</v>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="K29" t="n">
         <v>3.25</v>
@@ -4336,7 +4336,7 @@
         <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="O29" t="n">
         <v>1.52</v>
@@ -4357,13 +4357,13 @@
         <v>2</v>
       </c>
       <c r="U29" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V29" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W29" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X29" t="n">
         <v>9</v>
@@ -4378,7 +4378,7 @@
         <v>900</v>
       </c>
       <c r="AB29" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AC29" t="n">
         <v>7.6</v>
@@ -4387,7 +4387,7 @@
         <v>970</v>
       </c>
       <c r="AE29" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AF29" t="n">
         <v>970</v>
@@ -4399,22 +4399,22 @@
         <v>970</v>
       </c>
       <c r="AI29" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="AJ29" t="n">
         <v>900</v>
       </c>
       <c r="AK29" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AL29" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO29" t="n">
         <v>70</v>
@@ -4489,10 +4489,10 @@
         <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U30" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
         <v>1.28</v>
@@ -4519,7 +4519,7 @@
         <v>7.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE30" t="n">
         <v>60</v>
@@ -4531,7 +4531,7 @@
         <v>10.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI30" t="n">
         <v>70</v>
@@ -4549,7 +4549,7 @@
         <v>130</v>
       </c>
       <c r="AN30" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
         <v>70</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="G31" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H31" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I31" t="n">
         <v>5.3</v>
       </c>
       <c r="J31" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L31" t="n">
         <v>1.49</v>
@@ -4627,13 +4627,13 @@
         <v>2.12</v>
       </c>
       <c r="U31" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
         <v>1.23</v>
       </c>
       <c r="W31" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X31" t="n">
         <v>10.5</v>
@@ -4654,7 +4654,7 @@
         <v>7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>85</v>
@@ -4723,7 +4723,7 @@
         <v>4.8</v>
       </c>
       <c r="H32" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
         <v>2.06</v>
@@ -4732,7 +4732,7 @@
         <v>3.35</v>
       </c>
       <c r="K32" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,16 +4741,16 @@
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O32" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P32" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R32" t="n">
         <v>1.24</v>
@@ -4759,10 +4759,10 @@
         <v>4.7</v>
       </c>
       <c r="T32" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U32" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V32" t="n">
         <v>1.95</v>
@@ -4771,58 +4771,58 @@
         <v>1.26</v>
       </c>
       <c r="X32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y32" t="n">
         <v>7.4</v>
       </c>
       <c r="Z32" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC32" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD32" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE32" t="n">
         <v>26</v>
       </c>
       <c r="AF32" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="AG32" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AH32" t="n">
         <v>23</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ32" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL32" t="n">
-        <v>380</v>
+        <v>90</v>
       </c>
       <c r="AM32" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G33" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I33" t="n">
         <v>2.78</v>
@@ -4867,7 +4867,7 @@
         <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -4876,7 +4876,7 @@
         <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="O33" t="n">
         <v>1.5</v>
@@ -4903,61 +4903,61 @@
         <v>1.56</v>
       </c>
       <c r="W33" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X33" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z33" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA33" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AB33" t="n">
-        <v>500</v>
+        <v>12</v>
       </c>
       <c r="AC33" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="AD33" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AF33" t="n">
         <v>22</v>
       </c>
       <c r="AG33" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AI33" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AK33" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AL33" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="AM33" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="AN33" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="AO33" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
@@ -4987,61 +4987,61 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G34" t="n">
         <v>2.56</v>
       </c>
       <c r="H34" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I34" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J34" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K34" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="O34" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P34" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="R34" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T34" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U34" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V34" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W34" t="n">
         <v>1.64</v>
       </c>
       <c r="X34" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="Y34" t="n">
         <v>11</v>
@@ -5050,10 +5050,10 @@
         <v>23</v>
       </c>
       <c r="AA34" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC34" t="n">
         <v>7</v>
@@ -5074,16 +5074,16 @@
         <v>26</v>
       </c>
       <c r="AI34" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK34" t="n">
         <v>34</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM34" t="n">
         <v>160</v>
@@ -5128,16 +5128,16 @@
         <v>6.6</v>
       </c>
       <c r="H35" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="I35" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="J35" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="K35" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
         <v>1.42</v>
@@ -5161,7 +5161,7 @@
         <v>1.34</v>
       </c>
       <c r="S35" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T35" t="n">
         <v>2</v>
@@ -5170,7 +5170,7 @@
         <v>1.9</v>
       </c>
       <c r="V35" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="W35" t="n">
         <v>1.18</v>
@@ -5191,13 +5191,13 @@
         <v>19</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD35" t="n">
         <v>10.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AF35" t="n">
         <v>48</v>
@@ -5209,13 +5209,13 @@
         <v>24</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ35" t="n">
         <v>180</v>
       </c>
       <c r="AK35" t="n">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="AL35" t="n">
         <v>100</v>
@@ -5227,7 +5227,7 @@
         <v>140</v>
       </c>
       <c r="AO35" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G36" t="n">
         <v>2.14</v>
       </c>
       <c r="H36" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I36" t="n">
         <v>4.1</v>
       </c>
       <c r="J36" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K36" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.7</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5290,7 +5290,7 @@
         <v>2.14</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="R36" t="n">
         <v>1.43</v>
@@ -5311,7 +5311,7 @@
         <v>1.87</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y36" t="n">
         <v>16</v>
@@ -5326,7 +5326,7 @@
         <v>11</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD36" t="n">
         <v>16</v>
@@ -5341,10 +5341,10 @@
         <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ36" t="n">
         <v>26</v>
@@ -5362,7 +5362,7 @@
         <v>13.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
@@ -5395,13 +5395,13 @@
         <v>2.06</v>
       </c>
       <c r="G37" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H37" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I37" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J37" t="n">
         <v>3.3</v>
@@ -5416,46 +5416,46 @@
         <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P37" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q37" t="n">
         <v>2.22</v>
       </c>
       <c r="R37" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V37" t="n">
         <v>1.27</v>
       </c>
-      <c r="S37" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.28</v>
-      </c>
       <c r="W37" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X37" t="n">
         <v>11</v>
       </c>
       <c r="Y37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z37" t="n">
         <v>30</v>
       </c>
       <c r="AA37" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB37" t="n">
         <v>8</v>
@@ -5464,22 +5464,22 @@
         <v>7.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE37" t="n">
         <v>65</v>
       </c>
       <c r="AF37" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG37" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="AJ37" t="n">
         <v>26</v>
@@ -5488,13 +5488,13 @@
         <v>25</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM37" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN37" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO37" t="n">
         <v>80</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G38" t="n">
         <v>2.14</v>
@@ -5542,7 +5542,7 @@
         <v>3.75</v>
       </c>
       <c r="K38" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L38" t="n">
         <v>1.27</v>
@@ -5560,7 +5560,7 @@
         <v>2.24</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R38" t="n">
         <v>1.52</v>
@@ -5587,10 +5587,10 @@
         <v>18.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB38" t="n">
         <v>12.5</v>
@@ -5617,13 +5617,13 @@
         <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>900</v>
+        <v>48</v>
       </c>
       <c r="AK38" t="n">
         <v>21</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM38" t="n">
         <v>1000</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G39" t="n">
         <v>2.22</v>
@@ -5692,22 +5692,22 @@
         <v>1.43</v>
       </c>
       <c r="P39" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R39" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S39" t="n">
         <v>4.4</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U39" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V39" t="n">
         <v>1.32</v>
@@ -5719,7 +5719,7 @@
         <v>10.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z39" t="n">
         <v>27</v>
@@ -5728,7 +5728,7 @@
         <v>85</v>
       </c>
       <c r="AB39" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC39" t="n">
         <v>7.2</v>
@@ -5746,7 +5746,7 @@
         <v>11</v>
       </c>
       <c r="AH39" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI39" t="n">
         <v>75</v>
@@ -5764,7 +5764,7 @@
         <v>140</v>
       </c>
       <c r="AN39" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO39" t="n">
         <v>70</v>
@@ -5935,7 +5935,7 @@
         <v>1.83</v>
       </c>
       <c r="G41" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H41" t="n">
         <v>5.1</v>
@@ -5974,7 +5974,7 @@
         <v>3.25</v>
       </c>
       <c r="T41" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U41" t="n">
         <v>2.16</v>
@@ -5983,7 +5983,7 @@
         <v>1.23</v>
       </c>
       <c r="W41" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X41" t="n">
         <v>15</v>
@@ -6010,13 +6010,13 @@
         <v>65</v>
       </c>
       <c r="AF41" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG41" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH41" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI41" t="n">
         <v>70</v>
@@ -6034,7 +6034,7 @@
         <v>100</v>
       </c>
       <c r="AN41" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO41" t="n">
         <v>65</v>
@@ -6208,7 +6208,7 @@
         <v>3.05</v>
       </c>
       <c r="H43" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I43" t="n">
         <v>2.56</v>
@@ -6238,7 +6238,7 @@
         <v>1.83</v>
       </c>
       <c r="R43" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S43" t="n">
         <v>3.05</v>
@@ -6337,46 +6337,46 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="G44" t="n">
         <v>1.85</v>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I44" t="n">
         <v>1000</v>
       </c>
       <c r="J44" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K44" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="L44" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>3.25</v>
+        <v>2.24</v>
       </c>
       <c r="O44" t="n">
         <v>1.24</v>
       </c>
       <c r="P44" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R44" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="S44" t="n">
-        <v>2.58</v>
+        <v>2.06</v>
       </c>
       <c r="T44" t="n">
         <v>1.04</v>
@@ -6385,7 +6385,7 @@
         <v>1.04</v>
       </c>
       <c r="V44" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="W44" t="n">
         <v>2.16</v>
@@ -6406,7 +6406,7 @@
         <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD44" t="n">
         <v>1000</v>
@@ -6439,7 +6439,7 @@
         <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G45" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H45" t="n">
         <v>3.65</v>
@@ -6484,10 +6484,10 @@
         <v>3.7</v>
       </c>
       <c r="J45" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K45" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3.55</v>
       </c>
       <c r="L45" t="n">
         <v>1.44</v>
@@ -6502,10 +6502,10 @@
         <v>1.36</v>
       </c>
       <c r="P45" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R45" t="n">
         <v>1.32</v>
@@ -6523,7 +6523,7 @@
         <v>1.37</v>
       </c>
       <c r="W45" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X45" t="n">
         <v>16</v>
@@ -6544,7 +6544,7 @@
         <v>7.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE45" t="n">
         <v>48</v>
@@ -6562,7 +6562,7 @@
         <v>60</v>
       </c>
       <c r="AJ45" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK45" t="n">
         <v>26</v>
@@ -6613,13 +6613,13 @@
         <v>1.27</v>
       </c>
       <c r="H46" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I46" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J46" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="K46" t="n">
         <v>7.8</v>
@@ -6643,16 +6643,16 @@
         <v>1.4</v>
       </c>
       <c r="R46" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S46" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T46" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U46" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V46" t="n">
         <v>1.08</v>
@@ -6661,28 +6661,28 @@
         <v>4.7</v>
       </c>
       <c r="X46" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="Y46" t="n">
-        <v>980</v>
+        <v>390</v>
       </c>
       <c r="Z46" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AA46" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="AB46" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AD46" t="n">
         <v>50</v>
       </c>
       <c r="AE46" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF46" t="n">
         <v>10</v>
@@ -6691,7 +6691,7 @@
         <v>11</v>
       </c>
       <c r="AH46" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI46" t="n">
         <v>130</v>
@@ -6703,16 +6703,16 @@
         <v>12.5</v>
       </c>
       <c r="AL46" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM46" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="AN46" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47">
@@ -6745,7 +6745,7 @@
         <v>2.18</v>
       </c>
       <c r="G47" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H47" t="n">
         <v>3.8</v>
@@ -6757,7 +6757,7 @@
         <v>3.5</v>
       </c>
       <c r="K47" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L47" t="n">
         <v>1.39</v>
@@ -6802,10 +6802,10 @@
         <v>15</v>
       </c>
       <c r="Z47" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AA47" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AB47" t="n">
         <v>10.5</v>
@@ -6841,7 +6841,7 @@
         <v>36</v>
       </c>
       <c r="AM47" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AN47" t="n">
         <v>19.5</v>
@@ -6880,7 +6880,7 @@
         <v>2.42</v>
       </c>
       <c r="G48" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H48" t="n">
         <v>3.2</v>
@@ -6910,7 +6910,7 @@
         <v>1.83</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R48" t="n">
         <v>1.31</v>
@@ -6919,46 +6919,46 @@
         <v>3.85</v>
       </c>
       <c r="T48" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="U48" t="n">
         <v>2.08</v>
       </c>
       <c r="V48" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W48" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X48" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y48" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z48" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA48" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AB48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC48" t="n">
         <v>7.2</v>
       </c>
       <c r="AD48" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE48" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AF48" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH48" t="n">
         <v>21</v>
@@ -6967,22 +6967,22 @@
         <v>55</v>
       </c>
       <c r="AJ48" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK48" t="n">
         <v>32</v>
       </c>
       <c r="AL48" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM48" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN48" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO48" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
@@ -7024,19 +7024,19 @@
         <v>4.3</v>
       </c>
       <c r="J49" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K49" t="n">
         <v>4.8</v>
       </c>
       <c r="L49" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O49" t="n">
         <v>1.18</v>
@@ -7048,16 +7048,16 @@
         <v>1.55</v>
       </c>
       <c r="R49" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="S49" t="n">
         <v>2.38</v>
       </c>
       <c r="T49" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U49" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V49" t="n">
         <v>1.32</v>
@@ -7066,7 +7066,7 @@
         <v>1.98</v>
       </c>
       <c r="X49" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y49" t="n">
         <v>23</v>
@@ -7096,7 +7096,7 @@
         <v>11.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI49" t="n">
         <v>980</v>
@@ -7111,13 +7111,13 @@
         <v>32</v>
       </c>
       <c r="AM49" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AN49" t="n">
         <v>9</v>
       </c>
       <c r="AO49" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50">
@@ -7147,58 +7147,58 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="G50" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="J50" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="K50" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
       </c>
       <c r="M50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T50" t="n">
         <v>1.04</v>
       </c>
-      <c r="N50" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P50" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S50" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.62</v>
-      </c>
       <c r="U50" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="V50" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="W50" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7216,7 +7216,7 @@
         <v>1000</v>
       </c>
       <c r="AC50" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD50" t="n">
         <v>1000</v>
@@ -7231,7 +7231,7 @@
         <v>1000</v>
       </c>
       <c r="AH50" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI50" t="n">
         <v>1000</v>
@@ -7282,28 +7282,28 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H51" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="I51" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="J51" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K51" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
         <v>3.9</v>
@@ -7315,19 +7315,19 @@
         <v>2</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="R51" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S51" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="T51" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="U51" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="V51" t="n">
         <v>1.66</v>
@@ -7351,7 +7351,7 @@
         <v>970</v>
       </c>
       <c r="AC51" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AD51" t="n">
         <v>970</v>
@@ -7366,7 +7366,7 @@
         <v>970</v>
       </c>
       <c r="AH51" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AI51" t="n">
         <v>1000</v>
@@ -7387,7 +7387,7 @@
         <v>1000</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="G52" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="H52" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I52" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J52" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K52" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
@@ -7441,7 +7441,7 @@
         <v>1.05</v>
       </c>
       <c r="N52" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O52" t="n">
         <v>1.24</v>
@@ -7450,7 +7450,7 @@
         <v>2.12</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R52" t="n">
         <v>1.45</v>
@@ -7465,10 +7465,10 @@
         <v>2.32</v>
       </c>
       <c r="V52" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W52" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="X52" t="n">
         <v>22</v>
@@ -7480,7 +7480,7 @@
         <v>22</v>
       </c>
       <c r="AA52" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB52" t="n">
         <v>14.5</v>
@@ -7495,7 +7495,7 @@
         <v>36</v>
       </c>
       <c r="AF52" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AG52" t="n">
         <v>13.5</v>
@@ -7519,7 +7519,7 @@
         <v>70</v>
       </c>
       <c r="AN52" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AO52" t="n">
         <v>26</v>
@@ -7552,31 +7552,31 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="G53" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="I53" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="J53" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="K53" t="n">
         <v>3.5</v>
       </c>
       <c r="L53" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M53" t="n">
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="O53" t="n">
         <v>1.01</v>
@@ -7588,10 +7588,10 @@
         <v>2</v>
       </c>
       <c r="R53" t="n">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="S53" t="n">
-        <v>2.66</v>
+        <v>1.99</v>
       </c>
       <c r="T53" t="n">
         <v>1.04</v>
@@ -7600,10 +7600,10 @@
         <v>1.04</v>
       </c>
       <c r="V53" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="W53" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7621,7 +7621,7 @@
         <v>1000</v>
       </c>
       <c r="AC53" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD53" t="n">
         <v>1000</v>
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G54" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H54" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="I54" t="n">
         <v>2.02</v>
       </c>
       <c r="J54" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K54" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L54" t="n">
         <v>1.33</v>
@@ -7711,13 +7711,13 @@
         <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O54" t="n">
         <v>1.23</v>
       </c>
       <c r="P54" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="Q54" t="n">
         <v>1.69</v>
@@ -7729,16 +7729,16 @@
         <v>2.64</v>
       </c>
       <c r="T54" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="U54" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="V54" t="n">
         <v>1.98</v>
       </c>
       <c r="W54" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X54" t="n">
         <v>1000</v>
@@ -7747,7 +7747,7 @@
         <v>15</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA54" t="n">
         <v>27</v>
@@ -7756,34 +7756,34 @@
         <v>32</v>
       </c>
       <c r="AC54" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD54" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD54" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE54" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AF54" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AG54" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AH54" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ54" t="n">
         <v>1000</v>
       </c>
       <c r="AK54" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM54" t="n">
         <v>100</v>
@@ -7792,7 +7792,7 @@
         <v>46</v>
       </c>
       <c r="AO54" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="55">
@@ -7822,34 +7822,34 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G55" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H55" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="I55" t="n">
-        <v>6.6</v>
+        <v>870</v>
       </c>
       <c r="J55" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K55" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L55" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M55" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>3.65</v>
+        <v>1.96</v>
       </c>
       <c r="O55" t="n">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="P55" t="n">
         <v>1.96</v>
@@ -7858,73 +7858,73 @@
         <v>1.92</v>
       </c>
       <c r="R55" t="n">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="S55" t="n">
-        <v>3.25</v>
+        <v>1.93</v>
       </c>
       <c r="T55" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U55" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="V55" t="n">
         <v>1.18</v>
       </c>
       <c r="W55" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X55" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="Y55" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ55" t="n">
         <v>24</v>
       </c>
-      <c r="Z55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH55" t="n">
+      <c r="AK55" t="n">
         <v>26</v>
       </c>
-      <c r="AI55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>22</v>
-      </c>
       <c r="AL55" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM55" t="n">
         <v>1000</v>
       </c>
       <c r="AN55" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AO55" t="n">
         <v>1000</v>
@@ -7957,64 +7957,64 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G56" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H56" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I56" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J56" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K56" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L56" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M56" t="n">
         <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O56" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P56" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R56" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S56" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="T56" t="n">
         <v>1.83</v>
       </c>
       <c r="U56" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W56" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="X56" t="n">
         <v>14.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="Z56" t="n">
         <v>970</v>
@@ -8023,7 +8023,7 @@
         <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AC56" t="n">
         <v>9.199999999999999</v>
@@ -8035,10 +8035,10 @@
         <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AG56" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AH56" t="n">
         <v>22</v>
@@ -8050,7 +8050,7 @@
         <v>970</v>
       </c>
       <c r="AK56" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AL56" t="n">
         <v>970</v>
@@ -8059,7 +8059,7 @@
         <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO56" t="n">
         <v>1000</v>
@@ -8098,7 +8098,7 @@
         <v>7.8</v>
       </c>
       <c r="H57" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="I57" t="n">
         <v>1.58</v>
@@ -8113,34 +8113,34 @@
         <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N57" t="n">
-        <v>6.2</v>
+        <v>3.9</v>
       </c>
       <c r="O57" t="n">
         <v>1.14</v>
       </c>
       <c r="P57" t="n">
-        <v>2.94</v>
+        <v>2.18</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.41</v>
+        <v>1.14</v>
       </c>
       <c r="R57" t="n">
         <v>1.65</v>
       </c>
       <c r="S57" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T57" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="U57" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V57" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="W57" t="n">
         <v>1.15</v>
@@ -8167,19 +8167,19 @@
         <v>13</v>
       </c>
       <c r="AE57" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AF57" t="n">
         <v>1000</v>
       </c>
       <c r="AG57" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH57" t="n">
         <v>23</v>
       </c>
       <c r="AI57" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AJ57" t="n">
         <v>1000</v>
@@ -8194,7 +8194,7 @@
         <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AO57" t="n">
         <v>5.8</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G58" t="n">
         <v>2.2</v>
@@ -8236,7 +8236,7 @@
         <v>3.15</v>
       </c>
       <c r="I58" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J58" t="n">
         <v>4</v>
@@ -8245,7 +8245,7 @@
         <v>4.4</v>
       </c>
       <c r="L58" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M58" t="n">
         <v>1.02</v>
@@ -8260,13 +8260,13 @@
         <v>2.78</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R58" t="n">
         <v>1.75</v>
       </c>
       <c r="S58" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T58" t="n">
         <v>1.46</v>
@@ -8287,7 +8287,7 @@
         <v>23</v>
       </c>
       <c r="Z58" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="AA58" t="n">
         <v>60</v>
@@ -8302,7 +8302,7 @@
         <v>16.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>970</v>
+        <v>170</v>
       </c>
       <c r="AF58" t="n">
         <v>20</v>
@@ -8314,7 +8314,7 @@
         <v>15</v>
       </c>
       <c r="AI58" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AJ58" t="n">
         <v>32</v>
@@ -8326,7 +8326,7 @@
         <v>25</v>
       </c>
       <c r="AM58" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="AN58" t="n">
         <v>10.5</v>
@@ -8371,7 +8371,7 @@
         <v>5.7</v>
       </c>
       <c r="I59" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J59" t="n">
         <v>3.8</v>
@@ -8392,7 +8392,7 @@
         <v>1.34</v>
       </c>
       <c r="P59" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q59" t="n">
         <v>2.06</v>
@@ -8401,7 +8401,7 @@
         <v>1.32</v>
       </c>
       <c r="S59" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T59" t="n">
         <v>2</v>
@@ -8416,7 +8416,7 @@
         <v>2.34</v>
       </c>
       <c r="X59" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="Y59" t="n">
         <v>970</v>
@@ -8443,28 +8443,28 @@
         <v>9</v>
       </c>
       <c r="AG59" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AH59" t="n">
         <v>970</v>
       </c>
       <c r="AI59" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AJ59" t="n">
         <v>17.5</v>
       </c>
       <c r="AK59" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AL59" t="n">
         <v>970</v>
       </c>
       <c r="AM59" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN59" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AO59" t="n">
         <v>500</v>
@@ -8500,22 +8500,22 @@
         <v>3.5</v>
       </c>
       <c r="G60" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="H60" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I60" t="n">
         <v>2.44</v>
       </c>
       <c r="J60" t="n">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="K60" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L60" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="M60" t="n">
         <v>1.1</v>
@@ -8530,13 +8530,13 @@
         <v>1.52</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="R60" t="n">
         <v>1.18</v>
       </c>
       <c r="S60" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="T60" t="n">
         <v>2.06</v>
@@ -8548,19 +8548,19 @@
         <v>1.69</v>
       </c>
       <c r="W60" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X60" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="Y60" t="n">
-        <v>8.6</v>
+        <v>15.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA60" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB60" t="n">
         <v>13.5</v>
@@ -8569,7 +8569,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD60" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AE60" t="n">
         <v>1000</v>
@@ -8578,7 +8578,7 @@
         <v>1000</v>
       </c>
       <c r="AG60" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH60" t="n">
         <v>1000</v>
@@ -8638,22 +8638,22 @@
         <v>3.8</v>
       </c>
       <c r="H61" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I61" t="n">
         <v>2.46</v>
       </c>
       <c r="J61" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K61" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
       </c>
       <c r="M61" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N61" t="n">
         <v>3</v>
@@ -8662,7 +8662,7 @@
         <v>1.41</v>
       </c>
       <c r="P61" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="Q61" t="n">
         <v>2.24</v>
@@ -8683,61 +8683,61 @@
         <v>1.68</v>
       </c>
       <c r="W61" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X61" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y61" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD61" t="n">
         <v>12</v>
       </c>
-      <c r="Z61" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>16</v>
-      </c>
       <c r="AE61" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="AF61" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG61" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI61" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK61" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AL61" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AM61" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN61" t="n">
         <v>1000</v>
       </c>
       <c r="AO61" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="G62" t="n">
-        <v>3.15</v>
+        <v>970</v>
       </c>
       <c r="H62" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="I62" t="n">
-        <v>3.15</v>
+        <v>970</v>
       </c>
       <c r="J62" t="n">
-        <v>3.4</v>
+        <v>1.98</v>
       </c>
       <c r="K62" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -8791,22 +8791,22 @@
         <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="O62" t="n">
         <v>1.2</v>
       </c>
       <c r="P62" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="R62" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="S62" t="n">
-        <v>2.42</v>
+        <v>2.02</v>
       </c>
       <c r="T62" t="n">
         <v>1.52</v>
@@ -8815,10 +8815,10 @@
         <v>1.04</v>
       </c>
       <c r="V62" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="W62" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="X62" t="n">
         <v>970</v>
@@ -8836,7 +8836,7 @@
         <v>970</v>
       </c>
       <c r="AC62" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AD62" t="n">
         <v>970</v>
@@ -8845,7 +8845,7 @@
         <v>500</v>
       </c>
       <c r="AF62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG62" t="n">
         <v>970</v>
@@ -8857,19 +8857,19 @@
         <v>500</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM62" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO62" t="n">
         <v>500</v>
@@ -8902,25 +8902,25 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="G63" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="H63" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="I63" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="J63" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="K63" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="L63" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M63" t="n">
         <v>1.04</v>
@@ -8938,46 +8938,46 @@
         <v>1.75</v>
       </c>
       <c r="R63" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S63" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T63" t="n">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="U63" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="V63" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W63" t="n">
         <v>1.1</v>
       </c>
       <c r="X63" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y63" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z63" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AA63" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AB63" t="n">
         <v>34</v>
       </c>
       <c r="AC63" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AD63" t="n">
         <v>12.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF63" t="n">
         <v>110</v>
@@ -8992,19 +8992,19 @@
         <v>38</v>
       </c>
       <c r="AJ63" t="n">
+        <v>370</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>170</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>470</v>
+      </c>
+      <c r="AM63" t="n">
         <v>390</v>
       </c>
-      <c r="AK63" t="n">
-        <v>180</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>170</v>
-      </c>
       <c r="AN63" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AO63" t="n">
         <v>5.9</v>
@@ -9040,19 +9040,19 @@
         <v>2.12</v>
       </c>
       <c r="G64" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H64" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I64" t="n">
         <v>4.3</v>
       </c>
       <c r="J64" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K64" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L64" t="n">
         <v>1.43</v>
@@ -9061,7 +9061,7 @@
         <v>1.08</v>
       </c>
       <c r="N64" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O64" t="n">
         <v>1.44</v>
@@ -9088,7 +9088,7 @@
         <v>1.31</v>
       </c>
       <c r="W64" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="X64" t="n">
         <v>12.5</v>
@@ -9097,7 +9097,7 @@
         <v>14.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA64" t="n">
         <v>1000</v>
@@ -9118,10 +9118,10 @@
         <v>15.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI64" t="n">
         <v>1000</v>
@@ -9133,13 +9133,13 @@
         <v>65</v>
       </c>
       <c r="AL64" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM64" t="n">
         <v>1000</v>
       </c>
       <c r="AN64" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO64" t="n">
         <v>1000</v>
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G65" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="H65" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I65" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J65" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K65" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L65" t="n">
         <v>1.48</v>
@@ -9199,13 +9199,13 @@
         <v>2.94</v>
       </c>
       <c r="O65" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P65" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R65" t="n">
         <v>1.24</v>
@@ -9220,19 +9220,19 @@
         <v>1.9</v>
       </c>
       <c r="V65" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="W65" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X65" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y65" t="n">
         <v>10.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA65" t="n">
         <v>55</v>
@@ -9268,10 +9268,10 @@
         <v>38</v>
       </c>
       <c r="AL65" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM65" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AN65" t="n">
         <v>38</v>
@@ -9307,25 +9307,25 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="G66" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="H66" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I66" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="J66" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K66" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L66" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M66" t="n">
         <v>1.07</v>
@@ -9337,10 +9337,10 @@
         <v>1.36</v>
       </c>
       <c r="P66" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="R66" t="n">
         <v>1.29</v>
@@ -9355,19 +9355,19 @@
         <v>1.89</v>
       </c>
       <c r="V66" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="W66" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="X66" t="n">
         <v>15.5</v>
       </c>
       <c r="Y66" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z66" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AA66" t="n">
         <v>1000</v>
@@ -9382,22 +9382,22 @@
         <v>22</v>
       </c>
       <c r="AE66" t="n">
-        <v>75</v>
+        <v>370</v>
       </c>
       <c r="AF66" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG66" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH66" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ66" t="n">
         <v>980</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>27</v>
       </c>
       <c r="AK66" t="n">
         <v>26</v>
@@ -9409,7 +9409,7 @@
         <v>1000</v>
       </c>
       <c r="AN66" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO66" t="n">
         <v>1000</v>
@@ -9442,16 +9442,16 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="G67" t="n">
         <v>3.05</v>
       </c>
       <c r="H67" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I67" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="J67" t="n">
         <v>3.4</v>
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G68" t="n">
         <v>1.52</v>
@@ -9712,16 +9712,16 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G69" t="n">
         <v>2.1</v>
       </c>
       <c r="H69" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="I69" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J69" t="n">
         <v>3.6</v>
@@ -9736,13 +9736,13 @@
         <v>1.06</v>
       </c>
       <c r="N69" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O69" t="n">
         <v>1.3</v>
       </c>
       <c r="P69" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q69" t="n">
         <v>1.9</v>
@@ -9751,7 +9751,7 @@
         <v>1.39</v>
       </c>
       <c r="S69" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T69" t="n">
         <v>1.77</v>
@@ -9766,13 +9766,13 @@
         <v>1.9</v>
       </c>
       <c r="X69" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Y69" t="n">
         <v>15.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA69" t="n">
         <v>95</v>
@@ -9781,10 +9781,10 @@
         <v>10</v>
       </c>
       <c r="AC69" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD69" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE69" t="n">
         <v>60</v>
@@ -9799,7 +9799,7 @@
         <v>18</v>
       </c>
       <c r="AI69" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AJ69" t="n">
         <v>25</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G70" t="n">
         <v>1.25</v>
@@ -9859,10 +9859,10 @@
         <v>14.5</v>
       </c>
       <c r="J70" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K70" t="n">
         <v>8</v>
-      </c>
-      <c r="K70" t="n">
-        <v>8.6</v>
       </c>
       <c r="L70" t="n">
         <v>1.19</v>
@@ -9874,10 +9874,10 @@
         <v>9</v>
       </c>
       <c r="O70" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P70" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q70" t="n">
         <v>1.32</v>
@@ -9898,7 +9898,7 @@
         <v>1.07</v>
       </c>
       <c r="W70" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="X70" t="n">
         <v>50</v>
@@ -9910,7 +9910,7 @@
         <v>150</v>
       </c>
       <c r="AA70" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="AB70" t="n">
         <v>16</v>
@@ -9949,7 +9949,7 @@
         <v>120</v>
       </c>
       <c r="AN70" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="AO70" t="n">
         <v>140</v>
@@ -9982,112 +9982,112 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="G71" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H71" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="I71" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J71" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K71" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="L71" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M71" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N71" t="n">
-        <v>2.22</v>
+        <v>4.4</v>
       </c>
       <c r="O71" t="n">
         <v>1.25</v>
       </c>
       <c r="P71" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="R71" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="S71" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T71" t="n">
         <v>1.76</v>
       </c>
       <c r="U71" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="V71" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W71" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="X71" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y71" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA71" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB71" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC71" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD71" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE71" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG71" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI71" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ71" t="n">
         <v>1000</v>
       </c>
       <c r="AK71" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL71" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM71" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN71" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO71" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
@@ -10117,34 +10117,34 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="G72" t="n">
-        <v>4.9</v>
+        <v>7.4</v>
       </c>
       <c r="H72" t="n">
         <v>1.86</v>
       </c>
       <c r="I72" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="J72" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="K72" t="n">
         <v>4</v>
       </c>
       <c r="L72" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M72" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N72" t="n">
-        <v>3.85</v>
+        <v>2</v>
       </c>
       <c r="O72" t="n">
-        <v>1.29</v>
+        <v>1.05</v>
       </c>
       <c r="P72" t="n">
         <v>2</v>
@@ -10153,43 +10153,43 @@
         <v>1.87</v>
       </c>
       <c r="R72" t="n">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="S72" t="n">
-        <v>3.15</v>
+        <v>1.9</v>
       </c>
       <c r="T72" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="U72" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="V72" t="n">
         <v>2.08</v>
       </c>
       <c r="W72" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="X72" t="n">
         <v>15.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>9.6</v>
+        <v>29</v>
       </c>
       <c r="Z72" t="n">
         <v>12</v>
       </c>
       <c r="AA72" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AB72" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AC72" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD72" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AE72" t="n">
         <v>19.5</v>
@@ -10198,31 +10198,31 @@
         <v>44</v>
       </c>
       <c r="AG72" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AH72" t="n">
-        <v>19.5</v>
+        <v>60</v>
       </c>
       <c r="AI72" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ72" t="n">
-        <v>900</v>
+        <v>140</v>
       </c>
       <c r="AK72" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AL72" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AM72" t="n">
         <v>110</v>
       </c>
       <c r="AN72" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AO72" t="n">
-        <v>14.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73">
@@ -10252,7 +10252,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G73" t="n">
         <v>1.8</v>
@@ -10261,13 +10261,13 @@
         <v>5.6</v>
       </c>
       <c r="I73" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J73" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K73" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K73" t="n">
-        <v>3.85</v>
       </c>
       <c r="L73" t="n">
         <v>1.01</v>
@@ -10276,16 +10276,16 @@
         <v>1.08</v>
       </c>
       <c r="N73" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O73" t="n">
         <v>1.37</v>
       </c>
       <c r="P73" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R73" t="n">
         <v>1.32</v>
@@ -10294,10 +10294,10 @@
         <v>3.8</v>
       </c>
       <c r="T73" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U73" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="V73" t="n">
         <v>1.2</v>
@@ -10309,16 +10309,16 @@
         <v>12.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Z73" t="n">
         <v>980</v>
       </c>
       <c r="AA73" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AB73" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC73" t="n">
         <v>8.6</v>
@@ -10327,10 +10327,10 @@
         <v>980</v>
       </c>
       <c r="AE73" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AF73" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AG73" t="n">
         <v>10.5</v>
@@ -10339,25 +10339,25 @@
         <v>980</v>
       </c>
       <c r="AI73" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AJ73" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AK73" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL73" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM73" t="n">
         <v>150</v>
       </c>
       <c r="AN73" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO73" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74">
@@ -10387,58 +10387,58 @@
         </is>
       </c>
       <c r="F74" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K74" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S74" t="n">
         <v>4.3</v>
       </c>
-      <c r="G74" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J74" t="n">
-        <v>3</v>
-      </c>
-      <c r="K74" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L74" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N74" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P74" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R74" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S74" t="n">
-        <v>4.4</v>
-      </c>
       <c r="T74" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="U74" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="V74" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="W74" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="X74" t="n">
         <v>11</v>
@@ -10450,10 +10450,10 @@
         <v>13.5</v>
       </c>
       <c r="AA74" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AB74" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC74" t="n">
         <v>9</v>
@@ -10462,16 +10462,16 @@
         <v>12</v>
       </c>
       <c r="AE74" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF74" t="n">
         <v>34</v>
       </c>
-      <c r="AF74" t="n">
-        <v>42</v>
-      </c>
       <c r="AG74" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AI74" t="n">
         <v>1000</v>
@@ -10492,7 +10492,7 @@
         <v>1000</v>
       </c>
       <c r="AO74" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
@@ -10528,7 +10528,7 @@
         <v>3.7</v>
       </c>
       <c r="H75" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I75" t="n">
         <v>2.28</v>
@@ -10537,28 +10537,28 @@
         <v>3.55</v>
       </c>
       <c r="K75" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L75" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M75" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N75" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="O75" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P75" t="n">
         <v>1.93</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R75" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="S75" t="n">
         <v>3.5</v>
@@ -10576,7 +10576,7 @@
         <v>1.37</v>
       </c>
       <c r="X75" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Y75" t="n">
         <v>10.5</v>
@@ -10663,19 +10663,19 @@
         <v>2.02</v>
       </c>
       <c r="H76" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I76" t="n">
-        <v>6.2</v>
+        <v>110</v>
       </c>
       <c r="J76" t="n">
-        <v>2.96</v>
+        <v>2.82</v>
       </c>
       <c r="K76" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L76" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M76" t="n">
         <v>1.01</v>
@@ -10687,16 +10687,16 @@
         <v>1.01</v>
       </c>
       <c r="P76" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R76" t="n">
         <v>1.18</v>
       </c>
       <c r="S76" t="n">
-        <v>2.8</v>
+        <v>1.02</v>
       </c>
       <c r="T76" t="n">
         <v>1.04</v>
@@ -10705,64 +10705,64 @@
         <v>1.04</v>
       </c>
       <c r="V76" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W76" t="n">
         <v>1.98</v>
       </c>
       <c r="X76" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y76" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="Z76" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AA76" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB76" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AC76" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD76" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AE76" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AF76" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AG76" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AH76" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AI76" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AJ76" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK76" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL76" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM76" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN76" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO76" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77">
@@ -10792,22 +10792,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G77" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="H77" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="I77" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="J77" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K77" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
@@ -10816,22 +10816,22 @@
         <v>1.01</v>
       </c>
       <c r="N77" t="n">
-        <v>3</v>
+        <v>1.89</v>
       </c>
       <c r="O77" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P77" t="n">
         <v>1.89</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.61</v>
+        <v>1.28</v>
       </c>
       <c r="R77" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S77" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="T77" t="n">
         <v>1.04</v>
@@ -10843,58 +10843,58 @@
         <v>1.08</v>
       </c>
       <c r="W77" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="X77" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y77" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z77" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AA77" t="n">
         <v>1000</v>
       </c>
       <c r="AB77" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD77" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AE77" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AF77" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG77" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH77" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI77" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AJ77" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK77" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL77" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM77" t="n">
         <v>1000</v>
       </c>
       <c r="AN77" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO77" t="n">
         <v>1000</v>
@@ -10930,7 +10930,7 @@
         <v>1.56</v>
       </c>
       <c r="G78" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="H78" t="n">
         <v>7.2</v>
@@ -10939,13 +10939,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J78" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K78" t="n">
         <v>4.3</v>
       </c>
       <c r="L78" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M78" t="n">
         <v>1.08</v>
@@ -10960,7 +10960,7 @@
         <v>1.84</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="R78" t="n">
         <v>1.33</v>
@@ -10972,16 +10972,16 @@
         <v>2.02</v>
       </c>
       <c r="U78" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V78" t="n">
         <v>1.13</v>
       </c>
       <c r="W78" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="X78" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y78" t="n">
         <v>29</v>
@@ -10996,7 +10996,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC78" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD78" t="n">
         <v>1000</v>
@@ -11011,7 +11011,7 @@
         <v>12.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI78" t="n">
         <v>1000</v>
@@ -11062,16 +11062,16 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="H79" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I79" t="n">
         <v>7.4</v>
-      </c>
-      <c r="I79" t="n">
-        <v>7.6</v>
       </c>
       <c r="J79" t="n">
         <v>4.2</v>
@@ -11113,10 +11113,10 @@
         <v>1.15</v>
       </c>
       <c r="W79" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="X79" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y79" t="n">
         <v>20</v>
@@ -11149,10 +11149,10 @@
         <v>26</v>
       </c>
       <c r="AI79" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ79" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK79" t="n">
         <v>18</v>
@@ -11161,7 +11161,7 @@
         <v>44</v>
       </c>
       <c r="AM79" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN79" t="n">
         <v>10.5</v>
@@ -11197,22 +11197,22 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="G80" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H80" t="n">
         <v>21</v>
       </c>
       <c r="I80" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J80" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L80" t="n">
         <v>1.28</v>
@@ -11227,16 +11227,16 @@
         <v>1.22</v>
       </c>
       <c r="P80" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R80" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S80" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="T80" t="n">
         <v>2.54</v>
@@ -11248,13 +11248,13 @@
         <v>1.03</v>
       </c>
       <c r="W80" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="X80" t="n">
         <v>980</v>
       </c>
       <c r="Y80" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="Z80" t="n">
         <v>300</v>
@@ -11269,13 +11269,13 @@
         <v>23</v>
       </c>
       <c r="AD80" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AE80" t="n">
         <v>1000</v>
       </c>
       <c r="AF80" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG80" t="n">
         <v>14.5</v>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G81" t="n">
         <v>3.1</v>
@@ -11347,7 +11347,7 @@
         <v>2.96</v>
       </c>
       <c r="K81" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L81" t="n">
         <v>1.45</v>
@@ -11422,7 +11422,7 @@
         <v>1000</v>
       </c>
       <c r="AJ81" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK81" t="n">
         <v>1000</v>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G82" t="n">
         <v>2.24</v>
@@ -11476,7 +11476,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J82" t="n">
         <v>3.2</v>
@@ -11494,13 +11494,13 @@
         <v>3.15</v>
       </c>
       <c r="O82" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P82" t="n">
         <v>1.72</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R82" t="n">
         <v>1.27</v>
@@ -11509,13 +11509,13 @@
         <v>4.3</v>
       </c>
       <c r="T82" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U82" t="n">
         <v>2.02</v>
       </c>
       <c r="V82" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W82" t="n">
         <v>1.8</v>
@@ -11533,7 +11533,7 @@
         <v>1000</v>
       </c>
       <c r="AB82" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC82" t="n">
         <v>9.199999999999999</v>
@@ -11617,7 +11617,7 @@
         <v>3.3</v>
       </c>
       <c r="K83" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L83" t="n">
         <v>1.42</v>
@@ -11764,7 +11764,7 @@
         <v>6.2</v>
       </c>
       <c r="O84" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P84" t="n">
         <v>2.74</v>
@@ -11773,7 +11773,7 @@
         <v>1.56</v>
       </c>
       <c r="R84" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="S84" t="n">
         <v>2.32</v>
@@ -11833,7 +11833,7 @@
         <v>18.5</v>
       </c>
       <c r="AL84" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM84" t="n">
         <v>50</v>
@@ -11875,7 +11875,7 @@
         <v>12.5</v>
       </c>
       <c r="G85" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="H85" t="n">
         <v>1.3</v>
@@ -11884,7 +11884,7 @@
         <v>1.32</v>
       </c>
       <c r="J85" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="K85" t="n">
         <v>6.4</v>
@@ -11902,16 +11902,16 @@
         <v>1.27</v>
       </c>
       <c r="P85" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R85" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S85" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T85" t="n">
         <v>2.34</v>
@@ -11965,7 +11965,7 @@
         <v>1000</v>
       </c>
       <c r="AK85" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AL85" t="n">
         <v>260</v>
@@ -12007,25 +12007,25 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="G86" t="n">
         <v>10.5</v>
       </c>
       <c r="H86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I86" t="n">
         <v>1.41</v>
       </c>
-      <c r="I86" t="n">
-        <v>1.45</v>
-      </c>
       <c r="J86" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="K86" t="n">
         <v>5.3</v>
       </c>
       <c r="L86" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M86" t="n">
         <v>1.06</v>
@@ -12034,34 +12034,34 @@
         <v>4</v>
       </c>
       <c r="O86" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P86" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R86" t="n">
         <v>1.39</v>
       </c>
       <c r="S86" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T86" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="U86" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V86" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="W86" t="n">
         <v>1.1</v>
       </c>
       <c r="X86" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y86" t="n">
         <v>9.199999999999999</v>
@@ -12079,10 +12079,10 @@
         <v>11.5</v>
       </c>
       <c r="AD86" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE86" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF86" t="n">
         <v>110</v>
@@ -12103,13 +12103,13 @@
         <v>210</v>
       </c>
       <c r="AL86" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AM86" t="n">
         <v>230</v>
       </c>
       <c r="AN86" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AO86" t="n">
         <v>7.2</v>
@@ -12142,22 +12142,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="G87" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H87" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="I87" t="n">
         <v>13.5</v>
       </c>
       <c r="J87" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="K87" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L87" t="n">
         <v>1.16</v>
@@ -12172,7 +12172,7 @@
         <v>1.14</v>
       </c>
       <c r="P87" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="Q87" t="n">
         <v>1.42</v>
@@ -12193,7 +12193,7 @@
         <v>1.08</v>
       </c>
       <c r="W87" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="X87" t="n">
         <v>1000</v>
@@ -12235,7 +12235,7 @@
         <v>13</v>
       </c>
       <c r="AK87" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL87" t="n">
         <v>1000</v>
@@ -12283,106 +12283,106 @@
         <v>11</v>
       </c>
       <c r="H88" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="I88" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="J88" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K88" t="n">
         <v>5.5</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P88" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S88" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U88" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="V88" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X88" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y88" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z88" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AA88" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AB88" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC88" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD88" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE88" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AF88" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AG88" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AH88" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI88" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ88" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="AK88" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AL88" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AM88" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN88" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AO88" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="89">
@@ -12415,7 +12415,7 @@
         <v>2.44</v>
       </c>
       <c r="G89" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H89" t="n">
         <v>3.35</v>
@@ -12445,7 +12445,7 @@
         <v>1.78</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R89" t="n">
         <v>1.3</v>
@@ -12463,7 +12463,7 @@
         <v>1.41</v>
       </c>
       <c r="W89" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X89" t="n">
         <v>11.5</v>
@@ -12478,7 +12478,7 @@
         <v>60</v>
       </c>
       <c r="AB89" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC89" t="n">
         <v>7.2</v>
@@ -12550,52 +12550,52 @@
         <v>2.84</v>
       </c>
       <c r="G90" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H90" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I90" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J90" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="K90" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="L90" t="n">
-        <v>1.69</v>
+        <v>1.43</v>
       </c>
       <c r="M90" t="n">
         <v>1.18</v>
       </c>
       <c r="N90" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="O90" t="n">
         <v>1.8</v>
       </c>
       <c r="P90" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q90" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="R90" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S90" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="T90" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="U90" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V90" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W90" t="n">
         <v>1.51</v>
@@ -12604,7 +12604,7 @@
         <v>6.6</v>
       </c>
       <c r="Y90" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="Z90" t="n">
         <v>20</v>
@@ -12640,13 +12640,13 @@
         <v>65</v>
       </c>
       <c r="AK90" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL90" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM90" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AN90" t="n">
         <v>90</v>
@@ -12682,52 +12682,52 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G91" t="n">
         <v>1.36</v>
       </c>
       <c r="H91" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="I91" t="n">
         <v>11</v>
       </c>
       <c r="J91" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="K91" t="n">
         <v>6.4</v>
       </c>
       <c r="L91" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M91" t="n">
         <v>1.02</v>
       </c>
       <c r="N91" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="O91" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P91" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="R91" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="S91" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T91" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="U91" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V91" t="n">
         <v>1.1</v>
@@ -12739,55 +12739,55 @@
         <v>980</v>
       </c>
       <c r="Y91" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Z91" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA91" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AB91" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC91" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AD91" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE91" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AF91" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG91" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH91" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI91" t="n">
         <v>120</v>
       </c>
       <c r="AJ91" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK91" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL91" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM91" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN91" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AO91" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92">
@@ -12820,19 +12820,19 @@
         <v>1.84</v>
       </c>
       <c r="G92" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H92" t="n">
         <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J92" t="n">
         <v>4</v>
       </c>
       <c r="K92" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L92" t="n">
         <v>1.21</v>
@@ -12841,34 +12841,34 @@
         <v>1.03</v>
       </c>
       <c r="N92" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="O92" t="n">
         <v>1.2</v>
       </c>
       <c r="P92" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="R92" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="S92" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="T92" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="U92" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V92" t="n">
         <v>1.29</v>
       </c>
       <c r="W92" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X92" t="n">
         <v>28</v>
@@ -12910,7 +12910,7 @@
         <v>23</v>
       </c>
       <c r="AK92" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL92" t="n">
         <v>34</v>
@@ -12919,7 +12919,7 @@
         <v>80</v>
       </c>
       <c r="AN92" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO92" t="n">
         <v>42</v>
@@ -12982,7 +12982,7 @@
         <v>1.4</v>
       </c>
       <c r="P93" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q93" t="n">
         <v>2.2</v>
@@ -13021,7 +13021,7 @@
         <v>8.6</v>
       </c>
       <c r="AC93" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD93" t="n">
         <v>18.5</v>
@@ -13087,22 +13087,22 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="G94" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="I94" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J94" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L94" t="n">
         <v>1.17</v>
@@ -13114,16 +13114,16 @@
         <v>10.5</v>
       </c>
       <c r="O94" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P94" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="R94" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="S94" t="n">
         <v>1.69</v>
@@ -13132,67 +13132,67 @@
         <v>1.8</v>
       </c>
       <c r="U94" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V94" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W94" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="X94" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Y94" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="Z94" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AA94" t="n">
         <v>1000</v>
       </c>
       <c r="AB94" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC94" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AD94" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AE94" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AF94" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG94" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH94" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AI94" t="n">
         <v>140</v>
       </c>
       <c r="AJ94" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK94" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AL94" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM94" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN94" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="AO94" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95">
@@ -13222,10 +13222,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G95" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H95" t="n">
         <v>6.6</v>
@@ -13264,7 +13264,7 @@
         <v>3.3</v>
       </c>
       <c r="T95" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U95" t="n">
         <v>2</v>
@@ -13273,7 +13273,7 @@
         <v>1.17</v>
       </c>
       <c r="W95" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="X95" t="n">
         <v>15</v>
@@ -13318,7 +13318,7 @@
         <v>17.5</v>
       </c>
       <c r="AL95" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM95" t="n">
         <v>130</v>
@@ -13381,13 +13381,13 @@
         <v>1.06</v>
       </c>
       <c r="N96" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O96" t="n">
         <v>1.27</v>
       </c>
       <c r="P96" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q96" t="n">
         <v>1.82</v>
@@ -13399,13 +13399,13 @@
         <v>3.05</v>
       </c>
       <c r="T96" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U96" t="n">
         <v>2.1</v>
       </c>
       <c r="V96" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W96" t="n">
         <v>2.28</v>
@@ -13450,16 +13450,16 @@
         <v>19</v>
       </c>
       <c r="AK96" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL96" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM96" t="n">
         <v>120</v>
       </c>
       <c r="AN96" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO96" t="n">
         <v>1000</v>
@@ -13498,19 +13498,19 @@
         <v>2.24</v>
       </c>
       <c r="H97" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I97" t="n">
         <v>3.9</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3.95</v>
       </c>
       <c r="J97" t="n">
         <v>3.35</v>
       </c>
       <c r="K97" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L97" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M97" t="n">
         <v>1.09</v>
@@ -13522,25 +13522,25 @@
         <v>1.41</v>
       </c>
       <c r="P97" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q97" t="n">
         <v>2.26</v>
       </c>
       <c r="R97" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S97" t="n">
         <v>4.2</v>
       </c>
       <c r="T97" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U97" t="n">
         <v>2</v>
       </c>
       <c r="V97" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W97" t="n">
         <v>1.8</v>
@@ -13591,7 +13591,7 @@
         <v>46</v>
       </c>
       <c r="AM97" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN97" t="n">
         <v>22</v>
@@ -13630,19 +13630,19 @@
         <v>1.75</v>
       </c>
       <c r="G98" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H98" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="I98" t="n">
         <v>5.4</v>
       </c>
       <c r="J98" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K98" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L98" t="n">
         <v>1.32</v>
@@ -13654,85 +13654,85 @@
         <v>4.5</v>
       </c>
       <c r="O98" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P98" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R98" t="n">
         <v>1.48</v>
       </c>
       <c r="S98" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T98" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U98" t="n">
         <v>2.2</v>
       </c>
       <c r="V98" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W98" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="X98" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y98" t="n">
         <v>23</v>
       </c>
-      <c r="Y98" t="n">
-        <v>25</v>
-      </c>
       <c r="Z98" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AA98" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB98" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC98" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD98" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE98" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AF98" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG98" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH98" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI98" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ98" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK98" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL98" t="n">
         <v>32</v>
       </c>
       <c r="AM98" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN98" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AO98" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99">
@@ -13771,22 +13771,22 @@
         <v>4.5</v>
       </c>
       <c r="I99" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J99" t="n">
         <v>3.7</v>
       </c>
       <c r="K99" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L99" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M99" t="n">
         <v>1.07</v>
       </c>
       <c r="N99" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O99" t="n">
         <v>1.32</v>
@@ -13798,7 +13798,7 @@
         <v>1.94</v>
       </c>
       <c r="R99" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S99" t="n">
         <v>3.4</v>
@@ -13816,7 +13816,7 @@
         <v>2.04</v>
       </c>
       <c r="X99" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Y99" t="n">
         <v>16</v>
@@ -13825,7 +13825,7 @@
         <v>980</v>
       </c>
       <c r="AA99" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AB99" t="n">
         <v>9</v>
@@ -13867,7 +13867,7 @@
         <v>13.5</v>
       </c>
       <c r="AO99" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100">
@@ -13939,10 +13939,10 @@
         <v>2.88</v>
       </c>
       <c r="T100" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U100" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V100" t="n">
         <v>2.08</v>
@@ -14032,7 +14032,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="G101" t="n">
         <v>4.2</v>
@@ -14041,7 +14041,7 @@
         <v>1.95</v>
       </c>
       <c r="I101" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
         <v>4</v>
@@ -14071,7 +14071,7 @@
         <v>1.57</v>
       </c>
       <c r="S101" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T101" t="n">
         <v>1.58</v>
@@ -14080,7 +14080,7 @@
         <v>2.46</v>
       </c>
       <c r="V101" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W101" t="n">
         <v>1.32</v>
@@ -14167,16 +14167,16 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G102" t="n">
         <v>2.46</v>
       </c>
       <c r="H102" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I102" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="J102" t="n">
         <v>4.1</v>
@@ -14185,34 +14185,34 @@
         <v>4.3</v>
       </c>
       <c r="L102" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M102" t="n">
         <v>1.04</v>
       </c>
       <c r="N102" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O102" t="n">
         <v>1.22</v>
       </c>
       <c r="P102" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R102" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S102" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="T102" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U102" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="V102" t="n">
         <v>1.54</v>
@@ -14224,7 +14224,7 @@
         <v>21</v>
       </c>
       <c r="Y102" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z102" t="n">
         <v>22</v>
@@ -14233,7 +14233,7 @@
         <v>46</v>
       </c>
       <c r="AB102" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC102" t="n">
         <v>9.199999999999999</v>
@@ -14245,7 +14245,7 @@
         <v>28</v>
       </c>
       <c r="AF102" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG102" t="n">
         <v>12</v>
@@ -14260,7 +14260,7 @@
         <v>36</v>
       </c>
       <c r="AK102" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL102" t="n">
         <v>32</v>
@@ -14269,10 +14269,10 @@
         <v>65</v>
       </c>
       <c r="AN102" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO102" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.58</v>
+        <v>1.49</v>
       </c>
       <c r="G2" t="n">
-        <v>2.66</v>
+        <v>1.51</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>8.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>9.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>7.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>2.56</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.14</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="S2" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.47</v>
       </c>
       <c r="U2" t="n">
-        <v>2.16</v>
+        <v>2.56</v>
       </c>
       <c r="V2" t="n">
-        <v>1.47</v>
+        <v>1.12</v>
       </c>
       <c r="W2" t="n">
-        <v>1.59</v>
+        <v>2.96</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
         <v>14</v>
       </c>
-      <c r="AE2" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>26</v>
-      </c>
       <c r="AO2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="G3" t="n">
         <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="I3" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.71</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="P3" t="n">
-        <v>2.12</v>
+        <v>1.59</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>2.62</v>
       </c>
       <c r="R3" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.74</v>
+        <v>2.04</v>
       </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>1.84</v>
       </c>
       <c r="V3" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="W3" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB3" t="n">
         <v>11</v>
       </c>
-      <c r="Z3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH3" t="n">
         <v>21</v>
       </c>
-      <c r="AF3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>17</v>
-      </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AJ3" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AK3" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AM3" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN3" t="n">
         <v>85</v>
       </c>
-      <c r="AN3" t="n">
-        <v>38</v>
-      </c>
       <c r="AO3" t="n">
-        <v>14.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.94</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.96</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
@@ -964,40 +964,40 @@
         <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R4" t="n">
         <v>1.6</v>
       </c>
       <c r="S4" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U4" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V4" t="n">
         <v>1.32</v>
       </c>
       <c r="W4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
         <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="n">
         <v>75</v>
@@ -1015,10 +1015,10 @@
         <v>40</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
         <v>16</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="G5" t="n">
         <v>1.42</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="I5" t="n">
         <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K5" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.21</v>
@@ -1099,19 +1099,19 @@
         <v>7.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q5" t="n">
         <v>1.37</v>
       </c>
       <c r="R5" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="S5" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="T5" t="n">
         <v>1.65</v>
@@ -1120,16 +1120,16 @@
         <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="X5" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Y5" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Z5" t="n">
         <v>100</v>
@@ -1141,7 +1141,7 @@
         <v>16.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD5" t="n">
         <v>38</v>
@@ -1165,10 +1165,10 @@
         <v>14.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
         <v>90</v>
@@ -1213,10 +1213,10 @@
         <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J6" t="n">
         <v>3.85</v>
@@ -1225,13 +1225,13 @@
         <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1243,10 +1243,10 @@
         <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S6" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T6" t="n">
         <v>1.65</v>
@@ -1255,13 +1255,13 @@
         <v>2.48</v>
       </c>
       <c r="V6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W6" t="n">
         <v>1.48</v>
       </c>
       <c r="X6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y6" t="n">
         <v>13.5</v>
@@ -1276,7 +1276,7 @@
         <v>15.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
         <v>11.5</v>
@@ -1297,7 +1297,7 @@
         <v>32</v>
       </c>
       <c r="AJ6" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK6" t="n">
         <v>30</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="G7" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>4.1</v>
@@ -1366,58 +1366,58 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q7" t="n">
         <v>1.9</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="X7" t="n">
         <v>16</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>900</v>
+        <v>260</v>
       </c>
       <c r="AB7" t="n">
         <v>10.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF7" t="n">
         <v>14</v>
@@ -1426,16 +1426,16 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL7" t="n">
         <v>42</v>
@@ -1444,10 +1444,10 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>1.91</v>
       </c>
       <c r="G8" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H8" t="n">
         <v>3.75</v>
@@ -1510,7 +1510,7 @@
         <v>1.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="R8" t="n">
         <v>1.32</v>
@@ -1519,7 +1519,7 @@
         <v>3.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
@@ -1567,7 +1567,7 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
         <v>70</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G9" t="n">
         <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
         <v>3.8</v>
@@ -1627,7 +1627,7 @@
         <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.4</v>
@@ -1636,22 +1636,22 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="n">
         <v>1.31</v>
       </c>
       <c r="P9" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T9" t="n">
         <v>1.9</v>
@@ -1666,19 +1666,19 @@
         <v>1.83</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
         <v>14</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA9" t="n">
-        <v>65</v>
+        <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
@@ -1690,31 +1690,31 @@
         <v>44</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK9" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO9" t="n">
         <v>55</v>
@@ -1750,10 +1750,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="I10" t="n">
         <v>1.4</v>
@@ -1762,7 +1762,7 @@
         <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.24</v>
@@ -1774,34 +1774,34 @@
         <v>3.45</v>
       </c>
       <c r="O10" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
         <v>2.64</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R10" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
         <v>2.04</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U10" t="n">
         <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="W10" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X10" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="n">
         <v>14</v>
@@ -1810,13 +1810,13 @@
         <v>10.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AC10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD10" t="n">
         <v>11.5</v>
@@ -1831,10 +1831,10 @@
         <v>34</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI10" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
         <v>360</v>
@@ -1849,10 +1849,10 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AO10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="11">
@@ -1885,16 +1885,16 @@
         <v>1.85</v>
       </c>
       <c r="G11" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I11" t="n">
         <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>4.1</v>
@@ -1915,16 +1915,16 @@
         <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R11" t="n">
         <v>1.43</v>
       </c>
       <c r="S11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U11" t="n">
         <v>2.16</v>
@@ -1933,16 +1933,16 @@
         <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
         <v>18</v>
       </c>
       <c r="Z11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="n">
         <v>110</v>
@@ -1984,7 +1984,7 @@
         <v>95</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO11" t="n">
         <v>60</v>
@@ -2023,10 +2023,10 @@
         <v>3.95</v>
       </c>
       <c r="H12" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="I12" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J12" t="n">
         <v>3.85</v>
@@ -2047,10 +2047,10 @@
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R12" t="n">
         <v>1.5</v>
@@ -2068,7 +2068,7 @@
         <v>1.9</v>
       </c>
       <c r="W12" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
@@ -2158,7 +2158,7 @@
         <v>1.42</v>
       </c>
       <c r="H13" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I13" t="n">
         <v>11</v>
@@ -2173,7 +2173,7 @@
         <v>1.29</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
         <v>5.1</v>
@@ -2194,7 +2194,7 @@
         <v>2.48</v>
       </c>
       <c r="T13" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U13" t="n">
         <v>1.89</v>
@@ -2233,10 +2233,10 @@
         <v>9.6</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
@@ -2245,7 +2245,7 @@
         <v>22</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
         <v>500</v>
@@ -2311,13 +2311,13 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="O14" t="n">
         <v>1.13</v>
       </c>
       <c r="P14" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="Q14" t="n">
         <v>1.13</v>
@@ -2425,13 +2425,13 @@
         <v>1.95</v>
       </c>
       <c r="G15" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H15" t="n">
         <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J15" t="n">
         <v>3.65</v>
@@ -2452,7 +2452,7 @@
         <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q15" t="n">
         <v>1.73</v>
@@ -2473,13 +2473,13 @@
         <v>1.28</v>
       </c>
       <c r="W15" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X15" t="n">
         <v>500</v>
       </c>
       <c r="Y15" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2557,67 +2557,67 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="G16" t="n">
-        <v>32</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="I16" t="n">
-        <v>32</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
-        <v>2.54</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>950</v>
+        <v>5.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="P16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.02</v>
+        <v>1.37</v>
       </c>
       <c r="R16" t="n">
         <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="T16" t="n">
-        <v>1.04</v>
+        <v>1.39</v>
       </c>
       <c r="U16" t="n">
-        <v>1.04</v>
+        <v>2.92</v>
       </c>
       <c r="V16" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="W16" t="n">
-        <v>1.29</v>
+        <v>1.72</v>
       </c>
       <c r="X16" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
         <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>170</v>
+        <v>970</v>
       </c>
       <c r="AA16" t="n">
         <v>900</v>
@@ -2632,7 +2632,7 @@
         <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>210</v>
+        <v>970</v>
       </c>
       <c r="AF16" t="n">
         <v>970</v>
@@ -2644,22 +2644,22 @@
         <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>150</v>
+        <v>970</v>
       </c>
       <c r="AJ16" t="n">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="AK16" t="n">
-        <v>160</v>
+        <v>970</v>
       </c>
       <c r="AL16" t="n">
-        <v>170</v>
+        <v>970</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>970</v>
       </c>
       <c r="AN16" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AO16" t="n">
         <v>970</v>
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.36</v>
+        <v>3.5</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="H17" t="n">
-        <v>1.5</v>
+        <v>1.94</v>
       </c>
       <c r="I17" t="n">
-        <v>32</v>
+        <v>2.24</v>
       </c>
       <c r="J17" t="n">
-        <v>2.6</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
-        <v>32</v>
+        <v>4.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>1.1</v>
+        <v>3.55</v>
       </c>
       <c r="O17" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>1.09</v>
+        <v>2.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.23</v>
+        <v>1.74</v>
       </c>
       <c r="R17" t="n">
-        <v>1.08</v>
+        <v>1.46</v>
       </c>
       <c r="S17" t="n">
-        <v>1.23</v>
+        <v>2.66</v>
       </c>
       <c r="T17" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="U17" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="V17" t="n">
-        <v>1.03</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -2830,25 +2830,25 @@
         <v>1.27</v>
       </c>
       <c r="G18" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" t="n">
         <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="K18" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
         <v>5.3</v>
@@ -2857,16 +2857,16 @@
         <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="Q18" t="n">
         <v>1.54</v>
       </c>
       <c r="R18" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="T18" t="n">
         <v>2.02</v>
@@ -2878,13 +2878,13 @@
         <v>1.07</v>
       </c>
       <c r="W18" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="X18" t="n">
         <v>34</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,13 +2893,13 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
         <v>15.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
@@ -2908,19 +2908,19 @@
         <v>9</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H19" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.99</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>3.55</v>
@@ -2980,7 +2980,7 @@
         <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -3001,7 +3001,7 @@
         <v>1.31</v>
       </c>
       <c r="S19" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
         <v>1.96</v>
@@ -3019,7 +3019,7 @@
         <v>12.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z19" t="n">
         <v>11</v>
@@ -3043,7 +3043,7 @@
         <v>32</v>
       </c>
       <c r="AG19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH19" t="n">
         <v>21</v>
@@ -3067,7 +3067,7 @@
         <v>75</v>
       </c>
       <c r="AO19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G20" t="n">
         <v>3.85</v>
       </c>
       <c r="H20" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="I20" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
         <v>1.41</v>
@@ -3139,13 +3139,13 @@
         <v>3.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U20" t="n">
         <v>2.16</v>
       </c>
       <c r="V20" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W20" t="n">
         <v>1.35</v>
@@ -3157,10 +3157,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB20" t="n">
         <v>14.5</v>
@@ -3187,10 +3187,10 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK20" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AL20" t="n">
         <v>130</v>
@@ -3238,7 +3238,7 @@
         <v>1.28</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="I21" t="n">
         <v>36</v>
@@ -3250,7 +3250,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -3259,7 +3259,7 @@
         <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P21" t="n">
         <v>1.77</v>
@@ -3277,7 +3277,7 @@
         <v>2.96</v>
       </c>
       <c r="U21" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="V21" t="n">
         <v>1.03</v>
@@ -3289,7 +3289,7 @@
         <v>970</v>
       </c>
       <c r="Y21" t="n">
-        <v>190</v>
+        <v>970</v>
       </c>
       <c r="Z21" t="n">
         <v>900</v>
@@ -3298,13 +3298,13 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AC21" t="n">
         <v>970</v>
       </c>
       <c r="AD21" t="n">
-        <v>190</v>
+        <v>970</v>
       </c>
       <c r="AE21" t="n">
         <v>900</v>
@@ -3316,13 +3316,13 @@
         <v>970</v>
       </c>
       <c r="AH21" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AK21" t="n">
         <v>970</v>
@@ -3370,16 +3370,16 @@
         <v>50</v>
       </c>
       <c r="G22" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H22" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I22" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="K22" t="n">
         <v>1000</v>
@@ -3502,31 +3502,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G23" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="H23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K23" t="n">
         <v>7.8</v>
       </c>
-      <c r="I23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>7.6</v>
-      </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="O23" t="n">
         <v>1.33</v>
@@ -3538,73 +3538,73 @@
         <v>1.93</v>
       </c>
       <c r="R23" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S23" t="n">
-        <v>2.42</v>
+        <v>1.98</v>
       </c>
       <c r="T23" t="n">
         <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.04</v>
+        <v>1.53</v>
       </c>
       <c r="V23" t="n">
         <v>1.05</v>
       </c>
       <c r="W23" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Z23" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>520</v>
+      </c>
+      <c r="AF23" t="n">
         <v>7</v>
       </c>
-      <c r="AC23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>640</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AI23" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM23" t="n">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="AN23" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3655,7 +3655,7 @@
         <v>3.45</v>
       </c>
       <c r="L24" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.1</v>
@@ -3667,7 +3667,7 @@
         <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q24" t="n">
         <v>2.28</v>
@@ -3676,13 +3676,13 @@
         <v>1.23</v>
       </c>
       <c r="S24" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="T24" t="n">
         <v>1.93</v>
       </c>
       <c r="U24" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V24" t="n">
         <v>1.35</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G25" t="n">
         <v>2.56</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I25" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="J25" t="n">
         <v>2.98</v>
@@ -3790,43 +3790,43 @@
         <v>3.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="O25" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P25" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R25" t="n">
         <v>1.2</v>
       </c>
       <c r="S25" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="U25" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W25" t="n">
         <v>1.64</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -3847,10 +3847,10 @@
         <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="AF25" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG25" t="n">
         <v>14.5</v>
@@ -3859,10 +3859,10 @@
         <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK25" t="n">
         <v>34</v>
@@ -3874,10 +3874,10 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO25" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="G26" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="H26" t="n">
-        <v>2.86</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="K26" t="n">
         <v>3.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N26" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="P26" t="n">
         <v>1.47</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.98</v>
+        <v>2.88</v>
       </c>
       <c r="R26" t="n">
         <v>1.17</v>
       </c>
       <c r="S26" t="n">
-        <v>1.98</v>
+        <v>6.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="V26" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="W26" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>42</v>
+        <v>7.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="G27" t="n">
         <v>1.76</v>
       </c>
       <c r="H27" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I27" t="n">
         <v>6.8</v>
@@ -4057,16 +4057,16 @@
         <v>3.55</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O27" t="n">
         <v>1.42</v>
@@ -4075,7 +4075,7 @@
         <v>1.73</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="R27" t="n">
         <v>1.25</v>
@@ -4120,7 +4120,7 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG27" t="n">
         <v>11</v>
@@ -4132,7 +4132,7 @@
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK27" t="n">
         <v>22</v>
@@ -4177,112 +4177,112 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="G28" t="n">
-        <v>25</v>
+        <v>2.74</v>
       </c>
       <c r="H28" t="n">
-        <v>2.26</v>
+        <v>2.58</v>
       </c>
       <c r="I28" t="n">
         <v>2.88</v>
       </c>
       <c r="J28" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>1.28</v>
+        <v>4.9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P28" t="n">
-        <v>1.28</v>
+        <v>2.16</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.17</v>
+        <v>1.54</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.54</v>
       </c>
       <c r="S28" t="n">
-        <v>1.17</v>
+        <v>2.44</v>
       </c>
       <c r="T28" t="n">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="U28" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="V28" t="n">
         <v>1.53</v>
       </c>
       <c r="W28" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="X28" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="Y28" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="AA28" t="n">
         <v>900</v>
       </c>
       <c r="AB28" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="AF28" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AG28" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AI28" t="n">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="AJ28" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AK28" t="n">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="AL28" t="n">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="AM28" t="n">
         <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AO28" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="29">
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="G29" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H29" t="n">
         <v>2.86</v>
@@ -4324,25 +4324,25 @@
         <v>3.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="K29" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M29" t="n">
         <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="O29" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P29" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="Q29" t="n">
         <v>2.54</v>
@@ -4351,25 +4351,25 @@
         <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="U29" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V29" t="n">
         <v>1.4</v>
       </c>
       <c r="W29" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X29" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Y29" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Z29" t="n">
         <v>970</v>
@@ -4411,13 +4411,13 @@
         <v>200</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN29" t="n">
-        <v>65</v>
+        <v>600</v>
       </c>
       <c r="AO29" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30">
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G30" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
         <v>4.4</v>
@@ -4465,7 +4465,7 @@
         <v>3.45</v>
       </c>
       <c r="L30" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M30" t="n">
         <v>1.09</v>
@@ -4477,7 +4477,7 @@
         <v>1.39</v>
       </c>
       <c r="P30" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q30" t="n">
         <v>2.2</v>
@@ -4489,16 +4489,16 @@
         <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U30" t="n">
         <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W30" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X30" t="n">
         <v>11.5</v>
@@ -4519,7 +4519,7 @@
         <v>7.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE30" t="n">
         <v>60</v>
@@ -4543,7 +4543,7 @@
         <v>23</v>
       </c>
       <c r="AL30" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM30" t="n">
         <v>130</v>
@@ -4585,13 +4585,13 @@
         <v>1.91</v>
       </c>
       <c r="G31" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H31" t="n">
         <v>5.1</v>
       </c>
       <c r="I31" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J31" t="n">
         <v>3.5</v>
@@ -4600,7 +4600,7 @@
         <v>3.55</v>
       </c>
       <c r="L31" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M31" t="n">
         <v>1.1</v>
@@ -4639,7 +4639,7 @@
         <v>10.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z31" t="n">
         <v>36</v>
@@ -4654,7 +4654,7 @@
         <v>7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>85</v>
@@ -4723,7 +4723,7 @@
         <v>4.8</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I32" t="n">
         <v>2.06</v>
@@ -4735,13 +4735,13 @@
         <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
         <v>1.46</v>
@@ -4771,7 +4771,7 @@
         <v>1.26</v>
       </c>
       <c r="X32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y32" t="n">
         <v>7.4</v>
@@ -4783,7 +4783,7 @@
         <v>25</v>
       </c>
       <c r="AB32" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC32" t="n">
         <v>7.8</v>
@@ -4792,22 +4792,22 @@
         <v>11</v>
       </c>
       <c r="AE32" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF32" t="n">
         <v>32</v>
       </c>
       <c r="AG32" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH32" t="n">
         <v>23</v>
       </c>
       <c r="AI32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ32" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK32" t="n">
         <v>75</v>
@@ -4822,7 +4822,7 @@
         <v>110</v>
       </c>
       <c r="AO32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H33" t="n">
         <v>2.7</v>
@@ -4867,97 +4867,97 @@
         <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="O33" t="n">
         <v>1.5</v>
       </c>
       <c r="P33" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="R33" t="n">
         <v>1.19</v>
       </c>
       <c r="S33" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="U33" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V33" t="n">
         <v>1.56</v>
       </c>
       <c r="W33" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X33" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="Z33" t="n">
         <v>17</v>
       </c>
       <c r="AA33" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB33" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AC33" t="n">
         <v>7</v>
       </c>
       <c r="AD33" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE33" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AF33" t="n">
         <v>22</v>
       </c>
       <c r="AG33" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI33" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AJ33" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK33" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AL33" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AM33" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AN33" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO33" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
@@ -4987,40 +4987,40 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G34" t="n">
         <v>2.56</v>
       </c>
       <c r="H34" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I34" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J34" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M34" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N34" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O34" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P34" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R34" t="n">
         <v>1.23</v>
@@ -5032,16 +5032,16 @@
         <v>2.02</v>
       </c>
       <c r="U34" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V34" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W34" t="n">
         <v>1.64</v>
       </c>
       <c r="X34" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y34" t="n">
         <v>11</v>
@@ -5071,7 +5071,7 @@
         <v>12.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI34" t="n">
         <v>75</v>
@@ -5086,7 +5086,7 @@
         <v>150</v>
       </c>
       <c r="AM34" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN34" t="n">
         <v>34</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G35" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H35" t="n">
         <v>1.69</v>
       </c>
       <c r="I35" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="J35" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K35" t="n">
         <v>4</v>
@@ -5155,7 +5155,7 @@
         <v>1.91</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R35" t="n">
         <v>1.34</v>
@@ -5164,19 +5164,19 @@
         <v>3.7</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U35" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V35" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="W35" t="n">
         <v>1.18</v>
       </c>
       <c r="X35" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
         <v>7.8</v>
@@ -5191,13 +5191,13 @@
         <v>19</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD35" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="AF35" t="n">
         <v>48</v>
@@ -5218,10 +5218,10 @@
         <v>230</v>
       </c>
       <c r="AL35" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="AM35" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN35" t="n">
         <v>140</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G36" t="n">
         <v>2.14</v>
@@ -5272,10 +5272,10 @@
         <v>3.55</v>
       </c>
       <c r="K36" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M36" t="n">
         <v>1.06</v>
@@ -5290,7 +5290,7 @@
         <v>2.14</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R36" t="n">
         <v>1.43</v>
@@ -5299,7 +5299,7 @@
         <v>3.1</v>
       </c>
       <c r="T36" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U36" t="n">
         <v>2.34</v>
@@ -5395,13 +5395,13 @@
         <v>2.06</v>
       </c>
       <c r="G37" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H37" t="n">
         <v>4.3</v>
       </c>
       <c r="I37" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J37" t="n">
         <v>3.3</v>
@@ -5422,7 +5422,7 @@
         <v>1.42</v>
       </c>
       <c r="P37" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q37" t="n">
         <v>2.22</v>
@@ -5434,16 +5434,16 @@
         <v>4.3</v>
       </c>
       <c r="T37" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U37" t="n">
         <v>1.94</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.97</v>
       </c>
       <c r="V37" t="n">
         <v>1.27</v>
       </c>
       <c r="W37" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X37" t="n">
         <v>11</v>
@@ -5464,13 +5464,13 @@
         <v>7.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE37" t="n">
         <v>65</v>
       </c>
       <c r="AF37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG37" t="n">
         <v>10.5</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G38" t="n">
         <v>2.14</v>
@@ -5545,7 +5545,7 @@
         <v>4.2</v>
       </c>
       <c r="L38" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
@@ -5557,10 +5557,10 @@
         <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R38" t="n">
         <v>1.52</v>
@@ -5584,13 +5584,13 @@
         <v>22</v>
       </c>
       <c r="Y38" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="Z38" t="n">
         <v>75</v>
       </c>
       <c r="AA38" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
         <v>12.5</v>
@@ -5602,7 +5602,7 @@
         <v>16.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
         <v>15.5</v>
@@ -5629,10 +5629,10 @@
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO38" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39">
@@ -5680,7 +5680,7 @@
         <v>3.35</v>
       </c>
       <c r="L39" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M39" t="n">
         <v>1.1</v>
@@ -5689,7 +5689,7 @@
         <v>3.2</v>
       </c>
       <c r="O39" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P39" t="n">
         <v>1.73</v>
@@ -5758,7 +5758,7 @@
         <v>26</v>
       </c>
       <c r="AL39" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM39" t="n">
         <v>140</v>
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G41" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="H41" t="n">
         <v>5.1</v>
@@ -5962,10 +5962,10 @@
         <v>1.3</v>
       </c>
       <c r="P41" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R41" t="n">
         <v>1.42</v>
@@ -5983,16 +5983,16 @@
         <v>1.23</v>
       </c>
       <c r="W41" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X41" t="n">
         <v>15</v>
       </c>
       <c r="Y41" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z41" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA41" t="n">
         <v>120</v>
@@ -6010,7 +6010,7 @@
         <v>65</v>
       </c>
       <c r="AF41" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG41" t="n">
         <v>9.800000000000001</v>
@@ -6208,7 +6208,7 @@
         <v>3.05</v>
       </c>
       <c r="H43" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I43" t="n">
         <v>2.56</v>
@@ -6220,7 +6220,7 @@
         <v>3.7</v>
       </c>
       <c r="L43" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M43" t="n">
         <v>1.06</v>
@@ -6232,7 +6232,7 @@
         <v>1.27</v>
       </c>
       <c r="P43" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="Q43" t="n">
         <v>1.83</v>
@@ -6340,55 +6340,55 @@
         <v>1.54</v>
       </c>
       <c r="G44" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="H44" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I44" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="J44" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="K44" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M44" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>2.24</v>
+        <v>4.4</v>
       </c>
       <c r="O44" t="n">
         <v>1.24</v>
       </c>
       <c r="P44" t="n">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R44" t="n">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="S44" t="n">
-        <v>2.06</v>
+        <v>2.72</v>
       </c>
       <c r="T44" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="U44" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="V44" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W44" t="n">
-        <v>2.16</v>
+        <v>2.46</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6403,7 +6403,7 @@
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AC44" t="n">
         <v>42</v>
@@ -6415,31 +6415,31 @@
         <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG44" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI44" t="n">
         <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK44" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM44" t="n">
         <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>500</v>
+        <v>27</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G45" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H45" t="n">
         <v>3.65</v>
@@ -6487,7 +6487,7 @@
         <v>3.45</v>
       </c>
       <c r="K45" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L45" t="n">
         <v>1.44</v>
@@ -6499,7 +6499,7 @@
         <v>3.5</v>
       </c>
       <c r="O45" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P45" t="n">
         <v>1.89</v>
@@ -6508,10 +6508,10 @@
         <v>2.02</v>
       </c>
       <c r="R45" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S45" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="T45" t="n">
         <v>1.84</v>
@@ -6523,31 +6523,31 @@
         <v>1.37</v>
       </c>
       <c r="W45" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X45" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z45" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA45" t="n">
         <v>70</v>
       </c>
       <c r="AB45" t="n">
-        <v>11.5</v>
+        <v>30</v>
       </c>
       <c r="AC45" t="n">
         <v>7.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE45" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF45" t="n">
         <v>14.5</v>
@@ -6556,19 +6556,19 @@
         <v>10.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI45" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AJ45" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AK45" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL45" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM45" t="n">
         <v>110</v>
@@ -6607,49 +6607,49 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G46" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H46" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="I46" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J46" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="K46" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L46" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M46" t="n">
         <v>1.02</v>
       </c>
       <c r="N46" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O46" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P46" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="R46" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="S46" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="T46" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U46" t="n">
         <v>2.1</v>
@@ -6658,34 +6658,34 @@
         <v>1.08</v>
       </c>
       <c r="W46" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="X46" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="Y46" t="n">
-        <v>390</v>
+        <v>65</v>
       </c>
       <c r="Z46" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA46" t="n">
         <v>520</v>
       </c>
       <c r="AB46" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AD46" t="n">
         <v>50</v>
       </c>
       <c r="AE46" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AF46" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG46" t="n">
         <v>11</v>
@@ -6694,7 +6694,7 @@
         <v>28</v>
       </c>
       <c r="AI46" t="n">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="AJ46" t="n">
         <v>11</v>
@@ -6709,7 +6709,7 @@
         <v>330</v>
       </c>
       <c r="AN46" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO46" t="n">
         <v>140</v>
@@ -6745,22 +6745,22 @@
         <v>2.18</v>
       </c>
       <c r="G47" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
         <v>3.8</v>
       </c>
       <c r="I47" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="J47" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K47" t="n">
         <v>3.55</v>
       </c>
       <c r="L47" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M47" t="n">
         <v>1.07</v>
@@ -6775,7 +6775,7 @@
         <v>2</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R47" t="n">
         <v>1.38</v>
@@ -6790,7 +6790,7 @@
         <v>2.2</v>
       </c>
       <c r="V47" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W47" t="n">
         <v>1.83</v>
@@ -6883,7 +6883,7 @@
         <v>2.52</v>
       </c>
       <c r="H48" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I48" t="n">
         <v>3.4</v>
@@ -6895,7 +6895,7 @@
         <v>3.45</v>
       </c>
       <c r="L48" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M48" t="n">
         <v>1.08</v>
@@ -6907,7 +6907,7 @@
         <v>1.37</v>
       </c>
       <c r="P48" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q48" t="n">
         <v>2.1</v>
@@ -6916,7 +6916,7 @@
         <v>1.31</v>
       </c>
       <c r="S48" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T48" t="n">
         <v>1.82</v>
@@ -6928,7 +6928,7 @@
         <v>1.42</v>
       </c>
       <c r="W48" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X48" t="n">
         <v>14</v>
@@ -6955,13 +6955,13 @@
         <v>44</v>
       </c>
       <c r="AF48" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG48" t="n">
         <v>11.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI48" t="n">
         <v>55</v>
@@ -6976,10 +6976,10 @@
         <v>50</v>
       </c>
       <c r="AM48" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN48" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO48" t="n">
         <v>46</v>
@@ -7012,10 +7012,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="G49" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="H49" t="n">
         <v>3.7</v>
@@ -7027,16 +7027,16 @@
         <v>4</v>
       </c>
       <c r="K49" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L49" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O49" t="n">
         <v>1.18</v>
@@ -7048,22 +7048,22 @@
         <v>1.55</v>
       </c>
       <c r="R49" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S49" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T49" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="U49" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V49" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W49" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="X49" t="n">
         <v>27</v>
@@ -7075,7 +7075,7 @@
         <v>38</v>
       </c>
       <c r="AA49" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB49" t="n">
         <v>15</v>
@@ -7087,7 +7087,7 @@
         <v>19</v>
       </c>
       <c r="AE49" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AF49" t="n">
         <v>16</v>
@@ -7099,7 +7099,7 @@
         <v>17.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AJ49" t="n">
         <v>23</v>
@@ -7108,10 +7108,10 @@
         <v>21</v>
       </c>
       <c r="AL49" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AM49" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN49" t="n">
         <v>9</v>
@@ -7171,22 +7171,22 @@
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>1.1</v>
+        <v>2.02</v>
       </c>
       <c r="O50" t="n">
         <v>1.22</v>
       </c>
       <c r="P50" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="Q50" t="n">
         <v>1.22</v>
       </c>
       <c r="R50" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="S50" t="n">
-        <v>1.21</v>
+        <v>1.05</v>
       </c>
       <c r="T50" t="n">
         <v>1.04</v>
@@ -7228,7 +7228,7 @@
         <v>1000</v>
       </c>
       <c r="AG50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH50" t="n">
         <v>970</v>
@@ -7288,19 +7288,19 @@
         <v>3.75</v>
       </c>
       <c r="H51" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I51" t="n">
         <v>2.54</v>
       </c>
       <c r="J51" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K51" t="n">
         <v>4.2</v>
       </c>
       <c r="L51" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M51" t="n">
         <v>1.05</v>
@@ -7309,34 +7309,34 @@
         <v>3.9</v>
       </c>
       <c r="O51" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P51" t="n">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="R51" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="S51" t="n">
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
       <c r="T51" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="U51" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="V51" t="n">
         <v>1.66</v>
       </c>
       <c r="W51" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X51" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="Y51" t="n">
         <v>970</v>
@@ -7348,10 +7348,10 @@
         <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AC51" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AD51" t="n">
         <v>970</v>
@@ -7375,7 +7375,7 @@
         <v>1000</v>
       </c>
       <c r="AK51" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL51" t="n">
         <v>1000</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G52" t="n">
         <v>2.9</v>
@@ -7435,7 +7435,7 @@
         <v>3.95</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M52" t="n">
         <v>1.05</v>
@@ -7456,7 +7456,7 @@
         <v>1.45</v>
       </c>
       <c r="S52" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="T52" t="n">
         <v>1.61</v>
@@ -7495,7 +7495,7 @@
         <v>36</v>
       </c>
       <c r="AF52" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG52" t="n">
         <v>13.5</v>
@@ -7516,7 +7516,7 @@
         <v>38</v>
       </c>
       <c r="AM52" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="AN52" t="n">
         <v>22</v>
@@ -7552,61 +7552,61 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G53" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H53" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I53" t="n">
         <v>3.05</v>
       </c>
       <c r="J53" t="n">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="K53" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L53" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M53" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="O53" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="P53" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="Q53" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="R53" t="n">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="S53" t="n">
-        <v>1.99</v>
+        <v>2.92</v>
       </c>
       <c r="T53" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="U53" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="V53" t="n">
         <v>1.48</v>
       </c>
       <c r="W53" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X53" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y53" t="n">
         <v>1000</v>
@@ -7618,10 +7618,10 @@
         <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC53" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AD53" t="n">
         <v>1000</v>
@@ -7633,16 +7633,16 @@
         <v>1000</v>
       </c>
       <c r="AG53" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH53" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI53" t="n">
         <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK53" t="n">
         <v>1000</v>
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="G54" t="n">
         <v>4.2</v>
       </c>
       <c r="H54" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="I54" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="J54" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K54" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L54" t="n">
         <v>1.33</v>
@@ -7711,52 +7711,52 @@
         <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O54" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P54" t="n">
         <v>2.08</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R54" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S54" t="n">
-        <v>2.64</v>
+        <v>2.84</v>
       </c>
       <c r="T54" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="U54" t="n">
         <v>2.22</v>
       </c>
       <c r="V54" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W54" t="n">
         <v>1.31</v>
       </c>
       <c r="X54" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y54" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="Z54" t="n">
         <v>24</v>
       </c>
       <c r="AA54" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AB54" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC54" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD54" t="n">
         <v>10.5</v>
@@ -7771,25 +7771,25 @@
         <v>30</v>
       </c>
       <c r="AH54" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL54" t="n">
         <v>55</v>
       </c>
       <c r="AM54" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN54" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO54" t="n">
         <v>12.5</v>
@@ -7822,34 +7822,34 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G55" t="n">
         <v>1.74</v>
       </c>
       <c r="H55" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="I55" t="n">
-        <v>870</v>
+        <v>6.6</v>
       </c>
       <c r="J55" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K55" t="n">
         <v>4.3</v>
       </c>
       <c r="L55" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M55" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N55" t="n">
-        <v>1.96</v>
+        <v>3.6</v>
       </c>
       <c r="O55" t="n">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
       <c r="P55" t="n">
         <v>1.96</v>
@@ -7858,16 +7858,16 @@
         <v>1.92</v>
       </c>
       <c r="R55" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="S55" t="n">
-        <v>1.93</v>
+        <v>3.35</v>
       </c>
       <c r="T55" t="n">
         <v>1.89</v>
       </c>
       <c r="U55" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="V55" t="n">
         <v>1.18</v>
@@ -7876,10 +7876,10 @@
         <v>2.34</v>
       </c>
       <c r="X55" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="Z55" t="n">
         <v>1000</v>
@@ -7888,43 +7888,43 @@
         <v>1000</v>
       </c>
       <c r="AB55" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>330</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN55" t="n">
         <v>11</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>15</v>
       </c>
       <c r="AO55" t="n">
         <v>1000</v>
@@ -7960,7 +7960,7 @@
         <v>2.08</v>
       </c>
       <c r="G56" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H56" t="n">
         <v>3.75</v>
@@ -7969,19 +7969,19 @@
         <v>4.2</v>
       </c>
       <c r="J56" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K56" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L56" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M56" t="n">
         <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O56" t="n">
         <v>1.34</v>
@@ -7990,13 +7990,13 @@
         <v>1.81</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="R56" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S56" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T56" t="n">
         <v>1.83</v>
@@ -8008,10 +8008,10 @@
         <v>1.32</v>
       </c>
       <c r="W56" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X56" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="Y56" t="n">
         <v>26</v>
@@ -8026,7 +8026,7 @@
         <v>10</v>
       </c>
       <c r="AC56" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AD56" t="n">
         <v>970</v>
@@ -8035,13 +8035,13 @@
         <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AG56" t="n">
         <v>22</v>
       </c>
       <c r="AH56" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AI56" t="n">
         <v>1000</v>
@@ -8092,16 +8092,16 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="G57" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H57" t="n">
         <v>1.48</v>
       </c>
       <c r="I57" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="J57" t="n">
         <v>4.9</v>
@@ -8110,34 +8110,34 @@
         <v>5.7</v>
       </c>
       <c r="L57" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M57" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N57" t="n">
-        <v>3.9</v>
+        <v>6.4</v>
       </c>
       <c r="O57" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P57" t="n">
-        <v>2.18</v>
+        <v>2.84</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="R57" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S57" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="T57" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="U57" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="V57" t="n">
         <v>2.72</v>
@@ -8146,7 +8146,7 @@
         <v>1.15</v>
       </c>
       <c r="X57" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Y57" t="n">
         <v>16.5</v>
@@ -8233,7 +8233,7 @@
         <v>2.2</v>
       </c>
       <c r="H58" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I58" t="n">
         <v>3.45</v>
@@ -8242,10 +8242,10 @@
         <v>4</v>
       </c>
       <c r="K58" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L58" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="M58" t="n">
         <v>1.02</v>
@@ -8257,7 +8257,7 @@
         <v>1.16</v>
       </c>
       <c r="P58" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q58" t="n">
         <v>1.48</v>
@@ -8266,10 +8266,10 @@
         <v>1.75</v>
       </c>
       <c r="S58" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T58" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="U58" t="n">
         <v>2.78</v>
@@ -8278,10 +8278,10 @@
         <v>1.41</v>
       </c>
       <c r="W58" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X58" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y58" t="n">
         <v>23</v>
@@ -8320,7 +8320,7 @@
         <v>32</v>
       </c>
       <c r="AK58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL58" t="n">
         <v>25</v>
@@ -8374,7 +8374,7 @@
         <v>6.2</v>
       </c>
       <c r="J59" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K59" t="n">
         <v>4.2</v>
@@ -8392,19 +8392,19 @@
         <v>1.34</v>
       </c>
       <c r="P59" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R59" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S59" t="n">
         <v>3.7</v>
       </c>
       <c r="T59" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U59" t="n">
         <v>1.83</v>
@@ -8428,7 +8428,7 @@
         <v>500</v>
       </c>
       <c r="AB59" t="n">
-        <v>8.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="AC59" t="n">
         <v>9.4</v>
@@ -8464,7 +8464,7 @@
         <v>580</v>
       </c>
       <c r="AN59" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="AO59" t="n">
         <v>500</v>
@@ -8497,79 +8497,79 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="G60" t="n">
-        <v>5.1</v>
+        <v>980</v>
       </c>
       <c r="H60" t="n">
         <v>2.14</v>
       </c>
       <c r="I60" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="J60" t="n">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="K60" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="L60" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="M60" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N60" t="n">
-        <v>2.56</v>
+        <v>2.24</v>
       </c>
       <c r="O60" t="n">
-        <v>1.52</v>
+        <v>1.11</v>
       </c>
       <c r="P60" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="R60" t="n">
         <v>1.18</v>
       </c>
       <c r="S60" t="n">
-        <v>4.6</v>
+        <v>2.32</v>
       </c>
       <c r="T60" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="U60" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="V60" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="W60" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="X60" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y60" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z60" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA60" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB60" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC60" t="n">
-        <v>8.800000000000001</v>
+        <v>42</v>
       </c>
       <c r="AD60" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE60" t="n">
         <v>1000</v>
@@ -8578,7 +8578,7 @@
         <v>1000</v>
       </c>
       <c r="AG60" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH60" t="n">
         <v>1000</v>
@@ -8632,10 +8632,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G61" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H61" t="n">
         <v>2.28</v>
@@ -8647,13 +8647,13 @@
         <v>3.1</v>
       </c>
       <c r="K61" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L61" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M61" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N61" t="n">
         <v>3</v>
@@ -8662,7 +8662,7 @@
         <v>1.41</v>
       </c>
       <c r="P61" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="Q61" t="n">
         <v>2.24</v>
@@ -8674,10 +8674,10 @@
         <v>4.1</v>
       </c>
       <c r="T61" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U61" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V61" t="n">
         <v>1.68</v>
@@ -8710,7 +8710,7 @@
         <v>90</v>
       </c>
       <c r="AF61" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AG61" t="n">
         <v>16.5</v>
@@ -8725,16 +8725,16 @@
         <v>900</v>
       </c>
       <c r="AK61" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="AL61" t="n">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="AM61" t="n">
         <v>580</v>
       </c>
       <c r="AN61" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO61" t="n">
         <v>60</v>
@@ -8767,19 +8767,19 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="G62" t="n">
-        <v>970</v>
+        <v>2.96</v>
       </c>
       <c r="H62" t="n">
-        <v>1.51</v>
+        <v>2.5</v>
       </c>
       <c r="I62" t="n">
-        <v>970</v>
+        <v>3.05</v>
       </c>
       <c r="J62" t="n">
-        <v>1.98</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
         <v>4.1</v>
@@ -8791,76 +8791,76 @@
         <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="O62" t="n">
         <v>1.2</v>
       </c>
       <c r="P62" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.2</v>
+        <v>1.56</v>
       </c>
       <c r="R62" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="S62" t="n">
-        <v>2.02</v>
+        <v>2.36</v>
       </c>
       <c r="T62" t="n">
         <v>1.52</v>
       </c>
       <c r="U62" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="V62" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="W62" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="X62" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA62" t="n">
         <v>970</v>
       </c>
-      <c r="Y62" t="n">
+      <c r="AB62" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE62" t="n">
         <v>970</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>500</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>500</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>500</v>
       </c>
       <c r="AF62" t="n">
         <v>500</v>
       </c>
       <c r="AG62" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI62" t="n">
         <v>970</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>500</v>
       </c>
       <c r="AJ62" t="n">
         <v>500</v>
       </c>
       <c r="AK62" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AL62" t="n">
         <v>500</v>
@@ -8869,10 +8869,10 @@
         <v>580</v>
       </c>
       <c r="AN62" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AO62" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63">
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="G63" t="n">
         <v>11.5</v>
@@ -8911,16 +8911,16 @@
         <v>1.35</v>
       </c>
       <c r="I63" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="J63" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="K63" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="L63" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M63" t="n">
         <v>1.04</v>
@@ -8929,28 +8929,28 @@
         <v>4.7</v>
       </c>
       <c r="O63" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P63" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="R63" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S63" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T63" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U63" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="V63" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="W63" t="n">
         <v>1.1</v>
@@ -9004,7 +9004,7 @@
         <v>390</v>
       </c>
       <c r="AN63" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AO63" t="n">
         <v>5.9</v>
@@ -9037,16 +9037,16 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="G64" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="H64" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="I64" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="J64" t="n">
         <v>3.3</v>
@@ -9061,55 +9061,55 @@
         <v>1.08</v>
       </c>
       <c r="N64" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="O64" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P64" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="R64" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S64" t="n">
         <v>4.4</v>
       </c>
       <c r="T64" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U64" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V64" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="W64" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="X64" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="Y64" t="n">
         <v>14.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA64" t="n">
         <v>1000</v>
       </c>
       <c r="AB64" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC64" t="n">
         <v>9</v>
       </c>
       <c r="AD64" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AE64" t="n">
         <v>1000</v>
@@ -9118,19 +9118,19 @@
         <v>15.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH64" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AI64" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ64" t="n">
         <v>1000</v>
       </c>
       <c r="AK64" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AL64" t="n">
         <v>290</v>
@@ -9139,7 +9139,7 @@
         <v>1000</v>
       </c>
       <c r="AN64" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AO64" t="n">
         <v>1000</v>
@@ -9175,10 +9175,10 @@
         <v>2.72</v>
       </c>
       <c r="G65" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H65" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I65" t="n">
         <v>3.05</v>
@@ -9190,7 +9190,7 @@
         <v>3.4</v>
       </c>
       <c r="L65" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M65" t="n">
         <v>1.1</v>
@@ -9208,7 +9208,7 @@
         <v>2.3</v>
       </c>
       <c r="R65" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S65" t="n">
         <v>4.3</v>
@@ -9217,13 +9217,13 @@
         <v>1.9</v>
       </c>
       <c r="U65" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V65" t="n">
         <v>1.49</v>
       </c>
       <c r="W65" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X65" t="n">
         <v>11.5</v>
@@ -9310,10 +9310,10 @@
         <v>1.91</v>
       </c>
       <c r="G66" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I66" t="n">
         <v>4.7</v>
@@ -9325,7 +9325,7 @@
         <v>3.95</v>
       </c>
       <c r="L66" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M66" t="n">
         <v>1.07</v>
@@ -9358,7 +9358,7 @@
         <v>1.27</v>
       </c>
       <c r="W66" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="X66" t="n">
         <v>15.5</v>
@@ -9442,16 +9442,16 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G67" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I67" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J67" t="n">
         <v>3.4</v>
@@ -9595,7 +9595,7 @@
         <v>4.7</v>
       </c>
       <c r="L68" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M68" t="n">
         <v>1.06</v>
@@ -9607,13 +9607,13 @@
         <v>1.3</v>
       </c>
       <c r="P68" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R68" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S68" t="n">
         <v>3.35</v>
@@ -9682,7 +9682,7 @@
         <v>7.8</v>
       </c>
       <c r="AO68" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69">
@@ -9712,25 +9712,25 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="G69" t="n">
         <v>2.1</v>
       </c>
       <c r="H69" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J69" t="n">
         <v>3.6</v>
       </c>
       <c r="K69" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L69" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M69" t="n">
         <v>1.06</v>
@@ -9739,13 +9739,13 @@
         <v>3.85</v>
       </c>
       <c r="O69" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P69" t="n">
         <v>2</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R69" t="n">
         <v>1.39</v>
@@ -9769,7 +9769,7 @@
         <v>16.5</v>
       </c>
       <c r="Y69" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z69" t="n">
         <v>29</v>
@@ -9847,10 +9847,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="G70" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H70" t="n">
         <v>13</v>
@@ -9859,10 +9859,10 @@
         <v>14.5</v>
       </c>
       <c r="J70" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="K70" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L70" t="n">
         <v>1.19</v>
@@ -9874,10 +9874,10 @@
         <v>9</v>
       </c>
       <c r="O70" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P70" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q70" t="n">
         <v>1.32</v>
@@ -9886,19 +9886,19 @@
         <v>2.1</v>
       </c>
       <c r="S70" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T70" t="n">
         <v>1.81</v>
       </c>
-      <c r="T70" t="n">
-        <v>1.8</v>
-      </c>
       <c r="U70" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V70" t="n">
         <v>1.07</v>
       </c>
       <c r="W70" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="X70" t="n">
         <v>50</v>
@@ -10018,16 +10018,16 @@
         <v>1.78</v>
       </c>
       <c r="R71" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S71" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="T71" t="n">
         <v>1.76</v>
       </c>
       <c r="U71" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V71" t="n">
         <v>1.98</v>
@@ -10066,19 +10066,19 @@
         <v>17.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI71" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ71" t="n">
         <v>1000</v>
       </c>
       <c r="AK71" t="n">
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="AL71" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM71" t="n">
         <v>95</v>
@@ -10087,7 +10087,7 @@
         <v>50</v>
       </c>
       <c r="AO71" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="72">
@@ -10117,34 +10117,34 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G72" t="n">
-        <v>7.4</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="I72" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="J72" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K72" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L72" t="n">
         <v>1.01</v>
       </c>
       <c r="M72" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N72" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O72" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P72" t="n">
         <v>2</v>
@@ -10153,7 +10153,7 @@
         <v>1.87</v>
       </c>
       <c r="R72" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S72" t="n">
         <v>1.9</v>
@@ -10162,67 +10162,67 @@
         <v>1.04</v>
       </c>
       <c r="U72" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="V72" t="n">
         <v>2.08</v>
       </c>
       <c r="W72" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="X72" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="Z72" t="n">
         <v>12</v>
       </c>
       <c r="AA72" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AB72" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AC72" t="n">
-        <v>8.800000000000001</v>
+        <v>16</v>
       </c>
       <c r="AD72" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE72" t="n">
         <v>19.5</v>
       </c>
       <c r="AF72" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AG72" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AH72" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK72" t="n">
         <v>60</v>
       </c>
-      <c r="AI72" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>75</v>
-      </c>
       <c r="AL72" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AM72" t="n">
         <v>110</v>
       </c>
       <c r="AN72" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO72" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -10255,10 +10255,10 @@
         <v>1.77</v>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="H73" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I73" t="n">
         <v>5.9</v>
@@ -10267,10 +10267,10 @@
         <v>3.7</v>
       </c>
       <c r="K73" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L73" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M73" t="n">
         <v>1.08</v>
@@ -10282,7 +10282,7 @@
         <v>1.37</v>
       </c>
       <c r="P73" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q73" t="n">
         <v>2.08</v>
@@ -10294,67 +10294,67 @@
         <v>3.8</v>
       </c>
       <c r="T73" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U73" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V73" t="n">
         <v>1.2</v>
       </c>
       <c r="W73" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="X73" t="n">
         <v>12.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z73" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AA73" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AB73" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC73" t="n">
         <v>8.6</v>
       </c>
       <c r="AD73" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AE73" t="n">
         <v>85</v>
       </c>
       <c r="AF73" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG73" t="n">
         <v>10.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI73" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AJ73" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AK73" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL73" t="n">
         <v>42</v>
       </c>
       <c r="AM73" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN73" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO73" t="n">
         <v>120</v>
@@ -10387,58 +10387,58 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="G74" t="n">
         <v>4.9</v>
       </c>
       <c r="H74" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="I74" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J74" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L74" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M74" t="n">
         <v>1.09</v>
       </c>
       <c r="N74" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O74" t="n">
         <v>1.47</v>
       </c>
       <c r="P74" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="R74" t="n">
         <v>1.21</v>
       </c>
       <c r="S74" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T74" t="n">
         <v>2.04</v>
       </c>
       <c r="U74" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="V74" t="n">
         <v>1.8</v>
       </c>
       <c r="W74" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X74" t="n">
         <v>11</v>
@@ -10447,16 +10447,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z74" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA74" t="n">
         <v>80</v>
       </c>
       <c r="AB74" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC74" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD74" t="n">
         <v>12</v>
@@ -10471,7 +10471,7 @@
         <v>19.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AI74" t="n">
         <v>1000</v>
@@ -10483,7 +10483,7 @@
         <v>1000</v>
       </c>
       <c r="AL74" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM74" t="n">
         <v>1000</v>
@@ -10492,7 +10492,7 @@
         <v>1000</v>
       </c>
       <c r="AO74" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
@@ -10543,13 +10543,13 @@
         <v>1.01</v>
       </c>
       <c r="M75" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N75" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O75" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P75" t="n">
         <v>1.93</v>
@@ -10558,7 +10558,7 @@
         <v>2</v>
       </c>
       <c r="R75" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="S75" t="n">
         <v>3.5</v>
@@ -10576,19 +10576,19 @@
         <v>1.37</v>
       </c>
       <c r="X75" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="Y75" t="n">
         <v>10.5</v>
       </c>
       <c r="Z75" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA75" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AB75" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC75" t="n">
         <v>8.800000000000001</v>
@@ -10597,16 +10597,16 @@
         <v>12</v>
       </c>
       <c r="AE75" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AF75" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AG75" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AH75" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI75" t="n">
         <v>980</v>
@@ -10621,13 +10621,13 @@
         <v>980</v>
       </c>
       <c r="AM75" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN75" t="n">
         <v>980</v>
       </c>
       <c r="AO75" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76">
@@ -10666,10 +10666,10 @@
         <v>4.2</v>
       </c>
       <c r="I76" t="n">
-        <v>110</v>
+        <v>6.2</v>
       </c>
       <c r="J76" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="K76" t="n">
         <v>3.7</v>
@@ -10678,25 +10678,25 @@
         <v>1.01</v>
       </c>
       <c r="M76" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N76" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="O76" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P76" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="Q76" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="R76" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S76" t="n">
-        <v>1.02</v>
+        <v>4</v>
       </c>
       <c r="T76" t="n">
         <v>1.04</v>
@@ -10705,16 +10705,16 @@
         <v>1.04</v>
       </c>
       <c r="V76" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="W76" t="n">
         <v>1.98</v>
       </c>
       <c r="X76" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y76" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="Z76" t="n">
         <v>190</v>
@@ -10723,7 +10723,7 @@
         <v>900</v>
       </c>
       <c r="AB76" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AC76" t="n">
         <v>42</v>
@@ -10735,10 +10735,10 @@
         <v>370</v>
       </c>
       <c r="AF76" t="n">
-        <v>95</v>
+        <v>970</v>
       </c>
       <c r="AG76" t="n">
-        <v>95</v>
+        <v>970</v>
       </c>
       <c r="AH76" t="n">
         <v>70</v>
@@ -10756,10 +10756,10 @@
         <v>290</v>
       </c>
       <c r="AM76" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN76" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AO76" t="n">
         <v>480</v>
@@ -10792,112 +10792,112 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G77" t="n">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="H77" t="n">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="I77" t="n">
-        <v>140</v>
+        <v>9.6</v>
       </c>
       <c r="J77" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K77" t="n">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
       </c>
       <c r="M77" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N77" t="n">
-        <v>1.89</v>
+        <v>3.45</v>
       </c>
       <c r="O77" t="n">
-        <v>1.02</v>
+        <v>1.32</v>
       </c>
       <c r="P77" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.28</v>
+        <v>1.96</v>
       </c>
       <c r="R77" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S77" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="T77" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="U77" t="n">
-        <v>1.04</v>
+        <v>1.77</v>
       </c>
       <c r="V77" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="W77" t="n">
-        <v>2.22</v>
+        <v>2.68</v>
       </c>
       <c r="X77" t="n">
-        <v>90</v>
+        <v>14.5</v>
       </c>
       <c r="Y77" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Z77" t="n">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="AA77" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AB77" t="n">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC77" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="AD77" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AE77" t="n">
-        <v>540</v>
+        <v>150</v>
       </c>
       <c r="AF77" t="n">
-        <v>17</v>
+        <v>8.6</v>
       </c>
       <c r="AG77" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI77" t="n">
-        <v>430</v>
+        <v>140</v>
       </c>
       <c r="AJ77" t="n">
-        <v>36</v>
+        <v>14.5</v>
       </c>
       <c r="AK77" t="n">
-        <v>36</v>
+        <v>18.5</v>
       </c>
       <c r="AL77" t="n">
         <v>170</v>
       </c>
       <c r="AM77" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN77" t="n">
-        <v>55</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO77" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78">
@@ -10972,7 +10972,7 @@
         <v>2.02</v>
       </c>
       <c r="U78" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V78" t="n">
         <v>1.13</v>
@@ -11080,7 +11080,7 @@
         <v>4.3</v>
       </c>
       <c r="L79" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M79" t="n">
         <v>1.08</v>
@@ -11092,7 +11092,7 @@
         <v>1.37</v>
       </c>
       <c r="P79" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q79" t="n">
         <v>2.1</v>
@@ -11197,7 +11197,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="G80" t="n">
         <v>1.2</v>
@@ -11239,10 +11239,10 @@
         <v>2.64</v>
       </c>
       <c r="T80" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="U80" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V80" t="n">
         <v>1.03</v>
@@ -11254,7 +11254,7 @@
         <v>980</v>
       </c>
       <c r="Y80" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="Z80" t="n">
         <v>300</v>
@@ -11299,7 +11299,7 @@
         <v>1000</v>
       </c>
       <c r="AN80" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AO80" t="n">
         <v>1000</v>
@@ -11332,22 +11332,22 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G81" t="n">
         <v>3.1</v>
       </c>
       <c r="H81" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I81" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K81" t="n">
         <v>3.15</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K81" t="n">
-        <v>3.3</v>
       </c>
       <c r="L81" t="n">
         <v>1.45</v>
@@ -11356,7 +11356,7 @@
         <v>1.09</v>
       </c>
       <c r="N81" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O81" t="n">
         <v>1.37</v>
@@ -11365,7 +11365,7 @@
         <v>1.73</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="R81" t="n">
         <v>1.28</v>
@@ -11377,16 +11377,16 @@
         <v>1.78</v>
       </c>
       <c r="U81" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V81" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W81" t="n">
         <v>1.47</v>
       </c>
       <c r="X81" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Y81" t="n">
         <v>11.5</v>
@@ -11401,16 +11401,16 @@
         <v>11.5</v>
       </c>
       <c r="AC81" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD81" t="n">
         <v>16</v>
       </c>
       <c r="AE81" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF81" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG81" t="n">
         <v>970</v>
@@ -11422,7 +11422,7 @@
         <v>1000</v>
       </c>
       <c r="AJ81" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AK81" t="n">
         <v>1000</v>
@@ -11473,7 +11473,7 @@
         <v>2.24</v>
       </c>
       <c r="H82" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I82" t="n">
         <v>4.3</v>
@@ -11521,7 +11521,7 @@
         <v>1.8</v>
       </c>
       <c r="X82" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y82" t="n">
         <v>15.5</v>
@@ -11551,7 +11551,7 @@
         <v>11</v>
       </c>
       <c r="AH82" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI82" t="n">
         <v>90</v>
@@ -11560,19 +11560,19 @@
         <v>34</v>
       </c>
       <c r="AK82" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AL82" t="n">
         <v>980</v>
       </c>
       <c r="AM82" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN82" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO82" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83">
@@ -11614,7 +11614,7 @@
         <v>2.98</v>
       </c>
       <c r="J83" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K83" t="n">
         <v>3.6</v>
@@ -11632,7 +11632,7 @@
         <v>1.33</v>
       </c>
       <c r="P83" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q83" t="n">
         <v>2.02</v>
@@ -11656,10 +11656,10 @@
         <v>1.51</v>
       </c>
       <c r="X83" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y83" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z83" t="n">
         <v>1000</v>
@@ -11668,16 +11668,16 @@
         <v>980</v>
       </c>
       <c r="AB83" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC83" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD83" t="n">
         <v>13</v>
       </c>
       <c r="AE83" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AF83" t="n">
         <v>19.5</v>
@@ -11707,7 +11707,7 @@
         <v>1000</v>
       </c>
       <c r="AO83" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84">
@@ -11740,13 +11740,13 @@
         <v>2.12</v>
       </c>
       <c r="G84" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H84" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I84" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3.55</v>
       </c>
       <c r="J84" t="n">
         <v>4</v>
@@ -11755,7 +11755,7 @@
         <v>4.1</v>
       </c>
       <c r="L84" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M84" t="n">
         <v>1.04</v>
@@ -11785,7 +11785,7 @@
         <v>2.8</v>
       </c>
       <c r="V84" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W84" t="n">
         <v>1.87</v>
@@ -11800,7 +11800,7 @@
         <v>29</v>
       </c>
       <c r="AA84" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB84" t="n">
         <v>15.5</v>
@@ -11827,7 +11827,7 @@
         <v>34</v>
       </c>
       <c r="AJ84" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK84" t="n">
         <v>18.5</v>
@@ -11836,7 +11836,7 @@
         <v>25</v>
       </c>
       <c r="AM84" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN84" t="n">
         <v>9.199999999999999</v>
@@ -11884,7 +11884,7 @@
         <v>1.32</v>
       </c>
       <c r="J85" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="K85" t="n">
         <v>6.4</v>
@@ -11914,10 +11914,10 @@
         <v>3</v>
       </c>
       <c r="T85" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="U85" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="V85" t="n">
         <v>4.1</v>
@@ -11926,58 +11926,58 @@
         <v>1.07</v>
       </c>
       <c r="X85" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y85" t="n">
         <v>7.8</v>
       </c>
       <c r="Z85" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AA85" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB85" t="n">
         <v>36</v>
       </c>
       <c r="AC85" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD85" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE85" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF85" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AG85" t="n">
         <v>55</v>
       </c>
       <c r="AH85" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AI85" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ85" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="AK85" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AL85" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AM85" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AN85" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AO85" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="86">
@@ -12073,7 +12073,7 @@
         <v>12</v>
       </c>
       <c r="AB86" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AC86" t="n">
         <v>11.5</v>
@@ -12082,7 +12082,7 @@
         <v>10.5</v>
       </c>
       <c r="AE86" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AF86" t="n">
         <v>110</v>
@@ -12103,7 +12103,7 @@
         <v>210</v>
       </c>
       <c r="AL86" t="n">
-        <v>170</v>
+        <v>520</v>
       </c>
       <c r="AM86" t="n">
         <v>230</v>
@@ -12142,13 +12142,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="G87" t="n">
         <v>1.32</v>
       </c>
       <c r="H87" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I87" t="n">
         <v>13.5</v>
@@ -12157,7 +12157,7 @@
         <v>6.6</v>
       </c>
       <c r="K87" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L87" t="n">
         <v>1.16</v>
@@ -12166,28 +12166,28 @@
         <v>1.02</v>
       </c>
       <c r="N87" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="O87" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P87" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R87" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="S87" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T87" t="n">
         <v>1.83</v>
       </c>
       <c r="U87" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V87" t="n">
         <v>1.08</v>
@@ -12208,23 +12208,23 @@
         <v>1000</v>
       </c>
       <c r="AB87" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC87" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG87" t="n">
         <v>17</v>
       </c>
-      <c r="AD87" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH87" t="n">
         <v>1000</v>
       </c>
@@ -12232,10 +12232,10 @@
         <v>1000</v>
       </c>
       <c r="AJ87" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AK87" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AL87" t="n">
         <v>1000</v>
@@ -12244,7 +12244,7 @@
         <v>1000</v>
       </c>
       <c r="AN87" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AO87" t="n">
         <v>1000</v>
@@ -12277,28 +12277,28 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="G88" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H88" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="I88" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="J88" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K88" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="L88" t="n">
         <v>1.01</v>
       </c>
       <c r="M88" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N88" t="n">
         <v>4.2</v>
@@ -12307,19 +12307,19 @@
         <v>1.25</v>
       </c>
       <c r="P88" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q88" t="n">
         <v>1.75</v>
       </c>
       <c r="R88" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="S88" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="T88" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U88" t="n">
         <v>1.79</v>
@@ -12367,19 +12367,19 @@
         <v>40</v>
       </c>
       <c r="AJ88" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="AK88" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AL88" t="n">
         <v>140</v>
       </c>
       <c r="AM88" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN88" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AO88" t="n">
         <v>6.6</v>
@@ -12415,7 +12415,7 @@
         <v>2.44</v>
       </c>
       <c r="G89" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H89" t="n">
         <v>3.35</v>
@@ -12436,13 +12436,13 @@
         <v>1.09</v>
       </c>
       <c r="N89" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O89" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P89" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q89" t="n">
         <v>2.24</v>
@@ -12451,22 +12451,22 @@
         <v>1.3</v>
       </c>
       <c r="S89" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T89" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U89" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V89" t="n">
         <v>1.41</v>
       </c>
       <c r="W89" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X89" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y89" t="n">
         <v>11.5</v>
@@ -12478,7 +12478,7 @@
         <v>60</v>
       </c>
       <c r="AB89" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC89" t="n">
         <v>7.2</v>
@@ -12550,19 +12550,19 @@
         <v>2.84</v>
       </c>
       <c r="G90" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="H90" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I90" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J90" t="n">
         <v>2.8</v>
       </c>
       <c r="K90" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="L90" t="n">
         <v>1.43</v>
@@ -12574,22 +12574,22 @@
         <v>2.2</v>
       </c>
       <c r="O90" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="P90" t="n">
         <v>1.39</v>
       </c>
       <c r="Q90" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R90" t="n">
         <v>1.13</v>
       </c>
       <c r="S90" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="T90" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="U90" t="n">
         <v>1.6</v>
@@ -12601,7 +12601,7 @@
         <v>1.51</v>
       </c>
       <c r="X90" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Y90" t="n">
         <v>7.8</v>
@@ -12616,7 +12616,7 @@
         <v>7</v>
       </c>
       <c r="AC90" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD90" t="n">
         <v>17.5</v>
@@ -12685,16 +12685,16 @@
         <v>1.34</v>
       </c>
       <c r="G91" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H91" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I91" t="n">
         <v>11</v>
       </c>
       <c r="J91" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K91" t="n">
         <v>6.4</v>
@@ -12712,10 +12712,10 @@
         <v>1.16</v>
       </c>
       <c r="P91" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R91" t="n">
         <v>1.76</v>
@@ -12736,7 +12736,7 @@
         <v>3.75</v>
       </c>
       <c r="X91" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Y91" t="n">
         <v>42</v>
@@ -12760,13 +12760,13 @@
         <v>140</v>
       </c>
       <c r="AF91" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG91" t="n">
         <v>11</v>
       </c>
       <c r="AH91" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI91" t="n">
         <v>120</v>
@@ -12781,7 +12781,7 @@
         <v>32</v>
       </c>
       <c r="AM91" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN91" t="n">
         <v>4.2</v>
@@ -12817,13 +12817,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="G92" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H92" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I92" t="n">
         <v>4.7</v>
@@ -12832,7 +12832,7 @@
         <v>4</v>
       </c>
       <c r="K92" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L92" t="n">
         <v>1.21</v>
@@ -12841,37 +12841,37 @@
         <v>1.03</v>
       </c>
       <c r="N92" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O92" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P92" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q92" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T92" t="n">
         <v>1.56</v>
       </c>
-      <c r="R92" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S92" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T92" t="n">
-        <v>1.58</v>
-      </c>
       <c r="U92" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V92" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W92" t="n">
         <v>2.06</v>
       </c>
       <c r="X92" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y92" t="n">
         <v>24</v>
@@ -12886,43 +12886,43 @@
         <v>15</v>
       </c>
       <c r="AC92" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD92" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE92" t="n">
         <v>55</v>
       </c>
       <c r="AF92" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG92" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH92" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI92" t="n">
         <v>55</v>
       </c>
       <c r="AJ92" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK92" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL92" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM92" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN92" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO92" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93">
@@ -12976,7 +12976,7 @@
         <v>1.09</v>
       </c>
       <c r="N93" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O93" t="n">
         <v>1.4</v>
@@ -12985,7 +12985,7 @@
         <v>1.78</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R93" t="n">
         <v>1.27</v>
@@ -12994,7 +12994,7 @@
         <v>4.1</v>
       </c>
       <c r="T93" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U93" t="n">
         <v>1.96</v>
@@ -13006,7 +13006,7 @@
         <v>1.86</v>
       </c>
       <c r="X93" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y93" t="n">
         <v>14</v>
@@ -13051,13 +13051,13 @@
         <v>46</v>
       </c>
       <c r="AM93" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN93" t="n">
         <v>22</v>
       </c>
       <c r="AO93" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94">
@@ -13099,10 +13099,10 @@
         <v>18</v>
       </c>
       <c r="J94" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="K94" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="L94" t="n">
         <v>1.17</v>
@@ -13114,16 +13114,16 @@
         <v>10.5</v>
       </c>
       <c r="O94" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P94" t="n">
         <v>4.3</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="R94" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="S94" t="n">
         <v>1.69</v>
@@ -13132,10 +13132,10 @@
         <v>1.8</v>
       </c>
       <c r="U94" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V94" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W94" t="n">
         <v>6</v>
@@ -13156,13 +13156,13 @@
         <v>19</v>
       </c>
       <c r="AC94" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD94" t="n">
         <v>60</v>
       </c>
       <c r="AE94" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AF94" t="n">
         <v>12.5</v>
@@ -13189,7 +13189,7 @@
         <v>140</v>
       </c>
       <c r="AN94" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="AO94" t="n">
         <v>180</v>
@@ -13264,7 +13264,7 @@
         <v>3.3</v>
       </c>
       <c r="T95" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U95" t="n">
         <v>2</v>
@@ -13300,7 +13300,7 @@
         <v>95</v>
       </c>
       <c r="AF95" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG95" t="n">
         <v>9.800000000000001</v>
@@ -13363,10 +13363,10 @@
         <v>1.77</v>
       </c>
       <c r="H96" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I96" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J96" t="n">
         <v>4</v>
@@ -13381,16 +13381,16 @@
         <v>1.06</v>
       </c>
       <c r="N96" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O96" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P96" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R96" t="n">
         <v>1.43</v>
@@ -13399,13 +13399,13 @@
         <v>3.05</v>
       </c>
       <c r="T96" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U96" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V96" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W96" t="n">
         <v>2.28</v>
@@ -13456,7 +13456,7 @@
         <v>34</v>
       </c>
       <c r="AM96" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN96" t="n">
         <v>10</v>
@@ -13498,43 +13498,43 @@
         <v>2.24</v>
       </c>
       <c r="H97" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I97" t="n">
         <v>3.9</v>
       </c>
       <c r="J97" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K97" t="n">
         <v>3.45</v>
       </c>
       <c r="L97" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M97" t="n">
         <v>1.09</v>
       </c>
       <c r="N97" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O97" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P97" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="R97" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S97" t="n">
         <v>4.2</v>
       </c>
       <c r="T97" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U97" t="n">
         <v>2</v>
@@ -13546,10 +13546,10 @@
         <v>1.8</v>
       </c>
       <c r="X97" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y97" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z97" t="n">
         <v>26</v>
@@ -13558,7 +13558,7 @@
         <v>80</v>
       </c>
       <c r="AB97" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC97" t="n">
         <v>7.2</v>
@@ -13591,7 +13591,7 @@
         <v>46</v>
       </c>
       <c r="AM97" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN97" t="n">
         <v>22</v>
@@ -13627,25 +13627,25 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G98" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H98" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I98" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J98" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K98" t="n">
         <v>4.3</v>
       </c>
       <c r="L98" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M98" t="n">
         <v>1.05</v>
@@ -13657,28 +13657,28 @@
         <v>1.26</v>
       </c>
       <c r="P98" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q98" t="n">
         <v>1.77</v>
       </c>
       <c r="R98" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S98" t="n">
         <v>2.92</v>
       </c>
       <c r="T98" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U98" t="n">
         <v>2.2</v>
       </c>
       <c r="V98" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W98" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X98" t="n">
         <v>22</v>
@@ -13729,7 +13729,7 @@
         <v>90</v>
       </c>
       <c r="AN98" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO98" t="n">
         <v>60</v>
@@ -13762,10 +13762,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="G99" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H99" t="n">
         <v>4.5</v>
@@ -13774,7 +13774,7 @@
         <v>4.6</v>
       </c>
       <c r="J99" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K99" t="n">
         <v>3.95</v>
@@ -13792,10 +13792,10 @@
         <v>1.32</v>
       </c>
       <c r="P99" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R99" t="n">
         <v>1.37</v>
@@ -13804,22 +13804,22 @@
         <v>3.4</v>
       </c>
       <c r="T99" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U99" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V99" t="n">
         <v>1.27</v>
       </c>
       <c r="W99" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X99" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Y99" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z99" t="n">
         <v>980</v>
@@ -13915,7 +13915,7 @@
         <v>4.2</v>
       </c>
       <c r="L100" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M100" t="n">
         <v>1.05</v>
@@ -13927,10 +13927,10 @@
         <v>1.25</v>
       </c>
       <c r="P100" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R100" t="n">
         <v>1.47</v>
@@ -13942,7 +13942,7 @@
         <v>1.71</v>
       </c>
       <c r="U100" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V100" t="n">
         <v>2.08</v>
@@ -13984,7 +13984,7 @@
         <v>18.5</v>
       </c>
       <c r="AI100" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AJ100" t="n">
         <v>120</v>
@@ -13993,10 +13993,10 @@
         <v>55</v>
       </c>
       <c r="AL100" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM100" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN100" t="n">
         <v>1000</v>
@@ -14032,16 +14032,16 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="G101" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H101" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J101" t="n">
         <v>4</v>
@@ -14056,31 +14056,31 @@
         <v>1.03</v>
       </c>
       <c r="N101" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O101" t="n">
         <v>1.2</v>
       </c>
       <c r="P101" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R101" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S101" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T101" t="n">
         <v>1.57</v>
-      </c>
-      <c r="S101" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T101" t="n">
-        <v>1.58</v>
       </c>
       <c r="U101" t="n">
         <v>2.46</v>
       </c>
       <c r="V101" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W101" t="n">
         <v>1.32</v>
@@ -14194,25 +14194,25 @@
         <v>5</v>
       </c>
       <c r="O102" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P102" t="n">
         <v>2.36</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R102" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S102" t="n">
         <v>2.7</v>
       </c>
       <c r="T102" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U102" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V102" t="n">
         <v>1.54</v>
@@ -14224,16 +14224,16 @@
         <v>21</v>
       </c>
       <c r="Y102" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z102" t="n">
         <v>22</v>
       </c>
       <c r="AA102" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB102" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC102" t="n">
         <v>9.199999999999999</v>
@@ -14272,7 +14272,7 @@
         <v>15</v>
       </c>
       <c r="AO102" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.12</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>2.14</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>1.19</v>
       </c>
       <c r="I2" t="n">
-        <v>3.45</v>
+        <v>1.21</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.8</v>
+        <v>1.32</v>
       </c>
       <c r="O2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>23</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S2" t="n">
+        <v>160</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.2</v>
       </c>
-      <c r="P2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.66</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.5</v>
+        <v>1.34</v>
       </c>
       <c r="Z2" t="n">
-        <v>27</v>
+        <v>850</v>
       </c>
       <c r="AA2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>960</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.39</v>
+        <v>3.15</v>
       </c>
       <c r="G3" t="n">
-        <v>1.46</v>
+        <v>3.35</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="I3" t="n">
-        <v>10.5</v>
+        <v>2.74</v>
       </c>
       <c r="J3" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>6.8</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.69</v>
+        <v>6</v>
       </c>
       <c r="S3" t="n">
-        <v>2.28</v>
+        <v>1.18</v>
       </c>
       <c r="T3" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.11</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>3.15</v>
+        <v>1.42</v>
       </c>
       <c r="X3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>36</v>
+        <v>6.6</v>
       </c>
       <c r="AE3" t="n">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>4.4</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>12.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>6.4</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.9</v>
+        <v>8.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -937,88 +937,88 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G4" t="n">
         <v>3.05</v>
       </c>
-      <c r="G4" t="n">
-        <v>3.15</v>
-      </c>
       <c r="H4" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I4" t="n">
         <v>2.42</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T4" t="n">
         <v>1.64</v>
       </c>
       <c r="U4" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="V4" t="n">
         <v>1.7</v>
       </c>
       <c r="W4" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
         <v>34</v>
       </c>
       <c r="AB4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
         <v>11.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF4" t="n">
         <v>22</v>
       </c>
-      <c r="AF4" t="n">
-        <v>23</v>
-      </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>15.5</v>
@@ -1027,10 +1027,10 @@
         <v>32</v>
       </c>
       <c r="AJ4" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
         <v>36</v>
@@ -1042,7 +1042,7 @@
         <v>22</v>
       </c>
       <c r="AO4" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,67 +1072,67 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G5" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
         <v>4.3</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R5" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T5" t="n">
         <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
@@ -1141,34 +1141,34 @@
         <v>9.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>85</v>
+        <v>290</v>
       </c>
       <c r="AF5" t="n">
         <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>23</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>22</v>
       </c>
       <c r="AK5" t="n">
         <v>22</v>
       </c>
       <c r="AL5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>13.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
@@ -1207,34 +1207,34 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="G6" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.43</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
         <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
         <v>1.84</v>
@@ -1243,25 +1243,25 @@
         <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
         <v>3.55</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U6" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W6" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1273,13 +1273,13 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
         <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1288,16 +1288,16 @@
         <v>28</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AK6" t="n">
         <v>70</v>
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="G7" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="X7" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
         <v>27</v>
@@ -1408,46 +1408,46 @@
         <v>240</v>
       </c>
       <c r="AB7" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AF7" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AO7" t="n">
-        <v>90</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="G8" t="n">
         <v>9.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="I8" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="R8" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="S8" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U8" t="n">
         <v>2.12</v>
       </c>
       <c r="V8" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="W8" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>14</v>
       </c>
-      <c r="Z8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AF8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>310</v>
+      </c>
+      <c r="AK8" t="n">
         <v>110</v>
       </c>
-      <c r="AG8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>360</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>130</v>
-      </c>
       <c r="AL8" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AO8" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="H9" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="I9" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
         <v>1.39</v>
@@ -1636,7 +1636,7 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
         <v>1.31</v>
@@ -1645,64 +1645,64 @@
         <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S9" t="n">
         <v>3.35</v>
       </c>
       <c r="T9" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W9" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA9" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC9" t="n">
         <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK9" t="n">
         <v>17.5</v>
@@ -1711,13 +1711,13 @@
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -1750,7 +1750,7 @@
         <v>3.8</v>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -1759,40 +1759,40 @@
         <v>2.12</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="P10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.02</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.92</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="T10" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="U10" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
         <v>1.9</v>
@@ -1801,28 +1801,28 @@
         <v>1.31</v>
       </c>
       <c r="X10" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>29</v>
       </c>
       <c r="AB10" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
         <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>32</v>
@@ -1831,28 +1831,28 @@
         <v>17</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="n">
         <v>170</v>
       </c>
       <c r="AK10" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AM10" t="n">
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AO10" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,64 +1882,64 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="G11" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="H11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I11" t="n">
         <v>9</v>
       </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
       <c r="J11" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="R11" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="S11" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="T11" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="U11" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="V11" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W11" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="X11" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1948,31 +1948,31 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>17.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>27</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2020,43 +2020,43 @@
         <v>1.13</v>
       </c>
       <c r="G12" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="J12" t="n">
         <v>7.8</v>
       </c>
       <c r="K12" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="L12" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
         <v>3.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P12" t="n">
-        <v>2.84</v>
+        <v>2.58</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="R12" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="T12" t="n">
         <v>1.04</v>
@@ -2068,7 +2068,7 @@
         <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2152,58 +2152,58 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="R13" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="S13" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="T13" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U13" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="V13" t="n">
         <v>1.28</v>
       </c>
       <c r="W13" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
@@ -2218,19 +2218,19 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AE13" t="n">
         <v>500</v>
       </c>
       <c r="AF13" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AG13" t="n">
         <v>18</v>
@@ -2242,16 +2242,16 @@
         <v>250</v>
       </c>
       <c r="AJ13" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AK13" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AL13" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
         <v>32</v>
@@ -2287,31 +2287,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.46</v>
+        <v>2.9</v>
       </c>
       <c r="G14" t="n">
-        <v>2.76</v>
+        <v>3.25</v>
       </c>
       <c r="H14" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I14" t="n">
         <v>2.6</v>
       </c>
-      <c r="I14" t="n">
-        <v>2.88</v>
-      </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>1.3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
@@ -2320,10 +2320,10 @@
         <v>2.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S14" t="n">
         <v>2.56</v>
@@ -2332,67 +2332,67 @@
         <v>1.53</v>
       </c>
       <c r="U14" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="V14" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="W14" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AB14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="AF14" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AK14" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
         <v>200</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AO14" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="15">
@@ -2428,13 +2428,13 @@
         <v>2.36</v>
       </c>
       <c r="H15" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="I15" t="n">
         <v>3.45</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
         <v>5.9</v>
@@ -2443,19 +2443,19 @@
         <v>1.21</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="R15" t="n">
         <v>2</v>
@@ -2464,7 +2464,7 @@
         <v>1.92</v>
       </c>
       <c r="T15" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="U15" t="n">
         <v>3</v>
@@ -2506,7 +2506,7 @@
         <v>970</v>
       </c>
       <c r="AH15" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI15" t="n">
         <v>970</v>
@@ -2560,22 +2560,22 @@
         <v>3.4</v>
       </c>
       <c r="G16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K16" t="n">
         <v>4.4</v>
       </c>
-      <c r="H16" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2584,19 +2584,19 @@
         <v>4.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="R16" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T16" t="n">
         <v>1.65</v>
@@ -2605,10 +2605,10 @@
         <v>2.16</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="W16" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="X16" t="n">
         <v>970</v>
@@ -2629,7 +2629,7 @@
         <v>42</v>
       </c>
       <c r="AD16" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
         <v>970</v>
@@ -2695,16 +2695,16 @@
         <v>1.27</v>
       </c>
       <c r="G17" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I17" t="n">
         <v>13.5</v>
       </c>
       <c r="J17" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="K17" t="n">
         <v>7</v>
@@ -2728,28 +2728,28 @@
         <v>1.55</v>
       </c>
       <c r="R17" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="S17" t="n">
         <v>2.38</v>
       </c>
       <c r="T17" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="V17" t="n">
         <v>1.08</v>
       </c>
       <c r="W17" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="X17" t="n">
         <v>34</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
@@ -2761,10 +2761,10 @@
         <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
@@ -2776,7 +2776,7 @@
         <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2788,7 +2788,7 @@
         <v>15</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="G18" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H18" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="I18" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.55</v>
       </c>
       <c r="L18" t="n">
         <v>1.48</v>
@@ -2854,37 +2854,37 @@
         <v>3.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R18" t="n">
         <v>1.28</v>
       </c>
       <c r="S18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U18" t="n">
         <v>1.95</v>
       </c>
       <c r="V18" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X18" t="n">
         <v>11.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z18" t="n">
         <v>11</v>
@@ -2893,7 +2893,7 @@
         <v>23</v>
       </c>
       <c r="AB18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC18" t="n">
         <v>7.6</v>
@@ -2917,22 +2917,22 @@
         <v>44</v>
       </c>
       <c r="AJ18" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK18" t="n">
         <v>65</v>
       </c>
       <c r="AL18" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="n">
         <v>140</v>
       </c>
       <c r="AN18" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="G19" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="H19" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="I19" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
@@ -2980,19 +2980,19 @@
         <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q19" t="n">
         <v>2.1</v>
@@ -3010,22 +3010,22 @@
         <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="W19" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X19" t="n">
         <v>12.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB19" t="n">
         <v>13.5</v>
@@ -3037,34 +3037,34 @@
         <v>11</v>
       </c>
       <c r="AE19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF19" t="n">
         <v>24</v>
       </c>
-      <c r="AF19" t="n">
-        <v>26</v>
-      </c>
       <c r="AG19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK19" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL19" t="n">
         <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO19" t="n">
         <v>19</v>
@@ -3097,58 +3097,58 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="G20" t="n">
         <v>1.26</v>
       </c>
       <c r="H20" t="n">
+        <v>13</v>
+      </c>
+      <c r="I20" t="n">
+        <v>30</v>
+      </c>
+      <c r="J20" t="n">
         <v>6</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.5</v>
       </c>
       <c r="K20" t="n">
         <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P20" t="n">
         <v>1.92</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R20" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T20" t="n">
         <v>3</v>
       </c>
       <c r="U20" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="V20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W20" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="X20" t="n">
         <v>970</v>
@@ -3163,7 +3163,7 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
         <v>970</v>
@@ -3187,13 +3187,13 @@
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>900</v>
+        <v>16</v>
       </c>
       <c r="AK20" t="n">
         <v>970</v>
       </c>
       <c r="AL20" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G21" t="n">
         <v>500</v>
@@ -3265,7 +3265,7 @@
         <v>1.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="G22" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H22" t="n">
         <v>3</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.94</v>
-      </c>
       <c r="I22" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J22" t="n">
         <v>2.84</v>
       </c>
       <c r="K22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="M22" t="n">
         <v>1.13</v>
@@ -3394,19 +3394,19 @@
         <v>2.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="P22" t="n">
         <v>1.51</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="R22" t="n">
         <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="T22" t="n">
         <v>2.08</v>
@@ -3415,25 +3415,25 @@
         <v>1.75</v>
       </c>
       <c r="V22" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="W22" t="n">
         <v>1.52</v>
       </c>
       <c r="X22" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z22" t="n">
         <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC22" t="n">
         <v>7.4</v>
@@ -3442,25 +3442,25 @@
         <v>15.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="AF22" t="n">
         <v>17.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH22" t="n">
         <v>24</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK22" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AL22" t="n">
         <v>230</v>
@@ -3469,10 +3469,10 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AO22" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -3643,22 +3643,22 @@
         <v>1.41</v>
       </c>
       <c r="H24" t="n">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="I24" t="n">
-        <v>870</v>
+        <v>15</v>
       </c>
       <c r="J24" t="n">
         <v>4.8</v>
       </c>
       <c r="K24" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
         <v>3.7</v>
@@ -3667,7 +3667,7 @@
         <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q24" t="n">
         <v>1.94</v>
@@ -3676,22 +3676,22 @@
         <v>1.34</v>
       </c>
       <c r="S24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T24" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="U24" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="V24" t="n">
         <v>1.07</v>
       </c>
       <c r="W24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="X24" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="Y24" t="n">
         <v>34</v>
@@ -3700,46 +3700,46 @@
         <v>120</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>790</v>
       </c>
       <c r="AB24" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC24" t="n">
         <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE24" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="AF24" t="n">
         <v>7</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
         <v>42</v>
       </c>
       <c r="AI24" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AJ24" t="n">
         <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="AN24" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H25" t="n">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="I25" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="J25" t="n">
         <v>2.52</v>
       </c>
       <c r="K25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L25" t="n">
         <v>1.64</v>
@@ -3799,7 +3799,7 @@
         <v>2.28</v>
       </c>
       <c r="O25" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="P25" t="n">
         <v>1.39</v>
@@ -3820,16 +3820,16 @@
         <v>1.61</v>
       </c>
       <c r="V25" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W25" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="X25" t="n">
-        <v>16</v>
+        <v>7.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>17.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z25" t="n">
         <v>970</v>
@@ -3838,7 +3838,7 @@
         <v>900</v>
       </c>
       <c r="AB25" t="n">
-        <v>16</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC25" t="n">
         <v>7.6</v>
@@ -3868,7 +3868,7 @@
         <v>970</v>
       </c>
       <c r="AL25" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G26" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I26" t="n">
         <v>6.8</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
         <v>1.49</v>
@@ -3931,52 +3931,52 @@
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P26" t="n">
         <v>1.73</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R26" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T26" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="U26" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V26" t="n">
         <v>1.17</v>
       </c>
       <c r="W26" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X26" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Z26" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
         <v>44</v>
@@ -3997,19 +3997,19 @@
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AL26" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4054,7 +4054,7 @@
         <v>3.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K27" t="n">
         <v>3.4</v>
@@ -4072,7 +4072,7 @@
         <v>1.51</v>
       </c>
       <c r="P27" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q27" t="n">
         <v>2.56</v>
@@ -4084,7 +4084,7 @@
         <v>5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
         <v>1.73</v>
@@ -4180,13 +4180,13 @@
         <v>2.04</v>
       </c>
       <c r="G28" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I28" t="n">
         <v>4.5</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.6</v>
       </c>
       <c r="J28" t="n">
         <v>3.45</v>
@@ -4195,16 +4195,16 @@
         <v>3.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M28" t="n">
         <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P28" t="n">
         <v>1.81</v>
@@ -4213,13 +4213,13 @@
         <v>2.18</v>
       </c>
       <c r="R28" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T28" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U28" t="n">
         <v>2</v>
@@ -4228,7 +4228,7 @@
         <v>1.28</v>
       </c>
       <c r="W28" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="X28" t="n">
         <v>12</v>
@@ -4276,7 +4276,7 @@
         <v>42</v>
       </c>
       <c r="AM28" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN28" t="n">
         <v>17.5</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G29" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="H29" t="n">
         <v>5.1</v>
       </c>
       <c r="I29" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J29" t="n">
         <v>3.45</v>
@@ -4330,7 +4330,7 @@
         <v>3.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M29" t="n">
         <v>1.1</v>
@@ -4345,7 +4345,7 @@
         <v>1.69</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R29" t="n">
         <v>1.25</v>
@@ -4354,7 +4354,7 @@
         <v>4.7</v>
       </c>
       <c r="T29" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U29" t="n">
         <v>1.84</v>
@@ -4363,25 +4363,25 @@
         <v>1.23</v>
       </c>
       <c r="W29" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X29" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y29" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z29" t="n">
         <v>36</v>
       </c>
       <c r="AA29" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB29" t="n">
         <v>7</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD29" t="n">
         <v>20</v>
@@ -4399,7 +4399,7 @@
         <v>24</v>
       </c>
       <c r="AI29" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="n">
         <v>21</v>
@@ -4408,7 +4408,7 @@
         <v>23</v>
       </c>
       <c r="AL29" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM29" t="n">
         <v>170</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="G30" t="n">
         <v>4.6</v>
@@ -4456,7 +4456,7 @@
         <v>2.02</v>
       </c>
       <c r="I30" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J30" t="n">
         <v>3.35</v>
@@ -4477,13 +4477,13 @@
         <v>1.46</v>
       </c>
       <c r="P30" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q30" t="n">
         <v>2.42</v>
       </c>
       <c r="R30" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S30" t="n">
         <v>4.8</v>
@@ -4495,7 +4495,7 @@
         <v>1.87</v>
       </c>
       <c r="V30" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="W30" t="n">
         <v>1.27</v>
@@ -4516,7 +4516,7 @@
         <v>13.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD30" t="n">
         <v>11</v>
@@ -4534,7 +4534,7 @@
         <v>23</v>
       </c>
       <c r="AI30" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AJ30" t="n">
         <v>120</v>
@@ -4585,52 +4585,52 @@
         <v>3.25</v>
       </c>
       <c r="G31" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H31" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K31" t="n">
         <v>3.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M31" t="n">
         <v>1.12</v>
       </c>
       <c r="N31" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="O31" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P31" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="R31" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S31" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U31" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="V31" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W31" t="n">
         <v>1.42</v>
@@ -4639,16 +4639,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Y31" t="n">
-        <v>500</v>
+        <v>13</v>
       </c>
       <c r="Z31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA31" t="n">
         <v>46</v>
       </c>
       <c r="AB31" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="n">
         <v>7</v>
@@ -4672,13 +4672,13 @@
         <v>65</v>
       </c>
       <c r="AJ31" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="n">
         <v>48</v>
       </c>
       <c r="AL31" t="n">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="AM31" t="n">
         <v>170</v>
@@ -4687,7 +4687,7 @@
         <v>60</v>
       </c>
       <c r="AO31" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="G32" t="n">
         <v>2.5</v>
@@ -4726,61 +4726,61 @@
         <v>3.65</v>
       </c>
       <c r="I32" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J32" t="n">
         <v>3.05</v>
       </c>
       <c r="K32" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L32" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M32" t="n">
         <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P32" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.68</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.66</v>
       </c>
       <c r="X32" t="n">
         <v>10</v>
       </c>
       <c r="Y32" t="n">
-        <v>27</v>
+        <v>11.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="AA32" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB32" t="n">
         <v>8.6</v>
@@ -4789,40 +4789,40 @@
         <v>7</v>
       </c>
       <c r="AD32" t="n">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF32" t="n">
         <v>14.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI32" t="n">
         <v>460</v>
       </c>
       <c r="AJ32" t="n">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="AK32" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AL32" t="n">
         <v>460</v>
       </c>
       <c r="AM32" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33">
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G33" t="n">
         <v>6</v>
       </c>
-      <c r="G33" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H33" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="I33" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="J33" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K33" t="n">
         <v>4.1</v>
@@ -4882,7 +4882,7 @@
         <v>1.35</v>
       </c>
       <c r="P33" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q33" t="n">
         <v>2.04</v>
@@ -4897,22 +4897,22 @@
         <v>2</v>
       </c>
       <c r="U33" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V33" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="W33" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X33" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y33" t="n">
         <v>7.8</v>
       </c>
       <c r="Z33" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AA33" t="n">
         <v>17</v>
@@ -4921,13 +4921,13 @@
         <v>19</v>
       </c>
       <c r="AC33" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD33" t="n">
         <v>10</v>
       </c>
       <c r="AE33" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF33" t="n">
         <v>48</v>
@@ -4936,25 +4936,25 @@
         <v>24</v>
       </c>
       <c r="AH33" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>170</v>
       </c>
-      <c r="AJ33" t="n">
-        <v>180</v>
-      </c>
       <c r="AK33" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AL33" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="AM33" t="n">
         <v>140</v>
       </c>
       <c r="AN33" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AO33" t="n">
         <v>12</v>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="G34" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H34" t="n">
         <v>4.4</v>
@@ -4999,10 +4999,10 @@
         <v>4.5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K34" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L34" t="n">
         <v>1.38</v>
@@ -5011,49 +5011,49 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O34" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P34" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R34" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S34" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U34" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V34" t="n">
         <v>1.28</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="X34" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y34" t="n">
         <v>17.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA34" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC34" t="n">
         <v>8.4</v>
@@ -5065,7 +5065,7 @@
         <v>50</v>
       </c>
       <c r="AF34" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG34" t="n">
         <v>10.5</v>
@@ -5077,7 +5077,7 @@
         <v>55</v>
       </c>
       <c r="AJ34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK34" t="n">
         <v>21</v>
@@ -5086,13 +5086,13 @@
         <v>34</v>
       </c>
       <c r="AM34" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN34" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO34" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
@@ -5122,79 +5122,79 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G35" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H35" t="n">
         <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J35" t="n">
         <v>3.35</v>
       </c>
       <c r="K35" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L35" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M35" t="n">
         <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P35" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="R35" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S35" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T35" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W35" t="n">
         <v>1.86</v>
       </c>
-      <c r="U35" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.87</v>
-      </c>
       <c r="X35" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y35" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA35" t="n">
         <v>85</v>
       </c>
       <c r="AB35" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE35" t="n">
         <v>55</v>
@@ -5203,10 +5203,10 @@
         <v>12.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI35" t="n">
         <v>65</v>
@@ -5218,16 +5218,16 @@
         <v>24</v>
       </c>
       <c r="AL35" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM35" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5257,64 +5257,64 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G36" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="H36" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I36" t="n">
         <v>3.95</v>
       </c>
       <c r="J36" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K36" t="n">
         <v>4.1</v>
       </c>
       <c r="L36" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P36" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="R36" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S36" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T36" t="n">
         <v>1.66</v>
       </c>
       <c r="U36" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="V36" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W36" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="X36" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
         <v>1000</v>
@@ -5323,46 +5323,46 @@
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="AD36" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="AO36" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G37" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H37" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I37" t="n">
         <v>4</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4.1</v>
       </c>
       <c r="J37" t="n">
         <v>3.3</v>
@@ -5422,34 +5422,34 @@
         <v>1.45</v>
       </c>
       <c r="P37" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q37" t="n">
         <v>2.36</v>
       </c>
       <c r="R37" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S37" t="n">
         <v>4.5</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U37" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V37" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W37" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X37" t="n">
         <v>10.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z37" t="n">
         <v>27</v>
@@ -5482,7 +5482,7 @@
         <v>75</v>
       </c>
       <c r="AJ37" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AK37" t="n">
         <v>26</v>
@@ -5569,10 +5569,10 @@
         <v>2.46</v>
       </c>
       <c r="T38" t="n">
-        <v>1.56</v>
+        <v>1.04</v>
       </c>
       <c r="U38" t="n">
-        <v>2.66</v>
+        <v>1.04</v>
       </c>
       <c r="V38" t="n">
         <v>1.01</v>
@@ -5668,7 +5668,7 @@
         <v>1.86</v>
       </c>
       <c r="H39" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I39" t="n">
         <v>5.3</v>
@@ -5677,7 +5677,7 @@
         <v>3.7</v>
       </c>
       <c r="K39" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L39" t="n">
         <v>1.41</v>
@@ -5689,13 +5689,13 @@
         <v>3.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P39" t="n">
         <v>1.95</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R39" t="n">
         <v>1.37</v>
@@ -5740,7 +5740,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG39" t="n">
         <v>10</v>
@@ -5827,7 +5827,7 @@
         <v>1.01</v>
       </c>
       <c r="P40" t="n">
-        <v>2.04</v>
+        <v>1.25</v>
       </c>
       <c r="Q40" t="n">
         <v>1.7</v>
@@ -5935,28 +5935,28 @@
         <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>2.52</v>
       </c>
       <c r="I41" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="J41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K41" t="n">
         <v>3.65</v>
       </c>
-      <c r="K41" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L41" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M41" t="n">
         <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O41" t="n">
         <v>1.27</v>
@@ -5971,34 +5971,34 @@
         <v>1.46</v>
       </c>
       <c r="S41" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T41" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U41" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V41" t="n">
         <v>1.64</v>
       </c>
       <c r="W41" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X41" t="n">
         <v>16.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z41" t="n">
         <v>17</v>
       </c>
       <c r="AA41" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB41" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC41" t="n">
         <v>8</v>
@@ -6022,13 +6022,13 @@
         <v>34</v>
       </c>
       <c r="AJ41" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK41" t="n">
         <v>32</v>
       </c>
       <c r="AL41" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM41" t="n">
         <v>75</v>
@@ -6103,7 +6103,7 @@
         <v>1.71</v>
       </c>
       <c r="R42" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S42" t="n">
         <v>2.8</v>
@@ -6118,7 +6118,7 @@
         <v>1.15</v>
       </c>
       <c r="W42" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6205,79 +6205,79 @@
         <v>2.38</v>
       </c>
       <c r="G43" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="H43" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K43" t="n">
         <v>3.4</v>
       </c>
-      <c r="J43" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L43" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="M43" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="O43" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="P43" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T43" t="n">
         <v>1.88</v>
       </c>
-      <c r="Q43" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S43" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.82</v>
-      </c>
       <c r="U43" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="V43" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W43" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y43" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z43" t="n">
         <v>23</v>
       </c>
       <c r="AA43" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB43" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC43" t="n">
         <v>7.6</v>
       </c>
       <c r="AD43" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AF43" t="n">
         <v>15</v>
@@ -6286,28 +6286,28 @@
         <v>11.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AI43" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ43" t="n">
         <v>34</v>
       </c>
       <c r="AK43" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL43" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AM43" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN43" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO43" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44">
@@ -6343,16 +6343,16 @@
         <v>1.27</v>
       </c>
       <c r="H44" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="I44" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J44" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="K44" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L44" t="n">
         <v>1.22</v>
@@ -6361,46 +6361,46 @@
         <v>1.02</v>
       </c>
       <c r="N44" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="O44" t="n">
         <v>1.12</v>
       </c>
       <c r="P44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R44" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="S44" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T44" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="U44" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="V44" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W44" t="n">
         <v>4.7</v>
       </c>
       <c r="X44" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y44" t="n">
-        <v>390</v>
+        <v>70</v>
       </c>
       <c r="Z44" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AB44" t="n">
         <v>14.5</v>
@@ -6412,7 +6412,7 @@
         <v>50</v>
       </c>
       <c r="AE44" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AF44" t="n">
         <v>10.5</v>
@@ -6421,13 +6421,13 @@
         <v>11.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI44" t="n">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="AJ44" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK44" t="n">
         <v>12.5</v>
@@ -6436,13 +6436,13 @@
         <v>29</v>
       </c>
       <c r="AM44" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="AN44" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AO44" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45">
@@ -6478,13 +6478,13 @@
         <v>2.22</v>
       </c>
       <c r="H45" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I45" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J45" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K45" t="n">
         <v>3.55</v>
@@ -6496,43 +6496,43 @@
         <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="O45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R45" t="n">
         <v>1.34</v>
       </c>
-      <c r="P45" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S45" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T45" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W45" t="n">
         <v>1.81</v>
-      </c>
-      <c r="U45" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1.82</v>
       </c>
       <c r="X45" t="n">
         <v>13</v>
       </c>
       <c r="Y45" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z45" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AA45" t="n">
         <v>190</v>
@@ -6544,10 +6544,10 @@
         <v>7.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="AF45" t="n">
         <v>13.5</v>
@@ -6556,10 +6556,10 @@
         <v>10.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AJ45" t="n">
         <v>27</v>
@@ -6571,10 +6571,10 @@
         <v>40</v>
       </c>
       <c r="AM45" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="AN45" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO45" t="n">
         <v>55</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G46" t="n">
         <v>2.54</v>
@@ -6628,7 +6628,7 @@
         <v>1.5</v>
       </c>
       <c r="M46" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N46" t="n">
         <v>3.3</v>
@@ -6637,10 +6637,10 @@
         <v>1.42</v>
       </c>
       <c r="P46" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R46" t="n">
         <v>1.28</v>
@@ -6649,19 +6649,19 @@
         <v>4.3</v>
       </c>
       <c r="T46" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U46" t="n">
         <v>2.02</v>
       </c>
       <c r="V46" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W46" t="n">
         <v>1.65</v>
       </c>
       <c r="X46" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y46" t="n">
         <v>11</v>
@@ -6670,7 +6670,7 @@
         <v>23</v>
       </c>
       <c r="AA46" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB46" t="n">
         <v>9</v>
@@ -6700,16 +6700,16 @@
         <v>36</v>
       </c>
       <c r="AK46" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL46" t="n">
         <v>48</v>
       </c>
       <c r="AM46" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN46" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO46" t="n">
         <v>46</v>
@@ -6772,7 +6772,7 @@
         <v>1.18</v>
       </c>
       <c r="P47" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q47" t="n">
         <v>1.55</v>
@@ -6826,7 +6826,7 @@
         <v>12</v>
       </c>
       <c r="AH47" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI47" t="n">
         <v>160</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.85</v>
+        <v>1.64</v>
       </c>
       <c r="G48" t="n">
         <v>2.3</v>
@@ -6886,7 +6886,7 @@
         <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>870</v>
+        <v>1000</v>
       </c>
       <c r="J48" t="n">
         <v>2.2</v>
@@ -6958,7 +6958,7 @@
         <v>1000</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH48" t="n">
         <v>500</v>
@@ -7015,16 +7015,16 @@
         <v>2.92</v>
       </c>
       <c r="G49" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H49" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I49" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J49" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K49" t="n">
         <v>4.2</v>
@@ -7060,10 +7060,10 @@
         <v>2.34</v>
       </c>
       <c r="V49" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W49" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X49" t="n">
         <v>500</v>
@@ -7084,10 +7084,10 @@
         <v>17</v>
       </c>
       <c r="AD49" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF49" t="n">
         <v>1000</v>
@@ -7147,13 +7147,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="G50" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H50" t="n">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="I50" t="n">
         <v>3.05</v>
@@ -7162,7 +7162,7 @@
         <v>3.55</v>
       </c>
       <c r="K50" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L50" t="n">
         <v>1.35</v>
@@ -7195,10 +7195,10 @@
         <v>2.32</v>
       </c>
       <c r="V50" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W50" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X50" t="n">
         <v>22</v>
@@ -7219,7 +7219,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD50" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE50" t="n">
         <v>32</v>
@@ -7285,16 +7285,16 @@
         <v>2.68</v>
       </c>
       <c r="G51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J51" t="n">
         <v>3.15</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.1</v>
       </c>
       <c r="K51" t="n">
         <v>3.65</v>
@@ -7306,7 +7306,7 @@
         <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O51" t="n">
         <v>1.31</v>
@@ -7324,22 +7324,22 @@
         <v>3.35</v>
       </c>
       <c r="T51" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U51" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V51" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W51" t="n">
         <v>1.5</v>
-      </c>
-      <c r="W51" t="n">
-        <v>1.47</v>
       </c>
       <c r="X51" t="n">
         <v>90</v>
       </c>
       <c r="Y51" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z51" t="n">
         <v>1000</v>
@@ -7351,7 +7351,7 @@
         <v>500</v>
       </c>
       <c r="AC51" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AD51" t="n">
         <v>1000</v>
@@ -7366,13 +7366,13 @@
         <v>500</v>
       </c>
       <c r="AH51" t="n">
-        <v>60</v>
+        <v>16.5</v>
       </c>
       <c r="AI51" t="n">
         <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK51" t="n">
         <v>1000</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="G52" t="n">
         <v>4.2</v>
@@ -7426,10 +7426,10 @@
         <v>1.94</v>
       </c>
       <c r="I52" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="J52" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K52" t="n">
         <v>4.3</v>
@@ -7465,25 +7465,25 @@
         <v>2.22</v>
       </c>
       <c r="V52" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="W52" t="n">
         <v>1.31</v>
       </c>
       <c r="X52" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y52" t="n">
         <v>11.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB52" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AC52" t="n">
         <v>9.4</v>
@@ -7492,13 +7492,13 @@
         <v>10.5</v>
       </c>
       <c r="AE52" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF52" t="n">
         <v>50</v>
       </c>
-      <c r="AF52" t="n">
-        <v>80</v>
-      </c>
       <c r="AG52" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AH52" t="n">
         <v>18.5</v>
@@ -7519,7 +7519,7 @@
         <v>90</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO52" t="n">
         <v>15</v>
@@ -7552,61 +7552,61 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="G53" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H53" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I53" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J53" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K53" t="n">
         <v>3.95</v>
       </c>
       <c r="L53" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M53" t="n">
         <v>1.08</v>
       </c>
       <c r="N53" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O53" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P53" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="R53" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S53" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="T53" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="U53" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="V53" t="n">
         <v>1.27</v>
       </c>
       <c r="W53" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y53" t="n">
         <v>26</v>
@@ -7618,10 +7618,10 @@
         <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD53" t="n">
         <v>46</v>
@@ -7630,25 +7630,25 @@
         <v>370</v>
       </c>
       <c r="AF53" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AG53" t="n">
         <v>11</v>
       </c>
       <c r="AH53" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK53" t="n">
         <v>65</v>
       </c>
-      <c r="AI53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>75</v>
-      </c>
       <c r="AL53" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AM53" t="n">
         <v>1000</v>
@@ -7657,7 +7657,7 @@
         <v>55</v>
       </c>
       <c r="AO53" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54">
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="G54" t="n">
         <v>2.22</v>
       </c>
       <c r="H54" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I54" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J54" t="n">
         <v>3.3</v>
@@ -7744,43 +7744,43 @@
         <v>22</v>
       </c>
       <c r="Y54" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z54" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AA54" t="n">
         <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AC54" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD54" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AE54" t="n">
         <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AG54" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AH54" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI54" t="n">
         <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AK54" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL54" t="n">
         <v>970</v>
@@ -7792,7 +7792,7 @@
         <v>55</v>
       </c>
       <c r="AO54" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55">
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="G55" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="H55" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="I55" t="n">
         <v>1.57</v>
       </c>
       <c r="J55" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K55" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L55" t="n">
         <v>1.25</v>
@@ -7852,28 +7852,28 @@
         <v>1.15</v>
       </c>
       <c r="P55" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R55" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S55" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T55" t="n">
         <v>1.65</v>
       </c>
       <c r="U55" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V55" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="W55" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X55" t="n">
         <v>970</v>
@@ -7882,7 +7882,7 @@
         <v>16.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA55" t="n">
         <v>18</v>
@@ -7894,7 +7894,7 @@
         <v>15.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE55" t="n">
         <v>15</v>
@@ -7924,7 +7924,7 @@
         <v>330</v>
       </c>
       <c r="AN55" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO55" t="n">
         <v>5.6</v>
@@ -7960,19 +7960,19 @@
         <v>2.14</v>
       </c>
       <c r="G56" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="H56" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I56" t="n">
         <v>3.35</v>
       </c>
-      <c r="I56" t="n">
-        <v>3.45</v>
-      </c>
       <c r="J56" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K56" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L56" t="n">
         <v>1.27</v>
@@ -7996,28 +7996,28 @@
         <v>1.75</v>
       </c>
       <c r="S56" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T56" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U56" t="n">
         <v>2.78</v>
       </c>
       <c r="V56" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W56" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="X56" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y56" t="n">
         <v>22</v>
       </c>
       <c r="Z56" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AA56" t="n">
         <v>60</v>
@@ -8026,40 +8026,40 @@
         <v>17.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE56" t="n">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="AF56" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK56" t="n">
         <v>20</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>23</v>
       </c>
       <c r="AL56" t="n">
         <v>25</v>
       </c>
       <c r="AM56" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="AN56" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO56" t="n">
         <v>18</v>
@@ -8092,10 +8092,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G57" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H57" t="n">
         <v>4.7</v>
@@ -8107,34 +8107,34 @@
         <v>3.65</v>
       </c>
       <c r="K57" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L57" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M57" t="n">
         <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O57" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P57" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R57" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S57" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T57" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="U57" t="n">
         <v>1.9</v>
@@ -8146,37 +8146,37 @@
         <v>2.08</v>
       </c>
       <c r="X57" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA57" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AB57" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC57" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD57" t="n">
-        <v>19.5</v>
+        <v>46</v>
       </c>
       <c r="AE57" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG57" t="n">
         <v>11</v>
       </c>
       <c r="AH57" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AI57" t="n">
         <v>80</v>
@@ -8188,16 +8188,16 @@
         <v>21</v>
       </c>
       <c r="AL57" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM57" t="n">
         <v>140</v>
       </c>
       <c r="AN57" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO57" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58">
@@ -8230,49 +8230,49 @@
         <v>3.6</v>
       </c>
       <c r="G58" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H58" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="I58" t="n">
         <v>2.34</v>
       </c>
       <c r="J58" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K58" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L58" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M58" t="n">
         <v>1.11</v>
       </c>
       <c r="N58" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="O58" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P58" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="R58" t="n">
         <v>1.25</v>
       </c>
       <c r="S58" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T58" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U58" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V58" t="n">
         <v>1.75</v>
@@ -8281,10 +8281,10 @@
         <v>1.3</v>
       </c>
       <c r="X58" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Y58" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z58" t="n">
         <v>970</v>
@@ -8296,7 +8296,7 @@
         <v>1000</v>
       </c>
       <c r="AC58" t="n">
-        <v>8.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD58" t="n">
         <v>34</v>
@@ -8308,7 +8308,7 @@
         <v>1000</v>
       </c>
       <c r="AG58" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH58" t="n">
         <v>160</v>
@@ -8362,13 +8362,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G59" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H59" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I59" t="n">
         <v>2.4</v>
@@ -8386,10 +8386,10 @@
         <v>1.09</v>
       </c>
       <c r="N59" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O59" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P59" t="n">
         <v>1.72</v>
@@ -8404,10 +8404,10 @@
         <v>4.3</v>
       </c>
       <c r="T59" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U59" t="n">
         <v>1.92</v>
-      </c>
-      <c r="U59" t="n">
-        <v>1.94</v>
       </c>
       <c r="V59" t="n">
         <v>1.71</v>
@@ -8419,13 +8419,13 @@
         <v>11.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z59" t="n">
         <v>15</v>
       </c>
       <c r="AA59" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB59" t="n">
         <v>12</v>
@@ -8437,7 +8437,7 @@
         <v>12</v>
       </c>
       <c r="AE59" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AF59" t="n">
         <v>25</v>
@@ -8449,22 +8449,22 @@
         <v>21</v>
       </c>
       <c r="AI59" t="n">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="AJ59" t="n">
         <v>900</v>
       </c>
       <c r="AK59" t="n">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="AL59" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AM59" t="n">
         <v>580</v>
       </c>
       <c r="AN59" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AO59" t="n">
         <v>27</v>
@@ -8497,37 +8497,37 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="G60" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H60" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="I60" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="J60" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K60" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L60" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M60" t="n">
         <v>1.05</v>
       </c>
       <c r="N60" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O60" t="n">
         <v>1.24</v>
       </c>
       <c r="P60" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q60" t="n">
         <v>1.76</v>
@@ -8536,25 +8536,25 @@
         <v>1.47</v>
       </c>
       <c r="S60" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T60" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U60" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V60" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W60" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X60" t="n">
         <v>46</v>
       </c>
       <c r="Y60" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z60" t="n">
         <v>500</v>
@@ -8563,25 +8563,25 @@
         <v>970</v>
       </c>
       <c r="AB60" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AC60" t="n">
         <v>8.6</v>
       </c>
       <c r="AD60" t="n">
-        <v>500</v>
+        <v>14</v>
       </c>
       <c r="AE60" t="n">
         <v>970</v>
       </c>
       <c r="AF60" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AG60" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="AH60" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AI60" t="n">
         <v>970</v>
@@ -8590,16 +8590,16 @@
         <v>970</v>
       </c>
       <c r="AK60" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AL60" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AM60" t="n">
         <v>580</v>
       </c>
       <c r="AN60" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AO60" t="n">
         <v>55</v>
@@ -8632,13 +8632,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="G61" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="H61" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="I61" t="n">
         <v>1.43</v>
@@ -8647,85 +8647,85 @@
         <v>5</v>
       </c>
       <c r="K61" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="L61" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M61" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N61" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="O61" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P61" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="R61" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="S61" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="T61" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="U61" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V61" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W61" t="n">
         <v>1.11</v>
       </c>
       <c r="X61" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Y61" t="n">
-        <v>19</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z61" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AA61" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AB61" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AC61" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="AD61" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AE61" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AF61" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AG61" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AH61" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AI61" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AK61" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AL61" t="n">
         <v>470</v>
@@ -8734,10 +8734,10 @@
         <v>390</v>
       </c>
       <c r="AN61" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AO61" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="62">
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G62" t="n">
         <v>2.14</v>
@@ -8776,13 +8776,13 @@
         <v>4.2</v>
       </c>
       <c r="I62" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J62" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K62" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L62" t="n">
         <v>1.51</v>
@@ -8797,70 +8797,70 @@
         <v>1.45</v>
       </c>
       <c r="P62" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q62" t="n">
         <v>2.34</v>
       </c>
       <c r="R62" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S62" t="n">
         <v>4.5</v>
       </c>
       <c r="T62" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U62" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V62" t="n">
         <v>1.3</v>
       </c>
       <c r="W62" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="X62" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y62" t="n">
         <v>26</v>
       </c>
       <c r="Z62" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA62" t="n">
         <v>1000</v>
       </c>
       <c r="AB62" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC62" t="n">
         <v>7.8</v>
       </c>
       <c r="AD62" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AE62" t="n">
         <v>1000</v>
       </c>
       <c r="AF62" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG62" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH62" t="n">
         <v>60</v>
       </c>
       <c r="AI62" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="AJ62" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AK62" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL62" t="n">
         <v>1000</v>
@@ -8872,7 +8872,7 @@
         <v>55</v>
       </c>
       <c r="AO62" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="63">
@@ -8905,7 +8905,7 @@
         <v>1.68</v>
       </c>
       <c r="G63" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H63" t="n">
         <v>5.7</v>
@@ -8953,13 +8953,13 @@
         <v>1.19</v>
       </c>
       <c r="W63" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="X63" t="n">
         <v>15</v>
       </c>
       <c r="Y63" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="Z63" t="n">
         <v>1000</v>
@@ -8974,7 +8974,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD63" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AE63" t="n">
         <v>1000</v>
@@ -8986,7 +8986,7 @@
         <v>10.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AI63" t="n">
         <v>1000</v>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G64" t="n">
         <v>2.84</v>
@@ -9046,7 +9046,7 @@
         <v>2.92</v>
       </c>
       <c r="I64" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
         <v>3.15</v>
@@ -9061,7 +9061,7 @@
         <v>1.1</v>
       </c>
       <c r="N64" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O64" t="n">
         <v>1.43</v>
@@ -9079,13 +9079,13 @@
         <v>4.3</v>
       </c>
       <c r="T64" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U64" t="n">
         <v>1.94</v>
       </c>
       <c r="V64" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W64" t="n">
         <v>1.54</v>
@@ -9097,7 +9097,7 @@
         <v>10.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA64" t="n">
         <v>55</v>
@@ -9121,7 +9121,7 @@
         <v>13.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI64" t="n">
         <v>60</v>
@@ -9133,7 +9133,7 @@
         <v>38</v>
       </c>
       <c r="AL64" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AM64" t="n">
         <v>500</v>
@@ -9172,16 +9172,16 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="G65" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="H65" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="I65" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="J65" t="n">
         <v>3.45</v>
@@ -9307,13 +9307,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G66" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H66" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I66" t="n">
         <v>8.4</v>
@@ -9325,34 +9325,34 @@
         <v>4.7</v>
       </c>
       <c r="L66" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M66" t="n">
         <v>1.06</v>
       </c>
       <c r="N66" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O66" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P66" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R66" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S66" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T66" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U66" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="V66" t="n">
         <v>1.13</v>
@@ -9361,7 +9361,7 @@
         <v>2.96</v>
       </c>
       <c r="X66" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y66" t="n">
         <v>25</v>
@@ -9373,7 +9373,7 @@
         <v>280</v>
       </c>
       <c r="AB66" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC66" t="n">
         <v>10</v>
@@ -9391,10 +9391,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH66" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI66" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ66" t="n">
         <v>12.5</v>
@@ -9403,16 +9403,16 @@
         <v>15.5</v>
       </c>
       <c r="AL66" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM66" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN66" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO66" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67">
@@ -9442,22 +9442,22 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G67" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I67" t="n">
         <v>4.1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>4.2</v>
       </c>
       <c r="J67" t="n">
         <v>3.65</v>
       </c>
       <c r="K67" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L67" t="n">
         <v>1.4</v>
@@ -9484,16 +9484,16 @@
         <v>3.3</v>
       </c>
       <c r="T67" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U67" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V67" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W67" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="X67" t="n">
         <v>15.5</v>
@@ -9532,13 +9532,13 @@
         <v>55</v>
       </c>
       <c r="AJ67" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="AK67" t="n">
         <v>21</v>
       </c>
       <c r="AL67" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM67" t="n">
         <v>90</v>
@@ -9577,94 +9577,94 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="G68" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H68" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="I68" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="J68" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="K68" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L68" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M68" t="n">
         <v>1.02</v>
       </c>
       <c r="N68" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O68" t="n">
         <v>1.11</v>
       </c>
       <c r="P68" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="R68" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="S68" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="T68" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="U68" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="V68" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="W68" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="X68" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Y68" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
       <c r="Z68" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AA68" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="AB68" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC68" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AD68" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE68" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="AF68" t="n">
         <v>11.5</v>
       </c>
       <c r="AG68" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI68" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AJ68" t="n">
         <v>11</v>
@@ -9673,16 +9673,16 @@
         <v>13.5</v>
       </c>
       <c r="AL68" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM68" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AN68" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="AO68" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69">
@@ -9715,7 +9715,7 @@
         <v>3.9</v>
       </c>
       <c r="G69" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H69" t="n">
         <v>1.9</v>
@@ -9739,13 +9739,13 @@
         <v>4.4</v>
       </c>
       <c r="O69" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P69" t="n">
         <v>2.16</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R69" t="n">
         <v>1.47</v>
@@ -9805,10 +9805,10 @@
         <v>1000</v>
       </c>
       <c r="AK69" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AL69" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AM69" t="n">
         <v>95</v>
@@ -9859,7 +9859,7 @@
         <v>1.9</v>
       </c>
       <c r="J70" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K70" t="n">
         <v>3.9</v>
@@ -9952,7 +9952,7 @@
         <v>65</v>
       </c>
       <c r="AO70" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -9982,64 +9982,64 @@
         </is>
       </c>
       <c r="F71" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G71" t="n">
         <v>1.69</v>
       </c>
-      <c r="G71" t="n">
-        <v>1.7</v>
-      </c>
       <c r="H71" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I71" t="n">
         <v>6.6</v>
       </c>
       <c r="J71" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K71" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L71" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="M71" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="O71" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P71" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="R71" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="S71" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T71" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="U71" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V71" t="n">
         <v>1.17</v>
       </c>
       <c r="W71" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X71" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Y71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z71" t="n">
         <v>55</v>
@@ -10048,7 +10048,7 @@
         <v>190</v>
       </c>
       <c r="AB71" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC71" t="n">
         <v>8.800000000000001</v>
@@ -10057,37 +10057,37 @@
         <v>24</v>
       </c>
       <c r="AE71" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF71" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG71" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH71" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI71" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ71" t="n">
         <v>16.5</v>
       </c>
       <c r="AK71" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL71" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM71" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN71" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO71" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72">
@@ -10117,22 +10117,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="G72" t="n">
         <v>4.6</v>
       </c>
       <c r="H72" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I72" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J72" t="n">
         <v>3.05</v>
       </c>
       <c r="K72" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="L72" t="n">
         <v>1.55</v>
@@ -10141,7 +10141,7 @@
         <v>1.11</v>
       </c>
       <c r="N72" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O72" t="n">
         <v>1.49</v>
@@ -10156,19 +10156,19 @@
         <v>1.21</v>
       </c>
       <c r="S72" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T72" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="U72" t="n">
         <v>1.79</v>
       </c>
       <c r="V72" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W72" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X72" t="n">
         <v>11</v>
@@ -10261,13 +10261,13 @@
         <v>2.18</v>
       </c>
       <c r="I73" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J73" t="n">
         <v>3.45</v>
       </c>
       <c r="K73" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L73" t="n">
         <v>1.42</v>
@@ -10294,13 +10294,13 @@
         <v>3.5</v>
       </c>
       <c r="T73" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U73" t="n">
         <v>2.1</v>
       </c>
       <c r="V73" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="W73" t="n">
         <v>1.37</v>
@@ -10387,16 +10387,16 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G74" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H74" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I74" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J74" t="n">
         <v>3.3</v>
@@ -10411,34 +10411,34 @@
         <v>1.09</v>
       </c>
       <c r="N74" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O74" t="n">
         <v>1.39</v>
       </c>
       <c r="P74" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R74" t="n">
         <v>1.27</v>
       </c>
       <c r="S74" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T74" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U74" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V74" t="n">
         <v>1.2</v>
       </c>
       <c r="W74" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X74" t="n">
         <v>90</v>
@@ -10456,7 +10456,7 @@
         <v>29</v>
       </c>
       <c r="AC74" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD74" t="n">
         <v>150</v>
@@ -10567,7 +10567,7 @@
         <v>2.06</v>
       </c>
       <c r="U75" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V75" t="n">
         <v>1.12</v>
@@ -10606,7 +10606,7 @@
         <v>10.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AI75" t="n">
         <v>140</v>
@@ -10657,22 +10657,22 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="G76" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="H76" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="I76" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="J76" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K76" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L76" t="n">
         <v>1.46</v>
@@ -10696,19 +10696,19 @@
         <v>1.3</v>
       </c>
       <c r="S76" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T76" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U76" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="V76" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W76" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="X76" t="n">
         <v>23</v>
@@ -10729,19 +10729,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD76" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE76" t="n">
         <v>1000</v>
       </c>
       <c r="AF76" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AG76" t="n">
         <v>11</v>
       </c>
       <c r="AH76" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AI76" t="n">
         <v>1000</v>
@@ -10759,7 +10759,7 @@
         <v>1000</v>
       </c>
       <c r="AN76" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AO76" t="n">
         <v>1000</v>
@@ -10792,16 +10792,16 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G77" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="H77" t="n">
+        <v>7</v>
+      </c>
+      <c r="I77" t="n">
         <v>7.2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>7.4</v>
       </c>
       <c r="J77" t="n">
         <v>4.1</v>
@@ -10810,7 +10810,7 @@
         <v>4.2</v>
       </c>
       <c r="L77" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M77" t="n">
         <v>1.07</v>
@@ -10822,28 +10822,28 @@
         <v>1.36</v>
       </c>
       <c r="P77" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q77" t="n">
         <v>2.08</v>
       </c>
       <c r="R77" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S77" t="n">
         <v>3.8</v>
       </c>
       <c r="T77" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U77" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V77" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W77" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="X77" t="n">
         <v>14</v>
@@ -10852,31 +10852,31 @@
         <v>21</v>
       </c>
       <c r="Z77" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA77" t="n">
         <v>230</v>
       </c>
       <c r="AB77" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC77" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD77" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE77" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AF77" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG77" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH77" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI77" t="n">
         <v>110</v>
@@ -10897,7 +10897,7 @@
         <v>10.5</v>
       </c>
       <c r="AO77" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78">
@@ -10936,13 +10936,13 @@
         <v>21</v>
       </c>
       <c r="I78" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J78" t="n">
         <v>7.8</v>
       </c>
       <c r="K78" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L78" t="n">
         <v>1.32</v>
@@ -10957,19 +10957,19 @@
         <v>1.22</v>
       </c>
       <c r="P78" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q78" t="n">
         <v>1.66</v>
       </c>
       <c r="R78" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S78" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="T78" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="U78" t="n">
         <v>1.58</v>
@@ -11005,19 +11005,19 @@
         <v>1000</v>
       </c>
       <c r="AF78" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AG78" t="n">
         <v>12</v>
       </c>
       <c r="AH78" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI78" t="n">
         <v>1000</v>
       </c>
       <c r="AJ78" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AK78" t="n">
         <v>1000</v>
@@ -11029,7 +11029,7 @@
         <v>1000</v>
       </c>
       <c r="AN78" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO78" t="n">
         <v>1000</v>
@@ -11065,7 +11065,7 @@
         <v>2.94</v>
       </c>
       <c r="G79" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H79" t="n">
         <v>2.82</v>
@@ -11101,7 +11101,7 @@
         <v>1.29</v>
       </c>
       <c r="S79" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T79" t="n">
         <v>1.79</v>
@@ -11113,7 +11113,7 @@
         <v>1.5</v>
       </c>
       <c r="W79" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X79" t="n">
         <v>21</v>
@@ -11122,10 +11122,10 @@
         <v>11</v>
       </c>
       <c r="Z79" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA79" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB79" t="n">
         <v>12</v>
@@ -11146,13 +11146,13 @@
         <v>970</v>
       </c>
       <c r="AH79" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI79" t="n">
         <v>1000</v>
       </c>
       <c r="AJ79" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK79" t="n">
         <v>1000</v>
@@ -11197,85 +11197,85 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G80" t="n">
         <v>2.22</v>
       </c>
       <c r="H80" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I80" t="n">
         <v>4.3</v>
       </c>
       <c r="J80" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K80" t="n">
         <v>3.3</v>
       </c>
       <c r="L80" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M80" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N80" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O80" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P80" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R80" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S80" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T80" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U80" t="n">
         <v>1.96</v>
       </c>
       <c r="V80" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W80" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="X80" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y80" t="n">
         <v>12.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA80" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB80" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC80" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD80" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE80" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF80" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG80" t="n">
         <v>11</v>
@@ -11284,7 +11284,7 @@
         <v>21</v>
       </c>
       <c r="AI80" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ80" t="n">
         <v>29</v>
@@ -11293,16 +11293,16 @@
         <v>27</v>
       </c>
       <c r="AL80" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM80" t="n">
         <v>580</v>
       </c>
       <c r="AN80" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AO80" t="n">
-        <v>85</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81">
@@ -11332,13 +11332,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G81" t="n">
         <v>2.94</v>
       </c>
       <c r="H81" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I81" t="n">
         <v>2.98</v>
@@ -11359,7 +11359,7 @@
         <v>3.6</v>
       </c>
       <c r="O81" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P81" t="n">
         <v>1.86</v>
@@ -11467,112 +11467,112 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="G82" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="H82" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I82" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="J82" t="n">
+        <v>4</v>
+      </c>
+      <c r="K82" t="n">
         <v>4.1</v>
       </c>
-      <c r="K82" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L82" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M82" t="n">
         <v>1.04</v>
       </c>
       <c r="N82" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O82" t="n">
         <v>1.18</v>
       </c>
       <c r="P82" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R82" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="S82" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="T82" t="n">
         <v>1.53</v>
       </c>
       <c r="U82" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="V82" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W82" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="X82" t="n">
         <v>26</v>
       </c>
       <c r="Y82" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA82" t="n">
         <v>55</v>
       </c>
       <c r="AB82" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC82" t="n">
         <v>9.6</v>
       </c>
       <c r="AD82" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE82" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF82" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG82" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH82" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI82" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ82" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK82" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AL82" t="n">
         <v>25</v>
       </c>
       <c r="AM82" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AN82" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AO82" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
@@ -11602,16 +11602,16 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="G83" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="H83" t="n">
         <v>1.31</v>
       </c>
       <c r="I83" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="J83" t="n">
         <v>6</v>
@@ -11632,19 +11632,19 @@
         <v>1.27</v>
       </c>
       <c r="P83" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q83" t="n">
         <v>1.81</v>
       </c>
       <c r="R83" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S83" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T83" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="U83" t="n">
         <v>1.63</v>
@@ -11656,7 +11656,7 @@
         <v>1.07</v>
       </c>
       <c r="X83" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y83" t="n">
         <v>7.8</v>
@@ -11680,31 +11680,31 @@
         <v>16</v>
       </c>
       <c r="AF83" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AG83" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH83" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI83" t="n">
         <v>50</v>
       </c>
       <c r="AJ83" t="n">
-        <v>850</v>
+        <v>680</v>
       </c>
       <c r="AK83" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AL83" t="n">
         <v>270</v>
       </c>
       <c r="AM83" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="AN83" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AO83" t="n">
         <v>5.9</v>
@@ -11737,28 +11737,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G84" t="n">
         <v>11</v>
       </c>
       <c r="H84" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="I84" t="n">
         <v>1.44</v>
       </c>
       <c r="J84" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K84" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L84" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M84" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N84" t="n">
         <v>4.2</v>
@@ -11776,13 +11776,13 @@
         <v>1.41</v>
       </c>
       <c r="S84" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T84" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="U84" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V84" t="n">
         <v>3.25</v>
@@ -11794,13 +11794,13 @@
         <v>21</v>
       </c>
       <c r="Y84" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z84" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AA84" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AB84" t="n">
         <v>70</v>
@@ -11821,28 +11821,28 @@
         <v>980</v>
       </c>
       <c r="AH84" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AI84" t="n">
         <v>980</v>
       </c>
       <c r="AJ84" t="n">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="AK84" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AL84" t="n">
         <v>520</v>
       </c>
       <c r="AM84" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN84" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AO84" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="85">
@@ -11875,55 +11875,55 @@
         <v>1.27</v>
       </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="H85" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J85" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="K85" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="L85" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="M85" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="O85" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P85" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="R85" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="S85" t="n">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="T85" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="U85" t="n">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="V85" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W85" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="X85" t="n">
         <v>1000</v>
@@ -11938,7 +11938,7 @@
         <v>1000</v>
       </c>
       <c r="AB85" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC85" t="n">
         <v>30</v>
@@ -11950,7 +11950,7 @@
         <v>1000</v>
       </c>
       <c r="AF85" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG85" t="n">
         <v>17</v>
@@ -11962,10 +11962,10 @@
         <v>1000</v>
       </c>
       <c r="AJ85" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AK85" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AL85" t="n">
         <v>1000</v>
@@ -11974,7 +11974,7 @@
         <v>1000</v>
       </c>
       <c r="AN85" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="AO85" t="n">
         <v>1000</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G86" t="n">
         <v>10.5</v>
@@ -12019,10 +12019,10 @@
         <v>1.42</v>
       </c>
       <c r="J86" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K86" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L86" t="n">
         <v>1.35</v>
@@ -12031,22 +12031,22 @@
         <v>1.05</v>
       </c>
       <c r="N86" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O86" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P86" t="n">
         <v>2.24</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R86" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S86" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T86" t="n">
         <v>2.06</v>
@@ -12067,7 +12067,7 @@
         <v>8.6</v>
       </c>
       <c r="Z86" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AA86" t="n">
         <v>12</v>
@@ -12091,25 +12091,25 @@
         <v>36</v>
       </c>
       <c r="AH86" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI86" t="n">
         <v>40</v>
       </c>
       <c r="AJ86" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="AK86" t="n">
         <v>160</v>
       </c>
       <c r="AL86" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM86" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN86" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="AO86" t="n">
         <v>6.2</v>
@@ -12160,28 +12160,28 @@
         <v>3.4</v>
       </c>
       <c r="L87" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M87" t="n">
         <v>1.09</v>
       </c>
       <c r="N87" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O87" t="n">
         <v>1.42</v>
       </c>
       <c r="P87" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="R87" t="n">
         <v>1.28</v>
       </c>
       <c r="S87" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T87" t="n">
         <v>1.93</v>
@@ -12241,10 +12241,10 @@
         <v>48</v>
       </c>
       <c r="AM87" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN87" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO87" t="n">
         <v>48</v>
@@ -12277,19 +12277,19 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="G88" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="H88" t="n">
         <v>3.25</v>
       </c>
       <c r="I88" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J88" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K88" t="n">
         <v>2.9</v>
@@ -12301,22 +12301,22 @@
         <v>1.18</v>
       </c>
       <c r="N88" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O88" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="P88" t="n">
         <v>1.39</v>
       </c>
       <c r="Q88" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R88" t="n">
         <v>1.13</v>
       </c>
       <c r="S88" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="T88" t="n">
         <v>2.5</v>
@@ -12325,34 +12325,34 @@
         <v>1.61</v>
       </c>
       <c r="V88" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W88" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X88" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="Y88" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z88" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA88" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AB88" t="n">
         <v>7.2</v>
       </c>
       <c r="AC88" t="n">
-        <v>7.2</v>
+        <v>14</v>
       </c>
       <c r="AD88" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AE88" t="n">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="AF88" t="n">
         <v>17.5</v>
@@ -12361,28 +12361,28 @@
         <v>16</v>
       </c>
       <c r="AH88" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI88" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AJ88" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AK88" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AL88" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="AM88" t="n">
         <v>410</v>
       </c>
       <c r="AN88" t="n">
-        <v>85</v>
+        <v>600</v>
       </c>
       <c r="AO88" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="89">
@@ -12424,7 +12424,7 @@
         <v>11.5</v>
       </c>
       <c r="J89" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K89" t="n">
         <v>6.4</v>
@@ -12433,37 +12433,37 @@
         <v>1.25</v>
       </c>
       <c r="M89" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N89" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O89" t="n">
         <v>1.16</v>
       </c>
       <c r="P89" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R89" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S89" t="n">
         <v>2.22</v>
       </c>
       <c r="T89" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U89" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V89" t="n">
         <v>1.1</v>
       </c>
       <c r="W89" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="X89" t="n">
         <v>32</v>
@@ -12478,10 +12478,10 @@
         <v>330</v>
       </c>
       <c r="AB89" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC89" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD89" t="n">
         <v>38</v>
@@ -12490,34 +12490,34 @@
         <v>140</v>
       </c>
       <c r="AF89" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG89" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI89" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="n">
         <v>11.5</v>
       </c>
       <c r="AK89" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL89" t="n">
         <v>32</v>
       </c>
       <c r="AM89" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AN89" t="n">
         <v>4.1</v>
       </c>
       <c r="AO89" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90">
@@ -12547,25 +12547,25 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="G90" t="n">
         <v>1.93</v>
       </c>
       <c r="H90" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I90" t="n">
         <v>4.8</v>
       </c>
       <c r="J90" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K90" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L90" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M90" t="n">
         <v>1.03</v>
@@ -12580,13 +12580,13 @@
         <v>2.48</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R90" t="n">
         <v>1.59</v>
       </c>
       <c r="S90" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T90" t="n">
         <v>1.57</v>
@@ -12595,7 +12595,7 @@
         <v>2.46</v>
       </c>
       <c r="V90" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W90" t="n">
         <v>2.06</v>
@@ -12616,7 +12616,7 @@
         <v>15</v>
       </c>
       <c r="AC90" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD90" t="n">
         <v>20</v>
@@ -12637,7 +12637,7 @@
         <v>55</v>
       </c>
       <c r="AJ90" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK90" t="n">
         <v>20</v>
@@ -12688,7 +12688,7 @@
         <v>2.16</v>
       </c>
       <c r="H91" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I91" t="n">
         <v>4.4</v>
@@ -12700,13 +12700,13 @@
         <v>3.35</v>
       </c>
       <c r="L91" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M91" t="n">
         <v>1.09</v>
       </c>
       <c r="N91" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O91" t="n">
         <v>1.41</v>
@@ -12727,7 +12727,7 @@
         <v>1.95</v>
       </c>
       <c r="U91" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V91" t="n">
         <v>1.29</v>
@@ -12745,7 +12745,7 @@
         <v>32</v>
       </c>
       <c r="AA91" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB91" t="n">
         <v>8.6</v>
@@ -12826,10 +12826,10 @@
         <v>17</v>
       </c>
       <c r="I92" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="J92" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K92" t="n">
         <v>10.5</v>
@@ -12853,10 +12853,10 @@
         <v>1.26</v>
       </c>
       <c r="R92" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S92" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="T92" t="n">
         <v>1.79</v>
@@ -12865,10 +12865,10 @@
         <v>2.1</v>
       </c>
       <c r="V92" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W92" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X92" t="n">
         <v>75</v>
@@ -12880,13 +12880,13 @@
         <v>210</v>
       </c>
       <c r="AA92" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="AB92" t="n">
         <v>19</v>
       </c>
       <c r="AC92" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD92" t="n">
         <v>60</v>
@@ -12916,10 +12916,10 @@
         <v>29</v>
       </c>
       <c r="AM92" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN92" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="AO92" t="n">
         <v>180</v>
@@ -12955,13 +12955,13 @@
         <v>1.64</v>
       </c>
       <c r="G93" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="H93" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I93" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J93" t="n">
         <v>4</v>
@@ -12976,55 +12976,55 @@
         <v>1.08</v>
       </c>
       <c r="N93" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O93" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P93" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R93" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S93" t="n">
         <v>3.75</v>
       </c>
       <c r="T93" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U93" t="n">
         <v>1.89</v>
       </c>
       <c r="V93" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W93" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="X93" t="n">
         <v>13.5</v>
       </c>
       <c r="Y93" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z93" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA93" t="n">
         <v>210</v>
       </c>
       <c r="AB93" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC93" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD93" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE93" t="n">
         <v>110</v>
@@ -13051,13 +13051,13 @@
         <v>40</v>
       </c>
       <c r="AM93" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN93" t="n">
         <v>10.5</v>
       </c>
       <c r="AO93" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94">
@@ -13087,22 +13087,22 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G94" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="H94" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I94" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J94" t="n">
         <v>4</v>
       </c>
       <c r="K94" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L94" t="n">
         <v>1.39</v>
@@ -13114,85 +13114,85 @@
         <v>4.1</v>
       </c>
       <c r="O94" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P94" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R94" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S94" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T94" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U94" t="n">
         <v>2.06</v>
       </c>
       <c r="V94" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W94" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X94" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y94" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH94" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA94" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB94" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC94" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD94" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF94" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG94" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH94" t="n">
-        <v>21</v>
       </c>
       <c r="AI94" t="n">
         <v>75</v>
       </c>
       <c r="AJ94" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK94" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL94" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM94" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN94" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO94" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95">
@@ -13222,16 +13222,16 @@
         </is>
       </c>
       <c r="F95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G95" t="n">
         <v>2.22</v>
       </c>
-      <c r="G95" t="n">
-        <v>2.24</v>
-      </c>
       <c r="H95" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I95" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J95" t="n">
         <v>3.35</v>
@@ -13252,7 +13252,7 @@
         <v>1.45</v>
       </c>
       <c r="P95" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q95" t="n">
         <v>2.38</v>
@@ -13261,22 +13261,22 @@
         <v>1.26</v>
       </c>
       <c r="S95" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T95" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U95" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="V95" t="n">
         <v>1.33</v>
       </c>
       <c r="W95" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X95" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y95" t="n">
         <v>12</v>
@@ -13285,7 +13285,7 @@
         <v>25</v>
       </c>
       <c r="AA95" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB95" t="n">
         <v>7.8</v>
@@ -13294,13 +13294,13 @@
         <v>7.2</v>
       </c>
       <c r="AD95" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE95" t="n">
         <v>55</v>
       </c>
       <c r="AF95" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG95" t="n">
         <v>11</v>
@@ -13309,7 +13309,7 @@
         <v>21</v>
       </c>
       <c r="AI95" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ95" t="n">
         <v>28</v>
@@ -13321,7 +13321,7 @@
         <v>48</v>
       </c>
       <c r="AM95" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN95" t="n">
         <v>24</v>
@@ -13357,7 +13357,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G96" t="n">
         <v>1.79</v>
@@ -13366,7 +13366,7 @@
         <v>5</v>
       </c>
       <c r="I96" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J96" t="n">
         <v>4</v>
@@ -13375,22 +13375,22 @@
         <v>4.3</v>
       </c>
       <c r="L96" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M96" t="n">
         <v>1.05</v>
       </c>
       <c r="N96" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O96" t="n">
         <v>1.26</v>
       </c>
       <c r="P96" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R96" t="n">
         <v>1.47</v>
@@ -13399,19 +13399,19 @@
         <v>3</v>
       </c>
       <c r="T96" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U96" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V96" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W96" t="n">
         <v>2.26</v>
       </c>
       <c r="X96" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y96" t="n">
         <v>19.5</v>
@@ -13423,19 +13423,19 @@
         <v>140</v>
       </c>
       <c r="AB96" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC96" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD96" t="n">
         <v>20</v>
       </c>
       <c r="AE96" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF96" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG96" t="n">
         <v>10.5</v>
@@ -13444,7 +13444,7 @@
         <v>18.5</v>
       </c>
       <c r="AI96" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ96" t="n">
         <v>19</v>
@@ -13459,10 +13459,10 @@
         <v>90</v>
       </c>
       <c r="AN96" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AO96" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97">
@@ -13478,7 +13478,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>20:07:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -13492,13 +13492,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G97" t="n">
         <v>1.94</v>
       </c>
       <c r="H97" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I97" t="n">
         <v>4.6</v>
@@ -13552,7 +13552,7 @@
         <v>16.5</v>
       </c>
       <c r="Z97" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AA97" t="n">
         <v>900</v>
@@ -13564,10 +13564,10 @@
         <v>8.6</v>
       </c>
       <c r="AD97" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE97" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AF97" t="n">
         <v>12</v>
@@ -13579,7 +13579,7 @@
         <v>19</v>
       </c>
       <c r="AI97" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="AJ97" t="n">
         <v>22</v>
@@ -13588,10 +13588,10 @@
         <v>21</v>
       </c>
       <c r="AL97" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AM97" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN97" t="n">
         <v>13.5</v>
@@ -13636,7 +13636,7 @@
         <v>1.85</v>
       </c>
       <c r="I98" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J98" t="n">
         <v>3.95</v>
@@ -13675,7 +13675,7 @@
         <v>2.2</v>
       </c>
       <c r="V98" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W98" t="n">
         <v>1.28</v>
@@ -13762,16 +13762,16 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="G99" t="n">
         <v>4.1</v>
       </c>
       <c r="H99" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="J99" t="n">
         <v>4</v>
@@ -13900,58 +13900,58 @@
         <v>2.46</v>
       </c>
       <c r="G100" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H100" t="n">
         <v>2.84</v>
       </c>
       <c r="I100" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J100" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K100" t="n">
         <v>4.1</v>
       </c>
       <c r="L100" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M100" t="n">
         <v>1.04</v>
       </c>
       <c r="N100" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O100" t="n">
         <v>1.22</v>
       </c>
       <c r="P100" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="R100" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S100" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="T100" t="n">
         <v>1.6</v>
       </c>
       <c r="U100" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="V100" t="n">
         <v>1.52</v>
       </c>
       <c r="W100" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X100" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y100" t="n">
         <v>16</v>
@@ -13963,10 +13963,10 @@
         <v>44</v>
       </c>
       <c r="AB100" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC100" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD100" t="n">
         <v>13</v>
@@ -13987,7 +13987,7 @@
         <v>34</v>
       </c>
       <c r="AJ100" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK100" t="n">
         <v>24</v>
@@ -13999,10 +13999,10 @@
         <v>65</v>
       </c>
       <c r="AN100" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO100" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.21</v>
+        <v>1.69</v>
       </c>
       <c r="G2" t="n">
-        <v>1.22</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>46</v>
+        <v>6.4</v>
       </c>
       <c r="J2" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>2.66</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.29</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.2</v>
+        <v>2.18</v>
       </c>
       <c r="R2" t="n">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="X2" t="n">
         <v>13.5</v>
       </c>
-      <c r="T2" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.74</v>
+        <v>7.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.4</v>
+        <v>9.4</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Santos Laguna</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.56</v>
+        <v>3.9</v>
       </c>
       <c r="G3" t="n">
-        <v>2.58</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>5.6</v>
+        <v>1.98</v>
       </c>
       <c r="I3" t="n">
-        <v>5.7</v>
+        <v>2.04</v>
       </c>
       <c r="J3" t="n">
-        <v>2.28</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.32</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>1.43</v>
+        <v>5.1</v>
       </c>
       <c r="O3" t="n">
-        <v>3.3</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>1.12</v>
+        <v>2.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.800000000000001</v>
+        <v>1.68</v>
       </c>
       <c r="R3" t="n">
-        <v>1.02</v>
+        <v>1.55</v>
       </c>
       <c r="S3" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN3" t="n">
         <v>34</v>
       </c>
-      <c r="T3" t="n">
-        <v>5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>390</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>520</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>160</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>310</v>
-      </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Leon</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>70</v>
+        <v>4.5</v>
       </c>
       <c r="G4" t="n">
-        <v>140</v>
+        <v>4.7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.07</v>
+        <v>1.88</v>
       </c>
       <c r="I4" t="n">
-        <v>1.08</v>
+        <v>1.92</v>
       </c>
       <c r="J4" t="n">
-        <v>13.5</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG4" t="n">
         <v>18.5</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH4" t="n">
-        <v>7.2</v>
+        <v>18.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AN4" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Australian A-League Men</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,666 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:02:47</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FC Groningen</t>
+          <t>Wellington Phoenix</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="G5" t="n">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="H5" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.2</v>
       </c>
-      <c r="I5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.58</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.31</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>1.72</v>
+        <v>5.9</v>
       </c>
       <c r="O5" t="n">
-        <v>2.34</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>1.22</v>
+        <v>2.62</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.3</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
-        <v>1.05</v>
+        <v>1.66</v>
       </c>
       <c r="S5" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X5" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF5" t="n">
         <v>19.5</v>
       </c>
-      <c r="T5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>13</v>
-      </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="AI5" t="n">
-        <v>450</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
         <v>55</v>
       </c>
-      <c r="AK5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>300</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN5" t="n">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-01-10</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Guadalajara</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Pachuca</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X6" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>320</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-01-10</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Santos Laguna</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Necaxa</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X7" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-01-10</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Leon</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Cruz Azul</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Australian A-League Men</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-01-10</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Wellington Phoenix</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Adelaide United</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X9" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Santos Laguna</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.69</v>
+        <v>17.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>1.22</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>8.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.05</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="S2" t="n">
-        <v>4.1</v>
+        <v>1.06</v>
       </c>
       <c r="T2" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>5.5</v>
       </c>
       <c r="W2" t="n">
-        <v>2.42</v>
+        <v>1.05</v>
       </c>
       <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM2" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>190</v>
-      </c>
       <c r="AN2" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AO2" t="n">
-        <v>190</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="3">
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Santos Laguna</t>
+          <t>Leon</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="I3" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>2.48</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.19</v>
       </c>
       <c r="N3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y3" t="n">
         <v>5.1</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X3" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB3" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AF3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG3" t="n">
         <v>32</v>
       </c>
-      <c r="AG3" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AH3" t="n">
-        <v>16.5</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="AK3" t="n">
+        <v>190</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>260</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>510</v>
+      </c>
+      <c r="AO3" t="n">
         <v>42</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>10.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Australian A-League Men</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,261 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Leon</t>
+          <t>Wellington Phoenix</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.5</v>
+        <v>2.74</v>
       </c>
       <c r="G4" t="n">
-        <v>4.7</v>
+        <v>2.76</v>
       </c>
       <c r="H4" t="n">
-        <v>1.88</v>
+        <v>2.58</v>
       </c>
       <c r="I4" t="n">
-        <v>1.92</v>
+        <v>2.62</v>
       </c>
       <c r="J4" t="n">
         <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>2.08</v>
+        <v>2.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.87</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>2.46</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>2.8</v>
       </c>
       <c r="V4" t="n">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>1.27</v>
+        <v>1.56</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AB4" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AK4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
         <v>55</v>
       </c>
-      <c r="AL4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>95</v>
-      </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Australian A-League Men</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-01-10</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Wellington Phoenix</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Adelaide United</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X5" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>
